--- a/python/PSYCOHORTS-registers.xlsx
+++ b/python/PSYCOHORTS-registers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="245">
   <si>
     <t>PSYCOHORTS</t>
   </si>
@@ -34,7 +34,7 @@
     <t>THL</t>
   </si>
   <si>
-    <t>Care Register for Health Care</t>
+    <t xml:space="preserve">Terveydenhuollon hoitoilmoitusrekisteri </t>
   </si>
   <si>
     <t>Erikoissairaanhoidon osastokäynnit</t>
@@ -55,7 +55,7 @@
     <t>National Institute for Health and Welfare</t>
   </si>
   <si>
-    <t>Terveydenhuollon hoitoilmoitusrekisteri</t>
+    <t>Care Register for Health Care</t>
   </si>
   <si>
     <t>Specialized care Inpatient treatments</t>
@@ -358,7 +358,10 @@
     <t>Erityiskorvattavat lääkkeet, dg 103, 205, 2011, 104</t>
   </si>
   <si>
-    <t>?-2006</t>
+    <t>1978-2006</t>
+  </si>
+  <si>
+    <t>1978-1999</t>
   </si>
   <si>
     <t>Special reimbursable medicines, dg 103, 205, 2011, 104</t>
@@ -469,7 +472,13 @@
     <t>Työeläketiedot</t>
   </si>
   <si>
-    <t>?-2016</t>
+    <t>1966-2016</t>
+  </si>
+  <si>
+    <t>1986-2016</t>
+  </si>
+  <si>
+    <t>1960-2016</t>
   </si>
   <si>
     <t>Employee pension</t>
@@ -565,7 +574,10 @@
     <t>Asumishistoria ja paikkatieto</t>
   </si>
   <si>
-    <t>?-2017</t>
+    <t>1969-2017</t>
+  </si>
+  <si>
+    <t>1986-2017</t>
   </si>
   <si>
     <t>1987-12.06.2015</t>
@@ -2940,7 +2952,7 @@
         <v>115</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
@@ -2966,7 +2978,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="45"/>
@@ -2996,7 +3008,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="67" t="s">
         <v>11</v>
@@ -3028,7 +3040,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" s="57"/>
       <c r="E51" s="45"/>
@@ -3058,19 +3070,19 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" s="67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="67"/>
       <c r="G52" s="40"/>
       <c r="H52" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I52" s="41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J52" s="48"/>
       <c r="K52" s="49"/>
@@ -3094,7 +3106,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="57"/>
       <c r="E53" s="45"/>
@@ -3124,7 +3136,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="28"/>
       <c r="C54" s="76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="77"/>
@@ -3158,7 +3170,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="28"/>
       <c r="C55" s="75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" s="65"/>
       <c r="E55" s="78"/>
@@ -3188,7 +3200,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="28"/>
       <c r="C56" s="76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" s="67"/>
       <c r="E56" s="77"/>
@@ -3220,7 +3232,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="28"/>
       <c r="C57" s="75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" s="65"/>
       <c r="E57" s="78"/>
@@ -3250,14 +3262,14 @@
       <c r="A58" s="1"/>
       <c r="B58" s="28"/>
       <c r="C58" s="76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" s="67"/>
       <c r="E58" s="77"/>
       <c r="F58" s="67"/>
       <c r="G58" s="40"/>
       <c r="H58" s="41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I58" s="41"/>
       <c r="J58" s="48"/>
@@ -3282,7 +3294,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="28"/>
       <c r="C59" s="75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="65"/>
       <c r="E59" s="78"/>
@@ -3312,7 +3324,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="28"/>
       <c r="C60" s="76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" s="67"/>
       <c r="E60" s="77"/>
@@ -3346,7 +3358,7 @@
       <c r="A61" s="1"/>
       <c r="B61" s="28"/>
       <c r="C61" s="75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" s="78"/>
@@ -3376,7 +3388,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="28"/>
       <c r="C62" s="76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="77"/>
@@ -3389,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="J62" s="62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K62" s="26" t="s">
         <v>11</v>
@@ -3414,7 +3426,7 @@
       <c r="A63" s="1"/>
       <c r="B63" s="28"/>
       <c r="C63" s="75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D63" s="65"/>
       <c r="E63" s="78"/>
@@ -3444,7 +3456,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="28"/>
       <c r="C64" s="76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D64" s="67"/>
       <c r="E64" s="77"/>
@@ -3478,7 +3490,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="28"/>
       <c r="C65" s="75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="65"/>
       <c r="E65" s="78"/>
@@ -3508,17 +3520,17 @@
       <c r="A66" s="1"/>
       <c r="B66" s="28"/>
       <c r="C66" s="76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66" s="67"/>
       <c r="E66" s="77"/>
       <c r="F66" s="67"/>
       <c r="G66" s="40"/>
       <c r="H66" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I66" s="41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J66" s="48"/>
       <c r="K66" s="49"/>
@@ -3542,7 +3554,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="28"/>
       <c r="C67" s="75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D67" s="65"/>
       <c r="E67" s="78"/>
@@ -3572,7 +3584,7 @@
       <c r="A68" s="1"/>
       <c r="B68" s="28"/>
       <c r="C68" s="76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D68" s="67"/>
       <c r="E68" s="77"/>
@@ -3606,7 +3618,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="28"/>
       <c r="C69" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D69" s="65"/>
       <c r="E69" s="78"/>
@@ -3636,7 +3648,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="28"/>
       <c r="C70" s="76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D70" s="67"/>
       <c r="E70" s="77"/>
@@ -3670,7 +3682,7 @@
       <c r="A71" s="69"/>
       <c r="B71" s="59"/>
       <c r="C71" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D71" s="65"/>
       <c r="E71" s="78"/>
@@ -3698,25 +3710,25 @@
     </row>
     <row r="72">
       <c r="A72" s="70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E72" s="79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G72" s="56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H72" s="48"/>
       <c r="I72" s="48"/>
@@ -3740,13 +3752,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="45"/>
@@ -3776,19 +3788,19 @@
       <c r="A74" s="2"/>
       <c r="B74" s="28"/>
       <c r="C74" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D74" s="67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F74" s="67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G74" s="40" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H74" s="48"/>
       <c r="I74" s="48"/>
@@ -3814,7 +3826,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="28"/>
       <c r="C75" s="29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="31"/>
@@ -3844,7 +3856,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="80"/>
       <c r="C76" s="74" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D76" s="67"/>
       <c r="E76" s="39"/>
@@ -3857,7 +3869,7 @@
         <v>41</v>
       </c>
       <c r="J76" s="62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K76" s="26" t="s">
         <v>76</v>
@@ -3882,7 +3894,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="59"/>
       <c r="C77" s="75" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D77" s="65"/>
       <c r="E77" s="31"/>
@@ -3911,30 +3923,30 @@
     <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G78" s="56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
       <c r="J78" s="62" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K78" s="26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -3955,10 +3967,10 @@
     <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="45"/>
@@ -3988,19 +4000,19 @@
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G80" s="56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>42</v>
@@ -4009,10 +4021,10 @@
         <v>41</v>
       </c>
       <c r="J80" s="62" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K80" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -4034,7 +4046,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="45"/>
@@ -4064,7 +4076,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="28"/>
       <c r="C82" s="74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D82" s="81"/>
       <c r="E82" s="81"/>
@@ -4077,10 +4089,10 @@
         <v>41</v>
       </c>
       <c r="J82" s="62" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K82" s="26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -4102,7 +4114,7 @@
       <c r="A83" s="69"/>
       <c r="B83" s="59"/>
       <c r="C83" s="75" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D83" s="82"/>
       <c r="E83" s="82"/>
@@ -4130,27 +4142,27 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" s="56"/>
       <c r="H84" s="25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I84" s="25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J84" s="48"/>
       <c r="K84" s="49"/>
@@ -4172,13 +4184,13 @@
     </row>
     <row r="85">
       <c r="A85" s="69" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D85" s="57"/>
       <c r="E85" s="45"/>
@@ -4206,31 +4218,31 @@
     </row>
     <row r="86">
       <c r="A86" s="70" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C86" s="71" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G86" s="56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J86" s="48"/>
       <c r="K86" s="49"/>
@@ -4252,13 +4264,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D87" s="57"/>
       <c r="E87" s="45"/>
@@ -4288,19 +4300,19 @@
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="60" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="H88" s="48"/>
       <c r="I88" s="48"/>
@@ -4326,7 +4338,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D89" s="44"/>
       <c r="E89" s="45"/>
@@ -4356,31 +4368,31 @@
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D90" s="67" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F90" s="67" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J90" s="25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K90" s="26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -4402,7 +4414,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="51" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D91" s="57"/>
       <c r="E91" s="45"/>
@@ -4432,23 +4444,23 @@
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D92" s="48"/>
       <c r="E92" s="48"/>
       <c r="F92" s="48"/>
       <c r="G92" s="49"/>
       <c r="H92" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J92" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="I92" s="25" t="s">
+      <c r="K92" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="K92" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -4470,7 +4482,7 @@
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="85" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D93" s="52"/>
       <c r="E93" s="52"/>
@@ -4500,7 +4512,7 @@
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="42" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D94" s="48"/>
       <c r="E94" s="48"/>
@@ -4536,7 +4548,7 @@
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
@@ -4566,7 +4578,7 @@
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D96" s="48"/>
       <c r="E96" s="48"/>
@@ -4598,7 +4610,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="85" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D97" s="52"/>
       <c r="E97" s="52"/>
@@ -4628,7 +4640,7 @@
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D98" s="48"/>
       <c r="E98" s="48"/>
@@ -4638,7 +4650,7 @@
       <c r="I98" s="86"/>
       <c r="J98" s="48"/>
       <c r="K98" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -4660,7 +4672,7 @@
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="85" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D99" s="52"/>
       <c r="E99" s="52"/>
@@ -4690,7 +4702,7 @@
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="92" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D100" s="48"/>
       <c r="E100" s="48"/>
@@ -4722,7 +4734,7 @@
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="85" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D101" s="52"/>
       <c r="E101" s="52"/>
@@ -4750,23 +4762,23 @@
     </row>
     <row r="102">
       <c r="A102" s="93" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B102" s="94" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D102" s="48"/>
       <c r="E102" s="48"/>
       <c r="F102" s="48"/>
       <c r="G102" s="49"/>
       <c r="H102" s="25" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I102" s="25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J102" s="48"/>
       <c r="K102" s="49"/>
@@ -4788,13 +4800,13 @@
     </row>
     <row r="103">
       <c r="A103" s="95" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B103" s="96" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C103" s="85" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D103" s="52"/>
       <c r="E103" s="52"/>
@@ -4823,20 +4835,20 @@
     <row r="104">
       <c r="A104" s="97"/>
       <c r="B104" s="97" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D104" s="48"/>
       <c r="E104" s="48"/>
       <c r="F104" s="48"/>
       <c r="G104" s="49"/>
       <c r="H104" s="41" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J104" s="48"/>
       <c r="K104" s="49"/>
@@ -4859,10 +4871,10 @@
     <row r="105">
       <c r="A105" s="96"/>
       <c r="B105" s="96" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C105" s="85" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D105" s="52"/>
       <c r="E105" s="52"/>
@@ -4890,10 +4902,10 @@
     </row>
     <row r="106">
       <c r="A106" s="93" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B106" s="94" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C106" s="26"/>
       <c r="D106" s="48"/>
@@ -4901,7 +4913,7 @@
       <c r="F106" s="48"/>
       <c r="G106" s="49"/>
       <c r="H106" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I106" s="25"/>
       <c r="J106" s="48"/>
@@ -4924,10 +4936,10 @@
     </row>
     <row r="107">
       <c r="A107" s="98" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B107" s="96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C107" s="85"/>
       <c r="D107" s="52"/>
@@ -4956,13 +4968,13 @@
     </row>
     <row r="108">
       <c r="A108" s="93" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B108" s="94" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D108" s="48"/>
       <c r="E108" s="48"/>
@@ -4990,13 +5002,13 @@
     </row>
     <row r="109">
       <c r="A109" s="95" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B109" s="96" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C109" s="85" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
@@ -5025,17 +5037,17 @@
     <row r="110">
       <c r="A110" s="97"/>
       <c r="B110" s="97" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="48"/>
       <c r="F110" s="48"/>
       <c r="G110" s="49"/>
       <c r="H110" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I110" s="25"/>
       <c r="J110" s="48"/>
@@ -5059,10 +5071,10 @@
     <row r="111">
       <c r="A111" s="96"/>
       <c r="B111" s="96" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C111" s="85" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
@@ -5090,11 +5102,11 @@
     </row>
     <row r="112">
       <c r="A112" s="99" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B112" s="100"/>
       <c r="C112" s="26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D112" s="48"/>
       <c r="E112" s="48"/>
@@ -5104,7 +5116,7 @@
       <c r="I112" s="48"/>
       <c r="J112" s="48"/>
       <c r="K112" s="101" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -5126,7 +5138,7 @@
       <c r="A113" s="102"/>
       <c r="B113" s="102"/>
       <c r="C113" s="85" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>

--- a/python/PSYCOHORTS-registers.xlsx
+++ b/python/PSYCOHORTS-registers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="258">
   <si>
     <t>PSYCOHORTS</t>
   </si>
@@ -775,7 +775,19 @@
     <t>Overindebtedness</t>
   </si>
   <si>
-    <t>jes</t>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Harmonisoitu</t>
+  </si>
+  <si>
+    <t>Harmonized</t>
+  </si>
+  <si>
+    <t>1963-1993 Poistoilmoitusrekisteri</t>
+  </si>
+  <si>
+    <t>1963-1993 Hospital Discharge Registry</t>
   </si>
 </sst>
 </file>
@@ -1651,11 +1663,11 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1780,7 +1792,9 @@
       <c r="M3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
@@ -1832,7 +1846,9 @@
       <c r="L4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -1867,7 +1883,9 @@
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
       <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
+      <c r="M5" s="36" t="s">
+        <v>257</v>
+      </c>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
@@ -2815,7 +2833,9 @@
         <v>68</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="N30" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -2850,7 +2870,9 @@
       <c r="K31" s="34"/>
       <c r="L31" s="35"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
+      <c r="N31" s="36" t="s">
+        <v>255</v>
+      </c>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
@@ -2964,9 +2986,7 @@
       <c r="L34" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>253</v>
-      </c>
+      <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>

--- a/python/PSYCOHORTS-registers.xlsx
+++ b/python/PSYCOHORTS-registers.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="269">
   <si>
     <t>PSYCOHORTS</t>
   </si>
@@ -822,29 +822,35 @@
     <t>Ylivelkaantumistiedot</t>
   </si>
   <si>
-    <t>2004? ja 1.4.2010</t>
-  </si>
-  <si>
     <t>Overindebtedness</t>
   </si>
   <si>
     <t>Poliisihallitus</t>
   </si>
   <si>
-    <t>Patja/Riki+arkisto</t>
-  </si>
-  <si>
     <t>Rikos- ja rikkomusepäilyt</t>
   </si>
   <si>
-    <t>27.5.1992 - 2.5.2012</t>
+    <t>27.5.1992-2.5.2012</t>
+  </si>
+  <si>
+    <t>1.4.2010</t>
+  </si>
+  <si>
+    <t>&lt;ei nimeä&gt;</t>
+  </si>
+  <si>
+    <t>&lt;no name&gt;</t>
+  </si>
+  <si>
+    <t>Arkisto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -924,6 +930,10 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1653,17 +1663,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1980,10 +1986,10 @@
   <dimension ref="A1:AY986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2082,22 +2088,22 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="128" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="128" t="s">
+      <c r="J2" s="127"/>
+      <c r="K2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="130"/>
+      <c r="L2" s="128"/>
       <c r="M2" s="8" t="s">
         <v>1</v>
       </c>
@@ -8117,8 +8123,8 @@
       <c r="A98" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="B98" s="126" t="s">
-        <v>250</v>
+      <c r="B98" s="129" t="s">
+        <v>266</v>
       </c>
       <c r="C98" s="114" t="b">
         <v>0</v>
@@ -8134,7 +8140,7 @@
       <c r="J98" s="74"/>
       <c r="K98" s="74"/>
       <c r="L98" s="75" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M98" s="76"/>
       <c r="N98" s="39"/>
@@ -8178,12 +8184,12 @@
     </row>
     <row r="99" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="115"/>
-      <c r="B99" s="127" t="s">
-        <v>250</v>
+      <c r="B99" s="130" t="s">
+        <v>267</v>
       </c>
       <c r="C99" s="115"/>
       <c r="D99" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E99" s="77"/>
       <c r="F99" s="77"/>
@@ -8235,16 +8241,16 @@
     </row>
     <row r="100" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B100" s="101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C100" s="46" t="b">
         <v>0</v>
       </c>
       <c r="D100" s="101" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E100" s="117"/>
       <c r="F100" s="117"/>
@@ -8255,7 +8261,7 @@
       <c r="K100" s="117"/>
       <c r="L100" s="118"/>
       <c r="M100" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N100" s="39"/>
       <c r="O100" s="67"/>
@@ -8302,8 +8308,8 @@
         <v>250</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="96" t="s">
-        <v>250</v>
+      <c r="D101" s="101" t="s">
+        <v>263</v>
       </c>
       <c r="E101" s="117"/>
       <c r="F101" s="117"/>
@@ -8620,7 +8626,7 @@
     </row>
     <row r="107" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="B107" s="129"/>
       <c r="C107" s="5"/>
       <c r="D107" s="39"/>
       <c r="E107" s="117"/>
@@ -8673,7 +8679,7 @@
     </row>
     <row r="108" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="B108" s="130"/>
       <c r="C108" s="5"/>
       <c r="D108" s="39"/>
       <c r="E108" s="117"/>
@@ -8726,7 +8732,7 @@
     </row>
     <row r="109" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="B109" s="129"/>
       <c r="C109" s="5"/>
       <c r="D109" s="39"/>
       <c r="E109" s="117"/>
@@ -8779,7 +8785,7 @@
     </row>
     <row r="110" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="B110" s="130"/>
       <c r="C110" s="5"/>
       <c r="D110" s="39"/>
       <c r="E110" s="117"/>

--- a/python/PSYCOHORTS-registers.xlsx
+++ b/python/PSYCOHORTS-registers.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="269">
   <si>
     <t>PSYCOHORTS</t>
   </si>
@@ -850,7 +850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1663,13 +1663,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1989,10 +1989,10 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.109375" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
@@ -2028,7 +2028,7 @@
     <col min="36" max="36" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,27 +2083,27 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
     </row>
-    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="126" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="126" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="126" t="s">
+      <c r="J2" s="129"/>
+      <c r="K2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="128"/>
+      <c r="L2" s="130"/>
       <c r="M2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
     </row>
-    <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="AX3" s="29"/>
       <c r="AY3" s="29"/>
     </row>
-    <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" ht="15.75" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>25</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="AX4" s="45"/>
       <c r="AY4" s="45"/>
     </row>
-    <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="AX5" s="60"/>
       <c r="AY5" s="60"/>
     </row>
-    <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -2577,7 +2577,7 @@
       <c r="AX6" s="5"/>
       <c r="AY6" s="5"/>
     </row>
-    <row r="7" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -2632,7 +2632,7 @@
       <c r="AX7" s="60"/>
       <c r="AY7" s="60"/>
     </row>
-    <row r="8" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" ht="15.75" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="31" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/7567e45d-72b7-428b-be9e-510440336edf/datasets/25ff4fc4-6166-4e6c-b6b8-e9c4c1a2cc7d","Perusterveydenhuollon avohoidon hoitoilmoitusrekisteri")</f>
@@ -2700,7 +2700,7 @@
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
     </row>
-    <row r="9" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" ht="15.75" customHeight="1">
       <c r="A9" s="46"/>
       <c r="B9" s="71" t="s">
         <v>54</v>
@@ -2757,7 +2757,7 @@
       <c r="AX9" s="60"/>
       <c r="AY9" s="60"/>
     </row>
-    <row r="10" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" ht="15.75" customHeight="1">
       <c r="A10" s="46"/>
       <c r="B10" s="79" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/21085403-7be8-4f93-bf05-231518c642a0","Syöpärekisteri")</f>
@@ -2825,7 +2825,7 @@
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
     </row>
-    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" ht="15.75" customHeight="1">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
         <v>58</v>
@@ -2882,7 +2882,7 @@
       <c r="AX11" s="60"/>
       <c r="AY11" s="60"/>
     </row>
-    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="15.75" customHeight="1">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -2945,7 +2945,7 @@
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
     </row>
-    <row r="13" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" ht="15.75" customHeight="1">
       <c r="A13" s="46"/>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -3000,7 +3000,7 @@
       <c r="AX13" s="60"/>
       <c r="AY13" s="60"/>
     </row>
-    <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" ht="15.75" customHeight="1">
       <c r="A14" s="46"/>
       <c r="B14" s="79" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/4028c5c4-a235-4524-b92d-8a72071d2516","Syntymärekisteri")</f>
@@ -3084,7 +3084,7 @@
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
     </row>
-    <row r="15" spans="1:51" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" ht="13.8" customHeight="1">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
         <v>71</v>
@@ -3141,7 +3141,7 @@
       <c r="AX15" s="60"/>
       <c r="AY15" s="60"/>
     </row>
-    <row r="16" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" ht="13.8">
       <c r="A16" s="46"/>
       <c r="B16" s="84" t="s">
         <v>250</v>
@@ -3210,7 +3210,7 @@
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
     </row>
-    <row r="17" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" ht="15.75" customHeight="1">
       <c r="A17" s="46"/>
       <c r="B17" s="86" t="s">
         <v>250</v>
@@ -3269,7 +3269,7 @@
       <c r="AX17" s="60"/>
       <c r="AY17" s="60"/>
     </row>
-    <row r="18" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" ht="24" customHeight="1">
       <c r="A18" s="46"/>
       <c r="B18" s="90" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/3696b67b-2e59-4840-a639-85c18c3bd72a","Näkövammarekisteri")</f>
@@ -3337,7 +3337,7 @@
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
     </row>
-    <row r="19" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" ht="15.75" customHeight="1">
       <c r="A19" s="46"/>
       <c r="B19" s="71" t="s">
         <v>82</v>
@@ -3394,7 +3394,7 @@
       <c r="AX19" s="60"/>
       <c r="AY19" s="60"/>
     </row>
-    <row r="20" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="31" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/d6eaf26a-0def-4171-a029-33503572ab4f","Tartuntatautirekisteri")</f>
@@ -3456,7 +3456,7 @@
       <c r="AX20" s="5"/>
       <c r="AY20" s="5"/>
     </row>
-    <row r="21" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="71" t="s">
         <v>85</v>
@@ -3513,7 +3513,7 @@
       <c r="AX21" s="60"/>
       <c r="AY21" s="60"/>
     </row>
-    <row r="22" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/dae286b6-f05b-4ccd-8677-490df8f12483","Raskaudenkeskeyttämisrekisteri")</f>
@@ -3579,7 +3579,7 @@
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
     </row>
-    <row r="23" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="71" t="s">
         <v>88</v>
@@ -3636,7 +3636,7 @@
       <c r="AX23" s="60"/>
       <c r="AY23" s="60"/>
     </row>
-    <row r="24" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/40d61867-321c-4638-b6c7-afaaef4a897d","Toimeentulorekisteri")</f>
@@ -3704,7 +3704,7 @@
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
     </row>
-    <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="71" t="s">
         <v>91</v>
@@ -3761,7 +3761,7 @@
       <c r="AX25" s="60"/>
       <c r="AY25" s="60"/>
     </row>
-    <row r="26" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/7567e45d-72b7-428b-be9e-510440336edf/datasets/abcc2578-1a24-41e0-bce9-2c214538b087","Sosiaalihuollon hoitoilmoitusrekisteri")</f>
@@ -3829,7 +3829,7 @@
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
     </row>
-    <row r="27" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="71" t="s">
         <v>97</v>
@@ -3886,7 +3886,7 @@
       <c r="AX27" s="60"/>
       <c r="AY27" s="60"/>
     </row>
-    <row r="28" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/c5c77504-6e32-4db0-91d0-f2d953f35fce","Lastensuojelurekisteri")</f>
@@ -3950,7 +3950,7 @@
       <c r="AX28" s="5"/>
       <c r="AY28" s="5"/>
     </row>
-    <row r="29" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" ht="15.75" customHeight="1">
       <c r="A29" s="94"/>
       <c r="B29" s="71" t="s">
         <v>101</v>
@@ -4007,7 +4007,7 @@
       <c r="AX29" s="60"/>
       <c r="AY29" s="60"/>
     </row>
-    <row r="30" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" ht="15.75" customHeight="1">
       <c r="A30" s="95" t="s">
         <v>103</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
     </row>
-    <row r="31" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="AX31" s="60"/>
       <c r="AY31" s="60"/>
     </row>
-    <row r="32" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="97" t="str">
         <f>HYPERLINK("http://www.stat.fi/meta/rekisteriselosteet/rekisteriseloste_tyossakayntitilasto.html","Työssäkäyntitilasto")</f>
@@ -4216,7 +4216,7 @@
       <c r="AX32" s="5"/>
       <c r="AY32" s="5"/>
     </row>
-    <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="71" t="s">
         <v>118</v>
@@ -4273,7 +4273,7 @@
       <c r="AX33" s="60"/>
       <c r="AY33" s="60"/>
     </row>
-    <row r="34" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="31" t="str">
         <f>HYPERLINK("http://www.stat.fi/meta/rekisteriselosteet/rekisteriseloste_tutkintorekisteri.html","Tutkintorekisteri")</f>
@@ -4349,7 +4349,7 @@
       <c r="AX34" s="5"/>
       <c r="AY34" s="5"/>
     </row>
-    <row r="35" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" ht="15.75" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="71" t="s">
         <v>124</v>
@@ -4406,7 +4406,7 @@
       <c r="AX35" s="60"/>
       <c r="AY35" s="60"/>
     </row>
-    <row r="36" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" ht="15.75" customHeight="1">
       <c r="A36" s="95" t="s">
         <v>126</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="AX36" s="5"/>
       <c r="AY36" s="5"/>
     </row>
-    <row r="37" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>129</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="AX37" s="60"/>
       <c r="AY37" s="60"/>
     </row>
-    <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" ht="15.75" customHeight="1">
       <c r="A38" s="46"/>
       <c r="C38" s="46"/>
       <c r="D38" s="99" t="s">
@@ -4585,7 +4585,7 @@
       <c r="AX38" s="5"/>
       <c r="AY38" s="5"/>
     </row>
-    <row r="39" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" ht="15.75" customHeight="1">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -4640,7 +4640,7 @@
       <c r="AX39" s="60"/>
       <c r="AY39" s="60"/>
     </row>
-    <row r="40" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" ht="15.75" customHeight="1">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -4711,7 +4711,7 @@
       <c r="AX40" s="5"/>
       <c r="AY40" s="5"/>
     </row>
-    <row r="41" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" ht="15.75" customHeight="1">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -4766,7 +4766,7 @@
       <c r="AX41" s="60"/>
       <c r="AY41" s="60"/>
     </row>
-    <row r="42" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" ht="15.75" customHeight="1">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -4829,7 +4829,7 @@
       <c r="AX42" s="5"/>
       <c r="AY42" s="5"/>
     </row>
-    <row r="43" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" ht="15.75" customHeight="1">
       <c r="A43" s="46"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -4884,7 +4884,7 @@
       <c r="AX43" s="60"/>
       <c r="AY43" s="60"/>
     </row>
-    <row r="44" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" ht="15.75" customHeight="1">
       <c r="A44" s="46"/>
       <c r="B44" s="100"/>
       <c r="C44" s="46"/>
@@ -4949,7 +4949,7 @@
       <c r="AX44" s="5"/>
       <c r="AY44" s="5"/>
     </row>
-    <row r="45" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" ht="15.75" customHeight="1">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46"/>
@@ -5004,7 +5004,7 @@
       <c r="AX45" s="60"/>
       <c r="AY45" s="60"/>
     </row>
-    <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" ht="15.75" customHeight="1">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -5065,7 +5065,7 @@
       <c r="AX46" s="5"/>
       <c r="AY46" s="5"/>
     </row>
-    <row r="47" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" ht="15.75" customHeight="1">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -5120,7 +5120,7 @@
       <c r="AX47" s="60"/>
       <c r="AY47" s="60"/>
     </row>
-    <row r="48" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
@@ -5179,7 +5179,7 @@
       <c r="AX48" s="5"/>
       <c r="AY48" s="5"/>
     </row>
-    <row r="49" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
@@ -5234,7 +5234,7 @@
       <c r="AX49" s="60"/>
       <c r="AY49" s="60"/>
     </row>
-    <row r="50" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:51" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -5297,7 +5297,7 @@
       <c r="AX50" s="5"/>
       <c r="AY50" s="5"/>
     </row>
-    <row r="51" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
@@ -5352,7 +5352,7 @@
       <c r="AX51" s="60"/>
       <c r="AY51" s="60"/>
     </row>
-    <row r="52" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:51" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -5411,7 +5411,7 @@
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
     </row>
-    <row r="53" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -5466,7 +5466,7 @@
       <c r="AX53" s="60"/>
       <c r="AY53" s="60"/>
     </row>
-    <row r="54" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:51" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -5525,7 +5525,7 @@
       <c r="AX54" s="5"/>
       <c r="AY54" s="5"/>
     </row>
-    <row r="55" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
@@ -5580,7 +5580,7 @@
       <c r="AX55" s="60"/>
       <c r="AY55" s="60"/>
     </row>
-    <row r="56" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:51" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -5639,7 +5639,7 @@
       <c r="AX56" s="5"/>
       <c r="AY56" s="5"/>
     </row>
-    <row r="57" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:51" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
@@ -5694,7 +5694,7 @@
       <c r="AX57" s="60"/>
       <c r="AY57" s="60"/>
     </row>
-    <row r="58" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:51" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
@@ -5753,7 +5753,7 @@
       <c r="AX58" s="5"/>
       <c r="AY58" s="5"/>
     </row>
-    <row r="59" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" ht="15.75" customHeight="1">
       <c r="A59" s="94"/>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
@@ -5808,7 +5808,7 @@
       <c r="AX59" s="60"/>
       <c r="AY59" s="60"/>
     </row>
-    <row r="60" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:51" ht="15.75" customHeight="1">
       <c r="A60" s="95" t="s">
         <v>165</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="AX60" s="5"/>
       <c r="AY60" s="5"/>
     </row>
-    <row r="61" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>170</v>
       </c>
@@ -5937,7 +5937,7 @@
       <c r="AX61" s="60"/>
       <c r="AY61" s="60"/>
     </row>
-    <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:51" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
@@ -6000,7 +6000,7 @@
       <c r="AX62" s="5"/>
       <c r="AY62" s="5"/>
     </row>
-    <row r="63" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
@@ -6055,7 +6055,7 @@
       <c r="AX63" s="60"/>
       <c r="AY63" s="60"/>
     </row>
-    <row r="64" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:51" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="107"/>
       <c r="C64" s="107"/>
@@ -6118,7 +6118,7 @@
       <c r="AX64" s="5"/>
       <c r="AY64" s="5"/>
     </row>
-    <row r="65" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:51" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
@@ -6173,7 +6173,7 @@
       <c r="AX65" s="60"/>
       <c r="AY65" s="60"/>
     </row>
-    <row r="66" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:51" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="91" t="s">
         <v>180</v>
@@ -6244,7 +6244,7 @@
       <c r="AX66" s="5"/>
       <c r="AY66" s="5"/>
     </row>
-    <row r="67" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:51" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="46" t="s">
         <v>184</v>
@@ -6301,7 +6301,7 @@
       <c r="AX67" s="60"/>
       <c r="AY67" s="60"/>
     </row>
-    <row r="68" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:51" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
@@ -6372,7 +6372,7 @@
       <c r="AX68" s="5"/>
       <c r="AY68" s="5"/>
     </row>
-    <row r="69" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:51" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
@@ -6427,7 +6427,7 @@
       <c r="AX69" s="60"/>
       <c r="AY69" s="60"/>
     </row>
-    <row r="70" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:51" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="46"/>
       <c r="C70" s="46"/>
@@ -6490,7 +6490,7 @@
       <c r="AX70" s="5"/>
       <c r="AY70" s="5"/>
     </row>
-    <row r="71" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:51" ht="15.75" customHeight="1">
       <c r="A71" s="94"/>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
@@ -6545,7 +6545,7 @@
       <c r="AX71" s="60"/>
       <c r="AY71" s="60"/>
     </row>
-    <row r="72" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:51" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>193</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="AX72" s="5"/>
       <c r="AY72" s="5"/>
     </row>
-    <row r="73" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:51" ht="15.75" customHeight="1">
       <c r="A73" s="94" t="s">
         <v>200</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="AX73" s="60"/>
       <c r="AY73" s="60"/>
     </row>
-    <row r="74" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:51" ht="15.75" customHeight="1">
       <c r="A74" s="95" t="s">
         <v>203</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="AX74" s="5"/>
       <c r="AY74" s="5"/>
     </row>
-    <row r="75" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:51" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="AX75" s="60"/>
       <c r="AY75" s="60"/>
     </row>
-    <row r="76" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:51" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="46"/>
       <c r="C76" s="46"/>
@@ -6871,7 +6871,7 @@
       <c r="AX76" s="5"/>
       <c r="AY76" s="5"/>
     </row>
-    <row r="77" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:51" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="46"/>
       <c r="C77" s="46"/>
@@ -6926,7 +6926,7 @@
       <c r="AX77" s="60"/>
       <c r="AY77" s="60"/>
     </row>
-    <row r="78" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:51" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
@@ -6999,7 +6999,7 @@
       <c r="AX78" s="5"/>
       <c r="AY78" s="5"/>
     </row>
-    <row r="79" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:51" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
@@ -7054,7 +7054,7 @@
       <c r="AX79" s="60"/>
       <c r="AY79" s="60"/>
     </row>
-    <row r="80" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:51" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -7121,7 +7121,7 @@
       <c r="AX80" s="5"/>
       <c r="AY80" s="5"/>
     </row>
-    <row r="81" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:51" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -7176,7 +7176,7 @@
       <c r="AX81" s="60"/>
       <c r="AY81" s="60"/>
     </row>
-    <row r="82" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:51" ht="15.75" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -7237,7 +7237,7 @@
       <c r="AX82" s="5"/>
       <c r="AY82" s="5"/>
     </row>
-    <row r="83" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:51" ht="15.75" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -7292,7 +7292,7 @@
       <c r="AX83" s="60"/>
       <c r="AY83" s="60"/>
     </row>
-    <row r="84" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:51" ht="15.75" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -7349,7 +7349,7 @@
       <c r="AX84" s="5"/>
       <c r="AY84" s="5"/>
     </row>
-    <row r="85" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" ht="15.75" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -7404,7 +7404,7 @@
       <c r="AX85" s="60"/>
       <c r="AY85" s="60"/>
     </row>
-    <row r="86" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:51" ht="15.75" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -7461,7 +7461,7 @@
       <c r="AX86" s="5"/>
       <c r="AY86" s="5"/>
     </row>
-    <row r="87" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:51" ht="15.75" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -7516,7 +7516,7 @@
       <c r="AX87" s="60"/>
       <c r="AY87" s="60"/>
     </row>
-    <row r="88" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:51" ht="15.75" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -7573,7 +7573,7 @@
       <c r="AX88" s="5"/>
       <c r="AY88" s="5"/>
     </row>
-    <row r="89" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:51" ht="15.75" customHeight="1">
       <c r="A89" s="60"/>
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
@@ -7628,7 +7628,7 @@
       <c r="AX89" s="60"/>
       <c r="AY89" s="60"/>
     </row>
-    <row r="90" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:51" ht="15.75" customHeight="1">
       <c r="A90" s="95" t="s">
         <v>237</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="AX90" s="5"/>
       <c r="AY90" s="5"/>
     </row>
-    <row r="91" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:51" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>241</v>
       </c>
@@ -7753,7 +7753,7 @@
       <c r="AX91" s="60"/>
       <c r="AY91" s="60"/>
     </row>
-    <row r="92" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:51" ht="15.75" customHeight="1">
       <c r="A92" s="46"/>
       <c r="B92" s="46" t="s">
         <v>244</v>
@@ -7816,7 +7816,7 @@
       <c r="AX92" s="5"/>
       <c r="AY92" s="5"/>
     </row>
-    <row r="93" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:51" ht="15.75" customHeight="1">
       <c r="A93" s="71"/>
       <c r="B93" s="71" t="s">
         <v>247</v>
@@ -7873,7 +7873,7 @@
       <c r="AX93" s="60"/>
       <c r="AY93" s="60"/>
     </row>
-    <row r="94" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:51" ht="15.75" customHeight="1">
       <c r="A94" s="95" t="s">
         <v>249</v>
       </c>
@@ -7884,9 +7884,7 @@
       <c r="C94" s="91" t="b">
         <v>0</v>
       </c>
-      <c r="D94" s="112" t="s">
-        <v>250</v>
-      </c>
+      <c r="D94" s="112"/>
       <c r="E94" s="74"/>
       <c r="F94" s="74"/>
       <c r="G94" s="74"/>
@@ -7937,7 +7935,7 @@
       <c r="AX94" s="5"/>
       <c r="AY94" s="5"/>
     </row>
-    <row r="95" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:51" ht="15.75" customHeight="1">
       <c r="A95" s="94" t="s">
         <v>251</v>
       </c>
@@ -7945,9 +7943,7 @@
         <v>252</v>
       </c>
       <c r="C95" s="71"/>
-      <c r="D95" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="D95" s="47"/>
       <c r="E95" s="77"/>
       <c r="F95" s="77"/>
       <c r="G95" s="77"/>
@@ -7996,7 +7992,7 @@
       <c r="AX95" s="60"/>
       <c r="AY95" s="60"/>
     </row>
-    <row r="96" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:51" ht="15.75" customHeight="1">
       <c r="A96" s="95" t="s">
         <v>253</v>
       </c>
@@ -8060,7 +8056,7 @@
       <c r="AX96" s="5"/>
       <c r="AY96" s="5"/>
     </row>
-    <row r="97" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:51" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>256</v>
       </c>
@@ -8119,11 +8115,11 @@
       <c r="AX97" s="60"/>
       <c r="AY97" s="60"/>
     </row>
-    <row r="98" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:51" ht="15.75" customHeight="1">
       <c r="A98" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="B98" s="129" t="s">
+      <c r="B98" s="126" t="s">
         <v>266</v>
       </c>
       <c r="C98" s="114" t="b">
@@ -8182,9 +8178,9 @@
       <c r="AX98" s="5"/>
       <c r="AY98" s="5"/>
     </row>
-    <row r="99" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:51" ht="15.75" customHeight="1">
       <c r="A99" s="115"/>
-      <c r="B99" s="130" t="s">
+      <c r="B99" s="127" t="s">
         <v>267</v>
       </c>
       <c r="C99" s="115"/>
@@ -8239,7 +8235,7 @@
       <c r="AX99" s="60"/>
       <c r="AY99" s="60"/>
     </row>
-    <row r="100" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:51" ht="15.75" customHeight="1">
       <c r="A100" s="116" t="s">
         <v>262</v>
       </c>
@@ -8302,7 +8298,7 @@
       <c r="AX100" s="5"/>
       <c r="AY100" s="5"/>
     </row>
-    <row r="101" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:51" ht="15.75" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
         <v>250</v>
@@ -8359,7 +8355,7 @@
       <c r="AX101" s="5"/>
       <c r="AY101" s="5"/>
     </row>
-    <row r="102" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:51" ht="15.75" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8412,7 +8408,7 @@
       <c r="AX102" s="5"/>
       <c r="AY102" s="5"/>
     </row>
-    <row r="103" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:51" ht="15.75" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8465,7 +8461,7 @@
       <c r="AX103" s="5"/>
       <c r="AY103" s="5"/>
     </row>
-    <row r="104" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:51" ht="15.75" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8518,7 +8514,7 @@
       <c r="AX104" s="5"/>
       <c r="AY104" s="5"/>
     </row>
-    <row r="105" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:51" ht="15.75" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -8571,7 +8567,7 @@
       <c r="AX105" s="5"/>
       <c r="AY105" s="5"/>
     </row>
-    <row r="106" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:51" ht="15.75" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8624,9 +8620,9 @@
       <c r="AX106" s="5"/>
       <c r="AY106" s="5"/>
     </row>
-    <row r="107" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:51" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
-      <c r="B107" s="129"/>
+      <c r="B107" s="126"/>
       <c r="C107" s="5"/>
       <c r="D107" s="39"/>
       <c r="E107" s="117"/>
@@ -8677,9 +8673,9 @@
       <c r="AX107" s="5"/>
       <c r="AY107" s="5"/>
     </row>
-    <row r="108" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:51" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
-      <c r="B108" s="130"/>
+      <c r="B108" s="127"/>
       <c r="C108" s="5"/>
       <c r="D108" s="39"/>
       <c r="E108" s="117"/>
@@ -8730,9 +8726,9 @@
       <c r="AX108" s="5"/>
       <c r="AY108" s="5"/>
     </row>
-    <row r="109" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:51" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
-      <c r="B109" s="129"/>
+      <c r="B109" s="126"/>
       <c r="C109" s="5"/>
       <c r="D109" s="39"/>
       <c r="E109" s="117"/>
@@ -8783,9 +8779,9 @@
       <c r="AX109" s="5"/>
       <c r="AY109" s="5"/>
     </row>
-    <row r="110" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:51" ht="15.75" customHeight="1">
       <c r="A110" s="5"/>
-      <c r="B110" s="130"/>
+      <c r="B110" s="127"/>
       <c r="C110" s="5"/>
       <c r="D110" s="39"/>
       <c r="E110" s="117"/>
@@ -8836,7 +8832,7 @@
       <c r="AX110" s="5"/>
       <c r="AY110" s="5"/>
     </row>
-    <row r="111" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:51" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -8889,7 +8885,7 @@
       <c r="AX111" s="5"/>
       <c r="AY111" s="5"/>
     </row>
-    <row r="112" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:51" ht="15.75" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -8942,7 +8938,7 @@
       <c r="AX112" s="5"/>
       <c r="AY112" s="5"/>
     </row>
-    <row r="113" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:51" ht="15.75" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -8995,7 +8991,7 @@
       <c r="AX113" s="5"/>
       <c r="AY113" s="5"/>
     </row>
-    <row r="114" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:51" ht="15.75" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -9048,7 +9044,7 @@
       <c r="AX114" s="5"/>
       <c r="AY114" s="5"/>
     </row>
-    <row r="115" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:51" ht="15.75" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -9101,7 +9097,7 @@
       <c r="AX115" s="5"/>
       <c r="AY115" s="5"/>
     </row>
-    <row r="116" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:51" ht="15.75" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -9154,7 +9150,7 @@
       <c r="AX116" s="5"/>
       <c r="AY116" s="5"/>
     </row>
-    <row r="117" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:51" ht="15.75" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -9207,7 +9203,7 @@
       <c r="AX117" s="5"/>
       <c r="AY117" s="5"/>
     </row>
-    <row r="118" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:51" ht="15.75" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -9260,7 +9256,7 @@
       <c r="AX118" s="5"/>
       <c r="AY118" s="5"/>
     </row>
-    <row r="119" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:51" ht="15.75" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -9313,7 +9309,7 @@
       <c r="AX119" s="5"/>
       <c r="AY119" s="5"/>
     </row>
-    <row r="120" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:51" ht="15.75" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -9366,7 +9362,7 @@
       <c r="AX120" s="5"/>
       <c r="AY120" s="5"/>
     </row>
-    <row r="121" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:51" ht="15.75" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -9419,7 +9415,7 @@
       <c r="AX121" s="5"/>
       <c r="AY121" s="5"/>
     </row>
-    <row r="122" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:51" ht="15.75" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -9472,7 +9468,7 @@
       <c r="AX122" s="5"/>
       <c r="AY122" s="5"/>
     </row>
-    <row r="123" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:51" ht="15.75" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -9525,7 +9521,7 @@
       <c r="AX123" s="5"/>
       <c r="AY123" s="5"/>
     </row>
-    <row r="124" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:51" ht="15.75" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -9578,7 +9574,7 @@
       <c r="AX124" s="5"/>
       <c r="AY124" s="5"/>
     </row>
-    <row r="125" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:51" ht="15.75" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -9631,7 +9627,7 @@
       <c r="AX125" s="5"/>
       <c r="AY125" s="5"/>
     </row>
-    <row r="126" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:51" ht="15.75" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -9684,7 +9680,7 @@
       <c r="AX126" s="5"/>
       <c r="AY126" s="5"/>
     </row>
-    <row r="127" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:51" ht="15.75" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -9737,7 +9733,7 @@
       <c r="AX127" s="5"/>
       <c r="AY127" s="5"/>
     </row>
-    <row r="128" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:51" ht="15.75" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -9790,7 +9786,7 @@
       <c r="AX128" s="5"/>
       <c r="AY128" s="5"/>
     </row>
-    <row r="129" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:51" ht="15.75" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -9843,7 +9839,7 @@
       <c r="AX129" s="5"/>
       <c r="AY129" s="5"/>
     </row>
-    <row r="130" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:51" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -9896,7 +9892,7 @@
       <c r="AX130" s="5"/>
       <c r="AY130" s="5"/>
     </row>
-    <row r="131" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:51" ht="15.75" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -9949,7 +9945,7 @@
       <c r="AX131" s="5"/>
       <c r="AY131" s="5"/>
     </row>
-    <row r="132" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:51" ht="15.75" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -10002,7 +9998,7 @@
       <c r="AX132" s="5"/>
       <c r="AY132" s="5"/>
     </row>
-    <row r="133" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:51" ht="15.75" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -10055,7 +10051,7 @@
       <c r="AX133" s="5"/>
       <c r="AY133" s="5"/>
     </row>
-    <row r="134" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:51" ht="15.75" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -10108,7 +10104,7 @@
       <c r="AX134" s="5"/>
       <c r="AY134" s="5"/>
     </row>
-    <row r="135" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:51" ht="15.75" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -10161,7 +10157,7 @@
       <c r="AX135" s="5"/>
       <c r="AY135" s="5"/>
     </row>
-    <row r="136" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:51" ht="15.75" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -10214,7 +10210,7 @@
       <c r="AX136" s="5"/>
       <c r="AY136" s="5"/>
     </row>
-    <row r="137" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:51" ht="15.75" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -10267,7 +10263,7 @@
       <c r="AX137" s="5"/>
       <c r="AY137" s="5"/>
     </row>
-    <row r="138" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:51" ht="15.75" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -10320,7 +10316,7 @@
       <c r="AX138" s="5"/>
       <c r="AY138" s="5"/>
     </row>
-    <row r="139" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:51" ht="15.75" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -10373,7 +10369,7 @@
       <c r="AX139" s="5"/>
       <c r="AY139" s="5"/>
     </row>
-    <row r="140" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:51" ht="15.75" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -10426,7 +10422,7 @@
       <c r="AX140" s="5"/>
       <c r="AY140" s="5"/>
     </row>
-    <row r="141" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:51" ht="15.75" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -10479,7 +10475,7 @@
       <c r="AX141" s="5"/>
       <c r="AY141" s="5"/>
     </row>
-    <row r="142" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:51" ht="15.75" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -10532,7 +10528,7 @@
       <c r="AX142" s="5"/>
       <c r="AY142" s="5"/>
     </row>
-    <row r="143" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:51" ht="15.75" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -10585,7 +10581,7 @@
       <c r="AX143" s="5"/>
       <c r="AY143" s="5"/>
     </row>
-    <row r="144" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:51" ht="15.75" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -10638,7 +10634,7 @@
       <c r="AX144" s="5"/>
       <c r="AY144" s="5"/>
     </row>
-    <row r="145" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:51" ht="15.75" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -10691,7 +10687,7 @@
       <c r="AX145" s="5"/>
       <c r="AY145" s="5"/>
     </row>
-    <row r="146" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:51" ht="15.75" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -10744,7 +10740,7 @@
       <c r="AX146" s="5"/>
       <c r="AY146" s="5"/>
     </row>
-    <row r="147" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:51" ht="15.75" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -10797,7 +10793,7 @@
       <c r="AX147" s="5"/>
       <c r="AY147" s="5"/>
     </row>
-    <row r="148" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:51" ht="15.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -10850,7 +10846,7 @@
       <c r="AX148" s="5"/>
       <c r="AY148" s="5"/>
     </row>
-    <row r="149" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:51" ht="15.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -10903,7 +10899,7 @@
       <c r="AX149" s="5"/>
       <c r="AY149" s="5"/>
     </row>
-    <row r="150" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:51" ht="15.75" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -10956,7 +10952,7 @@
       <c r="AX150" s="5"/>
       <c r="AY150" s="5"/>
     </row>
-    <row r="151" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:51" ht="15.75" customHeight="1">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -11009,7 +11005,7 @@
       <c r="AX151" s="5"/>
       <c r="AY151" s="5"/>
     </row>
-    <row r="152" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:51" ht="15.75" customHeight="1">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -11062,7 +11058,7 @@
       <c r="AX152" s="5"/>
       <c r="AY152" s="5"/>
     </row>
-    <row r="153" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:51" ht="15.75" customHeight="1">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -11115,7 +11111,7 @@
       <c r="AX153" s="5"/>
       <c r="AY153" s="5"/>
     </row>
-    <row r="154" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:51" ht="15.75" customHeight="1">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -11168,7 +11164,7 @@
       <c r="AX154" s="5"/>
       <c r="AY154" s="5"/>
     </row>
-    <row r="155" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:51" ht="15.75" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -11221,7 +11217,7 @@
       <c r="AX155" s="5"/>
       <c r="AY155" s="5"/>
     </row>
-    <row r="156" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:51" ht="15.75" customHeight="1">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -11274,7 +11270,7 @@
       <c r="AX156" s="5"/>
       <c r="AY156" s="5"/>
     </row>
-    <row r="157" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:51" ht="15.75" customHeight="1">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -11327,7 +11323,7 @@
       <c r="AX157" s="5"/>
       <c r="AY157" s="5"/>
     </row>
-    <row r="158" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:51" ht="15.75" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -11380,7 +11376,7 @@
       <c r="AX158" s="5"/>
       <c r="AY158" s="5"/>
     </row>
-    <row r="159" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:51" ht="15.75" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -11433,7 +11429,7 @@
       <c r="AX159" s="5"/>
       <c r="AY159" s="5"/>
     </row>
-    <row r="160" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:51" ht="15.75" customHeight="1">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -11486,7 +11482,7 @@
       <c r="AX160" s="5"/>
       <c r="AY160" s="5"/>
     </row>
-    <row r="161" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:51" ht="15.75" customHeight="1">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -11539,7 +11535,7 @@
       <c r="AX161" s="5"/>
       <c r="AY161" s="5"/>
     </row>
-    <row r="162" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:51" ht="15.75" customHeight="1">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -11592,7 +11588,7 @@
       <c r="AX162" s="5"/>
       <c r="AY162" s="5"/>
     </row>
-    <row r="163" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:51" ht="15.75" customHeight="1">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -11645,7 +11641,7 @@
       <c r="AX163" s="5"/>
       <c r="AY163" s="5"/>
     </row>
-    <row r="164" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:51" ht="15.75" customHeight="1">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -11698,7 +11694,7 @@
       <c r="AX164" s="5"/>
       <c r="AY164" s="5"/>
     </row>
-    <row r="165" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:51" ht="15.75" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -11751,7 +11747,7 @@
       <c r="AX165" s="5"/>
       <c r="AY165" s="5"/>
     </row>
-    <row r="166" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:51" ht="15.75" customHeight="1">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -11804,7 +11800,7 @@
       <c r="AX166" s="5"/>
       <c r="AY166" s="5"/>
     </row>
-    <row r="167" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:51" ht="15.75" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -11857,7 +11853,7 @@
       <c r="AX167" s="5"/>
       <c r="AY167" s="5"/>
     </row>
-    <row r="168" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:51" ht="15.75" customHeight="1">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -11910,7 +11906,7 @@
       <c r="AX168" s="5"/>
       <c r="AY168" s="5"/>
     </row>
-    <row r="169" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:51" ht="15.75" customHeight="1">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -11963,7 +11959,7 @@
       <c r="AX169" s="5"/>
       <c r="AY169" s="5"/>
     </row>
-    <row r="170" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:51" ht="15.75" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -12016,7 +12012,7 @@
       <c r="AX170" s="5"/>
       <c r="AY170" s="5"/>
     </row>
-    <row r="171" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:51" ht="15.75" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -12069,7 +12065,7 @@
       <c r="AX171" s="5"/>
       <c r="AY171" s="5"/>
     </row>
-    <row r="172" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:51" ht="15.75" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -12122,7 +12118,7 @@
       <c r="AX172" s="5"/>
       <c r="AY172" s="5"/>
     </row>
-    <row r="173" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:51" ht="15.75" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -12175,7 +12171,7 @@
       <c r="AX173" s="5"/>
       <c r="AY173" s="5"/>
     </row>
-    <row r="174" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:51" ht="15.75" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -12228,7 +12224,7 @@
       <c r="AX174" s="5"/>
       <c r="AY174" s="5"/>
     </row>
-    <row r="175" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:51" ht="15.75" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -12281,7 +12277,7 @@
       <c r="AX175" s="5"/>
       <c r="AY175" s="5"/>
     </row>
-    <row r="176" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:51" ht="15.75" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -12334,7 +12330,7 @@
       <c r="AX176" s="5"/>
       <c r="AY176" s="5"/>
     </row>
-    <row r="177" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:51" ht="15.75" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -12387,7 +12383,7 @@
       <c r="AX177" s="5"/>
       <c r="AY177" s="5"/>
     </row>
-    <row r="178" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:51" ht="15.75" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -12440,7 +12436,7 @@
       <c r="AX178" s="5"/>
       <c r="AY178" s="5"/>
     </row>
-    <row r="179" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:51" ht="15.75" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -12493,7 +12489,7 @@
       <c r="AX179" s="5"/>
       <c r="AY179" s="5"/>
     </row>
-    <row r="180" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:51" ht="15.75" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -12546,7 +12542,7 @@
       <c r="AX180" s="5"/>
       <c r="AY180" s="5"/>
     </row>
-    <row r="181" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:51" ht="15.75" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -12599,7 +12595,7 @@
       <c r="AX181" s="5"/>
       <c r="AY181" s="5"/>
     </row>
-    <row r="182" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:51" ht="15.75" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -12652,7 +12648,7 @@
       <c r="AX182" s="5"/>
       <c r="AY182" s="5"/>
     </row>
-    <row r="183" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:51" ht="15.75" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -12705,7 +12701,7 @@
       <c r="AX183" s="5"/>
       <c r="AY183" s="5"/>
     </row>
-    <row r="184" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:51" ht="15.75" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -12758,7 +12754,7 @@
       <c r="AX184" s="5"/>
       <c r="AY184" s="5"/>
     </row>
-    <row r="185" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:51" ht="15.75" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -12811,7 +12807,7 @@
       <c r="AX185" s="5"/>
       <c r="AY185" s="5"/>
     </row>
-    <row r="186" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:51" ht="15.75" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -12864,7 +12860,7 @@
       <c r="AX186" s="5"/>
       <c r="AY186" s="5"/>
     </row>
-    <row r="187" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:51" ht="15.75" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -12917,7 +12913,7 @@
       <c r="AX187" s="5"/>
       <c r="AY187" s="5"/>
     </row>
-    <row r="188" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:51" ht="15.75" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -12970,7 +12966,7 @@
       <c r="AX188" s="5"/>
       <c r="AY188" s="5"/>
     </row>
-    <row r="189" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:51" ht="15.75" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -13023,7 +13019,7 @@
       <c r="AX189" s="5"/>
       <c r="AY189" s="5"/>
     </row>
-    <row r="190" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:51" ht="15.75" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -13076,7 +13072,7 @@
       <c r="AX190" s="5"/>
       <c r="AY190" s="5"/>
     </row>
-    <row r="191" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:51" ht="15.75" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -13129,7 +13125,7 @@
       <c r="AX191" s="5"/>
       <c r="AY191" s="5"/>
     </row>
-    <row r="192" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:51" ht="15.75" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -13182,7 +13178,7 @@
       <c r="AX192" s="5"/>
       <c r="AY192" s="5"/>
     </row>
-    <row r="193" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:51" ht="15.75" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -13235,7 +13231,7 @@
       <c r="AX193" s="5"/>
       <c r="AY193" s="5"/>
     </row>
-    <row r="194" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:51" ht="15.75" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -13288,7 +13284,7 @@
       <c r="AX194" s="5"/>
       <c r="AY194" s="5"/>
     </row>
-    <row r="195" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:51" ht="15.75" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -13341,7 +13337,7 @@
       <c r="AX195" s="5"/>
       <c r="AY195" s="5"/>
     </row>
-    <row r="196" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:51" ht="15.75" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -13394,7 +13390,7 @@
       <c r="AX196" s="5"/>
       <c r="AY196" s="5"/>
     </row>
-    <row r="197" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:51" ht="15.75" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -13447,7 +13443,7 @@
       <c r="AX197" s="5"/>
       <c r="AY197" s="5"/>
     </row>
-    <row r="198" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:51" ht="15.75" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -13500,7 +13496,7 @@
       <c r="AX198" s="5"/>
       <c r="AY198" s="5"/>
     </row>
-    <row r="199" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:51" ht="15.75" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -13553,7 +13549,7 @@
       <c r="AX199" s="5"/>
       <c r="AY199" s="5"/>
     </row>
-    <row r="200" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:51" ht="15.75" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -13606,7 +13602,7 @@
       <c r="AX200" s="5"/>
       <c r="AY200" s="5"/>
     </row>
-    <row r="201" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:51" ht="15.75" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -13659,7 +13655,7 @@
       <c r="AX201" s="5"/>
       <c r="AY201" s="5"/>
     </row>
-    <row r="202" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:51" ht="15.75" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -13712,7 +13708,7 @@
       <c r="AX202" s="5"/>
       <c r="AY202" s="5"/>
     </row>
-    <row r="203" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:51" ht="15.75" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -13765,7 +13761,7 @@
       <c r="AX203" s="5"/>
       <c r="AY203" s="5"/>
     </row>
-    <row r="204" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:51" ht="15.75" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -13818,7 +13814,7 @@
       <c r="AX204" s="5"/>
       <c r="AY204" s="5"/>
     </row>
-    <row r="205" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:51" ht="15.75" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -13871,7 +13867,7 @@
       <c r="AX205" s="5"/>
       <c r="AY205" s="5"/>
     </row>
-    <row r="206" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:51" ht="15.75" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -13924,7 +13920,7 @@
       <c r="AX206" s="5"/>
       <c r="AY206" s="5"/>
     </row>
-    <row r="207" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:51" ht="15.75" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -13977,7 +13973,7 @@
       <c r="AX207" s="5"/>
       <c r="AY207" s="5"/>
     </row>
-    <row r="208" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:51" ht="15.75" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -14030,7 +14026,7 @@
       <c r="AX208" s="5"/>
       <c r="AY208" s="5"/>
     </row>
-    <row r="209" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:51" ht="15.75" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -14083,7 +14079,7 @@
       <c r="AX209" s="5"/>
       <c r="AY209" s="5"/>
     </row>
-    <row r="210" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:51" ht="15.75" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -14136,7 +14132,7 @@
       <c r="AX210" s="5"/>
       <c r="AY210" s="5"/>
     </row>
-    <row r="211" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:51" ht="15.75" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -14189,7 +14185,7 @@
       <c r="AX211" s="5"/>
       <c r="AY211" s="5"/>
     </row>
-    <row r="212" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:51" ht="15.75" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -14242,7 +14238,7 @@
       <c r="AX212" s="5"/>
       <c r="AY212" s="5"/>
     </row>
-    <row r="213" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:51" ht="15.75" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -14295,7 +14291,7 @@
       <c r="AX213" s="5"/>
       <c r="AY213" s="5"/>
     </row>
-    <row r="214" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:51" ht="15.75" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -14348,7 +14344,7 @@
       <c r="AX214" s="5"/>
       <c r="AY214" s="5"/>
     </row>
-    <row r="215" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:51" ht="15.75" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -14401,7 +14397,7 @@
       <c r="AX215" s="5"/>
       <c r="AY215" s="5"/>
     </row>
-    <row r="216" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:51" ht="15.75" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -14454,7 +14450,7 @@
       <c r="AX216" s="5"/>
       <c r="AY216" s="5"/>
     </row>
-    <row r="217" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:51" ht="15.75" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -14507,7 +14503,7 @@
       <c r="AX217" s="5"/>
       <c r="AY217" s="5"/>
     </row>
-    <row r="218" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:51" ht="15.75" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -14560,7 +14556,7 @@
       <c r="AX218" s="5"/>
       <c r="AY218" s="5"/>
     </row>
-    <row r="219" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:51" ht="15.75" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -14613,7 +14609,7 @@
       <c r="AX219" s="5"/>
       <c r="AY219" s="5"/>
     </row>
-    <row r="220" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:51" ht="15.75" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -14666,7 +14662,7 @@
       <c r="AX220" s="5"/>
       <c r="AY220" s="5"/>
     </row>
-    <row r="221" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:51" ht="15.75" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -14719,7 +14715,7 @@
       <c r="AX221" s="5"/>
       <c r="AY221" s="5"/>
     </row>
-    <row r="222" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:51" ht="15.75" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -14772,7 +14768,7 @@
       <c r="AX222" s="5"/>
       <c r="AY222" s="5"/>
     </row>
-    <row r="223" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:51" ht="15.75" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -14825,7 +14821,7 @@
       <c r="AX223" s="5"/>
       <c r="AY223" s="5"/>
     </row>
-    <row r="224" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:51" ht="15.75" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -14878,7 +14874,7 @@
       <c r="AX224" s="5"/>
       <c r="AY224" s="5"/>
     </row>
-    <row r="225" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:51" ht="15.75" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -14931,7 +14927,7 @@
       <c r="AX225" s="5"/>
       <c r="AY225" s="5"/>
     </row>
-    <row r="226" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:51" ht="15.75" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -14984,7 +14980,7 @@
       <c r="AX226" s="5"/>
       <c r="AY226" s="5"/>
     </row>
-    <row r="227" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:51" ht="15.75" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -15037,7 +15033,7 @@
       <c r="AX227" s="5"/>
       <c r="AY227" s="5"/>
     </row>
-    <row r="228" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:51" ht="15.75" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -15090,7 +15086,7 @@
       <c r="AX228" s="5"/>
       <c r="AY228" s="5"/>
     </row>
-    <row r="229" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:51" ht="15.75" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -15143,7 +15139,7 @@
       <c r="AX229" s="5"/>
       <c r="AY229" s="5"/>
     </row>
-    <row r="230" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:51" ht="15.75" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -15196,7 +15192,7 @@
       <c r="AX230" s="5"/>
       <c r="AY230" s="5"/>
     </row>
-    <row r="231" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:51" ht="15.75" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -15249,7 +15245,7 @@
       <c r="AX231" s="5"/>
       <c r="AY231" s="5"/>
     </row>
-    <row r="232" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:51" ht="15.75" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -15302,7 +15298,7 @@
       <c r="AX232" s="5"/>
       <c r="AY232" s="5"/>
     </row>
-    <row r="233" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:51" ht="15.75" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -15355,7 +15351,7 @@
       <c r="AX233" s="5"/>
       <c r="AY233" s="5"/>
     </row>
-    <row r="234" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:51" ht="15.75" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -15408,7 +15404,7 @@
       <c r="AX234" s="5"/>
       <c r="AY234" s="5"/>
     </row>
-    <row r="235" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:51" ht="15.75" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -15461,7 +15457,7 @@
       <c r="AX235" s="5"/>
       <c r="AY235" s="5"/>
     </row>
-    <row r="236" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:51" ht="15.75" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -15514,7 +15510,7 @@
       <c r="AX236" s="5"/>
       <c r="AY236" s="5"/>
     </row>
-    <row r="237" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:51" ht="15.75" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -15567,7 +15563,7 @@
       <c r="AX237" s="5"/>
       <c r="AY237" s="5"/>
     </row>
-    <row r="238" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:51" ht="15.75" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -15620,7 +15616,7 @@
       <c r="AX238" s="5"/>
       <c r="AY238" s="5"/>
     </row>
-    <row r="239" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:51" ht="15.75" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -15673,7 +15669,7 @@
       <c r="AX239" s="5"/>
       <c r="AY239" s="5"/>
     </row>
-    <row r="240" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:51" ht="15.75" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -15726,7 +15722,7 @@
       <c r="AX240" s="5"/>
       <c r="AY240" s="5"/>
     </row>
-    <row r="241" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:51" ht="15.75" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -15779,7 +15775,7 @@
       <c r="AX241" s="5"/>
       <c r="AY241" s="5"/>
     </row>
-    <row r="242" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:51" ht="15.75" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -15832,7 +15828,7 @@
       <c r="AX242" s="5"/>
       <c r="AY242" s="5"/>
     </row>
-    <row r="243" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:51" ht="15.75" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -15885,7 +15881,7 @@
       <c r="AX243" s="5"/>
       <c r="AY243" s="5"/>
     </row>
-    <row r="244" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:51" ht="15.75" customHeight="1">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -15938,7 +15934,7 @@
       <c r="AX244" s="5"/>
       <c r="AY244" s="5"/>
     </row>
-    <row r="245" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:51" ht="15.75" customHeight="1">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -15991,7 +15987,7 @@
       <c r="AX245" s="5"/>
       <c r="AY245" s="5"/>
     </row>
-    <row r="246" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:51" ht="15.75" customHeight="1">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -16044,7 +16040,7 @@
       <c r="AX246" s="5"/>
       <c r="AY246" s="5"/>
     </row>
-    <row r="247" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:51" ht="15.75" customHeight="1">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -16097,7 +16093,7 @@
       <c r="AX247" s="5"/>
       <c r="AY247" s="5"/>
     </row>
-    <row r="248" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:51" ht="15.75" customHeight="1">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -16150,7 +16146,7 @@
       <c r="AX248" s="5"/>
       <c r="AY248" s="5"/>
     </row>
-    <row r="249" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:51" ht="15.75" customHeight="1">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -16203,7 +16199,7 @@
       <c r="AX249" s="5"/>
       <c r="AY249" s="5"/>
     </row>
-    <row r="250" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:51" ht="15.75" customHeight="1">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -16256,7 +16252,7 @@
       <c r="AX250" s="5"/>
       <c r="AY250" s="5"/>
     </row>
-    <row r="251" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:51" ht="15.75" customHeight="1">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -16309,7 +16305,7 @@
       <c r="AX251" s="5"/>
       <c r="AY251" s="5"/>
     </row>
-    <row r="252" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:51" ht="15.75" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -16362,7 +16358,7 @@
       <c r="AX252" s="5"/>
       <c r="AY252" s="5"/>
     </row>
-    <row r="253" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:51" ht="15.75" customHeight="1">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -16415,7 +16411,7 @@
       <c r="AX253" s="5"/>
       <c r="AY253" s="5"/>
     </row>
-    <row r="254" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:51" ht="15.75" customHeight="1">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -16468,7 +16464,7 @@
       <c r="AX254" s="5"/>
       <c r="AY254" s="5"/>
     </row>
-    <row r="255" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:51" ht="15.75" customHeight="1">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -16521,7 +16517,7 @@
       <c r="AX255" s="5"/>
       <c r="AY255" s="5"/>
     </row>
-    <row r="256" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:51" ht="15.75" customHeight="1">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -16574,7 +16570,7 @@
       <c r="AX256" s="5"/>
       <c r="AY256" s="5"/>
     </row>
-    <row r="257" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:51" ht="15.75" customHeight="1">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -16627,7 +16623,7 @@
       <c r="AX257" s="5"/>
       <c r="AY257" s="5"/>
     </row>
-    <row r="258" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:51" ht="15.75" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -16680,7 +16676,7 @@
       <c r="AX258" s="5"/>
       <c r="AY258" s="5"/>
     </row>
-    <row r="259" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:51" ht="15.75" customHeight="1">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -16733,7 +16729,7 @@
       <c r="AX259" s="5"/>
       <c r="AY259" s="5"/>
     </row>
-    <row r="260" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:51" ht="15.75" customHeight="1">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -16786,7 +16782,7 @@
       <c r="AX260" s="5"/>
       <c r="AY260" s="5"/>
     </row>
-    <row r="261" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:51" ht="15.75" customHeight="1">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -16839,7 +16835,7 @@
       <c r="AX261" s="5"/>
       <c r="AY261" s="5"/>
     </row>
-    <row r="262" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:51" ht="15.75" customHeight="1">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -16892,7 +16888,7 @@
       <c r="AX262" s="5"/>
       <c r="AY262" s="5"/>
     </row>
-    <row r="263" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:51" ht="15.75" customHeight="1">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -16945,7 +16941,7 @@
       <c r="AX263" s="5"/>
       <c r="AY263" s="5"/>
     </row>
-    <row r="264" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:51" ht="15.75" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -16998,7 +16994,7 @@
       <c r="AX264" s="5"/>
       <c r="AY264" s="5"/>
     </row>
-    <row r="265" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:51" ht="15.75" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -17051,7 +17047,7 @@
       <c r="AX265" s="5"/>
       <c r="AY265" s="5"/>
     </row>
-    <row r="266" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:51" ht="15.75" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -17104,7 +17100,7 @@
       <c r="AX266" s="5"/>
       <c r="AY266" s="5"/>
     </row>
-    <row r="267" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:51" ht="15.75" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -17157,7 +17153,7 @@
       <c r="AX267" s="5"/>
       <c r="AY267" s="5"/>
     </row>
-    <row r="268" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:51" ht="15.75" customHeight="1">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -17210,7 +17206,7 @@
       <c r="AX268" s="5"/>
       <c r="AY268" s="5"/>
     </row>
-    <row r="269" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:51" ht="15.75" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -17263,7 +17259,7 @@
       <c r="AX269" s="5"/>
       <c r="AY269" s="5"/>
     </row>
-    <row r="270" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:51" ht="15.75" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -17316,7 +17312,7 @@
       <c r="AX270" s="5"/>
       <c r="AY270" s="5"/>
     </row>
-    <row r="271" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:51" ht="15.75" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -17369,7 +17365,7 @@
       <c r="AX271" s="5"/>
       <c r="AY271" s="5"/>
     </row>
-    <row r="272" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:51" ht="15.75" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -17422,7 +17418,7 @@
       <c r="AX272" s="5"/>
       <c r="AY272" s="5"/>
     </row>
-    <row r="273" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:51" ht="15.75" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -17475,7 +17471,7 @@
       <c r="AX273" s="5"/>
       <c r="AY273" s="5"/>
     </row>
-    <row r="274" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:51" ht="15.75" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -17528,7 +17524,7 @@
       <c r="AX274" s="5"/>
       <c r="AY274" s="5"/>
     </row>
-    <row r="275" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:51" ht="15.75" customHeight="1">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -17581,7 +17577,7 @@
       <c r="AX275" s="5"/>
       <c r="AY275" s="5"/>
     </row>
-    <row r="276" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:51" ht="15.75" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -17634,7 +17630,7 @@
       <c r="AX276" s="5"/>
       <c r="AY276" s="5"/>
     </row>
-    <row r="277" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:51" ht="15.75" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -17687,7 +17683,7 @@
       <c r="AX277" s="5"/>
       <c r="AY277" s="5"/>
     </row>
-    <row r="278" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:51" ht="15.75" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -17740,7 +17736,7 @@
       <c r="AX278" s="5"/>
       <c r="AY278" s="5"/>
     </row>
-    <row r="279" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:51" ht="15.75" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -17793,7 +17789,7 @@
       <c r="AX279" s="5"/>
       <c r="AY279" s="5"/>
     </row>
-    <row r="280" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:51" ht="15.75" customHeight="1">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -17846,7 +17842,7 @@
       <c r="AX280" s="5"/>
       <c r="AY280" s="5"/>
     </row>
-    <row r="281" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:51" ht="15.75" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -17899,7 +17895,7 @@
       <c r="AX281" s="5"/>
       <c r="AY281" s="5"/>
     </row>
-    <row r="282" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:51" ht="15.75" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -17952,7 +17948,7 @@
       <c r="AX282" s="5"/>
       <c r="AY282" s="5"/>
     </row>
-    <row r="283" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:51" ht="15.75" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -18005,7 +18001,7 @@
       <c r="AX283" s="5"/>
       <c r="AY283" s="5"/>
     </row>
-    <row r="284" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:51" ht="15.75" customHeight="1">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -18058,7 +18054,7 @@
       <c r="AX284" s="5"/>
       <c r="AY284" s="5"/>
     </row>
-    <row r="285" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:51" ht="15.75" customHeight="1">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -18111,7 +18107,7 @@
       <c r="AX285" s="5"/>
       <c r="AY285" s="5"/>
     </row>
-    <row r="286" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:51" ht="15.75" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -18164,7 +18160,7 @@
       <c r="AX286" s="5"/>
       <c r="AY286" s="5"/>
     </row>
-    <row r="287" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:51" ht="15.75" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -18217,7 +18213,7 @@
       <c r="AX287" s="5"/>
       <c r="AY287" s="5"/>
     </row>
-    <row r="288" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:51" ht="15.75" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -18270,7 +18266,7 @@
       <c r="AX288" s="5"/>
       <c r="AY288" s="5"/>
     </row>
-    <row r="289" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:51" ht="15.75" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -18323,7 +18319,7 @@
       <c r="AX289" s="5"/>
       <c r="AY289" s="5"/>
     </row>
-    <row r="290" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:51" ht="15.75" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -18376,7 +18372,7 @@
       <c r="AX290" s="5"/>
       <c r="AY290" s="5"/>
     </row>
-    <row r="291" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:51" ht="15.75" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -18429,7 +18425,7 @@
       <c r="AX291" s="5"/>
       <c r="AY291" s="5"/>
     </row>
-    <row r="292" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:51" ht="15.75" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -18482,7 +18478,7 @@
       <c r="AX292" s="5"/>
       <c r="AY292" s="5"/>
     </row>
-    <row r="293" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:51" ht="15.75" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -18535,7 +18531,7 @@
       <c r="AX293" s="5"/>
       <c r="AY293" s="5"/>
     </row>
-    <row r="294" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:51" ht="15.75" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -18588,7 +18584,7 @@
       <c r="AX294" s="5"/>
       <c r="AY294" s="5"/>
     </row>
-    <row r="295" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:51" ht="15.75" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -18641,7 +18637,7 @@
       <c r="AX295" s="5"/>
       <c r="AY295" s="5"/>
     </row>
-    <row r="296" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:51" ht="15.75" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -18694,7 +18690,7 @@
       <c r="AX296" s="5"/>
       <c r="AY296" s="5"/>
     </row>
-    <row r="297" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:51" ht="15.75" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -18747,7 +18743,7 @@
       <c r="AX297" s="5"/>
       <c r="AY297" s="5"/>
     </row>
-    <row r="298" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:51" ht="15.75" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -18800,7 +18796,7 @@
       <c r="AX298" s="5"/>
       <c r="AY298" s="5"/>
     </row>
-    <row r="299" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:51" ht="15.75" customHeight="1">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -18853,7 +18849,7 @@
       <c r="AX299" s="5"/>
       <c r="AY299" s="5"/>
     </row>
-    <row r="300" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:51" ht="15.75" customHeight="1">
       <c r="M300" s="119"/>
       <c r="N300" s="120"/>
       <c r="O300" s="121"/>
@@ -18879,7 +18875,7 @@
       <c r="AI300" s="125"/>
       <c r="AJ300" s="122"/>
     </row>
-    <row r="301" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:51" ht="15.75" customHeight="1">
       <c r="M301" s="119"/>
       <c r="N301" s="120"/>
       <c r="O301" s="121"/>
@@ -18905,7 +18901,7 @@
       <c r="AI301" s="125"/>
       <c r="AJ301" s="122"/>
     </row>
-    <row r="302" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:51" ht="15.75" customHeight="1">
       <c r="M302" s="119"/>
       <c r="N302" s="120"/>
       <c r="O302" s="121"/>
@@ -18931,7 +18927,7 @@
       <c r="AI302" s="125"/>
       <c r="AJ302" s="122"/>
     </row>
-    <row r="303" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:51" ht="15.75" customHeight="1">
       <c r="M303" s="119"/>
       <c r="N303" s="120"/>
       <c r="O303" s="121"/>
@@ -18957,7 +18953,7 @@
       <c r="AI303" s="125"/>
       <c r="AJ303" s="122"/>
     </row>
-    <row r="304" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:51" ht="15.75" customHeight="1">
       <c r="M304" s="119"/>
       <c r="N304" s="120"/>
       <c r="O304" s="121"/>
@@ -18983,7 +18979,7 @@
       <c r="AI304" s="125"/>
       <c r="AJ304" s="122"/>
     </row>
-    <row r="305" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="13:36" ht="15.75" customHeight="1">
       <c r="M305" s="119"/>
       <c r="N305" s="120"/>
       <c r="O305" s="121"/>
@@ -19009,7 +19005,7 @@
       <c r="AI305" s="125"/>
       <c r="AJ305" s="122"/>
     </row>
-    <row r="306" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="13:36" ht="15.75" customHeight="1">
       <c r="M306" s="119"/>
       <c r="N306" s="120"/>
       <c r="O306" s="121"/>
@@ -19035,7 +19031,7 @@
       <c r="AI306" s="125"/>
       <c r="AJ306" s="122"/>
     </row>
-    <row r="307" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="13:36" ht="15.75" customHeight="1">
       <c r="M307" s="119"/>
       <c r="N307" s="120"/>
       <c r="O307" s="121"/>
@@ -19061,7 +19057,7 @@
       <c r="AI307" s="125"/>
       <c r="AJ307" s="122"/>
     </row>
-    <row r="308" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="13:36" ht="15.75" customHeight="1">
       <c r="M308" s="119"/>
       <c r="N308" s="120"/>
       <c r="O308" s="121"/>
@@ -19087,7 +19083,7 @@
       <c r="AI308" s="125"/>
       <c r="AJ308" s="122"/>
     </row>
-    <row r="309" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="13:36" ht="15.75" customHeight="1">
       <c r="M309" s="119"/>
       <c r="N309" s="120"/>
       <c r="O309" s="121"/>
@@ -19113,7 +19109,7 @@
       <c r="AI309" s="125"/>
       <c r="AJ309" s="122"/>
     </row>
-    <row r="310" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="13:36" ht="15.75" customHeight="1">
       <c r="M310" s="119"/>
       <c r="N310" s="120"/>
       <c r="O310" s="121"/>
@@ -19139,7 +19135,7 @@
       <c r="AI310" s="125"/>
       <c r="AJ310" s="122"/>
     </row>
-    <row r="311" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="13:36" ht="15.75" customHeight="1">
       <c r="M311" s="119"/>
       <c r="N311" s="120"/>
       <c r="O311" s="121"/>
@@ -19165,7 +19161,7 @@
       <c r="AI311" s="125"/>
       <c r="AJ311" s="122"/>
     </row>
-    <row r="312" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="13:36" ht="15.75" customHeight="1">
       <c r="M312" s="119"/>
       <c r="N312" s="120"/>
       <c r="O312" s="121"/>
@@ -19191,7 +19187,7 @@
       <c r="AI312" s="125"/>
       <c r="AJ312" s="122"/>
     </row>
-    <row r="313" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="13:36" ht="15.75" customHeight="1">
       <c r="M313" s="119"/>
       <c r="N313" s="120"/>
       <c r="O313" s="121"/>
@@ -19217,7 +19213,7 @@
       <c r="AI313" s="125"/>
       <c r="AJ313" s="122"/>
     </row>
-    <row r="314" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="13:36" ht="15.75" customHeight="1">
       <c r="M314" s="119"/>
       <c r="N314" s="120"/>
       <c r="O314" s="121"/>
@@ -19243,7 +19239,7 @@
       <c r="AI314" s="125"/>
       <c r="AJ314" s="122"/>
     </row>
-    <row r="315" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="13:36" ht="15.75" customHeight="1">
       <c r="M315" s="119"/>
       <c r="N315" s="120"/>
       <c r="O315" s="121"/>
@@ -19269,7 +19265,7 @@
       <c r="AI315" s="125"/>
       <c r="AJ315" s="122"/>
     </row>
-    <row r="316" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="13:36" ht="15.75" customHeight="1">
       <c r="M316" s="119"/>
       <c r="N316" s="120"/>
       <c r="O316" s="121"/>
@@ -19295,7 +19291,7 @@
       <c r="AI316" s="125"/>
       <c r="AJ316" s="122"/>
     </row>
-    <row r="317" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="13:36" ht="15.75" customHeight="1">
       <c r="M317" s="119"/>
       <c r="N317" s="120"/>
       <c r="O317" s="121"/>
@@ -19321,7 +19317,7 @@
       <c r="AI317" s="125"/>
       <c r="AJ317" s="122"/>
     </row>
-    <row r="318" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="13:36" ht="15.75" customHeight="1">
       <c r="M318" s="119"/>
       <c r="N318" s="120"/>
       <c r="O318" s="121"/>
@@ -19347,7 +19343,7 @@
       <c r="AI318" s="125"/>
       <c r="AJ318" s="122"/>
     </row>
-    <row r="319" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="13:36" ht="15.75" customHeight="1">
       <c r="M319" s="119"/>
       <c r="N319" s="120"/>
       <c r="O319" s="121"/>
@@ -19373,7 +19369,7 @@
       <c r="AI319" s="125"/>
       <c r="AJ319" s="122"/>
     </row>
-    <row r="320" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="13:36" ht="15.75" customHeight="1">
       <c r="M320" s="119"/>
       <c r="N320" s="120"/>
       <c r="O320" s="121"/>
@@ -19399,7 +19395,7 @@
       <c r="AI320" s="125"/>
       <c r="AJ320" s="122"/>
     </row>
-    <row r="321" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="13:36" ht="15.75" customHeight="1">
       <c r="M321" s="119"/>
       <c r="N321" s="120"/>
       <c r="O321" s="121"/>
@@ -19425,7 +19421,7 @@
       <c r="AI321" s="125"/>
       <c r="AJ321" s="122"/>
     </row>
-    <row r="322" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="13:36" ht="15.75" customHeight="1">
       <c r="M322" s="119"/>
       <c r="N322" s="120"/>
       <c r="O322" s="121"/>
@@ -19451,7 +19447,7 @@
       <c r="AI322" s="125"/>
       <c r="AJ322" s="122"/>
     </row>
-    <row r="323" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="13:36" ht="15.75" customHeight="1">
       <c r="M323" s="119"/>
       <c r="N323" s="120"/>
       <c r="O323" s="121"/>
@@ -19477,7 +19473,7 @@
       <c r="AI323" s="125"/>
       <c r="AJ323" s="122"/>
     </row>
-    <row r="324" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="13:36" ht="15.75" customHeight="1">
       <c r="M324" s="119"/>
       <c r="N324" s="120"/>
       <c r="O324" s="121"/>
@@ -19503,7 +19499,7 @@
       <c r="AI324" s="125"/>
       <c r="AJ324" s="122"/>
     </row>
-    <row r="325" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="13:36" ht="15.75" customHeight="1">
       <c r="M325" s="119"/>
       <c r="N325" s="120"/>
       <c r="O325" s="121"/>
@@ -19529,7 +19525,7 @@
       <c r="AI325" s="125"/>
       <c r="AJ325" s="122"/>
     </row>
-    <row r="326" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="13:36" ht="15.75" customHeight="1">
       <c r="M326" s="119"/>
       <c r="N326" s="120"/>
       <c r="O326" s="121"/>
@@ -19555,7 +19551,7 @@
       <c r="AI326" s="125"/>
       <c r="AJ326" s="122"/>
     </row>
-    <row r="327" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="13:36" ht="15.75" customHeight="1">
       <c r="M327" s="119"/>
       <c r="N327" s="120"/>
       <c r="O327" s="121"/>
@@ -19581,7 +19577,7 @@
       <c r="AI327" s="125"/>
       <c r="AJ327" s="122"/>
     </row>
-    <row r="328" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="13:36" ht="15.75" customHeight="1">
       <c r="M328" s="119"/>
       <c r="N328" s="120"/>
       <c r="O328" s="121"/>
@@ -19607,7 +19603,7 @@
       <c r="AI328" s="125"/>
       <c r="AJ328" s="122"/>
     </row>
-    <row r="329" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="13:36" ht="15.75" customHeight="1">
       <c r="M329" s="119"/>
       <c r="N329" s="120"/>
       <c r="O329" s="121"/>
@@ -19633,7 +19629,7 @@
       <c r="AI329" s="125"/>
       <c r="AJ329" s="122"/>
     </row>
-    <row r="330" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="13:36" ht="15.75" customHeight="1">
       <c r="M330" s="119"/>
       <c r="N330" s="120"/>
       <c r="O330" s="121"/>
@@ -19659,7 +19655,7 @@
       <c r="AI330" s="125"/>
       <c r="AJ330" s="122"/>
     </row>
-    <row r="331" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="13:36" ht="15.75" customHeight="1">
       <c r="M331" s="119"/>
       <c r="N331" s="120"/>
       <c r="O331" s="121"/>
@@ -19685,7 +19681,7 @@
       <c r="AI331" s="125"/>
       <c r="AJ331" s="122"/>
     </row>
-    <row r="332" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="13:36" ht="15.75" customHeight="1">
       <c r="M332" s="119"/>
       <c r="N332" s="120"/>
       <c r="O332" s="121"/>
@@ -19711,7 +19707,7 @@
       <c r="AI332" s="125"/>
       <c r="AJ332" s="122"/>
     </row>
-    <row r="333" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="13:36" ht="15.75" customHeight="1">
       <c r="M333" s="119"/>
       <c r="N333" s="120"/>
       <c r="O333" s="121"/>
@@ -19737,7 +19733,7 @@
       <c r="AI333" s="125"/>
       <c r="AJ333" s="122"/>
     </row>
-    <row r="334" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="13:36" ht="15.75" customHeight="1">
       <c r="M334" s="119"/>
       <c r="N334" s="120"/>
       <c r="O334" s="121"/>
@@ -19763,7 +19759,7 @@
       <c r="AI334" s="125"/>
       <c r="AJ334" s="122"/>
     </row>
-    <row r="335" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="13:36" ht="15.75" customHeight="1">
       <c r="M335" s="119"/>
       <c r="N335" s="120"/>
       <c r="O335" s="121"/>
@@ -19789,7 +19785,7 @@
       <c r="AI335" s="125"/>
       <c r="AJ335" s="122"/>
     </row>
-    <row r="336" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="13:36" ht="15.75" customHeight="1">
       <c r="M336" s="119"/>
       <c r="N336" s="120"/>
       <c r="O336" s="121"/>
@@ -19815,7 +19811,7 @@
       <c r="AI336" s="125"/>
       <c r="AJ336" s="122"/>
     </row>
-    <row r="337" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="13:36" ht="15.75" customHeight="1">
       <c r="M337" s="119"/>
       <c r="N337" s="120"/>
       <c r="O337" s="121"/>
@@ -19841,7 +19837,7 @@
       <c r="AI337" s="125"/>
       <c r="AJ337" s="122"/>
     </row>
-    <row r="338" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="13:36" ht="15.75" customHeight="1">
       <c r="M338" s="119"/>
       <c r="N338" s="120"/>
       <c r="O338" s="121"/>
@@ -19867,7 +19863,7 @@
       <c r="AI338" s="125"/>
       <c r="AJ338" s="122"/>
     </row>
-    <row r="339" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="13:36" ht="15.75" customHeight="1">
       <c r="M339" s="119"/>
       <c r="N339" s="120"/>
       <c r="O339" s="121"/>
@@ -19893,7 +19889,7 @@
       <c r="AI339" s="125"/>
       <c r="AJ339" s="122"/>
     </row>
-    <row r="340" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="13:36" ht="15.75" customHeight="1">
       <c r="M340" s="119"/>
       <c r="N340" s="120"/>
       <c r="O340" s="121"/>
@@ -19919,7 +19915,7 @@
       <c r="AI340" s="125"/>
       <c r="AJ340" s="122"/>
     </row>
-    <row r="341" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="13:36" ht="15.75" customHeight="1">
       <c r="M341" s="119"/>
       <c r="N341" s="120"/>
       <c r="O341" s="121"/>
@@ -19945,7 +19941,7 @@
       <c r="AI341" s="125"/>
       <c r="AJ341" s="122"/>
     </row>
-    <row r="342" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="13:36" ht="15.75" customHeight="1">
       <c r="M342" s="119"/>
       <c r="N342" s="120"/>
       <c r="O342" s="121"/>
@@ -19971,7 +19967,7 @@
       <c r="AI342" s="125"/>
       <c r="AJ342" s="122"/>
     </row>
-    <row r="343" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="13:36" ht="15.75" customHeight="1">
       <c r="M343" s="119"/>
       <c r="N343" s="120"/>
       <c r="O343" s="121"/>
@@ -19997,7 +19993,7 @@
       <c r="AI343" s="125"/>
       <c r="AJ343" s="122"/>
     </row>
-    <row r="344" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="13:36" ht="15.75" customHeight="1">
       <c r="M344" s="119"/>
       <c r="N344" s="120"/>
       <c r="O344" s="121"/>
@@ -20023,7 +20019,7 @@
       <c r="AI344" s="125"/>
       <c r="AJ344" s="122"/>
     </row>
-    <row r="345" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="13:36" ht="15.75" customHeight="1">
       <c r="M345" s="119"/>
       <c r="N345" s="120"/>
       <c r="O345" s="121"/>
@@ -20049,7 +20045,7 @@
       <c r="AI345" s="125"/>
       <c r="AJ345" s="122"/>
     </row>
-    <row r="346" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="13:36" ht="15.75" customHeight="1">
       <c r="M346" s="119"/>
       <c r="N346" s="120"/>
       <c r="O346" s="121"/>
@@ -20075,7 +20071,7 @@
       <c r="AI346" s="125"/>
       <c r="AJ346" s="122"/>
     </row>
-    <row r="347" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="13:36" ht="15.75" customHeight="1">
       <c r="M347" s="119"/>
       <c r="N347" s="120"/>
       <c r="O347" s="121"/>
@@ -20101,7 +20097,7 @@
       <c r="AI347" s="125"/>
       <c r="AJ347" s="122"/>
     </row>
-    <row r="348" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="13:36" ht="15.75" customHeight="1">
       <c r="M348" s="119"/>
       <c r="N348" s="120"/>
       <c r="O348" s="121"/>
@@ -20127,7 +20123,7 @@
       <c r="AI348" s="125"/>
       <c r="AJ348" s="122"/>
     </row>
-    <row r="349" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="13:36" ht="15.75" customHeight="1">
       <c r="M349" s="119"/>
       <c r="N349" s="120"/>
       <c r="O349" s="121"/>
@@ -20153,7 +20149,7 @@
       <c r="AI349" s="125"/>
       <c r="AJ349" s="122"/>
     </row>
-    <row r="350" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="13:36" ht="15.75" customHeight="1">
       <c r="M350" s="119"/>
       <c r="N350" s="120"/>
       <c r="O350" s="121"/>
@@ -20179,7 +20175,7 @@
       <c r="AI350" s="125"/>
       <c r="AJ350" s="122"/>
     </row>
-    <row r="351" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="13:36" ht="15.75" customHeight="1">
       <c r="M351" s="119"/>
       <c r="N351" s="120"/>
       <c r="O351" s="121"/>
@@ -20205,7 +20201,7 @@
       <c r="AI351" s="125"/>
       <c r="AJ351" s="122"/>
     </row>
-    <row r="352" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="13:36" ht="15.75" customHeight="1">
       <c r="M352" s="119"/>
       <c r="N352" s="120"/>
       <c r="O352" s="121"/>
@@ -20231,7 +20227,7 @@
       <c r="AI352" s="125"/>
       <c r="AJ352" s="122"/>
     </row>
-    <row r="353" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="13:36" ht="15.75" customHeight="1">
       <c r="M353" s="119"/>
       <c r="N353" s="120"/>
       <c r="O353" s="121"/>
@@ -20257,7 +20253,7 @@
       <c r="AI353" s="125"/>
       <c r="AJ353" s="122"/>
     </row>
-    <row r="354" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="13:36" ht="15.75" customHeight="1">
       <c r="M354" s="119"/>
       <c r="N354" s="120"/>
       <c r="O354" s="121"/>
@@ -20283,7 +20279,7 @@
       <c r="AI354" s="125"/>
       <c r="AJ354" s="122"/>
     </row>
-    <row r="355" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="13:36" ht="15.75" customHeight="1">
       <c r="M355" s="119"/>
       <c r="N355" s="120"/>
       <c r="O355" s="121"/>
@@ -20309,7 +20305,7 @@
       <c r="AI355" s="125"/>
       <c r="AJ355" s="122"/>
     </row>
-    <row r="356" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="13:36" ht="15.75" customHeight="1">
       <c r="M356" s="119"/>
       <c r="N356" s="120"/>
       <c r="O356" s="121"/>
@@ -20335,7 +20331,7 @@
       <c r="AI356" s="125"/>
       <c r="AJ356" s="122"/>
     </row>
-    <row r="357" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="13:36" ht="15.75" customHeight="1">
       <c r="M357" s="119"/>
       <c r="N357" s="120"/>
       <c r="O357" s="121"/>
@@ -20361,7 +20357,7 @@
       <c r="AI357" s="125"/>
       <c r="AJ357" s="122"/>
     </row>
-    <row r="358" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="13:36" ht="15.75" customHeight="1">
       <c r="M358" s="119"/>
       <c r="N358" s="120"/>
       <c r="O358" s="121"/>
@@ -20387,7 +20383,7 @@
       <c r="AI358" s="125"/>
       <c r="AJ358" s="122"/>
     </row>
-    <row r="359" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="13:36" ht="15.75" customHeight="1">
       <c r="M359" s="119"/>
       <c r="N359" s="120"/>
       <c r="O359" s="121"/>
@@ -20413,7 +20409,7 @@
       <c r="AI359" s="125"/>
       <c r="AJ359" s="122"/>
     </row>
-    <row r="360" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="13:36" ht="15.75" customHeight="1">
       <c r="M360" s="119"/>
       <c r="N360" s="120"/>
       <c r="O360" s="121"/>
@@ -20439,7 +20435,7 @@
       <c r="AI360" s="125"/>
       <c r="AJ360" s="122"/>
     </row>
-    <row r="361" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="13:36" ht="15.75" customHeight="1">
       <c r="M361" s="119"/>
       <c r="N361" s="120"/>
       <c r="O361" s="121"/>
@@ -20465,7 +20461,7 @@
       <c r="AI361" s="125"/>
       <c r="AJ361" s="122"/>
     </row>
-    <row r="362" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="13:36" ht="15.75" customHeight="1">
       <c r="M362" s="119"/>
       <c r="N362" s="120"/>
       <c r="O362" s="121"/>
@@ -20491,7 +20487,7 @@
       <c r="AI362" s="125"/>
       <c r="AJ362" s="122"/>
     </row>
-    <row r="363" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="13:36" ht="15.75" customHeight="1">
       <c r="M363" s="119"/>
       <c r="N363" s="120"/>
       <c r="O363" s="121"/>
@@ -20517,7 +20513,7 @@
       <c r="AI363" s="125"/>
       <c r="AJ363" s="122"/>
     </row>
-    <row r="364" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="13:36" ht="15.75" customHeight="1">
       <c r="M364" s="119"/>
       <c r="N364" s="120"/>
       <c r="O364" s="121"/>
@@ -20543,7 +20539,7 @@
       <c r="AI364" s="125"/>
       <c r="AJ364" s="122"/>
     </row>
-    <row r="365" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="13:36" ht="15.75" customHeight="1">
       <c r="M365" s="119"/>
       <c r="N365" s="120"/>
       <c r="O365" s="121"/>
@@ -20569,7 +20565,7 @@
       <c r="AI365" s="125"/>
       <c r="AJ365" s="122"/>
     </row>
-    <row r="366" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="13:36" ht="15.75" customHeight="1">
       <c r="M366" s="119"/>
       <c r="N366" s="120"/>
       <c r="O366" s="121"/>
@@ -20595,7 +20591,7 @@
       <c r="AI366" s="125"/>
       <c r="AJ366" s="122"/>
     </row>
-    <row r="367" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="13:36" ht="15.75" customHeight="1">
       <c r="M367" s="119"/>
       <c r="N367" s="120"/>
       <c r="O367" s="121"/>
@@ -20621,7 +20617,7 @@
       <c r="AI367" s="125"/>
       <c r="AJ367" s="122"/>
     </row>
-    <row r="368" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="13:36" ht="15.75" customHeight="1">
       <c r="M368" s="119"/>
       <c r="N368" s="120"/>
       <c r="O368" s="121"/>
@@ -20647,7 +20643,7 @@
       <c r="AI368" s="125"/>
       <c r="AJ368" s="122"/>
     </row>
-    <row r="369" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="13:36" ht="15.75" customHeight="1">
       <c r="M369" s="119"/>
       <c r="N369" s="120"/>
       <c r="O369" s="121"/>
@@ -20673,7 +20669,7 @@
       <c r="AI369" s="125"/>
       <c r="AJ369" s="122"/>
     </row>
-    <row r="370" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="13:36" ht="15.75" customHeight="1">
       <c r="M370" s="119"/>
       <c r="N370" s="120"/>
       <c r="O370" s="121"/>
@@ -20699,7 +20695,7 @@
       <c r="AI370" s="125"/>
       <c r="AJ370" s="122"/>
     </row>
-    <row r="371" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="13:36" ht="15.75" customHeight="1">
       <c r="M371" s="119"/>
       <c r="N371" s="120"/>
       <c r="O371" s="121"/>
@@ -20725,7 +20721,7 @@
       <c r="AI371" s="125"/>
       <c r="AJ371" s="122"/>
     </row>
-    <row r="372" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="13:36" ht="15.75" customHeight="1">
       <c r="M372" s="119"/>
       <c r="N372" s="120"/>
       <c r="O372" s="121"/>
@@ -20751,7 +20747,7 @@
       <c r="AI372" s="125"/>
       <c r="AJ372" s="122"/>
     </row>
-    <row r="373" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="13:36" ht="15.75" customHeight="1">
       <c r="M373" s="119"/>
       <c r="N373" s="120"/>
       <c r="O373" s="121"/>
@@ -20777,7 +20773,7 @@
       <c r="AI373" s="125"/>
       <c r="AJ373" s="122"/>
     </row>
-    <row r="374" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="13:36" ht="15.75" customHeight="1">
       <c r="M374" s="119"/>
       <c r="N374" s="120"/>
       <c r="O374" s="121"/>
@@ -20803,7 +20799,7 @@
       <c r="AI374" s="125"/>
       <c r="AJ374" s="122"/>
     </row>
-    <row r="375" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="13:36" ht="15.75" customHeight="1">
       <c r="M375" s="119"/>
       <c r="N375" s="120"/>
       <c r="O375" s="121"/>
@@ -20829,7 +20825,7 @@
       <c r="AI375" s="125"/>
       <c r="AJ375" s="122"/>
     </row>
-    <row r="376" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="13:36" ht="15.75" customHeight="1">
       <c r="M376" s="119"/>
       <c r="N376" s="120"/>
       <c r="O376" s="121"/>
@@ -20855,7 +20851,7 @@
       <c r="AI376" s="125"/>
       <c r="AJ376" s="122"/>
     </row>
-    <row r="377" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="13:36" ht="15.75" customHeight="1">
       <c r="M377" s="119"/>
       <c r="N377" s="120"/>
       <c r="O377" s="121"/>
@@ -20881,7 +20877,7 @@
       <c r="AI377" s="125"/>
       <c r="AJ377" s="122"/>
     </row>
-    <row r="378" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="13:36" ht="15.75" customHeight="1">
       <c r="M378" s="119"/>
       <c r="N378" s="120"/>
       <c r="O378" s="121"/>
@@ -20907,7 +20903,7 @@
       <c r="AI378" s="125"/>
       <c r="AJ378" s="122"/>
     </row>
-    <row r="379" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="13:36" ht="15.75" customHeight="1">
       <c r="M379" s="119"/>
       <c r="N379" s="120"/>
       <c r="O379" s="121"/>
@@ -20933,7 +20929,7 @@
       <c r="AI379" s="125"/>
       <c r="AJ379" s="122"/>
     </row>
-    <row r="380" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="13:36" ht="15.75" customHeight="1">
       <c r="M380" s="119"/>
       <c r="N380" s="120"/>
       <c r="O380" s="121"/>
@@ -20959,7 +20955,7 @@
       <c r="AI380" s="125"/>
       <c r="AJ380" s="122"/>
     </row>
-    <row r="381" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="13:36" ht="15.75" customHeight="1">
       <c r="M381" s="119"/>
       <c r="N381" s="120"/>
       <c r="O381" s="121"/>
@@ -20985,7 +20981,7 @@
       <c r="AI381" s="125"/>
       <c r="AJ381" s="122"/>
     </row>
-    <row r="382" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="13:36" ht="15.75" customHeight="1">
       <c r="M382" s="119"/>
       <c r="N382" s="120"/>
       <c r="O382" s="121"/>
@@ -21011,7 +21007,7 @@
       <c r="AI382" s="125"/>
       <c r="AJ382" s="122"/>
     </row>
-    <row r="383" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="13:36" ht="15.75" customHeight="1">
       <c r="M383" s="119"/>
       <c r="N383" s="120"/>
       <c r="O383" s="121"/>
@@ -21037,7 +21033,7 @@
       <c r="AI383" s="125"/>
       <c r="AJ383" s="122"/>
     </row>
-    <row r="384" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="13:36" ht="15.75" customHeight="1">
       <c r="M384" s="119"/>
       <c r="N384" s="120"/>
       <c r="O384" s="121"/>
@@ -21063,7 +21059,7 @@
       <c r="AI384" s="125"/>
       <c r="AJ384" s="122"/>
     </row>
-    <row r="385" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="13:36" ht="15.75" customHeight="1">
       <c r="M385" s="119"/>
       <c r="N385" s="120"/>
       <c r="O385" s="121"/>
@@ -21089,7 +21085,7 @@
       <c r="AI385" s="125"/>
       <c r="AJ385" s="122"/>
     </row>
-    <row r="386" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="13:36" ht="15.75" customHeight="1">
       <c r="M386" s="119"/>
       <c r="N386" s="120"/>
       <c r="O386" s="121"/>
@@ -21115,7 +21111,7 @@
       <c r="AI386" s="125"/>
       <c r="AJ386" s="122"/>
     </row>
-    <row r="387" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="13:36" ht="15.75" customHeight="1">
       <c r="M387" s="119"/>
       <c r="N387" s="120"/>
       <c r="O387" s="121"/>
@@ -21141,7 +21137,7 @@
       <c r="AI387" s="125"/>
       <c r="AJ387" s="122"/>
     </row>
-    <row r="388" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="13:36" ht="15.75" customHeight="1">
       <c r="M388" s="119"/>
       <c r="N388" s="120"/>
       <c r="O388" s="121"/>
@@ -21167,7 +21163,7 @@
       <c r="AI388" s="125"/>
       <c r="AJ388" s="122"/>
     </row>
-    <row r="389" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="13:36" ht="15.75" customHeight="1">
       <c r="M389" s="119"/>
       <c r="N389" s="120"/>
       <c r="O389" s="121"/>
@@ -21193,7 +21189,7 @@
       <c r="AI389" s="125"/>
       <c r="AJ389" s="122"/>
     </row>
-    <row r="390" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="13:36" ht="15.75" customHeight="1">
       <c r="M390" s="119"/>
       <c r="N390" s="120"/>
       <c r="O390" s="121"/>
@@ -21219,7 +21215,7 @@
       <c r="AI390" s="125"/>
       <c r="AJ390" s="122"/>
     </row>
-    <row r="391" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="13:36" ht="15.75" customHeight="1">
       <c r="M391" s="119"/>
       <c r="N391" s="120"/>
       <c r="O391" s="121"/>
@@ -21245,7 +21241,7 @@
       <c r="AI391" s="125"/>
       <c r="AJ391" s="122"/>
     </row>
-    <row r="392" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="13:36" ht="15.75" customHeight="1">
       <c r="M392" s="119"/>
       <c r="N392" s="120"/>
       <c r="O392" s="121"/>
@@ -21271,7 +21267,7 @@
       <c r="AI392" s="125"/>
       <c r="AJ392" s="122"/>
     </row>
-    <row r="393" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="13:36" ht="15.75" customHeight="1">
       <c r="M393" s="119"/>
       <c r="N393" s="120"/>
       <c r="O393" s="121"/>
@@ -21297,7 +21293,7 @@
       <c r="AI393" s="125"/>
       <c r="AJ393" s="122"/>
     </row>
-    <row r="394" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="13:36" ht="15.75" customHeight="1">
       <c r="M394" s="119"/>
       <c r="N394" s="120"/>
       <c r="O394" s="121"/>
@@ -21323,7 +21319,7 @@
       <c r="AI394" s="125"/>
       <c r="AJ394" s="122"/>
     </row>
-    <row r="395" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="13:36" ht="15.75" customHeight="1">
       <c r="M395" s="119"/>
       <c r="N395" s="120"/>
       <c r="O395" s="121"/>
@@ -21349,7 +21345,7 @@
       <c r="AI395" s="125"/>
       <c r="AJ395" s="122"/>
     </row>
-    <row r="396" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="13:36" ht="15.75" customHeight="1">
       <c r="M396" s="119"/>
       <c r="N396" s="120"/>
       <c r="O396" s="121"/>
@@ -21375,7 +21371,7 @@
       <c r="AI396" s="125"/>
       <c r="AJ396" s="122"/>
     </row>
-    <row r="397" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="13:36" ht="15.75" customHeight="1">
       <c r="M397" s="119"/>
       <c r="N397" s="120"/>
       <c r="O397" s="121"/>
@@ -21401,7 +21397,7 @@
       <c r="AI397" s="125"/>
       <c r="AJ397" s="122"/>
     </row>
-    <row r="398" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="13:36" ht="15.75" customHeight="1">
       <c r="M398" s="119"/>
       <c r="N398" s="120"/>
       <c r="O398" s="121"/>
@@ -21427,7 +21423,7 @@
       <c r="AI398" s="125"/>
       <c r="AJ398" s="122"/>
     </row>
-    <row r="399" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="13:36" ht="15.75" customHeight="1">
       <c r="M399" s="119"/>
       <c r="N399" s="120"/>
       <c r="O399" s="121"/>
@@ -21453,7 +21449,7 @@
       <c r="AI399" s="125"/>
       <c r="AJ399" s="122"/>
     </row>
-    <row r="400" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="13:36" ht="15.75" customHeight="1">
       <c r="M400" s="119"/>
       <c r="N400" s="120"/>
       <c r="O400" s="121"/>
@@ -21479,7 +21475,7 @@
       <c r="AI400" s="125"/>
       <c r="AJ400" s="122"/>
     </row>
-    <row r="401" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="13:36" ht="15.75" customHeight="1">
       <c r="M401" s="119"/>
       <c r="N401" s="120"/>
       <c r="O401" s="121"/>
@@ -21505,7 +21501,7 @@
       <c r="AI401" s="125"/>
       <c r="AJ401" s="122"/>
     </row>
-    <row r="402" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="13:36" ht="15.75" customHeight="1">
       <c r="M402" s="119"/>
       <c r="N402" s="120"/>
       <c r="O402" s="121"/>
@@ -21531,7 +21527,7 @@
       <c r="AI402" s="125"/>
       <c r="AJ402" s="122"/>
     </row>
-    <row r="403" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="13:36" ht="15.75" customHeight="1">
       <c r="M403" s="119"/>
       <c r="N403" s="120"/>
       <c r="O403" s="121"/>
@@ -21557,7 +21553,7 @@
       <c r="AI403" s="125"/>
       <c r="AJ403" s="122"/>
     </row>
-    <row r="404" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="13:36" ht="15.75" customHeight="1">
       <c r="M404" s="119"/>
       <c r="N404" s="120"/>
       <c r="O404" s="121"/>
@@ -21583,7 +21579,7 @@
       <c r="AI404" s="125"/>
       <c r="AJ404" s="122"/>
     </row>
-    <row r="405" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="13:36" ht="15.75" customHeight="1">
       <c r="M405" s="119"/>
       <c r="N405" s="120"/>
       <c r="O405" s="121"/>
@@ -21609,7 +21605,7 @@
       <c r="AI405" s="125"/>
       <c r="AJ405" s="122"/>
     </row>
-    <row r="406" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="13:36" ht="15.75" customHeight="1">
       <c r="M406" s="119"/>
       <c r="N406" s="120"/>
       <c r="O406" s="121"/>
@@ -21635,7 +21631,7 @@
       <c r="AI406" s="125"/>
       <c r="AJ406" s="122"/>
     </row>
-    <row r="407" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="13:36" ht="15.75" customHeight="1">
       <c r="M407" s="119"/>
       <c r="N407" s="120"/>
       <c r="O407" s="121"/>
@@ -21661,7 +21657,7 @@
       <c r="AI407" s="125"/>
       <c r="AJ407" s="122"/>
     </row>
-    <row r="408" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="13:36" ht="15.75" customHeight="1">
       <c r="M408" s="119"/>
       <c r="N408" s="120"/>
       <c r="O408" s="121"/>
@@ -21687,7 +21683,7 @@
       <c r="AI408" s="125"/>
       <c r="AJ408" s="122"/>
     </row>
-    <row r="409" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="13:36" ht="15.75" customHeight="1">
       <c r="M409" s="119"/>
       <c r="N409" s="120"/>
       <c r="O409" s="121"/>
@@ -21713,7 +21709,7 @@
       <c r="AI409" s="125"/>
       <c r="AJ409" s="122"/>
     </row>
-    <row r="410" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="13:36" ht="15.75" customHeight="1">
       <c r="M410" s="119"/>
       <c r="N410" s="120"/>
       <c r="O410" s="121"/>
@@ -21739,7 +21735,7 @@
       <c r="AI410" s="125"/>
       <c r="AJ410" s="122"/>
     </row>
-    <row r="411" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="13:36" ht="15.75" customHeight="1">
       <c r="M411" s="119"/>
       <c r="N411" s="120"/>
       <c r="O411" s="121"/>
@@ -21765,7 +21761,7 @@
       <c r="AI411" s="125"/>
       <c r="AJ411" s="122"/>
     </row>
-    <row r="412" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="13:36" ht="15.75" customHeight="1">
       <c r="M412" s="119"/>
       <c r="N412" s="120"/>
       <c r="O412" s="121"/>
@@ -21791,7 +21787,7 @@
       <c r="AI412" s="125"/>
       <c r="AJ412" s="122"/>
     </row>
-    <row r="413" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="13:36" ht="15.75" customHeight="1">
       <c r="M413" s="119"/>
       <c r="N413" s="120"/>
       <c r="O413" s="121"/>
@@ -21817,7 +21813,7 @@
       <c r="AI413" s="125"/>
       <c r="AJ413" s="122"/>
     </row>
-    <row r="414" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="13:36" ht="15.75" customHeight="1">
       <c r="M414" s="119"/>
       <c r="N414" s="120"/>
       <c r="O414" s="121"/>
@@ -21843,7 +21839,7 @@
       <c r="AI414" s="125"/>
       <c r="AJ414" s="122"/>
     </row>
-    <row r="415" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="13:36" ht="15.75" customHeight="1">
       <c r="M415" s="119"/>
       <c r="N415" s="120"/>
       <c r="O415" s="121"/>
@@ -21869,7 +21865,7 @@
       <c r="AI415" s="125"/>
       <c r="AJ415" s="122"/>
     </row>
-    <row r="416" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="13:36" ht="15.75" customHeight="1">
       <c r="M416" s="119"/>
       <c r="N416" s="120"/>
       <c r="O416" s="121"/>
@@ -21895,7 +21891,7 @@
       <c r="AI416" s="125"/>
       <c r="AJ416" s="122"/>
     </row>
-    <row r="417" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="13:36" ht="15.75" customHeight="1">
       <c r="M417" s="119"/>
       <c r="N417" s="120"/>
       <c r="O417" s="121"/>
@@ -21921,7 +21917,7 @@
       <c r="AI417" s="125"/>
       <c r="AJ417" s="122"/>
     </row>
-    <row r="418" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="13:36" ht="15.75" customHeight="1">
       <c r="M418" s="119"/>
       <c r="N418" s="120"/>
       <c r="O418" s="121"/>
@@ -21947,7 +21943,7 @@
       <c r="AI418" s="125"/>
       <c r="AJ418" s="122"/>
     </row>
-    <row r="419" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="13:36" ht="15.75" customHeight="1">
       <c r="M419" s="119"/>
       <c r="N419" s="120"/>
       <c r="O419" s="121"/>
@@ -21973,7 +21969,7 @@
       <c r="AI419" s="125"/>
       <c r="AJ419" s="122"/>
     </row>
-    <row r="420" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="13:36" ht="15.75" customHeight="1">
       <c r="M420" s="119"/>
       <c r="N420" s="120"/>
       <c r="O420" s="121"/>
@@ -21999,7 +21995,7 @@
       <c r="AI420" s="125"/>
       <c r="AJ420" s="122"/>
     </row>
-    <row r="421" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="13:36" ht="15.75" customHeight="1">
       <c r="M421" s="119"/>
       <c r="N421" s="120"/>
       <c r="O421" s="121"/>
@@ -22025,7 +22021,7 @@
       <c r="AI421" s="125"/>
       <c r="AJ421" s="122"/>
     </row>
-    <row r="422" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="13:36" ht="15.75" customHeight="1">
       <c r="M422" s="119"/>
       <c r="N422" s="120"/>
       <c r="O422" s="121"/>
@@ -22051,7 +22047,7 @@
       <c r="AI422" s="125"/>
       <c r="AJ422" s="122"/>
     </row>
-    <row r="423" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="13:36" ht="15.75" customHeight="1">
       <c r="M423" s="119"/>
       <c r="N423" s="120"/>
       <c r="O423" s="121"/>
@@ -22077,7 +22073,7 @@
       <c r="AI423" s="125"/>
       <c r="AJ423" s="122"/>
     </row>
-    <row r="424" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="13:36" ht="15.75" customHeight="1">
       <c r="M424" s="119"/>
       <c r="N424" s="120"/>
       <c r="O424" s="121"/>
@@ -22103,7 +22099,7 @@
       <c r="AI424" s="125"/>
       <c r="AJ424" s="122"/>
     </row>
-    <row r="425" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="13:36" ht="15.75" customHeight="1">
       <c r="M425" s="119"/>
       <c r="N425" s="120"/>
       <c r="O425" s="121"/>
@@ -22129,7 +22125,7 @@
       <c r="AI425" s="125"/>
       <c r="AJ425" s="122"/>
     </row>
-    <row r="426" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="13:36" ht="15.75" customHeight="1">
       <c r="M426" s="119"/>
       <c r="N426" s="120"/>
       <c r="O426" s="121"/>
@@ -22155,7 +22151,7 @@
       <c r="AI426" s="125"/>
       <c r="AJ426" s="122"/>
     </row>
-    <row r="427" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="13:36" ht="15.75" customHeight="1">
       <c r="M427" s="119"/>
       <c r="N427" s="120"/>
       <c r="O427" s="121"/>
@@ -22181,7 +22177,7 @@
       <c r="AI427" s="125"/>
       <c r="AJ427" s="122"/>
     </row>
-    <row r="428" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="13:36" ht="15.75" customHeight="1">
       <c r="M428" s="119"/>
       <c r="N428" s="120"/>
       <c r="O428" s="121"/>
@@ -22207,7 +22203,7 @@
       <c r="AI428" s="125"/>
       <c r="AJ428" s="122"/>
     </row>
-    <row r="429" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="13:36" ht="15.75" customHeight="1">
       <c r="M429" s="119"/>
       <c r="N429" s="120"/>
       <c r="O429" s="121"/>
@@ -22233,7 +22229,7 @@
       <c r="AI429" s="125"/>
       <c r="AJ429" s="122"/>
     </row>
-    <row r="430" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="13:36" ht="15.75" customHeight="1">
       <c r="M430" s="119"/>
       <c r="N430" s="120"/>
       <c r="O430" s="121"/>
@@ -22259,7 +22255,7 @@
       <c r="AI430" s="125"/>
       <c r="AJ430" s="122"/>
     </row>
-    <row r="431" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="13:36" ht="15.75" customHeight="1">
       <c r="M431" s="119"/>
       <c r="N431" s="120"/>
       <c r="O431" s="121"/>
@@ -22285,7 +22281,7 @@
       <c r="AI431" s="125"/>
       <c r="AJ431" s="122"/>
     </row>
-    <row r="432" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="13:36" ht="15.75" customHeight="1">
       <c r="M432" s="119"/>
       <c r="N432" s="120"/>
       <c r="O432" s="121"/>
@@ -22311,7 +22307,7 @@
       <c r="AI432" s="125"/>
       <c r="AJ432" s="122"/>
     </row>
-    <row r="433" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="13:36" ht="15.75" customHeight="1">
       <c r="M433" s="119"/>
       <c r="N433" s="120"/>
       <c r="O433" s="121"/>
@@ -22337,7 +22333,7 @@
       <c r="AI433" s="125"/>
       <c r="AJ433" s="122"/>
     </row>
-    <row r="434" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="13:36" ht="15.75" customHeight="1">
       <c r="M434" s="119"/>
       <c r="N434" s="120"/>
       <c r="O434" s="121"/>
@@ -22363,7 +22359,7 @@
       <c r="AI434" s="125"/>
       <c r="AJ434" s="122"/>
     </row>
-    <row r="435" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="13:36" ht="15.75" customHeight="1">
       <c r="M435" s="119"/>
       <c r="N435" s="120"/>
       <c r="O435" s="121"/>
@@ -22389,7 +22385,7 @@
       <c r="AI435" s="125"/>
       <c r="AJ435" s="122"/>
     </row>
-    <row r="436" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="13:36" ht="15.75" customHeight="1">
       <c r="M436" s="119"/>
       <c r="N436" s="120"/>
       <c r="O436" s="121"/>
@@ -22415,7 +22411,7 @@
       <c r="AI436" s="125"/>
       <c r="AJ436" s="122"/>
     </row>
-    <row r="437" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="13:36" ht="15.75" customHeight="1">
       <c r="M437" s="119"/>
       <c r="N437" s="120"/>
       <c r="O437" s="121"/>
@@ -22441,7 +22437,7 @@
       <c r="AI437" s="125"/>
       <c r="AJ437" s="122"/>
     </row>
-    <row r="438" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="13:36" ht="15.75" customHeight="1">
       <c r="M438" s="119"/>
       <c r="N438" s="120"/>
       <c r="O438" s="121"/>
@@ -22467,7 +22463,7 @@
       <c r="AI438" s="125"/>
       <c r="AJ438" s="122"/>
     </row>
-    <row r="439" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="13:36" ht="15.75" customHeight="1">
       <c r="M439" s="119"/>
       <c r="N439" s="120"/>
       <c r="O439" s="121"/>
@@ -22493,7 +22489,7 @@
       <c r="AI439" s="125"/>
       <c r="AJ439" s="122"/>
     </row>
-    <row r="440" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="13:36" ht="15.75" customHeight="1">
       <c r="M440" s="119"/>
       <c r="N440" s="120"/>
       <c r="O440" s="121"/>
@@ -22519,7 +22515,7 @@
       <c r="AI440" s="125"/>
       <c r="AJ440" s="122"/>
     </row>
-    <row r="441" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="13:36" ht="15.75" customHeight="1">
       <c r="M441" s="119"/>
       <c r="N441" s="120"/>
       <c r="O441" s="121"/>
@@ -22545,7 +22541,7 @@
       <c r="AI441" s="125"/>
       <c r="AJ441" s="122"/>
     </row>
-    <row r="442" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="13:36" ht="15.75" customHeight="1">
       <c r="M442" s="119"/>
       <c r="N442" s="120"/>
       <c r="O442" s="121"/>
@@ -22571,7 +22567,7 @@
       <c r="AI442" s="125"/>
       <c r="AJ442" s="122"/>
     </row>
-    <row r="443" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="13:36" ht="15.75" customHeight="1">
       <c r="M443" s="119"/>
       <c r="N443" s="120"/>
       <c r="O443" s="121"/>
@@ -22597,7 +22593,7 @@
       <c r="AI443" s="125"/>
       <c r="AJ443" s="122"/>
     </row>
-    <row r="444" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="13:36" ht="15.75" customHeight="1">
       <c r="M444" s="119"/>
       <c r="N444" s="120"/>
       <c r="O444" s="121"/>
@@ -22623,7 +22619,7 @@
       <c r="AI444" s="125"/>
       <c r="AJ444" s="122"/>
     </row>
-    <row r="445" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="13:36" ht="15.75" customHeight="1">
       <c r="M445" s="119"/>
       <c r="N445" s="120"/>
       <c r="O445" s="121"/>
@@ -22649,7 +22645,7 @@
       <c r="AI445" s="125"/>
       <c r="AJ445" s="122"/>
     </row>
-    <row r="446" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="13:36" ht="15.75" customHeight="1">
       <c r="M446" s="119"/>
       <c r="N446" s="120"/>
       <c r="O446" s="121"/>
@@ -22675,7 +22671,7 @@
       <c r="AI446" s="125"/>
       <c r="AJ446" s="122"/>
     </row>
-    <row r="447" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="13:36" ht="15.75" customHeight="1">
       <c r="M447" s="119"/>
       <c r="N447" s="120"/>
       <c r="O447" s="121"/>
@@ -22701,7 +22697,7 @@
       <c r="AI447" s="125"/>
       <c r="AJ447" s="122"/>
     </row>
-    <row r="448" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="13:36" ht="15.75" customHeight="1">
       <c r="M448" s="119"/>
       <c r="N448" s="120"/>
       <c r="O448" s="121"/>
@@ -22727,7 +22723,7 @@
       <c r="AI448" s="125"/>
       <c r="AJ448" s="122"/>
     </row>
-    <row r="449" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="13:36" ht="15.75" customHeight="1">
       <c r="M449" s="119"/>
       <c r="N449" s="120"/>
       <c r="O449" s="121"/>
@@ -22753,7 +22749,7 @@
       <c r="AI449" s="125"/>
       <c r="AJ449" s="122"/>
     </row>
-    <row r="450" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="13:36" ht="15.75" customHeight="1">
       <c r="M450" s="119"/>
       <c r="N450" s="120"/>
       <c r="O450" s="121"/>
@@ -22779,7 +22775,7 @@
       <c r="AI450" s="125"/>
       <c r="AJ450" s="122"/>
     </row>
-    <row r="451" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="13:36" ht="15.75" customHeight="1">
       <c r="M451" s="119"/>
       <c r="N451" s="120"/>
       <c r="O451" s="121"/>
@@ -22805,7 +22801,7 @@
       <c r="AI451" s="125"/>
       <c r="AJ451" s="122"/>
     </row>
-    <row r="452" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="13:36" ht="15.75" customHeight="1">
       <c r="M452" s="119"/>
       <c r="N452" s="120"/>
       <c r="O452" s="121"/>
@@ -22831,7 +22827,7 @@
       <c r="AI452" s="125"/>
       <c r="AJ452" s="122"/>
     </row>
-    <row r="453" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="13:36" ht="15.75" customHeight="1">
       <c r="M453" s="119"/>
       <c r="N453" s="120"/>
       <c r="O453" s="121"/>
@@ -22857,7 +22853,7 @@
       <c r="AI453" s="125"/>
       <c r="AJ453" s="122"/>
     </row>
-    <row r="454" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="13:36" ht="15.75" customHeight="1">
       <c r="M454" s="119"/>
       <c r="N454" s="120"/>
       <c r="O454" s="121"/>
@@ -22883,7 +22879,7 @@
       <c r="AI454" s="125"/>
       <c r="AJ454" s="122"/>
     </row>
-    <row r="455" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="13:36" ht="15.75" customHeight="1">
       <c r="M455" s="119"/>
       <c r="N455" s="120"/>
       <c r="O455" s="121"/>
@@ -22909,7 +22905,7 @@
       <c r="AI455" s="125"/>
       <c r="AJ455" s="122"/>
     </row>
-    <row r="456" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="13:36" ht="15.75" customHeight="1">
       <c r="M456" s="119"/>
       <c r="N456" s="120"/>
       <c r="O456" s="121"/>
@@ -22935,7 +22931,7 @@
       <c r="AI456" s="125"/>
       <c r="AJ456" s="122"/>
     </row>
-    <row r="457" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="13:36" ht="15.75" customHeight="1">
       <c r="M457" s="119"/>
       <c r="N457" s="120"/>
       <c r="O457" s="121"/>
@@ -22961,7 +22957,7 @@
       <c r="AI457" s="125"/>
       <c r="AJ457" s="122"/>
     </row>
-    <row r="458" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="13:36" ht="15.75" customHeight="1">
       <c r="M458" s="119"/>
       <c r="N458" s="120"/>
       <c r="O458" s="121"/>
@@ -22987,7 +22983,7 @@
       <c r="AI458" s="125"/>
       <c r="AJ458" s="122"/>
     </row>
-    <row r="459" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="13:36" ht="15.75" customHeight="1">
       <c r="M459" s="119"/>
       <c r="N459" s="120"/>
       <c r="O459" s="121"/>
@@ -23013,7 +23009,7 @@
       <c r="AI459" s="125"/>
       <c r="AJ459" s="122"/>
     </row>
-    <row r="460" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="13:36" ht="15.75" customHeight="1">
       <c r="M460" s="119"/>
       <c r="N460" s="120"/>
       <c r="O460" s="121"/>
@@ -23039,7 +23035,7 @@
       <c r="AI460" s="125"/>
       <c r="AJ460" s="122"/>
     </row>
-    <row r="461" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="13:36" ht="15.75" customHeight="1">
       <c r="M461" s="119"/>
       <c r="N461" s="120"/>
       <c r="O461" s="121"/>
@@ -23065,7 +23061,7 @@
       <c r="AI461" s="125"/>
       <c r="AJ461" s="122"/>
     </row>
-    <row r="462" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="13:36" ht="15.75" customHeight="1">
       <c r="M462" s="119"/>
       <c r="N462" s="120"/>
       <c r="O462" s="121"/>
@@ -23091,7 +23087,7 @@
       <c r="AI462" s="125"/>
       <c r="AJ462" s="122"/>
     </row>
-    <row r="463" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="13:36" ht="15.75" customHeight="1">
       <c r="M463" s="119"/>
       <c r="N463" s="120"/>
       <c r="O463" s="121"/>
@@ -23117,7 +23113,7 @@
       <c r="AI463" s="125"/>
       <c r="AJ463" s="122"/>
     </row>
-    <row r="464" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="13:36" ht="15.75" customHeight="1">
       <c r="M464" s="119"/>
       <c r="N464" s="120"/>
       <c r="O464" s="121"/>
@@ -23143,7 +23139,7 @@
       <c r="AI464" s="125"/>
       <c r="AJ464" s="122"/>
     </row>
-    <row r="465" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="13:36" ht="15.75" customHeight="1">
       <c r="M465" s="119"/>
       <c r="N465" s="120"/>
       <c r="O465" s="121"/>
@@ -23169,7 +23165,7 @@
       <c r="AI465" s="125"/>
       <c r="AJ465" s="122"/>
     </row>
-    <row r="466" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="13:36" ht="15.75" customHeight="1">
       <c r="M466" s="119"/>
       <c r="N466" s="120"/>
       <c r="O466" s="121"/>
@@ -23195,7 +23191,7 @@
       <c r="AI466" s="125"/>
       <c r="AJ466" s="122"/>
     </row>
-    <row r="467" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="13:36" ht="15.75" customHeight="1">
       <c r="M467" s="119"/>
       <c r="N467" s="120"/>
       <c r="O467" s="121"/>
@@ -23221,7 +23217,7 @@
       <c r="AI467" s="125"/>
       <c r="AJ467" s="122"/>
     </row>
-    <row r="468" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="13:36" ht="15.75" customHeight="1">
       <c r="M468" s="119"/>
       <c r="N468" s="120"/>
       <c r="O468" s="121"/>
@@ -23247,7 +23243,7 @@
       <c r="AI468" s="125"/>
       <c r="AJ468" s="122"/>
     </row>
-    <row r="469" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="13:36" ht="15.75" customHeight="1">
       <c r="M469" s="119"/>
       <c r="N469" s="120"/>
       <c r="O469" s="121"/>
@@ -23273,7 +23269,7 @@
       <c r="AI469" s="125"/>
       <c r="AJ469" s="122"/>
     </row>
-    <row r="470" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="13:36" ht="15.75" customHeight="1">
       <c r="M470" s="119"/>
       <c r="N470" s="120"/>
       <c r="O470" s="121"/>
@@ -23299,7 +23295,7 @@
       <c r="AI470" s="125"/>
       <c r="AJ470" s="122"/>
     </row>
-    <row r="471" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="13:36" ht="15.75" customHeight="1">
       <c r="M471" s="119"/>
       <c r="N471" s="120"/>
       <c r="O471" s="121"/>
@@ -23325,7 +23321,7 @@
       <c r="AI471" s="125"/>
       <c r="AJ471" s="122"/>
     </row>
-    <row r="472" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="13:36" ht="15.75" customHeight="1">
       <c r="M472" s="119"/>
       <c r="N472" s="120"/>
       <c r="O472" s="121"/>
@@ -23351,7 +23347,7 @@
       <c r="AI472" s="125"/>
       <c r="AJ472" s="122"/>
     </row>
-    <row r="473" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="13:36" ht="15.75" customHeight="1">
       <c r="M473" s="119"/>
       <c r="N473" s="120"/>
       <c r="O473" s="121"/>
@@ -23377,7 +23373,7 @@
       <c r="AI473" s="125"/>
       <c r="AJ473" s="122"/>
     </row>
-    <row r="474" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="13:36" ht="15.75" customHeight="1">
       <c r="M474" s="119"/>
       <c r="N474" s="120"/>
       <c r="O474" s="121"/>
@@ -23403,7 +23399,7 @@
       <c r="AI474" s="125"/>
       <c r="AJ474" s="122"/>
     </row>
-    <row r="475" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="13:36" ht="15.75" customHeight="1">
       <c r="M475" s="119"/>
       <c r="N475" s="120"/>
       <c r="O475" s="121"/>
@@ -23429,7 +23425,7 @@
       <c r="AI475" s="125"/>
       <c r="AJ475" s="122"/>
     </row>
-    <row r="476" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="13:36" ht="15.75" customHeight="1">
       <c r="M476" s="119"/>
       <c r="N476" s="120"/>
       <c r="O476" s="121"/>
@@ -23455,7 +23451,7 @@
       <c r="AI476" s="125"/>
       <c r="AJ476" s="122"/>
     </row>
-    <row r="477" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="13:36" ht="15.75" customHeight="1">
       <c r="M477" s="119"/>
       <c r="N477" s="120"/>
       <c r="O477" s="121"/>
@@ -23481,7 +23477,7 @@
       <c r="AI477" s="125"/>
       <c r="AJ477" s="122"/>
     </row>
-    <row r="478" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="13:36" ht="15.75" customHeight="1">
       <c r="M478" s="119"/>
       <c r="N478" s="120"/>
       <c r="O478" s="121"/>
@@ -23507,7 +23503,7 @@
       <c r="AI478" s="125"/>
       <c r="AJ478" s="122"/>
     </row>
-    <row r="479" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="13:36" ht="15.75" customHeight="1">
       <c r="M479" s="119"/>
       <c r="N479" s="120"/>
       <c r="O479" s="121"/>
@@ -23533,7 +23529,7 @@
       <c r="AI479" s="125"/>
       <c r="AJ479" s="122"/>
     </row>
-    <row r="480" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="13:36" ht="15.75" customHeight="1">
       <c r="M480" s="119"/>
       <c r="N480" s="120"/>
       <c r="O480" s="121"/>
@@ -23559,7 +23555,7 @@
       <c r="AI480" s="125"/>
       <c r="AJ480" s="122"/>
     </row>
-    <row r="481" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="13:36" ht="15.75" customHeight="1">
       <c r="M481" s="119"/>
       <c r="N481" s="120"/>
       <c r="O481" s="121"/>
@@ -23585,7 +23581,7 @@
       <c r="AI481" s="125"/>
       <c r="AJ481" s="122"/>
     </row>
-    <row r="482" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="13:36" ht="15.75" customHeight="1">
       <c r="M482" s="119"/>
       <c r="N482" s="120"/>
       <c r="O482" s="121"/>
@@ -23611,7 +23607,7 @@
       <c r="AI482" s="125"/>
       <c r="AJ482" s="122"/>
     </row>
-    <row r="483" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="13:36" ht="15.75" customHeight="1">
       <c r="M483" s="119"/>
       <c r="N483" s="120"/>
       <c r="O483" s="121"/>
@@ -23637,7 +23633,7 @@
       <c r="AI483" s="125"/>
       <c r="AJ483" s="122"/>
     </row>
-    <row r="484" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="13:36" ht="15.75" customHeight="1">
       <c r="M484" s="119"/>
       <c r="N484" s="120"/>
       <c r="O484" s="121"/>
@@ -23663,7 +23659,7 @@
       <c r="AI484" s="125"/>
       <c r="AJ484" s="122"/>
     </row>
-    <row r="485" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="13:36" ht="15.75" customHeight="1">
       <c r="M485" s="119"/>
       <c r="N485" s="120"/>
       <c r="O485" s="121"/>
@@ -23689,7 +23685,7 @@
       <c r="AI485" s="125"/>
       <c r="AJ485" s="122"/>
     </row>
-    <row r="486" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="13:36" ht="15.75" customHeight="1">
       <c r="M486" s="119"/>
       <c r="N486" s="120"/>
       <c r="O486" s="121"/>
@@ -23715,7 +23711,7 @@
       <c r="AI486" s="125"/>
       <c r="AJ486" s="122"/>
     </row>
-    <row r="487" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="13:36" ht="15.75" customHeight="1">
       <c r="M487" s="119"/>
       <c r="N487" s="120"/>
       <c r="O487" s="121"/>
@@ -23741,7 +23737,7 @@
       <c r="AI487" s="125"/>
       <c r="AJ487" s="122"/>
     </row>
-    <row r="488" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="13:36" ht="15.75" customHeight="1">
       <c r="M488" s="119"/>
       <c r="N488" s="120"/>
       <c r="O488" s="121"/>
@@ -23767,7 +23763,7 @@
       <c r="AI488" s="125"/>
       <c r="AJ488" s="122"/>
     </row>
-    <row r="489" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="13:36" ht="15.75" customHeight="1">
       <c r="M489" s="119"/>
       <c r="N489" s="120"/>
       <c r="O489" s="121"/>
@@ -23793,7 +23789,7 @@
       <c r="AI489" s="125"/>
       <c r="AJ489" s="122"/>
     </row>
-    <row r="490" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="13:36" ht="15.75" customHeight="1">
       <c r="M490" s="119"/>
       <c r="N490" s="120"/>
       <c r="O490" s="121"/>
@@ -23819,7 +23815,7 @@
       <c r="AI490" s="125"/>
       <c r="AJ490" s="122"/>
     </row>
-    <row r="491" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="13:36" ht="15.75" customHeight="1">
       <c r="M491" s="119"/>
       <c r="N491" s="120"/>
       <c r="O491" s="121"/>
@@ -23845,7 +23841,7 @@
       <c r="AI491" s="125"/>
       <c r="AJ491" s="122"/>
     </row>
-    <row r="492" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="13:36" ht="15.75" customHeight="1">
       <c r="M492" s="119"/>
       <c r="N492" s="120"/>
       <c r="O492" s="121"/>
@@ -23871,7 +23867,7 @@
       <c r="AI492" s="125"/>
       <c r="AJ492" s="122"/>
     </row>
-    <row r="493" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="13:36" ht="15.75" customHeight="1">
       <c r="M493" s="119"/>
       <c r="N493" s="120"/>
       <c r="O493" s="121"/>
@@ -23897,7 +23893,7 @@
       <c r="AI493" s="125"/>
       <c r="AJ493" s="122"/>
     </row>
-    <row r="494" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="13:36" ht="15.75" customHeight="1">
       <c r="M494" s="119"/>
       <c r="N494" s="120"/>
       <c r="O494" s="121"/>
@@ -23923,7 +23919,7 @@
       <c r="AI494" s="125"/>
       <c r="AJ494" s="122"/>
     </row>
-    <row r="495" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="13:36" ht="15.75" customHeight="1">
       <c r="M495" s="119"/>
       <c r="N495" s="120"/>
       <c r="O495" s="121"/>
@@ -23949,7 +23945,7 @@
       <c r="AI495" s="125"/>
       <c r="AJ495" s="122"/>
     </row>
-    <row r="496" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="13:36" ht="15.75" customHeight="1">
       <c r="M496" s="119"/>
       <c r="N496" s="120"/>
       <c r="O496" s="121"/>
@@ -23975,7 +23971,7 @@
       <c r="AI496" s="125"/>
       <c r="AJ496" s="122"/>
     </row>
-    <row r="497" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="13:36" ht="15.75" customHeight="1">
       <c r="M497" s="119"/>
       <c r="N497" s="120"/>
       <c r="O497" s="121"/>
@@ -24001,7 +23997,7 @@
       <c r="AI497" s="125"/>
       <c r="AJ497" s="122"/>
     </row>
-    <row r="498" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="13:36" ht="15.75" customHeight="1">
       <c r="M498" s="119"/>
       <c r="N498" s="120"/>
       <c r="O498" s="121"/>
@@ -24027,7 +24023,7 @@
       <c r="AI498" s="125"/>
       <c r="AJ498" s="122"/>
     </row>
-    <row r="499" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="13:36" ht="15.75" customHeight="1">
       <c r="M499" s="119"/>
       <c r="N499" s="120"/>
       <c r="O499" s="121"/>
@@ -24053,7 +24049,7 @@
       <c r="AI499" s="125"/>
       <c r="AJ499" s="122"/>
     </row>
-    <row r="500" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="13:36" ht="15.75" customHeight="1">
       <c r="M500" s="119"/>
       <c r="N500" s="120"/>
       <c r="O500" s="121"/>
@@ -24079,7 +24075,7 @@
       <c r="AI500" s="125"/>
       <c r="AJ500" s="122"/>
     </row>
-    <row r="501" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="13:36" ht="15.75" customHeight="1">
       <c r="M501" s="119"/>
       <c r="N501" s="120"/>
       <c r="O501" s="121"/>
@@ -24105,7 +24101,7 @@
       <c r="AI501" s="125"/>
       <c r="AJ501" s="122"/>
     </row>
-    <row r="502" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="13:36" ht="15.75" customHeight="1">
       <c r="M502" s="119"/>
       <c r="N502" s="120"/>
       <c r="O502" s="121"/>
@@ -24131,7 +24127,7 @@
       <c r="AI502" s="125"/>
       <c r="AJ502" s="122"/>
     </row>
-    <row r="503" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="13:36" ht="15.75" customHeight="1">
       <c r="M503" s="119"/>
       <c r="N503" s="120"/>
       <c r="O503" s="121"/>
@@ -24157,7 +24153,7 @@
       <c r="AI503" s="125"/>
       <c r="AJ503" s="122"/>
     </row>
-    <row r="504" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="13:36" ht="15.75" customHeight="1">
       <c r="M504" s="119"/>
       <c r="N504" s="120"/>
       <c r="O504" s="121"/>
@@ -24183,7 +24179,7 @@
       <c r="AI504" s="125"/>
       <c r="AJ504" s="122"/>
     </row>
-    <row r="505" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="13:36" ht="15.75" customHeight="1">
       <c r="M505" s="119"/>
       <c r="N505" s="120"/>
       <c r="O505" s="121"/>
@@ -24209,7 +24205,7 @@
       <c r="AI505" s="125"/>
       <c r="AJ505" s="122"/>
     </row>
-    <row r="506" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="13:36" ht="15.75" customHeight="1">
       <c r="M506" s="119"/>
       <c r="N506" s="120"/>
       <c r="O506" s="121"/>
@@ -24235,7 +24231,7 @@
       <c r="AI506" s="125"/>
       <c r="AJ506" s="122"/>
     </row>
-    <row r="507" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="13:36" ht="15.75" customHeight="1">
       <c r="M507" s="119"/>
       <c r="N507" s="120"/>
       <c r="O507" s="121"/>
@@ -24261,7 +24257,7 @@
       <c r="AI507" s="125"/>
       <c r="AJ507" s="122"/>
     </row>
-    <row r="508" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="13:36" ht="15.75" customHeight="1">
       <c r="M508" s="119"/>
       <c r="N508" s="120"/>
       <c r="O508" s="121"/>
@@ -24287,7 +24283,7 @@
       <c r="AI508" s="125"/>
       <c r="AJ508" s="122"/>
     </row>
-    <row r="509" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="13:36" ht="15.75" customHeight="1">
       <c r="M509" s="119"/>
       <c r="N509" s="120"/>
       <c r="O509" s="121"/>
@@ -24313,7 +24309,7 @@
       <c r="AI509" s="125"/>
       <c r="AJ509" s="122"/>
     </row>
-    <row r="510" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="13:36" ht="15.75" customHeight="1">
       <c r="M510" s="119"/>
       <c r="N510" s="120"/>
       <c r="O510" s="121"/>
@@ -24339,7 +24335,7 @@
       <c r="AI510" s="125"/>
       <c r="AJ510" s="122"/>
     </row>
-    <row r="511" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="13:36" ht="15.75" customHeight="1">
       <c r="M511" s="119"/>
       <c r="N511" s="120"/>
       <c r="O511" s="121"/>
@@ -24365,7 +24361,7 @@
       <c r="AI511" s="125"/>
       <c r="AJ511" s="122"/>
     </row>
-    <row r="512" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="13:36" ht="15.75" customHeight="1">
       <c r="M512" s="119"/>
       <c r="N512" s="120"/>
       <c r="O512" s="121"/>
@@ -24391,7 +24387,7 @@
       <c r="AI512" s="125"/>
       <c r="AJ512" s="122"/>
     </row>
-    <row r="513" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="13:36" ht="15.75" customHeight="1">
       <c r="M513" s="119"/>
       <c r="N513" s="120"/>
       <c r="O513" s="121"/>
@@ -24417,7 +24413,7 @@
       <c r="AI513" s="125"/>
       <c r="AJ513" s="122"/>
     </row>
-    <row r="514" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="13:36" ht="15.75" customHeight="1">
       <c r="M514" s="119"/>
       <c r="N514" s="120"/>
       <c r="O514" s="121"/>
@@ -24443,7 +24439,7 @@
       <c r="AI514" s="125"/>
       <c r="AJ514" s="122"/>
     </row>
-    <row r="515" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="13:36" ht="15.75" customHeight="1">
       <c r="M515" s="119"/>
       <c r="N515" s="120"/>
       <c r="O515" s="121"/>
@@ -24469,7 +24465,7 @@
       <c r="AI515" s="125"/>
       <c r="AJ515" s="122"/>
     </row>
-    <row r="516" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="13:36" ht="15.75" customHeight="1">
       <c r="M516" s="119"/>
       <c r="N516" s="120"/>
       <c r="O516" s="121"/>
@@ -24495,7 +24491,7 @@
       <c r="AI516" s="125"/>
       <c r="AJ516" s="122"/>
     </row>
-    <row r="517" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="13:36" ht="15.75" customHeight="1">
       <c r="M517" s="119"/>
       <c r="N517" s="120"/>
       <c r="O517" s="121"/>
@@ -24521,7 +24517,7 @@
       <c r="AI517" s="125"/>
       <c r="AJ517" s="122"/>
     </row>
-    <row r="518" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="13:36" ht="15.75" customHeight="1">
       <c r="M518" s="119"/>
       <c r="N518" s="120"/>
       <c r="O518" s="121"/>
@@ -24547,7 +24543,7 @@
       <c r="AI518" s="125"/>
       <c r="AJ518" s="122"/>
     </row>
-    <row r="519" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="13:36" ht="15.75" customHeight="1">
       <c r="M519" s="119"/>
       <c r="N519" s="120"/>
       <c r="O519" s="121"/>
@@ -24573,7 +24569,7 @@
       <c r="AI519" s="125"/>
       <c r="AJ519" s="122"/>
     </row>
-    <row r="520" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="13:36" ht="15.75" customHeight="1">
       <c r="M520" s="119"/>
       <c r="N520" s="120"/>
       <c r="O520" s="121"/>
@@ -24599,7 +24595,7 @@
       <c r="AI520" s="125"/>
       <c r="AJ520" s="122"/>
     </row>
-    <row r="521" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="13:36" ht="15.75" customHeight="1">
       <c r="M521" s="119"/>
       <c r="N521" s="120"/>
       <c r="O521" s="121"/>
@@ -24625,7 +24621,7 @@
       <c r="AI521" s="125"/>
       <c r="AJ521" s="122"/>
     </row>
-    <row r="522" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="13:36" ht="15.75" customHeight="1">
       <c r="M522" s="119"/>
       <c r="N522" s="120"/>
       <c r="O522" s="121"/>
@@ -24651,7 +24647,7 @@
       <c r="AI522" s="125"/>
       <c r="AJ522" s="122"/>
     </row>
-    <row r="523" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="13:36" ht="15.75" customHeight="1">
       <c r="M523" s="119"/>
       <c r="N523" s="120"/>
       <c r="O523" s="121"/>
@@ -24677,7 +24673,7 @@
       <c r="AI523" s="125"/>
       <c r="AJ523" s="122"/>
     </row>
-    <row r="524" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="13:36" ht="15.75" customHeight="1">
       <c r="M524" s="119"/>
       <c r="N524" s="120"/>
       <c r="O524" s="121"/>
@@ -24703,7 +24699,7 @@
       <c r="AI524" s="125"/>
       <c r="AJ524" s="122"/>
     </row>
-    <row r="525" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="13:36" ht="15.75" customHeight="1">
       <c r="M525" s="119"/>
       <c r="N525" s="120"/>
       <c r="O525" s="121"/>
@@ -24729,7 +24725,7 @@
       <c r="AI525" s="125"/>
       <c r="AJ525" s="122"/>
     </row>
-    <row r="526" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="13:36" ht="15.75" customHeight="1">
       <c r="M526" s="119"/>
       <c r="N526" s="120"/>
       <c r="O526" s="121"/>
@@ -24755,7 +24751,7 @@
       <c r="AI526" s="125"/>
       <c r="AJ526" s="122"/>
     </row>
-    <row r="527" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="13:36" ht="15.75" customHeight="1">
       <c r="M527" s="119"/>
       <c r="N527" s="120"/>
       <c r="O527" s="121"/>
@@ -24781,7 +24777,7 @@
       <c r="AI527" s="125"/>
       <c r="AJ527" s="122"/>
     </row>
-    <row r="528" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="13:36" ht="15.75" customHeight="1">
       <c r="M528" s="119"/>
       <c r="N528" s="120"/>
       <c r="O528" s="121"/>
@@ -24807,7 +24803,7 @@
       <c r="AI528" s="125"/>
       <c r="AJ528" s="122"/>
     </row>
-    <row r="529" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="13:36" ht="15.75" customHeight="1">
       <c r="M529" s="119"/>
       <c r="N529" s="120"/>
       <c r="O529" s="121"/>
@@ -24833,7 +24829,7 @@
       <c r="AI529" s="125"/>
       <c r="AJ529" s="122"/>
     </row>
-    <row r="530" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="13:36" ht="15.75" customHeight="1">
       <c r="M530" s="119"/>
       <c r="N530" s="120"/>
       <c r="O530" s="121"/>
@@ -24859,7 +24855,7 @@
       <c r="AI530" s="125"/>
       <c r="AJ530" s="122"/>
     </row>
-    <row r="531" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="13:36" ht="15.75" customHeight="1">
       <c r="M531" s="119"/>
       <c r="N531" s="120"/>
       <c r="O531" s="121"/>
@@ -24885,7 +24881,7 @@
       <c r="AI531" s="125"/>
       <c r="AJ531" s="122"/>
     </row>
-    <row r="532" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="13:36" ht="15.75" customHeight="1">
       <c r="M532" s="119"/>
       <c r="N532" s="120"/>
       <c r="O532" s="121"/>
@@ -24911,7 +24907,7 @@
       <c r="AI532" s="125"/>
       <c r="AJ532" s="122"/>
     </row>
-    <row r="533" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="13:36" ht="15.75" customHeight="1">
       <c r="M533" s="119"/>
       <c r="N533" s="120"/>
       <c r="O533" s="121"/>
@@ -24937,7 +24933,7 @@
       <c r="AI533" s="125"/>
       <c r="AJ533" s="122"/>
     </row>
-    <row r="534" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="13:36" ht="15.75" customHeight="1">
       <c r="M534" s="119"/>
       <c r="N534" s="120"/>
       <c r="O534" s="121"/>
@@ -24963,7 +24959,7 @@
       <c r="AI534" s="125"/>
       <c r="AJ534" s="122"/>
     </row>
-    <row r="535" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="13:36" ht="15.75" customHeight="1">
       <c r="M535" s="119"/>
       <c r="N535" s="120"/>
       <c r="O535" s="121"/>
@@ -24989,7 +24985,7 @@
       <c r="AI535" s="125"/>
       <c r="AJ535" s="122"/>
     </row>
-    <row r="536" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="13:36" ht="15.75" customHeight="1">
       <c r="M536" s="119"/>
       <c r="N536" s="120"/>
       <c r="O536" s="121"/>
@@ -25015,7 +25011,7 @@
       <c r="AI536" s="125"/>
       <c r="AJ536" s="122"/>
     </row>
-    <row r="537" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="13:36" ht="15.75" customHeight="1">
       <c r="M537" s="119"/>
       <c r="N537" s="120"/>
       <c r="O537" s="121"/>
@@ -25041,7 +25037,7 @@
       <c r="AI537" s="125"/>
       <c r="AJ537" s="122"/>
     </row>
-    <row r="538" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="13:36" ht="15.75" customHeight="1">
       <c r="M538" s="119"/>
       <c r="N538" s="120"/>
       <c r="O538" s="121"/>
@@ -25067,7 +25063,7 @@
       <c r="AI538" s="125"/>
       <c r="AJ538" s="122"/>
     </row>
-    <row r="539" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="13:36" ht="15.75" customHeight="1">
       <c r="M539" s="119"/>
       <c r="N539" s="120"/>
       <c r="O539" s="121"/>
@@ -25093,7 +25089,7 @@
       <c r="AI539" s="125"/>
       <c r="AJ539" s="122"/>
     </row>
-    <row r="540" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="13:36" ht="15.75" customHeight="1">
       <c r="M540" s="119"/>
       <c r="N540" s="120"/>
       <c r="O540" s="121"/>
@@ -25119,7 +25115,7 @@
       <c r="AI540" s="125"/>
       <c r="AJ540" s="122"/>
     </row>
-    <row r="541" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="13:36" ht="15.75" customHeight="1">
       <c r="M541" s="119"/>
       <c r="N541" s="120"/>
       <c r="O541" s="121"/>
@@ -25145,7 +25141,7 @@
       <c r="AI541" s="125"/>
       <c r="AJ541" s="122"/>
     </row>
-    <row r="542" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="13:36" ht="15.75" customHeight="1">
       <c r="M542" s="119"/>
       <c r="N542" s="120"/>
       <c r="O542" s="121"/>
@@ -25171,7 +25167,7 @@
       <c r="AI542" s="125"/>
       <c r="AJ542" s="122"/>
     </row>
-    <row r="543" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="13:36" ht="15.75" customHeight="1">
       <c r="M543" s="119"/>
       <c r="N543" s="120"/>
       <c r="O543" s="121"/>
@@ -25197,7 +25193,7 @@
       <c r="AI543" s="125"/>
       <c r="AJ543" s="122"/>
     </row>
-    <row r="544" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="13:36" ht="15.75" customHeight="1">
       <c r="M544" s="119"/>
       <c r="N544" s="120"/>
       <c r="O544" s="121"/>
@@ -25223,7 +25219,7 @@
       <c r="AI544" s="125"/>
       <c r="AJ544" s="122"/>
     </row>
-    <row r="545" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="13:36" ht="15.75" customHeight="1">
       <c r="M545" s="119"/>
       <c r="N545" s="120"/>
       <c r="O545" s="121"/>
@@ -25249,7 +25245,7 @@
       <c r="AI545" s="125"/>
       <c r="AJ545" s="122"/>
     </row>
-    <row r="546" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="13:36" ht="15.75" customHeight="1">
       <c r="M546" s="119"/>
       <c r="N546" s="120"/>
       <c r="O546" s="121"/>
@@ -25275,7 +25271,7 @@
       <c r="AI546" s="125"/>
       <c r="AJ546" s="122"/>
     </row>
-    <row r="547" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="13:36" ht="15.75" customHeight="1">
       <c r="M547" s="119"/>
       <c r="N547" s="120"/>
       <c r="O547" s="121"/>
@@ -25301,7 +25297,7 @@
       <c r="AI547" s="125"/>
       <c r="AJ547" s="122"/>
     </row>
-    <row r="548" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="13:36" ht="15.75" customHeight="1">
       <c r="M548" s="119"/>
       <c r="N548" s="120"/>
       <c r="O548" s="121"/>
@@ -25327,7 +25323,7 @@
       <c r="AI548" s="125"/>
       <c r="AJ548" s="122"/>
     </row>
-    <row r="549" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="13:36" ht="15.75" customHeight="1">
       <c r="M549" s="119"/>
       <c r="N549" s="120"/>
       <c r="O549" s="121"/>
@@ -25353,7 +25349,7 @@
       <c r="AI549" s="125"/>
       <c r="AJ549" s="122"/>
     </row>
-    <row r="550" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="13:36" ht="15.75" customHeight="1">
       <c r="M550" s="119"/>
       <c r="N550" s="120"/>
       <c r="O550" s="121"/>
@@ -25379,7 +25375,7 @@
       <c r="AI550" s="125"/>
       <c r="AJ550" s="122"/>
     </row>
-    <row r="551" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="13:36" ht="15.75" customHeight="1">
       <c r="M551" s="119"/>
       <c r="N551" s="120"/>
       <c r="O551" s="121"/>
@@ -25405,7 +25401,7 @@
       <c r="AI551" s="125"/>
       <c r="AJ551" s="122"/>
     </row>
-    <row r="552" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="13:36" ht="15.75" customHeight="1">
       <c r="M552" s="119"/>
       <c r="N552" s="120"/>
       <c r="O552" s="121"/>
@@ -25431,7 +25427,7 @@
       <c r="AI552" s="125"/>
       <c r="AJ552" s="122"/>
     </row>
-    <row r="553" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="13:36" ht="15.75" customHeight="1">
       <c r="M553" s="119"/>
       <c r="N553" s="120"/>
       <c r="O553" s="121"/>
@@ -25457,7 +25453,7 @@
       <c r="AI553" s="125"/>
       <c r="AJ553" s="122"/>
     </row>
-    <row r="554" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="13:36" ht="15.75" customHeight="1">
       <c r="M554" s="119"/>
       <c r="N554" s="120"/>
       <c r="O554" s="121"/>
@@ -25483,7 +25479,7 @@
       <c r="AI554" s="125"/>
       <c r="AJ554" s="122"/>
     </row>
-    <row r="555" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="13:36" ht="15.75" customHeight="1">
       <c r="M555" s="119"/>
       <c r="N555" s="120"/>
       <c r="O555" s="121"/>
@@ -25509,7 +25505,7 @@
       <c r="AI555" s="125"/>
       <c r="AJ555" s="122"/>
     </row>
-    <row r="556" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="13:36" ht="15.75" customHeight="1">
       <c r="M556" s="119"/>
       <c r="N556" s="120"/>
       <c r="O556" s="121"/>
@@ -25535,7 +25531,7 @@
       <c r="AI556" s="125"/>
       <c r="AJ556" s="122"/>
     </row>
-    <row r="557" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="13:36" ht="15.75" customHeight="1">
       <c r="M557" s="119"/>
       <c r="N557" s="120"/>
       <c r="O557" s="121"/>
@@ -25561,7 +25557,7 @@
       <c r="AI557" s="125"/>
       <c r="AJ557" s="122"/>
     </row>
-    <row r="558" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="13:36" ht="15.75" customHeight="1">
       <c r="M558" s="119"/>
       <c r="N558" s="120"/>
       <c r="O558" s="121"/>
@@ -25587,7 +25583,7 @@
       <c r="AI558" s="125"/>
       <c r="AJ558" s="122"/>
     </row>
-    <row r="559" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="13:36" ht="15.75" customHeight="1">
       <c r="M559" s="119"/>
       <c r="N559" s="120"/>
       <c r="O559" s="121"/>
@@ -25613,7 +25609,7 @@
       <c r="AI559" s="125"/>
       <c r="AJ559" s="122"/>
     </row>
-    <row r="560" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="13:36" ht="15.75" customHeight="1">
       <c r="M560" s="119"/>
       <c r="N560" s="120"/>
       <c r="O560" s="121"/>
@@ -25639,7 +25635,7 @@
       <c r="AI560" s="125"/>
       <c r="AJ560" s="122"/>
     </row>
-    <row r="561" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="13:36" ht="15.75" customHeight="1">
       <c r="M561" s="119"/>
       <c r="N561" s="120"/>
       <c r="O561" s="121"/>
@@ -25665,7 +25661,7 @@
       <c r="AI561" s="125"/>
       <c r="AJ561" s="122"/>
     </row>
-    <row r="562" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="13:36" ht="15.75" customHeight="1">
       <c r="M562" s="119"/>
       <c r="N562" s="120"/>
       <c r="O562" s="121"/>
@@ -25691,7 +25687,7 @@
       <c r="AI562" s="125"/>
       <c r="AJ562" s="122"/>
     </row>
-    <row r="563" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="13:36" ht="15.75" customHeight="1">
       <c r="M563" s="119"/>
       <c r="N563" s="120"/>
       <c r="O563" s="121"/>
@@ -25717,7 +25713,7 @@
       <c r="AI563" s="125"/>
       <c r="AJ563" s="122"/>
     </row>
-    <row r="564" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="13:36" ht="15.75" customHeight="1">
       <c r="M564" s="119"/>
       <c r="N564" s="120"/>
       <c r="O564" s="121"/>
@@ -25743,7 +25739,7 @@
       <c r="AI564" s="125"/>
       <c r="AJ564" s="122"/>
     </row>
-    <row r="565" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="13:36" ht="15.75" customHeight="1">
       <c r="M565" s="119"/>
       <c r="N565" s="120"/>
       <c r="O565" s="121"/>
@@ -25769,7 +25765,7 @@
       <c r="AI565" s="125"/>
       <c r="AJ565" s="122"/>
     </row>
-    <row r="566" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="13:36" ht="15.75" customHeight="1">
       <c r="M566" s="119"/>
       <c r="N566" s="120"/>
       <c r="O566" s="121"/>
@@ -25795,7 +25791,7 @@
       <c r="AI566" s="125"/>
       <c r="AJ566" s="122"/>
     </row>
-    <row r="567" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="13:36" ht="15.75" customHeight="1">
       <c r="M567" s="119"/>
       <c r="N567" s="120"/>
       <c r="O567" s="121"/>
@@ -25821,7 +25817,7 @@
       <c r="AI567" s="125"/>
       <c r="AJ567" s="122"/>
     </row>
-    <row r="568" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="13:36" ht="15.75" customHeight="1">
       <c r="M568" s="119"/>
       <c r="N568" s="120"/>
       <c r="O568" s="121"/>
@@ -25847,7 +25843,7 @@
       <c r="AI568" s="125"/>
       <c r="AJ568" s="122"/>
     </row>
-    <row r="569" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="13:36" ht="15.75" customHeight="1">
       <c r="M569" s="119"/>
       <c r="N569" s="120"/>
       <c r="O569" s="121"/>
@@ -25873,7 +25869,7 @@
       <c r="AI569" s="125"/>
       <c r="AJ569" s="122"/>
     </row>
-    <row r="570" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="13:36" ht="15.75" customHeight="1">
       <c r="M570" s="119"/>
       <c r="N570" s="120"/>
       <c r="O570" s="121"/>
@@ -25899,7 +25895,7 @@
       <c r="AI570" s="125"/>
       <c r="AJ570" s="122"/>
     </row>
-    <row r="571" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="13:36" ht="15.75" customHeight="1">
       <c r="M571" s="119"/>
       <c r="N571" s="120"/>
       <c r="O571" s="121"/>
@@ -25925,7 +25921,7 @@
       <c r="AI571" s="125"/>
       <c r="AJ571" s="122"/>
     </row>
-    <row r="572" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="13:36" ht="15.75" customHeight="1">
       <c r="M572" s="119"/>
       <c r="N572" s="120"/>
       <c r="O572" s="121"/>
@@ -25951,7 +25947,7 @@
       <c r="AI572" s="125"/>
       <c r="AJ572" s="122"/>
     </row>
-    <row r="573" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="13:36" ht="15.75" customHeight="1">
       <c r="M573" s="119"/>
       <c r="N573" s="120"/>
       <c r="O573" s="121"/>
@@ -25977,7 +25973,7 @@
       <c r="AI573" s="125"/>
       <c r="AJ573" s="122"/>
     </row>
-    <row r="574" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="13:36" ht="15.75" customHeight="1">
       <c r="M574" s="119"/>
       <c r="N574" s="120"/>
       <c r="O574" s="121"/>
@@ -26003,7 +25999,7 @@
       <c r="AI574" s="125"/>
       <c r="AJ574" s="122"/>
     </row>
-    <row r="575" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="13:36" ht="15.75" customHeight="1">
       <c r="M575" s="119"/>
       <c r="N575" s="120"/>
       <c r="O575" s="121"/>
@@ -26029,7 +26025,7 @@
       <c r="AI575" s="125"/>
       <c r="AJ575" s="122"/>
     </row>
-    <row r="576" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="13:36" ht="15.75" customHeight="1">
       <c r="M576" s="119"/>
       <c r="N576" s="120"/>
       <c r="O576" s="121"/>
@@ -26055,7 +26051,7 @@
       <c r="AI576" s="125"/>
       <c r="AJ576" s="122"/>
     </row>
-    <row r="577" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="13:36" ht="15.75" customHeight="1">
       <c r="M577" s="119"/>
       <c r="N577" s="120"/>
       <c r="O577" s="121"/>
@@ -26081,7 +26077,7 @@
       <c r="AI577" s="125"/>
       <c r="AJ577" s="122"/>
     </row>
-    <row r="578" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="13:36" ht="15.75" customHeight="1">
       <c r="M578" s="119"/>
       <c r="N578" s="120"/>
       <c r="O578" s="121"/>
@@ -26107,7 +26103,7 @@
       <c r="AI578" s="125"/>
       <c r="AJ578" s="122"/>
     </row>
-    <row r="579" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="13:36" ht="15.75" customHeight="1">
       <c r="M579" s="119"/>
       <c r="N579" s="120"/>
       <c r="O579" s="121"/>
@@ -26133,7 +26129,7 @@
       <c r="AI579" s="125"/>
       <c r="AJ579" s="122"/>
     </row>
-    <row r="580" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="13:36" ht="15.75" customHeight="1">
       <c r="M580" s="119"/>
       <c r="N580" s="120"/>
       <c r="O580" s="121"/>
@@ -26159,7 +26155,7 @@
       <c r="AI580" s="125"/>
       <c r="AJ580" s="122"/>
     </row>
-    <row r="581" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="13:36" ht="15.75" customHeight="1">
       <c r="M581" s="119"/>
       <c r="N581" s="120"/>
       <c r="O581" s="121"/>
@@ -26185,7 +26181,7 @@
       <c r="AI581" s="125"/>
       <c r="AJ581" s="122"/>
     </row>
-    <row r="582" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="13:36" ht="15.75" customHeight="1">
       <c r="M582" s="119"/>
       <c r="N582" s="120"/>
       <c r="O582" s="121"/>
@@ -26211,7 +26207,7 @@
       <c r="AI582" s="125"/>
       <c r="AJ582" s="122"/>
     </row>
-    <row r="583" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="13:36" ht="15.75" customHeight="1">
       <c r="M583" s="119"/>
       <c r="N583" s="120"/>
       <c r="O583" s="121"/>
@@ -26237,7 +26233,7 @@
       <c r="AI583" s="125"/>
       <c r="AJ583" s="122"/>
     </row>
-    <row r="584" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="13:36" ht="15.75" customHeight="1">
       <c r="M584" s="119"/>
       <c r="N584" s="120"/>
       <c r="O584" s="121"/>
@@ -26263,7 +26259,7 @@
       <c r="AI584" s="125"/>
       <c r="AJ584" s="122"/>
     </row>
-    <row r="585" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="13:36" ht="15.75" customHeight="1">
       <c r="M585" s="119"/>
       <c r="N585" s="120"/>
       <c r="O585" s="121"/>
@@ -26289,7 +26285,7 @@
       <c r="AI585" s="125"/>
       <c r="AJ585" s="122"/>
     </row>
-    <row r="586" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="13:36" ht="15.75" customHeight="1">
       <c r="M586" s="119"/>
       <c r="N586" s="120"/>
       <c r="O586" s="121"/>
@@ -26315,7 +26311,7 @@
       <c r="AI586" s="125"/>
       <c r="AJ586" s="122"/>
     </row>
-    <row r="587" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="13:36" ht="15.75" customHeight="1">
       <c r="M587" s="119"/>
       <c r="N587" s="120"/>
       <c r="O587" s="121"/>
@@ -26341,7 +26337,7 @@
       <c r="AI587" s="125"/>
       <c r="AJ587" s="122"/>
     </row>
-    <row r="588" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="13:36" ht="15.75" customHeight="1">
       <c r="M588" s="119"/>
       <c r="N588" s="120"/>
       <c r="O588" s="121"/>
@@ -26367,7 +26363,7 @@
       <c r="AI588" s="125"/>
       <c r="AJ588" s="122"/>
     </row>
-    <row r="589" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="13:36" ht="15.75" customHeight="1">
       <c r="M589" s="119"/>
       <c r="N589" s="120"/>
       <c r="O589" s="121"/>
@@ -26393,7 +26389,7 @@
       <c r="AI589" s="125"/>
       <c r="AJ589" s="122"/>
     </row>
-    <row r="590" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="13:36" ht="15.75" customHeight="1">
       <c r="M590" s="119"/>
       <c r="N590" s="120"/>
       <c r="O590" s="121"/>
@@ -26419,7 +26415,7 @@
       <c r="AI590" s="125"/>
       <c r="AJ590" s="122"/>
     </row>
-    <row r="591" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="13:36" ht="15.75" customHeight="1">
       <c r="M591" s="119"/>
       <c r="N591" s="120"/>
       <c r="O591" s="121"/>
@@ -26445,7 +26441,7 @@
       <c r="AI591" s="125"/>
       <c r="AJ591" s="122"/>
     </row>
-    <row r="592" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="13:36" ht="15.75" customHeight="1">
       <c r="M592" s="119"/>
       <c r="N592" s="120"/>
       <c r="O592" s="121"/>
@@ -26471,7 +26467,7 @@
       <c r="AI592" s="125"/>
       <c r="AJ592" s="122"/>
     </row>
-    <row r="593" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="13:36" ht="15.75" customHeight="1">
       <c r="M593" s="119"/>
       <c r="N593" s="120"/>
       <c r="O593" s="121"/>
@@ -26497,7 +26493,7 @@
       <c r="AI593" s="125"/>
       <c r="AJ593" s="122"/>
     </row>
-    <row r="594" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="13:36" ht="15.75" customHeight="1">
       <c r="M594" s="119"/>
       <c r="N594" s="120"/>
       <c r="O594" s="121"/>
@@ -26523,7 +26519,7 @@
       <c r="AI594" s="125"/>
       <c r="AJ594" s="122"/>
     </row>
-    <row r="595" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="13:36" ht="15.75" customHeight="1">
       <c r="M595" s="119"/>
       <c r="N595" s="120"/>
       <c r="O595" s="121"/>
@@ -26549,7 +26545,7 @@
       <c r="AI595" s="125"/>
       <c r="AJ595" s="122"/>
     </row>
-    <row r="596" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="13:36" ht="15.75" customHeight="1">
       <c r="M596" s="119"/>
       <c r="N596" s="120"/>
       <c r="O596" s="121"/>
@@ -26575,7 +26571,7 @@
       <c r="AI596" s="125"/>
       <c r="AJ596" s="122"/>
     </row>
-    <row r="597" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="13:36" ht="15.75" customHeight="1">
       <c r="M597" s="119"/>
       <c r="N597" s="120"/>
       <c r="O597" s="121"/>
@@ -26601,7 +26597,7 @@
       <c r="AI597" s="125"/>
       <c r="AJ597" s="122"/>
     </row>
-    <row r="598" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="13:36" ht="15.75" customHeight="1">
       <c r="M598" s="119"/>
       <c r="N598" s="120"/>
       <c r="O598" s="121"/>
@@ -26627,7 +26623,7 @@
       <c r="AI598" s="125"/>
       <c r="AJ598" s="122"/>
     </row>
-    <row r="599" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="13:36" ht="15.75" customHeight="1">
       <c r="M599" s="119"/>
       <c r="N599" s="120"/>
       <c r="O599" s="121"/>
@@ -26653,7 +26649,7 @@
       <c r="AI599" s="125"/>
       <c r="AJ599" s="122"/>
     </row>
-    <row r="600" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="13:36" ht="15.75" customHeight="1">
       <c r="M600" s="119"/>
       <c r="N600" s="120"/>
       <c r="O600" s="121"/>
@@ -26679,7 +26675,7 @@
       <c r="AI600" s="125"/>
       <c r="AJ600" s="122"/>
     </row>
-    <row r="601" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="13:36" ht="15.75" customHeight="1">
       <c r="M601" s="119"/>
       <c r="N601" s="120"/>
       <c r="O601" s="121"/>
@@ -26705,7 +26701,7 @@
       <c r="AI601" s="125"/>
       <c r="AJ601" s="122"/>
     </row>
-    <row r="602" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="13:36" ht="15.75" customHeight="1">
       <c r="M602" s="119"/>
       <c r="N602" s="120"/>
       <c r="O602" s="121"/>
@@ -26731,7 +26727,7 @@
       <c r="AI602" s="125"/>
       <c r="AJ602" s="122"/>
     </row>
-    <row r="603" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="13:36" ht="15.75" customHeight="1">
       <c r="M603" s="119"/>
       <c r="N603" s="120"/>
       <c r="O603" s="121"/>
@@ -26757,7 +26753,7 @@
       <c r="AI603" s="125"/>
       <c r="AJ603" s="122"/>
     </row>
-    <row r="604" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="13:36" ht="15.75" customHeight="1">
       <c r="M604" s="119"/>
       <c r="N604" s="120"/>
       <c r="O604" s="121"/>
@@ -26783,7 +26779,7 @@
       <c r="AI604" s="125"/>
       <c r="AJ604" s="122"/>
     </row>
-    <row r="605" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="13:36" ht="15.75" customHeight="1">
       <c r="M605" s="119"/>
       <c r="N605" s="120"/>
       <c r="O605" s="121"/>
@@ -26809,7 +26805,7 @@
       <c r="AI605" s="125"/>
       <c r="AJ605" s="122"/>
     </row>
-    <row r="606" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="13:36" ht="15.75" customHeight="1">
       <c r="M606" s="119"/>
       <c r="N606" s="120"/>
       <c r="O606" s="121"/>
@@ -26835,7 +26831,7 @@
       <c r="AI606" s="125"/>
       <c r="AJ606" s="122"/>
     </row>
-    <row r="607" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="13:36" ht="15.75" customHeight="1">
       <c r="M607" s="119"/>
       <c r="N607" s="120"/>
       <c r="O607" s="121"/>
@@ -26861,7 +26857,7 @@
       <c r="AI607" s="125"/>
       <c r="AJ607" s="122"/>
     </row>
-    <row r="608" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="13:36" ht="15.75" customHeight="1">
       <c r="M608" s="119"/>
       <c r="N608" s="120"/>
       <c r="O608" s="121"/>
@@ -26887,7 +26883,7 @@
       <c r="AI608" s="125"/>
       <c r="AJ608" s="122"/>
     </row>
-    <row r="609" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="13:36" ht="15.75" customHeight="1">
       <c r="M609" s="119"/>
       <c r="N609" s="120"/>
       <c r="O609" s="121"/>
@@ -26913,7 +26909,7 @@
       <c r="AI609" s="125"/>
       <c r="AJ609" s="122"/>
     </row>
-    <row r="610" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="13:36" ht="15.75" customHeight="1">
       <c r="M610" s="119"/>
       <c r="N610" s="120"/>
       <c r="O610" s="121"/>
@@ -26939,7 +26935,7 @@
       <c r="AI610" s="125"/>
       <c r="AJ610" s="122"/>
     </row>
-    <row r="611" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="13:36" ht="15.75" customHeight="1">
       <c r="M611" s="119"/>
       <c r="N611" s="120"/>
       <c r="O611" s="121"/>
@@ -26965,7 +26961,7 @@
       <c r="AI611" s="125"/>
       <c r="AJ611" s="122"/>
     </row>
-    <row r="612" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="13:36" ht="15.75" customHeight="1">
       <c r="M612" s="119"/>
       <c r="N612" s="120"/>
       <c r="O612" s="121"/>
@@ -26991,7 +26987,7 @@
       <c r="AI612" s="125"/>
       <c r="AJ612" s="122"/>
     </row>
-    <row r="613" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="13:36" ht="15.75" customHeight="1">
       <c r="M613" s="119"/>
       <c r="N613" s="120"/>
       <c r="O613" s="121"/>
@@ -27017,7 +27013,7 @@
       <c r="AI613" s="125"/>
       <c r="AJ613" s="122"/>
     </row>
-    <row r="614" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="13:36" ht="15.75" customHeight="1">
       <c r="M614" s="119"/>
       <c r="N614" s="120"/>
       <c r="O614" s="121"/>
@@ -27043,7 +27039,7 @@
       <c r="AI614" s="125"/>
       <c r="AJ614" s="122"/>
     </row>
-    <row r="615" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="13:36" ht="15.75" customHeight="1">
       <c r="M615" s="119"/>
       <c r="N615" s="120"/>
       <c r="O615" s="121"/>
@@ -27069,7 +27065,7 @@
       <c r="AI615" s="125"/>
       <c r="AJ615" s="122"/>
     </row>
-    <row r="616" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="13:36" ht="15.75" customHeight="1">
       <c r="M616" s="119"/>
       <c r="N616" s="120"/>
       <c r="O616" s="121"/>
@@ -27095,7 +27091,7 @@
       <c r="AI616" s="125"/>
       <c r="AJ616" s="122"/>
     </row>
-    <row r="617" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="13:36" ht="15.75" customHeight="1">
       <c r="M617" s="119"/>
       <c r="N617" s="120"/>
       <c r="O617" s="121"/>
@@ -27121,7 +27117,7 @@
       <c r="AI617" s="125"/>
       <c r="AJ617" s="122"/>
     </row>
-    <row r="618" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="13:36" ht="15.75" customHeight="1">
       <c r="M618" s="119"/>
       <c r="N618" s="120"/>
       <c r="O618" s="121"/>
@@ -27147,7 +27143,7 @@
       <c r="AI618" s="125"/>
       <c r="AJ618" s="122"/>
     </row>
-    <row r="619" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="13:36" ht="15.75" customHeight="1">
       <c r="M619" s="119"/>
       <c r="N619" s="120"/>
       <c r="O619" s="121"/>
@@ -27173,7 +27169,7 @@
       <c r="AI619" s="125"/>
       <c r="AJ619" s="122"/>
     </row>
-    <row r="620" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="13:36" ht="15.75" customHeight="1">
       <c r="M620" s="119"/>
       <c r="N620" s="120"/>
       <c r="O620" s="121"/>
@@ -27199,7 +27195,7 @@
       <c r="AI620" s="125"/>
       <c r="AJ620" s="122"/>
     </row>
-    <row r="621" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="13:36" ht="15.75" customHeight="1">
       <c r="M621" s="119"/>
       <c r="N621" s="120"/>
       <c r="O621" s="121"/>
@@ -27225,7 +27221,7 @@
       <c r="AI621" s="125"/>
       <c r="AJ621" s="122"/>
     </row>
-    <row r="622" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="13:36" ht="15.75" customHeight="1">
       <c r="M622" s="119"/>
       <c r="N622" s="120"/>
       <c r="O622" s="121"/>
@@ -27251,7 +27247,7 @@
       <c r="AI622" s="125"/>
       <c r="AJ622" s="122"/>
     </row>
-    <row r="623" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="13:36" ht="15.75" customHeight="1">
       <c r="M623" s="119"/>
       <c r="N623" s="120"/>
       <c r="O623" s="121"/>
@@ -27277,7 +27273,7 @@
       <c r="AI623" s="125"/>
       <c r="AJ623" s="122"/>
     </row>
-    <row r="624" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="13:36" ht="15.75" customHeight="1">
       <c r="M624" s="119"/>
       <c r="N624" s="120"/>
       <c r="O624" s="121"/>
@@ -27303,7 +27299,7 @@
       <c r="AI624" s="125"/>
       <c r="AJ624" s="122"/>
     </row>
-    <row r="625" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="13:36" ht="15.75" customHeight="1">
       <c r="M625" s="119"/>
       <c r="N625" s="120"/>
       <c r="O625" s="121"/>
@@ -27329,7 +27325,7 @@
       <c r="AI625" s="125"/>
       <c r="AJ625" s="122"/>
     </row>
-    <row r="626" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="13:36" ht="15.75" customHeight="1">
       <c r="M626" s="119"/>
       <c r="N626" s="120"/>
       <c r="O626" s="121"/>
@@ -27355,7 +27351,7 @@
       <c r="AI626" s="125"/>
       <c r="AJ626" s="122"/>
     </row>
-    <row r="627" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="13:36" ht="15.75" customHeight="1">
       <c r="M627" s="119"/>
       <c r="N627" s="120"/>
       <c r="O627" s="121"/>
@@ -27381,7 +27377,7 @@
       <c r="AI627" s="125"/>
       <c r="AJ627" s="122"/>
     </row>
-    <row r="628" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="13:36" ht="15.75" customHeight="1">
       <c r="M628" s="119"/>
       <c r="N628" s="120"/>
       <c r="O628" s="121"/>
@@ -27407,7 +27403,7 @@
       <c r="AI628" s="125"/>
       <c r="AJ628" s="122"/>
     </row>
-    <row r="629" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="13:36" ht="15.75" customHeight="1">
       <c r="M629" s="119"/>
       <c r="N629" s="120"/>
       <c r="O629" s="121"/>
@@ -27433,7 +27429,7 @@
       <c r="AI629" s="125"/>
       <c r="AJ629" s="122"/>
     </row>
-    <row r="630" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="13:36" ht="15.75" customHeight="1">
       <c r="M630" s="119"/>
       <c r="N630" s="120"/>
       <c r="O630" s="121"/>
@@ -27459,7 +27455,7 @@
       <c r="AI630" s="125"/>
       <c r="AJ630" s="122"/>
     </row>
-    <row r="631" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="13:36" ht="15.75" customHeight="1">
       <c r="M631" s="119"/>
       <c r="N631" s="120"/>
       <c r="O631" s="121"/>
@@ -27485,7 +27481,7 @@
       <c r="AI631" s="125"/>
       <c r="AJ631" s="122"/>
     </row>
-    <row r="632" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="13:36" ht="15.75" customHeight="1">
       <c r="M632" s="119"/>
       <c r="N632" s="120"/>
       <c r="O632" s="121"/>
@@ -27511,7 +27507,7 @@
       <c r="AI632" s="125"/>
       <c r="AJ632" s="122"/>
     </row>
-    <row r="633" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="13:36" ht="15.75" customHeight="1">
       <c r="M633" s="119"/>
       <c r="N633" s="120"/>
       <c r="O633" s="121"/>
@@ -27537,7 +27533,7 @@
       <c r="AI633" s="125"/>
       <c r="AJ633" s="122"/>
     </row>
-    <row r="634" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="13:36" ht="15.75" customHeight="1">
       <c r="M634" s="119"/>
       <c r="N634" s="120"/>
       <c r="O634" s="121"/>
@@ -27563,7 +27559,7 @@
       <c r="AI634" s="125"/>
       <c r="AJ634" s="122"/>
     </row>
-    <row r="635" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="13:36" ht="15.75" customHeight="1">
       <c r="M635" s="119"/>
       <c r="N635" s="120"/>
       <c r="O635" s="121"/>
@@ -27589,7 +27585,7 @@
       <c r="AI635" s="125"/>
       <c r="AJ635" s="122"/>
     </row>
-    <row r="636" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="13:36" ht="15.75" customHeight="1">
       <c r="M636" s="119"/>
       <c r="N636" s="120"/>
       <c r="O636" s="121"/>
@@ -27615,7 +27611,7 @@
       <c r="AI636" s="125"/>
       <c r="AJ636" s="122"/>
     </row>
-    <row r="637" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="13:36" ht="15.75" customHeight="1">
       <c r="M637" s="119"/>
       <c r="N637" s="120"/>
       <c r="O637" s="121"/>
@@ -27641,7 +27637,7 @@
       <c r="AI637" s="125"/>
       <c r="AJ637" s="122"/>
     </row>
-    <row r="638" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="13:36" ht="15.75" customHeight="1">
       <c r="M638" s="119"/>
       <c r="N638" s="120"/>
       <c r="O638" s="121"/>
@@ -27667,7 +27663,7 @@
       <c r="AI638" s="125"/>
       <c r="AJ638" s="122"/>
     </row>
-    <row r="639" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="13:36" ht="15.75" customHeight="1">
       <c r="M639" s="119"/>
       <c r="N639" s="120"/>
       <c r="O639" s="121"/>
@@ -27693,7 +27689,7 @@
       <c r="AI639" s="125"/>
       <c r="AJ639" s="122"/>
     </row>
-    <row r="640" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="13:36" ht="15.75" customHeight="1">
       <c r="M640" s="119"/>
       <c r="N640" s="120"/>
       <c r="O640" s="121"/>
@@ -27719,7 +27715,7 @@
       <c r="AI640" s="125"/>
       <c r="AJ640" s="122"/>
     </row>
-    <row r="641" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="13:36" ht="15.75" customHeight="1">
       <c r="M641" s="119"/>
       <c r="N641" s="120"/>
       <c r="O641" s="121"/>
@@ -27745,7 +27741,7 @@
       <c r="AI641" s="125"/>
       <c r="AJ641" s="122"/>
     </row>
-    <row r="642" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="13:36" ht="15.75" customHeight="1">
       <c r="M642" s="119"/>
       <c r="N642" s="120"/>
       <c r="O642" s="121"/>
@@ -27771,7 +27767,7 @@
       <c r="AI642" s="125"/>
       <c r="AJ642" s="122"/>
     </row>
-    <row r="643" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="13:36" ht="15.75" customHeight="1">
       <c r="M643" s="119"/>
       <c r="N643" s="120"/>
       <c r="O643" s="121"/>
@@ -27797,7 +27793,7 @@
       <c r="AI643" s="125"/>
       <c r="AJ643" s="122"/>
     </row>
-    <row r="644" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="13:36" ht="15.75" customHeight="1">
       <c r="M644" s="119"/>
       <c r="N644" s="120"/>
       <c r="O644" s="121"/>
@@ -27823,7 +27819,7 @@
       <c r="AI644" s="125"/>
       <c r="AJ644" s="122"/>
     </row>
-    <row r="645" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="13:36" ht="15.75" customHeight="1">
       <c r="M645" s="119"/>
       <c r="N645" s="120"/>
       <c r="O645" s="121"/>
@@ -27849,7 +27845,7 @@
       <c r="AI645" s="125"/>
       <c r="AJ645" s="122"/>
     </row>
-    <row r="646" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="13:36" ht="15.75" customHeight="1">
       <c r="M646" s="119"/>
       <c r="N646" s="120"/>
       <c r="O646" s="121"/>
@@ -27875,7 +27871,7 @@
       <c r="AI646" s="125"/>
       <c r="AJ646" s="122"/>
     </row>
-    <row r="647" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="13:36" ht="15.75" customHeight="1">
       <c r="M647" s="119"/>
       <c r="N647" s="120"/>
       <c r="O647" s="121"/>
@@ -27901,7 +27897,7 @@
       <c r="AI647" s="125"/>
       <c r="AJ647" s="122"/>
     </row>
-    <row r="648" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="13:36" ht="15.75" customHeight="1">
       <c r="M648" s="119"/>
       <c r="N648" s="120"/>
       <c r="O648" s="121"/>
@@ -27927,7 +27923,7 @@
       <c r="AI648" s="125"/>
       <c r="AJ648" s="122"/>
     </row>
-    <row r="649" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="13:36" ht="15.75" customHeight="1">
       <c r="M649" s="119"/>
       <c r="N649" s="120"/>
       <c r="O649" s="121"/>
@@ -27953,7 +27949,7 @@
       <c r="AI649" s="125"/>
       <c r="AJ649" s="122"/>
     </row>
-    <row r="650" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="13:36" ht="15.75" customHeight="1">
       <c r="M650" s="119"/>
       <c r="N650" s="120"/>
       <c r="O650" s="121"/>
@@ -27979,7 +27975,7 @@
       <c r="AI650" s="125"/>
       <c r="AJ650" s="122"/>
     </row>
-    <row r="651" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="13:36" ht="15.75" customHeight="1">
       <c r="M651" s="119"/>
       <c r="N651" s="120"/>
       <c r="O651" s="121"/>
@@ -28005,7 +28001,7 @@
       <c r="AI651" s="125"/>
       <c r="AJ651" s="122"/>
     </row>
-    <row r="652" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="13:36" ht="15.75" customHeight="1">
       <c r="M652" s="119"/>
       <c r="N652" s="120"/>
       <c r="O652" s="121"/>
@@ -28031,7 +28027,7 @@
       <c r="AI652" s="125"/>
       <c r="AJ652" s="122"/>
     </row>
-    <row r="653" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="13:36" ht="15.75" customHeight="1">
       <c r="M653" s="119"/>
       <c r="N653" s="120"/>
       <c r="O653" s="121"/>
@@ -28057,7 +28053,7 @@
       <c r="AI653" s="125"/>
       <c r="AJ653" s="122"/>
     </row>
-    <row r="654" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="13:36" ht="15.75" customHeight="1">
       <c r="M654" s="119"/>
       <c r="N654" s="120"/>
       <c r="O654" s="121"/>
@@ -28083,7 +28079,7 @@
       <c r="AI654" s="125"/>
       <c r="AJ654" s="122"/>
     </row>
-    <row r="655" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="13:36" ht="15.75" customHeight="1">
       <c r="M655" s="119"/>
       <c r="N655" s="120"/>
       <c r="O655" s="121"/>
@@ -28109,7 +28105,7 @@
       <c r="AI655" s="125"/>
       <c r="AJ655" s="122"/>
     </row>
-    <row r="656" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="13:36" ht="15.75" customHeight="1">
       <c r="M656" s="119"/>
       <c r="N656" s="120"/>
       <c r="O656" s="121"/>
@@ -28135,7 +28131,7 @@
       <c r="AI656" s="125"/>
       <c r="AJ656" s="122"/>
     </row>
-    <row r="657" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="13:36" ht="15.75" customHeight="1">
       <c r="M657" s="119"/>
       <c r="N657" s="120"/>
       <c r="O657" s="121"/>
@@ -28161,7 +28157,7 @@
       <c r="AI657" s="125"/>
       <c r="AJ657" s="122"/>
     </row>
-    <row r="658" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="13:36" ht="15.75" customHeight="1">
       <c r="M658" s="119"/>
       <c r="N658" s="120"/>
       <c r="O658" s="121"/>
@@ -28187,7 +28183,7 @@
       <c r="AI658" s="125"/>
       <c r="AJ658" s="122"/>
     </row>
-    <row r="659" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="13:36" ht="15.75" customHeight="1">
       <c r="M659" s="119"/>
       <c r="N659" s="120"/>
       <c r="O659" s="121"/>
@@ -28213,7 +28209,7 @@
       <c r="AI659" s="125"/>
       <c r="AJ659" s="122"/>
     </row>
-    <row r="660" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="13:36" ht="15.75" customHeight="1">
       <c r="M660" s="119"/>
       <c r="N660" s="120"/>
       <c r="O660" s="121"/>
@@ -28239,7 +28235,7 @@
       <c r="AI660" s="125"/>
       <c r="AJ660" s="122"/>
     </row>
-    <row r="661" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="13:36" ht="15.75" customHeight="1">
       <c r="M661" s="119"/>
       <c r="N661" s="120"/>
       <c r="O661" s="121"/>
@@ -28265,7 +28261,7 @@
       <c r="AI661" s="125"/>
       <c r="AJ661" s="122"/>
     </row>
-    <row r="662" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="13:36" ht="15.75" customHeight="1">
       <c r="M662" s="119"/>
       <c r="N662" s="120"/>
       <c r="O662" s="121"/>
@@ -28291,7 +28287,7 @@
       <c r="AI662" s="125"/>
       <c r="AJ662" s="122"/>
     </row>
-    <row r="663" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="13:36" ht="15.75" customHeight="1">
       <c r="M663" s="119"/>
       <c r="N663" s="120"/>
       <c r="O663" s="121"/>
@@ -28317,7 +28313,7 @@
       <c r="AI663" s="125"/>
       <c r="AJ663" s="122"/>
     </row>
-    <row r="664" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="13:36" ht="15.75" customHeight="1">
       <c r="M664" s="119"/>
       <c r="N664" s="120"/>
       <c r="O664" s="121"/>
@@ -28343,7 +28339,7 @@
       <c r="AI664" s="125"/>
       <c r="AJ664" s="122"/>
     </row>
-    <row r="665" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="13:36" ht="15.75" customHeight="1">
       <c r="M665" s="119"/>
       <c r="N665" s="120"/>
       <c r="O665" s="121"/>
@@ -28369,7 +28365,7 @@
       <c r="AI665" s="125"/>
       <c r="AJ665" s="122"/>
     </row>
-    <row r="666" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="13:36" ht="15.75" customHeight="1">
       <c r="M666" s="119"/>
       <c r="N666" s="120"/>
       <c r="O666" s="121"/>
@@ -28395,7 +28391,7 @@
       <c r="AI666" s="125"/>
       <c r="AJ666" s="122"/>
     </row>
-    <row r="667" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="13:36" ht="15.75" customHeight="1">
       <c r="M667" s="119"/>
       <c r="N667" s="120"/>
       <c r="O667" s="121"/>
@@ -28421,7 +28417,7 @@
       <c r="AI667" s="125"/>
       <c r="AJ667" s="122"/>
     </row>
-    <row r="668" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="13:36" ht="15.75" customHeight="1">
       <c r="M668" s="119"/>
       <c r="N668" s="120"/>
       <c r="O668" s="121"/>
@@ -28447,7 +28443,7 @@
       <c r="AI668" s="125"/>
       <c r="AJ668" s="122"/>
     </row>
-    <row r="669" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="13:36" ht="15.75" customHeight="1">
       <c r="M669" s="119"/>
       <c r="N669" s="120"/>
       <c r="O669" s="121"/>
@@ -28473,7 +28469,7 @@
       <c r="AI669" s="125"/>
       <c r="AJ669" s="122"/>
     </row>
-    <row r="670" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="13:36" ht="15.75" customHeight="1">
       <c r="M670" s="119"/>
       <c r="N670" s="120"/>
       <c r="O670" s="121"/>
@@ -28499,7 +28495,7 @@
       <c r="AI670" s="125"/>
       <c r="AJ670" s="122"/>
     </row>
-    <row r="671" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="13:36" ht="15.75" customHeight="1">
       <c r="M671" s="119"/>
       <c r="N671" s="120"/>
       <c r="O671" s="121"/>
@@ -28525,7 +28521,7 @@
       <c r="AI671" s="125"/>
       <c r="AJ671" s="122"/>
     </row>
-    <row r="672" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="13:36" ht="15.75" customHeight="1">
       <c r="M672" s="119"/>
       <c r="N672" s="120"/>
       <c r="O672" s="121"/>
@@ -28551,7 +28547,7 @@
       <c r="AI672" s="125"/>
       <c r="AJ672" s="122"/>
     </row>
-    <row r="673" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="13:36" ht="15.75" customHeight="1">
       <c r="M673" s="119"/>
       <c r="N673" s="120"/>
       <c r="O673" s="121"/>
@@ -28577,7 +28573,7 @@
       <c r="AI673" s="125"/>
       <c r="AJ673" s="122"/>
     </row>
-    <row r="674" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="13:36" ht="15.75" customHeight="1">
       <c r="M674" s="119"/>
       <c r="N674" s="120"/>
       <c r="O674" s="121"/>
@@ -28603,7 +28599,7 @@
       <c r="AI674" s="125"/>
       <c r="AJ674" s="122"/>
     </row>
-    <row r="675" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="13:36" ht="15.75" customHeight="1">
       <c r="M675" s="119"/>
       <c r="N675" s="120"/>
       <c r="O675" s="121"/>
@@ -28629,7 +28625,7 @@
       <c r="AI675" s="125"/>
       <c r="AJ675" s="122"/>
     </row>
-    <row r="676" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="13:36" ht="15.75" customHeight="1">
       <c r="M676" s="119"/>
       <c r="N676" s="120"/>
       <c r="O676" s="121"/>
@@ -28655,7 +28651,7 @@
       <c r="AI676" s="125"/>
       <c r="AJ676" s="122"/>
     </row>
-    <row r="677" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="13:36" ht="15.75" customHeight="1">
       <c r="M677" s="119"/>
       <c r="N677" s="120"/>
       <c r="O677" s="121"/>
@@ -28681,7 +28677,7 @@
       <c r="AI677" s="125"/>
       <c r="AJ677" s="122"/>
     </row>
-    <row r="678" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="13:36" ht="15.75" customHeight="1">
       <c r="M678" s="119"/>
       <c r="N678" s="120"/>
       <c r="O678" s="121"/>
@@ -28707,7 +28703,7 @@
       <c r="AI678" s="125"/>
       <c r="AJ678" s="122"/>
     </row>
-    <row r="679" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="13:36" ht="15.75" customHeight="1">
       <c r="M679" s="119"/>
       <c r="N679" s="120"/>
       <c r="O679" s="121"/>
@@ -28733,7 +28729,7 @@
       <c r="AI679" s="125"/>
       <c r="AJ679" s="122"/>
     </row>
-    <row r="680" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="13:36" ht="15.75" customHeight="1">
       <c r="M680" s="119"/>
       <c r="N680" s="120"/>
       <c r="O680" s="121"/>
@@ -28759,7 +28755,7 @@
       <c r="AI680" s="125"/>
       <c r="AJ680" s="122"/>
     </row>
-    <row r="681" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="13:36" ht="15.75" customHeight="1">
       <c r="M681" s="119"/>
       <c r="N681" s="120"/>
       <c r="O681" s="121"/>
@@ -28785,7 +28781,7 @@
       <c r="AI681" s="125"/>
       <c r="AJ681" s="122"/>
     </row>
-    <row r="682" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="13:36" ht="15.75" customHeight="1">
       <c r="M682" s="119"/>
       <c r="N682" s="120"/>
       <c r="O682" s="121"/>
@@ -28811,7 +28807,7 @@
       <c r="AI682" s="125"/>
       <c r="AJ682" s="122"/>
     </row>
-    <row r="683" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="13:36" ht="15.75" customHeight="1">
       <c r="M683" s="119"/>
       <c r="N683" s="120"/>
       <c r="O683" s="121"/>
@@ -28837,7 +28833,7 @@
       <c r="AI683" s="125"/>
       <c r="AJ683" s="122"/>
     </row>
-    <row r="684" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="13:36" ht="15.75" customHeight="1">
       <c r="M684" s="119"/>
       <c r="N684" s="120"/>
       <c r="O684" s="121"/>
@@ -28863,7 +28859,7 @@
       <c r="AI684" s="125"/>
       <c r="AJ684" s="122"/>
     </row>
-    <row r="685" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="13:36" ht="15.75" customHeight="1">
       <c r="M685" s="119"/>
       <c r="N685" s="120"/>
       <c r="O685" s="121"/>
@@ -28889,7 +28885,7 @@
       <c r="AI685" s="125"/>
       <c r="AJ685" s="122"/>
     </row>
-    <row r="686" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="13:36" ht="15.75" customHeight="1">
       <c r="M686" s="119"/>
       <c r="N686" s="120"/>
       <c r="O686" s="121"/>
@@ -28915,7 +28911,7 @@
       <c r="AI686" s="125"/>
       <c r="AJ686" s="122"/>
     </row>
-    <row r="687" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="13:36" ht="15.75" customHeight="1">
       <c r="M687" s="119"/>
       <c r="N687" s="120"/>
       <c r="O687" s="121"/>
@@ -28941,7 +28937,7 @@
       <c r="AI687" s="125"/>
       <c r="AJ687" s="122"/>
     </row>
-    <row r="688" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="13:36" ht="15.75" customHeight="1">
       <c r="M688" s="119"/>
       <c r="N688" s="120"/>
       <c r="O688" s="121"/>
@@ -28967,7 +28963,7 @@
       <c r="AI688" s="125"/>
       <c r="AJ688" s="122"/>
     </row>
-    <row r="689" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="13:36" ht="15.75" customHeight="1">
       <c r="M689" s="119"/>
       <c r="N689" s="120"/>
       <c r="O689" s="121"/>
@@ -28993,7 +28989,7 @@
       <c r="AI689" s="125"/>
       <c r="AJ689" s="122"/>
     </row>
-    <row r="690" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="13:36" ht="15.75" customHeight="1">
       <c r="M690" s="119"/>
       <c r="N690" s="120"/>
       <c r="O690" s="121"/>
@@ -29019,7 +29015,7 @@
       <c r="AI690" s="125"/>
       <c r="AJ690" s="122"/>
     </row>
-    <row r="691" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="13:36" ht="15.75" customHeight="1">
       <c r="M691" s="119"/>
       <c r="N691" s="120"/>
       <c r="O691" s="121"/>
@@ -29045,7 +29041,7 @@
       <c r="AI691" s="125"/>
       <c r="AJ691" s="122"/>
     </row>
-    <row r="692" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="13:36" ht="15.75" customHeight="1">
       <c r="M692" s="119"/>
       <c r="N692" s="120"/>
       <c r="O692" s="121"/>
@@ -29071,7 +29067,7 @@
       <c r="AI692" s="125"/>
       <c r="AJ692" s="122"/>
     </row>
-    <row r="693" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="13:36" ht="15.75" customHeight="1">
       <c r="M693" s="119"/>
       <c r="N693" s="120"/>
       <c r="O693" s="121"/>
@@ -29097,7 +29093,7 @@
       <c r="AI693" s="125"/>
       <c r="AJ693" s="122"/>
     </row>
-    <row r="694" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="13:36" ht="15.75" customHeight="1">
       <c r="M694" s="119"/>
       <c r="N694" s="120"/>
       <c r="O694" s="121"/>
@@ -29123,7 +29119,7 @@
       <c r="AI694" s="125"/>
       <c r="AJ694" s="122"/>
     </row>
-    <row r="695" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="13:36" ht="15.75" customHeight="1">
       <c r="M695" s="119"/>
       <c r="N695" s="120"/>
       <c r="O695" s="121"/>
@@ -29149,7 +29145,7 @@
       <c r="AI695" s="125"/>
       <c r="AJ695" s="122"/>
     </row>
-    <row r="696" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="13:36" ht="15.75" customHeight="1">
       <c r="M696" s="119"/>
       <c r="N696" s="120"/>
       <c r="O696" s="121"/>
@@ -29175,7 +29171,7 @@
       <c r="AI696" s="125"/>
       <c r="AJ696" s="122"/>
     </row>
-    <row r="697" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="13:36" ht="15.75" customHeight="1">
       <c r="M697" s="119"/>
       <c r="N697" s="120"/>
       <c r="O697" s="121"/>
@@ -29201,7 +29197,7 @@
       <c r="AI697" s="125"/>
       <c r="AJ697" s="122"/>
     </row>
-    <row r="698" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="13:36" ht="15.75" customHeight="1">
       <c r="M698" s="119"/>
       <c r="N698" s="120"/>
       <c r="O698" s="121"/>
@@ -29227,7 +29223,7 @@
       <c r="AI698" s="125"/>
       <c r="AJ698" s="122"/>
     </row>
-    <row r="699" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="13:36" ht="15.75" customHeight="1">
       <c r="M699" s="119"/>
       <c r="N699" s="120"/>
       <c r="O699" s="121"/>
@@ -29253,7 +29249,7 @@
       <c r="AI699" s="125"/>
       <c r="AJ699" s="122"/>
     </row>
-    <row r="700" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="13:36" ht="15.75" customHeight="1">
       <c r="M700" s="119"/>
       <c r="N700" s="120"/>
       <c r="O700" s="121"/>
@@ -29279,7 +29275,7 @@
       <c r="AI700" s="125"/>
       <c r="AJ700" s="122"/>
     </row>
-    <row r="701" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="13:36" ht="15.75" customHeight="1">
       <c r="M701" s="119"/>
       <c r="N701" s="120"/>
       <c r="O701" s="121"/>
@@ -29305,7 +29301,7 @@
       <c r="AI701" s="125"/>
       <c r="AJ701" s="122"/>
     </row>
-    <row r="702" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="13:36" ht="15.75" customHeight="1">
       <c r="M702" s="119"/>
       <c r="N702" s="120"/>
       <c r="O702" s="121"/>
@@ -29331,7 +29327,7 @@
       <c r="AI702" s="125"/>
       <c r="AJ702" s="122"/>
     </row>
-    <row r="703" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="13:36" ht="15.75" customHeight="1">
       <c r="M703" s="119"/>
       <c r="N703" s="120"/>
       <c r="O703" s="121"/>
@@ -29357,7 +29353,7 @@
       <c r="AI703" s="125"/>
       <c r="AJ703" s="122"/>
     </row>
-    <row r="704" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="13:36" ht="15.75" customHeight="1">
       <c r="M704" s="119"/>
       <c r="N704" s="120"/>
       <c r="O704" s="121"/>
@@ -29383,7 +29379,7 @@
       <c r="AI704" s="125"/>
       <c r="AJ704" s="122"/>
     </row>
-    <row r="705" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="13:36" ht="15.75" customHeight="1">
       <c r="M705" s="119"/>
       <c r="N705" s="120"/>
       <c r="O705" s="121"/>
@@ -29409,7 +29405,7 @@
       <c r="AI705" s="125"/>
       <c r="AJ705" s="122"/>
     </row>
-    <row r="706" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="13:36" ht="15.75" customHeight="1">
       <c r="M706" s="119"/>
       <c r="N706" s="120"/>
       <c r="O706" s="121"/>
@@ -29435,7 +29431,7 @@
       <c r="AI706" s="125"/>
       <c r="AJ706" s="122"/>
     </row>
-    <row r="707" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="13:36" ht="15.75" customHeight="1">
       <c r="M707" s="119"/>
       <c r="N707" s="120"/>
       <c r="O707" s="121"/>
@@ -29461,7 +29457,7 @@
       <c r="AI707" s="125"/>
       <c r="AJ707" s="122"/>
     </row>
-    <row r="708" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="13:36" ht="15.75" customHeight="1">
       <c r="M708" s="119"/>
       <c r="N708" s="120"/>
       <c r="O708" s="121"/>
@@ -29487,7 +29483,7 @@
       <c r="AI708" s="125"/>
       <c r="AJ708" s="122"/>
     </row>
-    <row r="709" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="13:36" ht="15.75" customHeight="1">
       <c r="M709" s="119"/>
       <c r="N709" s="120"/>
       <c r="O709" s="121"/>
@@ -29513,7 +29509,7 @@
       <c r="AI709" s="125"/>
       <c r="AJ709" s="122"/>
     </row>
-    <row r="710" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="13:36" ht="15.75" customHeight="1">
       <c r="M710" s="119"/>
       <c r="N710" s="120"/>
       <c r="O710" s="121"/>
@@ -29539,7 +29535,7 @@
       <c r="AI710" s="125"/>
       <c r="AJ710" s="122"/>
     </row>
-    <row r="711" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="13:36" ht="15.75" customHeight="1">
       <c r="M711" s="119"/>
       <c r="N711" s="120"/>
       <c r="O711" s="121"/>
@@ -29565,7 +29561,7 @@
       <c r="AI711" s="125"/>
       <c r="AJ711" s="122"/>
     </row>
-    <row r="712" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="13:36" ht="15.75" customHeight="1">
       <c r="M712" s="119"/>
       <c r="N712" s="120"/>
       <c r="O712" s="121"/>
@@ -29591,7 +29587,7 @@
       <c r="AI712" s="125"/>
       <c r="AJ712" s="122"/>
     </row>
-    <row r="713" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="13:36" ht="15.75" customHeight="1">
       <c r="M713" s="119"/>
       <c r="N713" s="120"/>
       <c r="O713" s="121"/>
@@ -29617,7 +29613,7 @@
       <c r="AI713" s="125"/>
       <c r="AJ713" s="122"/>
     </row>
-    <row r="714" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="13:36" ht="15.75" customHeight="1">
       <c r="M714" s="119"/>
       <c r="N714" s="120"/>
       <c r="O714" s="121"/>
@@ -29643,7 +29639,7 @@
       <c r="AI714" s="125"/>
       <c r="AJ714" s="122"/>
     </row>
-    <row r="715" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="13:36" ht="15.75" customHeight="1">
       <c r="M715" s="119"/>
       <c r="N715" s="120"/>
       <c r="O715" s="121"/>
@@ -29669,7 +29665,7 @@
       <c r="AI715" s="125"/>
       <c r="AJ715" s="122"/>
     </row>
-    <row r="716" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="13:36" ht="15.75" customHeight="1">
       <c r="M716" s="119"/>
       <c r="N716" s="120"/>
       <c r="O716" s="121"/>
@@ -29695,7 +29691,7 @@
       <c r="AI716" s="125"/>
       <c r="AJ716" s="122"/>
     </row>
-    <row r="717" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="13:36" ht="15.75" customHeight="1">
       <c r="M717" s="119"/>
       <c r="N717" s="120"/>
       <c r="O717" s="121"/>
@@ -29721,7 +29717,7 @@
       <c r="AI717" s="125"/>
       <c r="AJ717" s="122"/>
     </row>
-    <row r="718" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="13:36" ht="15.75" customHeight="1">
       <c r="M718" s="119"/>
       <c r="N718" s="120"/>
       <c r="O718" s="121"/>
@@ -29747,7 +29743,7 @@
       <c r="AI718" s="125"/>
       <c r="AJ718" s="122"/>
     </row>
-    <row r="719" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="13:36" ht="15.75" customHeight="1">
       <c r="M719" s="119"/>
       <c r="N719" s="120"/>
       <c r="O719" s="121"/>
@@ -29773,7 +29769,7 @@
       <c r="AI719" s="125"/>
       <c r="AJ719" s="122"/>
     </row>
-    <row r="720" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="13:36" ht="15.75" customHeight="1">
       <c r="M720" s="119"/>
       <c r="N720" s="120"/>
       <c r="O720" s="121"/>
@@ -29799,7 +29795,7 @@
       <c r="AI720" s="125"/>
       <c r="AJ720" s="122"/>
     </row>
-    <row r="721" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="13:36" ht="15.75" customHeight="1">
       <c r="M721" s="119"/>
       <c r="N721" s="120"/>
       <c r="O721" s="121"/>
@@ -29825,7 +29821,7 @@
       <c r="AI721" s="125"/>
       <c r="AJ721" s="122"/>
     </row>
-    <row r="722" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="13:36" ht="15.75" customHeight="1">
       <c r="M722" s="119"/>
       <c r="N722" s="120"/>
       <c r="O722" s="121"/>
@@ -29851,7 +29847,7 @@
       <c r="AI722" s="125"/>
       <c r="AJ722" s="122"/>
     </row>
-    <row r="723" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="13:36" ht="15.75" customHeight="1">
       <c r="M723" s="119"/>
       <c r="N723" s="120"/>
       <c r="O723" s="121"/>
@@ -29877,7 +29873,7 @@
       <c r="AI723" s="125"/>
       <c r="AJ723" s="122"/>
     </row>
-    <row r="724" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="13:36" ht="15.75" customHeight="1">
       <c r="M724" s="119"/>
       <c r="N724" s="120"/>
       <c r="O724" s="121"/>
@@ -29903,7 +29899,7 @@
       <c r="AI724" s="125"/>
       <c r="AJ724" s="122"/>
     </row>
-    <row r="725" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="13:36" ht="15.75" customHeight="1">
       <c r="M725" s="119"/>
       <c r="N725" s="120"/>
       <c r="O725" s="121"/>
@@ -29929,7 +29925,7 @@
       <c r="AI725" s="125"/>
       <c r="AJ725" s="122"/>
     </row>
-    <row r="726" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="13:36" ht="15.75" customHeight="1">
       <c r="M726" s="119"/>
       <c r="N726" s="120"/>
       <c r="O726" s="121"/>
@@ -29955,7 +29951,7 @@
       <c r="AI726" s="125"/>
       <c r="AJ726" s="122"/>
     </row>
-    <row r="727" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="13:36" ht="15.75" customHeight="1">
       <c r="M727" s="119"/>
       <c r="N727" s="120"/>
       <c r="O727" s="121"/>
@@ -29981,7 +29977,7 @@
       <c r="AI727" s="125"/>
       <c r="AJ727" s="122"/>
     </row>
-    <row r="728" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="13:36" ht="15.75" customHeight="1">
       <c r="M728" s="119"/>
       <c r="N728" s="120"/>
       <c r="O728" s="121"/>
@@ -30007,7 +30003,7 @@
       <c r="AI728" s="125"/>
       <c r="AJ728" s="122"/>
     </row>
-    <row r="729" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="13:36" ht="15.75" customHeight="1">
       <c r="M729" s="119"/>
       <c r="N729" s="120"/>
       <c r="O729" s="121"/>
@@ -30033,7 +30029,7 @@
       <c r="AI729" s="125"/>
       <c r="AJ729" s="122"/>
     </row>
-    <row r="730" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="13:36" ht="15.75" customHeight="1">
       <c r="M730" s="119"/>
       <c r="N730" s="120"/>
       <c r="O730" s="121"/>
@@ -30059,7 +30055,7 @@
       <c r="AI730" s="125"/>
       <c r="AJ730" s="122"/>
     </row>
-    <row r="731" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="13:36" ht="15.75" customHeight="1">
       <c r="M731" s="119"/>
       <c r="N731" s="120"/>
       <c r="O731" s="121"/>
@@ -30085,7 +30081,7 @@
       <c r="AI731" s="125"/>
       <c r="AJ731" s="122"/>
     </row>
-    <row r="732" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="13:36" ht="15.75" customHeight="1">
       <c r="M732" s="119"/>
       <c r="N732" s="120"/>
       <c r="O732" s="121"/>
@@ -30111,7 +30107,7 @@
       <c r="AI732" s="125"/>
       <c r="AJ732" s="122"/>
     </row>
-    <row r="733" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="13:36" ht="15.75" customHeight="1">
       <c r="M733" s="119"/>
       <c r="N733" s="120"/>
       <c r="O733" s="121"/>
@@ -30137,7 +30133,7 @@
       <c r="AI733" s="125"/>
       <c r="AJ733" s="122"/>
     </row>
-    <row r="734" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="13:36" ht="15.75" customHeight="1">
       <c r="M734" s="119"/>
       <c r="N734" s="120"/>
       <c r="O734" s="121"/>
@@ -30163,7 +30159,7 @@
       <c r="AI734" s="125"/>
       <c r="AJ734" s="122"/>
     </row>
-    <row r="735" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="13:36" ht="15.75" customHeight="1">
       <c r="M735" s="119"/>
       <c r="N735" s="120"/>
       <c r="O735" s="121"/>
@@ -30189,7 +30185,7 @@
       <c r="AI735" s="125"/>
       <c r="AJ735" s="122"/>
     </row>
-    <row r="736" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="13:36" ht="15.75" customHeight="1">
       <c r="M736" s="119"/>
       <c r="N736" s="120"/>
       <c r="O736" s="121"/>
@@ -30215,7 +30211,7 @@
       <c r="AI736" s="125"/>
       <c r="AJ736" s="122"/>
     </row>
-    <row r="737" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="13:36" ht="15.75" customHeight="1">
       <c r="M737" s="119"/>
       <c r="N737" s="120"/>
       <c r="O737" s="121"/>
@@ -30241,7 +30237,7 @@
       <c r="AI737" s="125"/>
       <c r="AJ737" s="122"/>
     </row>
-    <row r="738" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="13:36" ht="15.75" customHeight="1">
       <c r="M738" s="119"/>
       <c r="N738" s="120"/>
       <c r="O738" s="121"/>
@@ -30267,7 +30263,7 @@
       <c r="AI738" s="125"/>
       <c r="AJ738" s="122"/>
     </row>
-    <row r="739" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="13:36" ht="15.75" customHeight="1">
       <c r="M739" s="119"/>
       <c r="N739" s="120"/>
       <c r="O739" s="121"/>
@@ -30293,7 +30289,7 @@
       <c r="AI739" s="125"/>
       <c r="AJ739" s="122"/>
     </row>
-    <row r="740" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="13:36" ht="15.75" customHeight="1">
       <c r="M740" s="119"/>
       <c r="N740" s="120"/>
       <c r="O740" s="121"/>
@@ -30319,7 +30315,7 @@
       <c r="AI740" s="125"/>
       <c r="AJ740" s="122"/>
     </row>
-    <row r="741" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="13:36" ht="15.75" customHeight="1">
       <c r="M741" s="119"/>
       <c r="N741" s="120"/>
       <c r="O741" s="121"/>
@@ -30345,7 +30341,7 @@
       <c r="AI741" s="125"/>
       <c r="AJ741" s="122"/>
     </row>
-    <row r="742" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="13:36" ht="15.75" customHeight="1">
       <c r="M742" s="119"/>
       <c r="N742" s="120"/>
       <c r="O742" s="121"/>
@@ -30371,7 +30367,7 @@
       <c r="AI742" s="125"/>
       <c r="AJ742" s="122"/>
     </row>
-    <row r="743" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="13:36" ht="15.75" customHeight="1">
       <c r="M743" s="119"/>
       <c r="N743" s="120"/>
       <c r="O743" s="121"/>
@@ -30397,7 +30393,7 @@
       <c r="AI743" s="125"/>
       <c r="AJ743" s="122"/>
     </row>
-    <row r="744" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="13:36" ht="15.75" customHeight="1">
       <c r="M744" s="119"/>
       <c r="N744" s="120"/>
       <c r="O744" s="121"/>
@@ -30423,7 +30419,7 @@
       <c r="AI744" s="125"/>
       <c r="AJ744" s="122"/>
     </row>
-    <row r="745" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="13:36" ht="15.75" customHeight="1">
       <c r="M745" s="119"/>
       <c r="N745" s="120"/>
       <c r="O745" s="121"/>
@@ -30449,7 +30445,7 @@
       <c r="AI745" s="125"/>
       <c r="AJ745" s="122"/>
     </row>
-    <row r="746" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="13:36" ht="15.75" customHeight="1">
       <c r="M746" s="119"/>
       <c r="N746" s="120"/>
       <c r="O746" s="121"/>
@@ -30475,7 +30471,7 @@
       <c r="AI746" s="125"/>
       <c r="AJ746" s="122"/>
     </row>
-    <row r="747" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="13:36" ht="15.75" customHeight="1">
       <c r="M747" s="119"/>
       <c r="N747" s="120"/>
       <c r="O747" s="121"/>
@@ -30501,7 +30497,7 @@
       <c r="AI747" s="125"/>
       <c r="AJ747" s="122"/>
     </row>
-    <row r="748" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="13:36" ht="15.75" customHeight="1">
       <c r="M748" s="119"/>
       <c r="N748" s="120"/>
       <c r="O748" s="121"/>
@@ -30527,7 +30523,7 @@
       <c r="AI748" s="125"/>
       <c r="AJ748" s="122"/>
     </row>
-    <row r="749" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="13:36" ht="15.75" customHeight="1">
       <c r="M749" s="119"/>
       <c r="N749" s="120"/>
       <c r="O749" s="121"/>
@@ -30553,7 +30549,7 @@
       <c r="AI749" s="125"/>
       <c r="AJ749" s="122"/>
     </row>
-    <row r="750" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="13:36" ht="15.75" customHeight="1">
       <c r="M750" s="119"/>
       <c r="N750" s="120"/>
       <c r="O750" s="121"/>
@@ -30579,7 +30575,7 @@
       <c r="AI750" s="125"/>
       <c r="AJ750" s="122"/>
     </row>
-    <row r="751" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="13:36" ht="15.75" customHeight="1">
       <c r="M751" s="119"/>
       <c r="N751" s="120"/>
       <c r="O751" s="121"/>
@@ -30605,7 +30601,7 @@
       <c r="AI751" s="125"/>
       <c r="AJ751" s="122"/>
     </row>
-    <row r="752" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="13:36" ht="15.75" customHeight="1">
       <c r="M752" s="119"/>
       <c r="N752" s="120"/>
       <c r="O752" s="121"/>
@@ -30631,7 +30627,7 @@
       <c r="AI752" s="125"/>
       <c r="AJ752" s="122"/>
     </row>
-    <row r="753" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="13:36" ht="15.75" customHeight="1">
       <c r="M753" s="119"/>
       <c r="N753" s="120"/>
       <c r="O753" s="121"/>
@@ -30657,7 +30653,7 @@
       <c r="AI753" s="125"/>
       <c r="AJ753" s="122"/>
     </row>
-    <row r="754" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="13:36" ht="15.75" customHeight="1">
       <c r="M754" s="119"/>
       <c r="N754" s="120"/>
       <c r="O754" s="121"/>
@@ -30683,7 +30679,7 @@
       <c r="AI754" s="125"/>
       <c r="AJ754" s="122"/>
     </row>
-    <row r="755" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="13:36" ht="15.75" customHeight="1">
       <c r="M755" s="119"/>
       <c r="N755" s="120"/>
       <c r="O755" s="121"/>
@@ -30709,7 +30705,7 @@
       <c r="AI755" s="125"/>
       <c r="AJ755" s="122"/>
     </row>
-    <row r="756" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="13:36" ht="15.75" customHeight="1">
       <c r="M756" s="119"/>
       <c r="N756" s="120"/>
       <c r="O756" s="121"/>
@@ -30735,7 +30731,7 @@
       <c r="AI756" s="125"/>
       <c r="AJ756" s="122"/>
     </row>
-    <row r="757" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="13:36" ht="15.75" customHeight="1">
       <c r="M757" s="119"/>
       <c r="N757" s="120"/>
       <c r="O757" s="121"/>
@@ -30761,7 +30757,7 @@
       <c r="AI757" s="125"/>
       <c r="AJ757" s="122"/>
     </row>
-    <row r="758" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="13:36" ht="15.75" customHeight="1">
       <c r="M758" s="119"/>
       <c r="N758" s="120"/>
       <c r="O758" s="121"/>
@@ -30787,7 +30783,7 @@
       <c r="AI758" s="125"/>
       <c r="AJ758" s="122"/>
     </row>
-    <row r="759" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="13:36" ht="15.75" customHeight="1">
       <c r="M759" s="119"/>
       <c r="N759" s="120"/>
       <c r="O759" s="121"/>
@@ -30813,7 +30809,7 @@
       <c r="AI759" s="125"/>
       <c r="AJ759" s="122"/>
     </row>
-    <row r="760" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="13:36" ht="15.75" customHeight="1">
       <c r="M760" s="119"/>
       <c r="N760" s="120"/>
       <c r="O760" s="121"/>
@@ -30839,7 +30835,7 @@
       <c r="AI760" s="125"/>
       <c r="AJ760" s="122"/>
     </row>
-    <row r="761" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="13:36" ht="15.75" customHeight="1">
       <c r="M761" s="119"/>
       <c r="N761" s="120"/>
       <c r="O761" s="121"/>
@@ -30865,7 +30861,7 @@
       <c r="AI761" s="125"/>
       <c r="AJ761" s="122"/>
     </row>
-    <row r="762" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="13:36" ht="15.75" customHeight="1">
       <c r="M762" s="119"/>
       <c r="N762" s="120"/>
       <c r="O762" s="121"/>
@@ -30891,7 +30887,7 @@
       <c r="AI762" s="125"/>
       <c r="AJ762" s="122"/>
     </row>
-    <row r="763" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="13:36" ht="15.75" customHeight="1">
       <c r="M763" s="119"/>
       <c r="N763" s="120"/>
       <c r="O763" s="121"/>
@@ -30917,7 +30913,7 @@
       <c r="AI763" s="125"/>
       <c r="AJ763" s="122"/>
     </row>
-    <row r="764" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="13:36" ht="15.75" customHeight="1">
       <c r="M764" s="119"/>
       <c r="N764" s="120"/>
       <c r="O764" s="121"/>
@@ -30943,7 +30939,7 @@
       <c r="AI764" s="125"/>
       <c r="AJ764" s="122"/>
     </row>
-    <row r="765" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="13:36" ht="15.75" customHeight="1">
       <c r="M765" s="119"/>
       <c r="N765" s="120"/>
       <c r="O765" s="121"/>
@@ -30969,7 +30965,7 @@
       <c r="AI765" s="125"/>
       <c r="AJ765" s="122"/>
     </row>
-    <row r="766" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="13:36" ht="15.75" customHeight="1">
       <c r="M766" s="119"/>
       <c r="N766" s="120"/>
       <c r="O766" s="121"/>
@@ -30995,7 +30991,7 @@
       <c r="AI766" s="125"/>
       <c r="AJ766" s="122"/>
     </row>
-    <row r="767" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="13:36" ht="15.75" customHeight="1">
       <c r="M767" s="119"/>
       <c r="N767" s="120"/>
       <c r="O767" s="121"/>
@@ -31021,7 +31017,7 @@
       <c r="AI767" s="125"/>
       <c r="AJ767" s="122"/>
     </row>
-    <row r="768" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="13:36" ht="15.75" customHeight="1">
       <c r="M768" s="119"/>
       <c r="N768" s="120"/>
       <c r="O768" s="121"/>
@@ -31047,7 +31043,7 @@
       <c r="AI768" s="125"/>
       <c r="AJ768" s="122"/>
     </row>
-    <row r="769" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="13:36" ht="15.75" customHeight="1">
       <c r="M769" s="119"/>
       <c r="N769" s="120"/>
       <c r="O769" s="121"/>
@@ -31073,7 +31069,7 @@
       <c r="AI769" s="125"/>
       <c r="AJ769" s="122"/>
     </row>
-    <row r="770" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="13:36" ht="15.75" customHeight="1">
       <c r="M770" s="119"/>
       <c r="N770" s="120"/>
       <c r="O770" s="121"/>
@@ -31099,7 +31095,7 @@
       <c r="AI770" s="125"/>
       <c r="AJ770" s="122"/>
     </row>
-    <row r="771" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="13:36" ht="15.75" customHeight="1">
       <c r="M771" s="119"/>
       <c r="N771" s="120"/>
       <c r="O771" s="121"/>
@@ -31125,7 +31121,7 @@
       <c r="AI771" s="125"/>
       <c r="AJ771" s="122"/>
     </row>
-    <row r="772" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="13:36" ht="15.75" customHeight="1">
       <c r="M772" s="119"/>
       <c r="N772" s="120"/>
       <c r="O772" s="121"/>
@@ -31151,7 +31147,7 @@
       <c r="AI772" s="125"/>
       <c r="AJ772" s="122"/>
     </row>
-    <row r="773" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="13:36" ht="15.75" customHeight="1">
       <c r="M773" s="119"/>
       <c r="N773" s="120"/>
       <c r="O773" s="121"/>
@@ -31177,7 +31173,7 @@
       <c r="AI773" s="125"/>
       <c r="AJ773" s="122"/>
     </row>
-    <row r="774" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="13:36" ht="15.75" customHeight="1">
       <c r="M774" s="119"/>
       <c r="N774" s="120"/>
       <c r="O774" s="121"/>
@@ -31203,7 +31199,7 @@
       <c r="AI774" s="125"/>
       <c r="AJ774" s="122"/>
     </row>
-    <row r="775" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="13:36" ht="15.75" customHeight="1">
       <c r="M775" s="119"/>
       <c r="N775" s="120"/>
       <c r="O775" s="121"/>
@@ -31229,7 +31225,7 @@
       <c r="AI775" s="125"/>
       <c r="AJ775" s="122"/>
     </row>
-    <row r="776" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="13:36" ht="15.75" customHeight="1">
       <c r="M776" s="119"/>
       <c r="N776" s="120"/>
       <c r="O776" s="121"/>
@@ -31255,7 +31251,7 @@
       <c r="AI776" s="125"/>
       <c r="AJ776" s="122"/>
     </row>
-    <row r="777" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="13:36" ht="15.75" customHeight="1">
       <c r="M777" s="119"/>
       <c r="N777" s="120"/>
       <c r="O777" s="121"/>
@@ -31281,7 +31277,7 @@
       <c r="AI777" s="125"/>
       <c r="AJ777" s="122"/>
     </row>
-    <row r="778" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="13:36" ht="15.75" customHeight="1">
       <c r="M778" s="119"/>
       <c r="N778" s="120"/>
       <c r="O778" s="121"/>
@@ -31307,7 +31303,7 @@
       <c r="AI778" s="125"/>
       <c r="AJ778" s="122"/>
     </row>
-    <row r="779" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="13:36" ht="15.75" customHeight="1">
       <c r="M779" s="119"/>
       <c r="N779" s="120"/>
       <c r="O779" s="121"/>
@@ -31333,7 +31329,7 @@
       <c r="AI779" s="125"/>
       <c r="AJ779" s="122"/>
     </row>
-    <row r="780" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="13:36" ht="15.75" customHeight="1">
       <c r="M780" s="119"/>
       <c r="N780" s="120"/>
       <c r="O780" s="121"/>
@@ -31359,7 +31355,7 @@
       <c r="AI780" s="125"/>
       <c r="AJ780" s="122"/>
     </row>
-    <row r="781" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="13:36" ht="15.75" customHeight="1">
       <c r="M781" s="119"/>
       <c r="N781" s="120"/>
       <c r="O781" s="121"/>
@@ -31385,7 +31381,7 @@
       <c r="AI781" s="125"/>
       <c r="AJ781" s="122"/>
     </row>
-    <row r="782" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="13:36" ht="15.75" customHeight="1">
       <c r="M782" s="119"/>
       <c r="N782" s="120"/>
       <c r="O782" s="121"/>
@@ -31411,7 +31407,7 @@
       <c r="AI782" s="125"/>
       <c r="AJ782" s="122"/>
     </row>
-    <row r="783" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="13:36" ht="15.75" customHeight="1">
       <c r="M783" s="119"/>
       <c r="N783" s="120"/>
       <c r="O783" s="121"/>
@@ -31437,7 +31433,7 @@
       <c r="AI783" s="125"/>
       <c r="AJ783" s="122"/>
     </row>
-    <row r="784" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="13:36" ht="15.75" customHeight="1">
       <c r="M784" s="119"/>
       <c r="N784" s="120"/>
       <c r="O784" s="121"/>
@@ -31463,7 +31459,7 @@
       <c r="AI784" s="125"/>
       <c r="AJ784" s="122"/>
     </row>
-    <row r="785" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="13:36" ht="15.75" customHeight="1">
       <c r="M785" s="119"/>
       <c r="N785" s="120"/>
       <c r="O785" s="121"/>
@@ -31489,7 +31485,7 @@
       <c r="AI785" s="125"/>
       <c r="AJ785" s="122"/>
     </row>
-    <row r="786" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="13:36" ht="15.75" customHeight="1">
       <c r="M786" s="119"/>
       <c r="N786" s="120"/>
       <c r="O786" s="121"/>
@@ -31515,7 +31511,7 @@
       <c r="AI786" s="125"/>
       <c r="AJ786" s="122"/>
     </row>
-    <row r="787" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="13:36" ht="15.75" customHeight="1">
       <c r="M787" s="119"/>
       <c r="N787" s="120"/>
       <c r="O787" s="121"/>
@@ -31541,7 +31537,7 @@
       <c r="AI787" s="125"/>
       <c r="AJ787" s="122"/>
     </row>
-    <row r="788" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="13:36" ht="15.75" customHeight="1">
       <c r="M788" s="119"/>
       <c r="N788" s="120"/>
       <c r="O788" s="121"/>
@@ -31567,7 +31563,7 @@
       <c r="AI788" s="125"/>
       <c r="AJ788" s="122"/>
     </row>
-    <row r="789" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="13:36" ht="15.75" customHeight="1">
       <c r="M789" s="119"/>
       <c r="N789" s="120"/>
       <c r="O789" s="121"/>
@@ -31593,7 +31589,7 @@
       <c r="AI789" s="125"/>
       <c r="AJ789" s="122"/>
     </row>
-    <row r="790" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="13:36" ht="15.75" customHeight="1">
       <c r="M790" s="119"/>
       <c r="N790" s="120"/>
       <c r="O790" s="121"/>
@@ -31619,7 +31615,7 @@
       <c r="AI790" s="125"/>
       <c r="AJ790" s="122"/>
     </row>
-    <row r="791" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="13:36" ht="15.75" customHeight="1">
       <c r="M791" s="119"/>
       <c r="N791" s="120"/>
       <c r="O791" s="121"/>
@@ -31645,7 +31641,7 @@
       <c r="AI791" s="125"/>
       <c r="AJ791" s="122"/>
     </row>
-    <row r="792" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="13:36" ht="15.75" customHeight="1">
       <c r="M792" s="119"/>
       <c r="N792" s="120"/>
       <c r="O792" s="121"/>
@@ -31671,7 +31667,7 @@
       <c r="AI792" s="125"/>
       <c r="AJ792" s="122"/>
     </row>
-    <row r="793" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="13:36" ht="15.75" customHeight="1">
       <c r="M793" s="119"/>
       <c r="N793" s="120"/>
       <c r="O793" s="121"/>
@@ -31697,7 +31693,7 @@
       <c r="AI793" s="125"/>
       <c r="AJ793" s="122"/>
     </row>
-    <row r="794" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="13:36" ht="15.75" customHeight="1">
       <c r="M794" s="119"/>
       <c r="N794" s="120"/>
       <c r="O794" s="121"/>
@@ -31723,7 +31719,7 @@
       <c r="AI794" s="125"/>
       <c r="AJ794" s="122"/>
     </row>
-    <row r="795" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="13:36" ht="15.75" customHeight="1">
       <c r="M795" s="119"/>
       <c r="N795" s="120"/>
       <c r="O795" s="121"/>
@@ -31749,7 +31745,7 @@
       <c r="AI795" s="125"/>
       <c r="AJ795" s="122"/>
     </row>
-    <row r="796" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="13:36" ht="15.75" customHeight="1">
       <c r="M796" s="119"/>
       <c r="N796" s="120"/>
       <c r="O796" s="121"/>
@@ -31775,7 +31771,7 @@
       <c r="AI796" s="125"/>
       <c r="AJ796" s="122"/>
     </row>
-    <row r="797" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="13:36" ht="15.75" customHeight="1">
       <c r="M797" s="119"/>
       <c r="N797" s="120"/>
       <c r="O797" s="121"/>
@@ -31801,7 +31797,7 @@
       <c r="AI797" s="125"/>
       <c r="AJ797" s="122"/>
     </row>
-    <row r="798" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="13:36" ht="15.75" customHeight="1">
       <c r="M798" s="119"/>
       <c r="N798" s="120"/>
       <c r="O798" s="121"/>
@@ -31827,7 +31823,7 @@
       <c r="AI798" s="125"/>
       <c r="AJ798" s="122"/>
     </row>
-    <row r="799" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="13:36" ht="15.75" customHeight="1">
       <c r="M799" s="119"/>
       <c r="N799" s="120"/>
       <c r="O799" s="121"/>
@@ -31853,7 +31849,7 @@
       <c r="AI799" s="125"/>
       <c r="AJ799" s="122"/>
     </row>
-    <row r="800" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="13:36" ht="15.75" customHeight="1">
       <c r="M800" s="119"/>
       <c r="N800" s="120"/>
       <c r="O800" s="121"/>
@@ -31879,7 +31875,7 @@
       <c r="AI800" s="125"/>
       <c r="AJ800" s="122"/>
     </row>
-    <row r="801" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="13:36" ht="15.75" customHeight="1">
       <c r="M801" s="119"/>
       <c r="N801" s="120"/>
       <c r="O801" s="121"/>
@@ -31905,7 +31901,7 @@
       <c r="AI801" s="125"/>
       <c r="AJ801" s="122"/>
     </row>
-    <row r="802" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="13:36" ht="15.75" customHeight="1">
       <c r="M802" s="119"/>
       <c r="N802" s="120"/>
       <c r="O802" s="121"/>
@@ -31931,7 +31927,7 @@
       <c r="AI802" s="125"/>
       <c r="AJ802" s="122"/>
     </row>
-    <row r="803" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="13:36" ht="15.75" customHeight="1">
       <c r="M803" s="119"/>
       <c r="N803" s="120"/>
       <c r="O803" s="121"/>
@@ -31957,7 +31953,7 @@
       <c r="AI803" s="125"/>
       <c r="AJ803" s="122"/>
     </row>
-    <row r="804" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="13:36" ht="15.75" customHeight="1">
       <c r="M804" s="119"/>
       <c r="N804" s="120"/>
       <c r="O804" s="121"/>
@@ -31983,7 +31979,7 @@
       <c r="AI804" s="125"/>
       <c r="AJ804" s="122"/>
     </row>
-    <row r="805" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="13:36" ht="15.75" customHeight="1">
       <c r="M805" s="119"/>
       <c r="N805" s="120"/>
       <c r="O805" s="121"/>
@@ -32009,7 +32005,7 @@
       <c r="AI805" s="125"/>
       <c r="AJ805" s="122"/>
     </row>
-    <row r="806" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="13:36" ht="15.75" customHeight="1">
       <c r="M806" s="119"/>
       <c r="N806" s="120"/>
       <c r="O806" s="121"/>
@@ -32035,7 +32031,7 @@
       <c r="AI806" s="125"/>
       <c r="AJ806" s="122"/>
     </row>
-    <row r="807" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="13:36" ht="15.75" customHeight="1">
       <c r="M807" s="119"/>
       <c r="N807" s="120"/>
       <c r="O807" s="121"/>
@@ -32061,7 +32057,7 @@
       <c r="AI807" s="125"/>
       <c r="AJ807" s="122"/>
     </row>
-    <row r="808" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="13:36" ht="15.75" customHeight="1">
       <c r="M808" s="119"/>
       <c r="N808" s="120"/>
       <c r="O808" s="121"/>
@@ -32087,7 +32083,7 @@
       <c r="AI808" s="125"/>
       <c r="AJ808" s="122"/>
     </row>
-    <row r="809" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="13:36" ht="15.75" customHeight="1">
       <c r="M809" s="119"/>
       <c r="N809" s="120"/>
       <c r="O809" s="121"/>
@@ -32113,7 +32109,7 @@
       <c r="AI809" s="125"/>
       <c r="AJ809" s="122"/>
     </row>
-    <row r="810" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="13:36" ht="15.75" customHeight="1">
       <c r="M810" s="119"/>
       <c r="N810" s="120"/>
       <c r="O810" s="121"/>
@@ -32139,7 +32135,7 @@
       <c r="AI810" s="125"/>
       <c r="AJ810" s="122"/>
     </row>
-    <row r="811" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="13:36" ht="15.75" customHeight="1">
       <c r="M811" s="119"/>
       <c r="N811" s="120"/>
       <c r="O811" s="121"/>
@@ -32165,7 +32161,7 @@
       <c r="AI811" s="125"/>
       <c r="AJ811" s="122"/>
     </row>
-    <row r="812" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="13:36" ht="15.75" customHeight="1">
       <c r="M812" s="119"/>
       <c r="N812" s="120"/>
       <c r="O812" s="121"/>
@@ -32191,7 +32187,7 @@
       <c r="AI812" s="125"/>
       <c r="AJ812" s="122"/>
     </row>
-    <row r="813" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="13:36" ht="15.75" customHeight="1">
       <c r="M813" s="119"/>
       <c r="N813" s="120"/>
       <c r="O813" s="121"/>
@@ -32217,7 +32213,7 @@
       <c r="AI813" s="125"/>
       <c r="AJ813" s="122"/>
     </row>
-    <row r="814" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="13:36" ht="15.75" customHeight="1">
       <c r="M814" s="119"/>
       <c r="N814" s="120"/>
       <c r="O814" s="121"/>
@@ -32243,7 +32239,7 @@
       <c r="AI814" s="125"/>
       <c r="AJ814" s="122"/>
     </row>
-    <row r="815" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="13:36" ht="15.75" customHeight="1">
       <c r="M815" s="119"/>
       <c r="N815" s="120"/>
       <c r="O815" s="121"/>
@@ -32269,7 +32265,7 @@
       <c r="AI815" s="125"/>
       <c r="AJ815" s="122"/>
     </row>
-    <row r="816" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="13:36" ht="15.75" customHeight="1">
       <c r="M816" s="119"/>
       <c r="N816" s="120"/>
       <c r="O816" s="121"/>
@@ -32295,7 +32291,7 @@
       <c r="AI816" s="125"/>
       <c r="AJ816" s="122"/>
     </row>
-    <row r="817" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="13:36" ht="15.75" customHeight="1">
       <c r="M817" s="119"/>
       <c r="N817" s="120"/>
       <c r="O817" s="121"/>
@@ -32321,7 +32317,7 @@
       <c r="AI817" s="125"/>
       <c r="AJ817" s="122"/>
     </row>
-    <row r="818" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="13:36" ht="15.75" customHeight="1">
       <c r="M818" s="119"/>
       <c r="N818" s="120"/>
       <c r="O818" s="121"/>
@@ -32347,7 +32343,7 @@
       <c r="AI818" s="125"/>
       <c r="AJ818" s="122"/>
     </row>
-    <row r="819" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="13:36" ht="15.75" customHeight="1">
       <c r="M819" s="119"/>
       <c r="N819" s="120"/>
       <c r="O819" s="121"/>
@@ -32373,7 +32369,7 @@
       <c r="AI819" s="125"/>
       <c r="AJ819" s="122"/>
     </row>
-    <row r="820" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="13:36" ht="15.75" customHeight="1">
       <c r="M820" s="119"/>
       <c r="N820" s="120"/>
       <c r="O820" s="121"/>
@@ -32399,7 +32395,7 @@
       <c r="AI820" s="125"/>
       <c r="AJ820" s="122"/>
     </row>
-    <row r="821" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="13:36" ht="15.75" customHeight="1">
       <c r="M821" s="119"/>
       <c r="N821" s="120"/>
       <c r="O821" s="121"/>
@@ -32425,7 +32421,7 @@
       <c r="AI821" s="125"/>
       <c r="AJ821" s="122"/>
     </row>
-    <row r="822" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="13:36" ht="15.75" customHeight="1">
       <c r="M822" s="119"/>
       <c r="N822" s="120"/>
       <c r="O822" s="121"/>
@@ -32451,7 +32447,7 @@
       <c r="AI822" s="125"/>
       <c r="AJ822" s="122"/>
     </row>
-    <row r="823" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="13:36" ht="15.75" customHeight="1">
       <c r="M823" s="119"/>
       <c r="N823" s="120"/>
       <c r="O823" s="121"/>
@@ -32477,7 +32473,7 @@
       <c r="AI823" s="125"/>
       <c r="AJ823" s="122"/>
     </row>
-    <row r="824" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="13:36" ht="15.75" customHeight="1">
       <c r="M824" s="119"/>
       <c r="N824" s="120"/>
       <c r="O824" s="121"/>
@@ -32503,7 +32499,7 @@
       <c r="AI824" s="125"/>
       <c r="AJ824" s="122"/>
     </row>
-    <row r="825" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="13:36" ht="15.75" customHeight="1">
       <c r="M825" s="119"/>
       <c r="N825" s="120"/>
       <c r="O825" s="121"/>
@@ -32529,7 +32525,7 @@
       <c r="AI825" s="125"/>
       <c r="AJ825" s="122"/>
     </row>
-    <row r="826" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="13:36" ht="15.75" customHeight="1">
       <c r="M826" s="119"/>
       <c r="N826" s="120"/>
       <c r="O826" s="121"/>
@@ -32555,7 +32551,7 @@
       <c r="AI826" s="125"/>
       <c r="AJ826" s="122"/>
     </row>
-    <row r="827" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="13:36" ht="15.75" customHeight="1">
       <c r="M827" s="119"/>
       <c r="N827" s="120"/>
       <c r="O827" s="121"/>
@@ -32581,7 +32577,7 @@
       <c r="AI827" s="125"/>
       <c r="AJ827" s="122"/>
     </row>
-    <row r="828" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="13:36" ht="15.75" customHeight="1">
       <c r="M828" s="119"/>
       <c r="N828" s="120"/>
       <c r="O828" s="121"/>
@@ -32607,7 +32603,7 @@
       <c r="AI828" s="125"/>
       <c r="AJ828" s="122"/>
     </row>
-    <row r="829" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="13:36" ht="15.75" customHeight="1">
       <c r="M829" s="119"/>
       <c r="N829" s="120"/>
       <c r="O829" s="121"/>
@@ -32633,7 +32629,7 @@
       <c r="AI829" s="125"/>
       <c r="AJ829" s="122"/>
     </row>
-    <row r="830" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="13:36" ht="15.75" customHeight="1">
       <c r="M830" s="119"/>
       <c r="N830" s="120"/>
       <c r="O830" s="121"/>
@@ -32659,7 +32655,7 @@
       <c r="AI830" s="125"/>
       <c r="AJ830" s="122"/>
     </row>
-    <row r="831" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="13:36" ht="15.75" customHeight="1">
       <c r="M831" s="119"/>
       <c r="N831" s="120"/>
       <c r="O831" s="121"/>
@@ -32685,7 +32681,7 @@
       <c r="AI831" s="125"/>
       <c r="AJ831" s="122"/>
     </row>
-    <row r="832" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="13:36" ht="15.75" customHeight="1">
       <c r="M832" s="119"/>
       <c r="N832" s="120"/>
       <c r="O832" s="121"/>
@@ -32711,7 +32707,7 @@
       <c r="AI832" s="125"/>
       <c r="AJ832" s="122"/>
     </row>
-    <row r="833" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="13:36" ht="15.75" customHeight="1">
       <c r="M833" s="119"/>
       <c r="N833" s="120"/>
       <c r="O833" s="121"/>
@@ -32737,7 +32733,7 @@
       <c r="AI833" s="125"/>
       <c r="AJ833" s="122"/>
     </row>
-    <row r="834" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="13:36" ht="15.75" customHeight="1">
       <c r="M834" s="119"/>
       <c r="N834" s="120"/>
       <c r="O834" s="121"/>
@@ -32763,7 +32759,7 @@
       <c r="AI834" s="125"/>
       <c r="AJ834" s="122"/>
     </row>
-    <row r="835" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="13:36" ht="15.75" customHeight="1">
       <c r="M835" s="119"/>
       <c r="N835" s="120"/>
       <c r="O835" s="121"/>
@@ -32789,7 +32785,7 @@
       <c r="AI835" s="125"/>
       <c r="AJ835" s="122"/>
     </row>
-    <row r="836" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="13:36" ht="15.75" customHeight="1">
       <c r="M836" s="119"/>
       <c r="N836" s="120"/>
       <c r="O836" s="121"/>
@@ -32815,7 +32811,7 @@
       <c r="AI836" s="125"/>
       <c r="AJ836" s="122"/>
     </row>
-    <row r="837" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="13:36" ht="15.75" customHeight="1">
       <c r="M837" s="119"/>
       <c r="N837" s="120"/>
       <c r="O837" s="121"/>
@@ -32841,7 +32837,7 @@
       <c r="AI837" s="125"/>
       <c r="AJ837" s="122"/>
     </row>
-    <row r="838" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="13:36" ht="15.75" customHeight="1">
       <c r="M838" s="119"/>
       <c r="N838" s="120"/>
       <c r="O838" s="121"/>
@@ -32867,7 +32863,7 @@
       <c r="AI838" s="125"/>
       <c r="AJ838" s="122"/>
     </row>
-    <row r="839" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="13:36" ht="15.75" customHeight="1">
       <c r="M839" s="119"/>
       <c r="N839" s="120"/>
       <c r="O839" s="121"/>
@@ -32893,7 +32889,7 @@
       <c r="AI839" s="125"/>
       <c r="AJ839" s="122"/>
     </row>
-    <row r="840" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="13:36" ht="15.75" customHeight="1">
       <c r="M840" s="119"/>
       <c r="N840" s="120"/>
       <c r="O840" s="121"/>
@@ -32919,7 +32915,7 @@
       <c r="AI840" s="125"/>
       <c r="AJ840" s="122"/>
     </row>
-    <row r="841" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="13:36" ht="15.75" customHeight="1">
       <c r="M841" s="119"/>
       <c r="N841" s="120"/>
       <c r="O841" s="121"/>
@@ -32945,7 +32941,7 @@
       <c r="AI841" s="125"/>
       <c r="AJ841" s="122"/>
     </row>
-    <row r="842" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="13:36" ht="15.75" customHeight="1">
       <c r="M842" s="119"/>
       <c r="N842" s="120"/>
       <c r="O842" s="121"/>
@@ -32971,7 +32967,7 @@
       <c r="AI842" s="125"/>
       <c r="AJ842" s="122"/>
     </row>
-    <row r="843" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="13:36" ht="15.75" customHeight="1">
       <c r="M843" s="119"/>
       <c r="N843" s="120"/>
       <c r="O843" s="121"/>
@@ -32997,7 +32993,7 @@
       <c r="AI843" s="125"/>
       <c r="AJ843" s="122"/>
     </row>
-    <row r="844" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="13:36" ht="15.75" customHeight="1">
       <c r="M844" s="119"/>
       <c r="N844" s="120"/>
       <c r="O844" s="121"/>
@@ -33023,7 +33019,7 @@
       <c r="AI844" s="125"/>
       <c r="AJ844" s="122"/>
     </row>
-    <row r="845" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="13:36" ht="15.75" customHeight="1">
       <c r="M845" s="119"/>
       <c r="N845" s="120"/>
       <c r="O845" s="121"/>
@@ -33049,7 +33045,7 @@
       <c r="AI845" s="125"/>
       <c r="AJ845" s="122"/>
     </row>
-    <row r="846" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="13:36" ht="15.75" customHeight="1">
       <c r="M846" s="119"/>
       <c r="N846" s="120"/>
       <c r="O846" s="121"/>
@@ -33075,7 +33071,7 @@
       <c r="AI846" s="125"/>
       <c r="AJ846" s="122"/>
     </row>
-    <row r="847" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="13:36" ht="15.75" customHeight="1">
       <c r="M847" s="119"/>
       <c r="N847" s="120"/>
       <c r="O847" s="121"/>
@@ -33101,7 +33097,7 @@
       <c r="AI847" s="125"/>
       <c r="AJ847" s="122"/>
     </row>
-    <row r="848" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="13:36" ht="15.75" customHeight="1">
       <c r="M848" s="119"/>
       <c r="N848" s="120"/>
       <c r="O848" s="121"/>
@@ -33127,7 +33123,7 @@
       <c r="AI848" s="125"/>
       <c r="AJ848" s="122"/>
     </row>
-    <row r="849" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="13:36" ht="15.75" customHeight="1">
       <c r="M849" s="119"/>
       <c r="N849" s="120"/>
       <c r="O849" s="121"/>
@@ -33153,7 +33149,7 @@
       <c r="AI849" s="125"/>
       <c r="AJ849" s="122"/>
     </row>
-    <row r="850" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="13:36" ht="15.75" customHeight="1">
       <c r="M850" s="119"/>
       <c r="N850" s="120"/>
       <c r="O850" s="121"/>
@@ -33179,7 +33175,7 @@
       <c r="AI850" s="125"/>
       <c r="AJ850" s="122"/>
     </row>
-    <row r="851" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="13:36" ht="15.75" customHeight="1">
       <c r="M851" s="119"/>
       <c r="N851" s="120"/>
       <c r="O851" s="121"/>
@@ -33205,7 +33201,7 @@
       <c r="AI851" s="125"/>
       <c r="AJ851" s="122"/>
     </row>
-    <row r="852" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="13:36" ht="15.75" customHeight="1">
       <c r="M852" s="119"/>
       <c r="N852" s="120"/>
       <c r="O852" s="121"/>
@@ -33231,7 +33227,7 @@
       <c r="AI852" s="125"/>
       <c r="AJ852" s="122"/>
     </row>
-    <row r="853" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="13:36" ht="15.75" customHeight="1">
       <c r="M853" s="119"/>
       <c r="N853" s="120"/>
       <c r="O853" s="121"/>
@@ -33257,7 +33253,7 @@
       <c r="AI853" s="125"/>
       <c r="AJ853" s="122"/>
     </row>
-    <row r="854" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="13:36" ht="15.75" customHeight="1">
       <c r="M854" s="119"/>
       <c r="N854" s="120"/>
       <c r="O854" s="121"/>
@@ -33283,7 +33279,7 @@
       <c r="AI854" s="125"/>
       <c r="AJ854" s="122"/>
     </row>
-    <row r="855" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="13:36" ht="15.75" customHeight="1">
       <c r="M855" s="119"/>
       <c r="N855" s="120"/>
       <c r="O855" s="121"/>
@@ -33309,7 +33305,7 @@
       <c r="AI855" s="125"/>
       <c r="AJ855" s="122"/>
     </row>
-    <row r="856" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="13:36" ht="15.75" customHeight="1">
       <c r="M856" s="119"/>
       <c r="N856" s="120"/>
       <c r="O856" s="121"/>
@@ -33335,7 +33331,7 @@
       <c r="AI856" s="125"/>
       <c r="AJ856" s="122"/>
     </row>
-    <row r="857" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="13:36" ht="15.75" customHeight="1">
       <c r="M857" s="119"/>
       <c r="N857" s="120"/>
       <c r="O857" s="121"/>
@@ -33361,7 +33357,7 @@
       <c r="AI857" s="125"/>
       <c r="AJ857" s="122"/>
     </row>
-    <row r="858" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="13:36" ht="15.75" customHeight="1">
       <c r="M858" s="119"/>
       <c r="N858" s="120"/>
       <c r="O858" s="121"/>
@@ -33387,7 +33383,7 @@
       <c r="AI858" s="125"/>
       <c r="AJ858" s="122"/>
     </row>
-    <row r="859" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="13:36" ht="15.75" customHeight="1">
       <c r="M859" s="119"/>
       <c r="N859" s="120"/>
       <c r="O859" s="121"/>
@@ -33413,7 +33409,7 @@
       <c r="AI859" s="125"/>
       <c r="AJ859" s="122"/>
     </row>
-    <row r="860" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="13:36" ht="15.75" customHeight="1">
       <c r="M860" s="119"/>
       <c r="N860" s="120"/>
       <c r="O860" s="121"/>
@@ -33439,7 +33435,7 @@
       <c r="AI860" s="125"/>
       <c r="AJ860" s="122"/>
     </row>
-    <row r="861" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="13:36" ht="15.75" customHeight="1">
       <c r="M861" s="119"/>
       <c r="N861" s="120"/>
       <c r="O861" s="121"/>
@@ -33465,7 +33461,7 @@
       <c r="AI861" s="125"/>
       <c r="AJ861" s="122"/>
     </row>
-    <row r="862" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="13:36" ht="15.75" customHeight="1">
       <c r="M862" s="119"/>
       <c r="N862" s="120"/>
       <c r="O862" s="121"/>
@@ -33491,7 +33487,7 @@
       <c r="AI862" s="125"/>
       <c r="AJ862" s="122"/>
     </row>
-    <row r="863" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="13:36" ht="15.75" customHeight="1">
       <c r="M863" s="119"/>
       <c r="N863" s="120"/>
       <c r="O863" s="121"/>
@@ -33517,7 +33513,7 @@
       <c r="AI863" s="125"/>
       <c r="AJ863" s="122"/>
     </row>
-    <row r="864" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="13:36" ht="15.75" customHeight="1">
       <c r="M864" s="119"/>
       <c r="N864" s="120"/>
       <c r="O864" s="121"/>
@@ -33543,7 +33539,7 @@
       <c r="AI864" s="125"/>
       <c r="AJ864" s="122"/>
     </row>
-    <row r="865" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="13:36" ht="15.75" customHeight="1">
       <c r="M865" s="119"/>
       <c r="N865" s="120"/>
       <c r="O865" s="121"/>
@@ -33569,7 +33565,7 @@
       <c r="AI865" s="125"/>
       <c r="AJ865" s="122"/>
     </row>
-    <row r="866" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="13:36" ht="15.75" customHeight="1">
       <c r="M866" s="119"/>
       <c r="N866" s="120"/>
       <c r="O866" s="121"/>
@@ -33595,7 +33591,7 @@
       <c r="AI866" s="125"/>
       <c r="AJ866" s="122"/>
     </row>
-    <row r="867" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="13:36" ht="15.75" customHeight="1">
       <c r="M867" s="119"/>
       <c r="N867" s="120"/>
       <c r="O867" s="121"/>
@@ -33621,7 +33617,7 @@
       <c r="AI867" s="125"/>
       <c r="AJ867" s="122"/>
     </row>
-    <row r="868" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="13:36" ht="15.75" customHeight="1">
       <c r="M868" s="119"/>
       <c r="N868" s="120"/>
       <c r="O868" s="121"/>
@@ -33647,7 +33643,7 @@
       <c r="AI868" s="125"/>
       <c r="AJ868" s="122"/>
     </row>
-    <row r="869" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="13:36" ht="15.75" customHeight="1">
       <c r="M869" s="119"/>
       <c r="N869" s="120"/>
       <c r="O869" s="121"/>
@@ -33673,7 +33669,7 @@
       <c r="AI869" s="125"/>
       <c r="AJ869" s="122"/>
     </row>
-    <row r="870" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="13:36" ht="15.75" customHeight="1">
       <c r="M870" s="119"/>
       <c r="N870" s="120"/>
       <c r="O870" s="121"/>
@@ -33699,7 +33695,7 @@
       <c r="AI870" s="125"/>
       <c r="AJ870" s="122"/>
     </row>
-    <row r="871" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="13:36" ht="15.75" customHeight="1">
       <c r="M871" s="119"/>
       <c r="N871" s="120"/>
       <c r="O871" s="121"/>
@@ -33725,7 +33721,7 @@
       <c r="AI871" s="125"/>
       <c r="AJ871" s="122"/>
     </row>
-    <row r="872" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="13:36" ht="15.75" customHeight="1">
       <c r="M872" s="119"/>
       <c r="N872" s="120"/>
       <c r="O872" s="121"/>
@@ -33751,7 +33747,7 @@
       <c r="AI872" s="125"/>
       <c r="AJ872" s="122"/>
     </row>
-    <row r="873" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="13:36" ht="15.75" customHeight="1">
       <c r="M873" s="119"/>
       <c r="N873" s="120"/>
       <c r="O873" s="121"/>
@@ -33777,7 +33773,7 @@
       <c r="AI873" s="125"/>
       <c r="AJ873" s="122"/>
     </row>
-    <row r="874" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="13:36" ht="15.75" customHeight="1">
       <c r="M874" s="119"/>
       <c r="N874" s="120"/>
       <c r="O874" s="121"/>
@@ -33803,7 +33799,7 @@
       <c r="AI874" s="125"/>
       <c r="AJ874" s="122"/>
     </row>
-    <row r="875" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="13:36" ht="15.75" customHeight="1">
       <c r="M875" s="119"/>
       <c r="N875" s="120"/>
       <c r="O875" s="121"/>
@@ -33829,7 +33825,7 @@
       <c r="AI875" s="125"/>
       <c r="AJ875" s="122"/>
     </row>
-    <row r="876" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="13:36" ht="15.75" customHeight="1">
       <c r="M876" s="119"/>
       <c r="N876" s="120"/>
       <c r="O876" s="121"/>
@@ -33855,7 +33851,7 @@
       <c r="AI876" s="125"/>
       <c r="AJ876" s="122"/>
     </row>
-    <row r="877" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="13:36" ht="15.75" customHeight="1">
       <c r="M877" s="119"/>
       <c r="N877" s="120"/>
       <c r="O877" s="121"/>
@@ -33881,7 +33877,7 @@
       <c r="AI877" s="125"/>
       <c r="AJ877" s="122"/>
     </row>
-    <row r="878" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="13:36" ht="15.75" customHeight="1">
       <c r="M878" s="119"/>
       <c r="N878" s="120"/>
       <c r="O878" s="121"/>
@@ -33907,7 +33903,7 @@
       <c r="AI878" s="125"/>
       <c r="AJ878" s="122"/>
     </row>
-    <row r="879" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="13:36" ht="15.75" customHeight="1">
       <c r="M879" s="119"/>
       <c r="N879" s="120"/>
       <c r="O879" s="121"/>
@@ -33933,7 +33929,7 @@
       <c r="AI879" s="125"/>
       <c r="AJ879" s="122"/>
     </row>
-    <row r="880" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="13:36" ht="15.75" customHeight="1">
       <c r="M880" s="119"/>
       <c r="N880" s="120"/>
       <c r="O880" s="121"/>
@@ -33959,7 +33955,7 @@
       <c r="AI880" s="125"/>
       <c r="AJ880" s="122"/>
     </row>
-    <row r="881" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="13:36" ht="15.75" customHeight="1">
       <c r="M881" s="119"/>
       <c r="N881" s="120"/>
       <c r="O881" s="121"/>
@@ -33985,7 +33981,7 @@
       <c r="AI881" s="125"/>
       <c r="AJ881" s="122"/>
     </row>
-    <row r="882" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="13:36" ht="15.75" customHeight="1">
       <c r="M882" s="119"/>
       <c r="N882" s="120"/>
       <c r="O882" s="121"/>
@@ -34011,7 +34007,7 @@
       <c r="AI882" s="125"/>
       <c r="AJ882" s="122"/>
     </row>
-    <row r="883" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="13:36" ht="15.75" customHeight="1">
       <c r="M883" s="119"/>
       <c r="N883" s="120"/>
       <c r="O883" s="121"/>
@@ -34037,7 +34033,7 @@
       <c r="AI883" s="125"/>
       <c r="AJ883" s="122"/>
     </row>
-    <row r="884" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="13:36" ht="15.75" customHeight="1">
       <c r="M884" s="119"/>
       <c r="N884" s="120"/>
       <c r="O884" s="121"/>
@@ -34063,7 +34059,7 @@
       <c r="AI884" s="125"/>
       <c r="AJ884" s="122"/>
     </row>
-    <row r="885" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="13:36" ht="15.75" customHeight="1">
       <c r="M885" s="119"/>
       <c r="N885" s="120"/>
       <c r="O885" s="121"/>
@@ -34089,7 +34085,7 @@
       <c r="AI885" s="125"/>
       <c r="AJ885" s="122"/>
     </row>
-    <row r="886" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="13:36" ht="15.75" customHeight="1">
       <c r="M886" s="119"/>
       <c r="N886" s="120"/>
       <c r="O886" s="121"/>
@@ -34115,7 +34111,7 @@
       <c r="AI886" s="125"/>
       <c r="AJ886" s="122"/>
     </row>
-    <row r="887" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="13:36" ht="15.75" customHeight="1">
       <c r="M887" s="119"/>
       <c r="N887" s="120"/>
       <c r="O887" s="121"/>
@@ -34141,7 +34137,7 @@
       <c r="AI887" s="125"/>
       <c r="AJ887" s="122"/>
     </row>
-    <row r="888" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="13:36" ht="15.75" customHeight="1">
       <c r="M888" s="119"/>
       <c r="N888" s="120"/>
       <c r="O888" s="121"/>
@@ -34167,7 +34163,7 @@
       <c r="AI888" s="125"/>
       <c r="AJ888" s="122"/>
     </row>
-    <row r="889" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="13:36" ht="15.75" customHeight="1">
       <c r="M889" s="119"/>
       <c r="N889" s="120"/>
       <c r="O889" s="121"/>
@@ -34193,7 +34189,7 @@
       <c r="AI889" s="125"/>
       <c r="AJ889" s="122"/>
     </row>
-    <row r="890" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="13:36" ht="15.75" customHeight="1">
       <c r="M890" s="119"/>
       <c r="N890" s="120"/>
       <c r="O890" s="121"/>
@@ -34219,7 +34215,7 @@
       <c r="AI890" s="125"/>
       <c r="AJ890" s="122"/>
     </row>
-    <row r="891" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="13:36" ht="15.75" customHeight="1">
       <c r="M891" s="119"/>
       <c r="N891" s="120"/>
       <c r="O891" s="121"/>
@@ -34245,7 +34241,7 @@
       <c r="AI891" s="125"/>
       <c r="AJ891" s="122"/>
     </row>
-    <row r="892" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="13:36" ht="15.75" customHeight="1">
       <c r="M892" s="119"/>
       <c r="N892" s="120"/>
       <c r="O892" s="121"/>
@@ -34271,7 +34267,7 @@
       <c r="AI892" s="125"/>
       <c r="AJ892" s="122"/>
     </row>
-    <row r="893" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="13:36" ht="15.75" customHeight="1">
       <c r="M893" s="119"/>
       <c r="N893" s="120"/>
       <c r="O893" s="121"/>
@@ -34297,7 +34293,7 @@
       <c r="AI893" s="125"/>
       <c r="AJ893" s="122"/>
     </row>
-    <row r="894" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="13:36" ht="15.75" customHeight="1">
       <c r="M894" s="119"/>
       <c r="N894" s="120"/>
       <c r="O894" s="121"/>
@@ -34323,7 +34319,7 @@
       <c r="AI894" s="125"/>
       <c r="AJ894" s="122"/>
     </row>
-    <row r="895" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="13:36" ht="15.75" customHeight="1">
       <c r="M895" s="119"/>
       <c r="N895" s="120"/>
       <c r="O895" s="121"/>
@@ -34349,7 +34345,7 @@
       <c r="AI895" s="125"/>
       <c r="AJ895" s="122"/>
     </row>
-    <row r="896" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="13:36" ht="15.75" customHeight="1">
       <c r="M896" s="119"/>
       <c r="N896" s="120"/>
       <c r="O896" s="121"/>
@@ -34375,7 +34371,7 @@
       <c r="AI896" s="125"/>
       <c r="AJ896" s="122"/>
     </row>
-    <row r="897" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="13:36" ht="15.75" customHeight="1">
       <c r="M897" s="119"/>
       <c r="N897" s="120"/>
       <c r="O897" s="121"/>
@@ -34401,7 +34397,7 @@
       <c r="AI897" s="125"/>
       <c r="AJ897" s="122"/>
     </row>
-    <row r="898" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="13:36" ht="15.75" customHeight="1">
       <c r="M898" s="119"/>
       <c r="N898" s="120"/>
       <c r="O898" s="121"/>
@@ -34427,7 +34423,7 @@
       <c r="AI898" s="125"/>
       <c r="AJ898" s="122"/>
     </row>
-    <row r="899" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="13:36" ht="15.75" customHeight="1">
       <c r="M899" s="119"/>
       <c r="N899" s="120"/>
       <c r="O899" s="121"/>
@@ -34453,7 +34449,7 @@
       <c r="AI899" s="125"/>
       <c r="AJ899" s="122"/>
     </row>
-    <row r="900" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="13:36" ht="15.75" customHeight="1">
       <c r="M900" s="119"/>
       <c r="N900" s="120"/>
       <c r="O900" s="121"/>
@@ -34479,7 +34475,7 @@
       <c r="AI900" s="125"/>
       <c r="AJ900" s="122"/>
     </row>
-    <row r="901" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="13:36" ht="15.75" customHeight="1">
       <c r="M901" s="119"/>
       <c r="N901" s="120"/>
       <c r="O901" s="121"/>
@@ -34505,7 +34501,7 @@
       <c r="AI901" s="125"/>
       <c r="AJ901" s="122"/>
     </row>
-    <row r="902" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="13:36" ht="15.75" customHeight="1">
       <c r="M902" s="119"/>
       <c r="N902" s="120"/>
       <c r="O902" s="121"/>
@@ -34531,7 +34527,7 @@
       <c r="AI902" s="125"/>
       <c r="AJ902" s="122"/>
     </row>
-    <row r="903" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="13:36" ht="15.75" customHeight="1">
       <c r="M903" s="119"/>
       <c r="N903" s="120"/>
       <c r="O903" s="121"/>
@@ -34557,7 +34553,7 @@
       <c r="AI903" s="125"/>
       <c r="AJ903" s="122"/>
     </row>
-    <row r="904" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="13:36" ht="15.75" customHeight="1">
       <c r="M904" s="119"/>
       <c r="N904" s="120"/>
       <c r="O904" s="121"/>
@@ -34583,7 +34579,7 @@
       <c r="AI904" s="125"/>
       <c r="AJ904" s="122"/>
     </row>
-    <row r="905" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="13:36" ht="15.75" customHeight="1">
       <c r="M905" s="119"/>
       <c r="N905" s="120"/>
       <c r="O905" s="121"/>
@@ -34609,7 +34605,7 @@
       <c r="AI905" s="125"/>
       <c r="AJ905" s="122"/>
     </row>
-    <row r="906" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="13:36" ht="15.75" customHeight="1">
       <c r="M906" s="119"/>
       <c r="N906" s="120"/>
       <c r="O906" s="121"/>
@@ -34635,7 +34631,7 @@
       <c r="AI906" s="125"/>
       <c r="AJ906" s="122"/>
     </row>
-    <row r="907" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="13:36" ht="15.75" customHeight="1">
       <c r="M907" s="119"/>
       <c r="N907" s="120"/>
       <c r="O907" s="121"/>
@@ -34661,7 +34657,7 @@
       <c r="AI907" s="125"/>
       <c r="AJ907" s="122"/>
     </row>
-    <row r="908" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="13:36" ht="15.75" customHeight="1">
       <c r="M908" s="119"/>
       <c r="N908" s="120"/>
       <c r="O908" s="121"/>
@@ -34687,7 +34683,7 @@
       <c r="AI908" s="125"/>
       <c r="AJ908" s="122"/>
     </row>
-    <row r="909" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="13:36" ht="15.75" customHeight="1">
       <c r="M909" s="119"/>
       <c r="N909" s="120"/>
       <c r="O909" s="121"/>
@@ -34713,7 +34709,7 @@
       <c r="AI909" s="125"/>
       <c r="AJ909" s="122"/>
     </row>
-    <row r="910" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="13:36" ht="15.75" customHeight="1">
       <c r="M910" s="119"/>
       <c r="N910" s="120"/>
       <c r="O910" s="121"/>
@@ -34739,7 +34735,7 @@
       <c r="AI910" s="125"/>
       <c r="AJ910" s="122"/>
     </row>
-    <row r="911" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="13:36" ht="15.75" customHeight="1">
       <c r="M911" s="119"/>
       <c r="N911" s="120"/>
       <c r="O911" s="121"/>
@@ -34765,7 +34761,7 @@
       <c r="AI911" s="125"/>
       <c r="AJ911" s="122"/>
     </row>
-    <row r="912" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="13:36" ht="15.75" customHeight="1">
       <c r="M912" s="119"/>
       <c r="N912" s="120"/>
       <c r="O912" s="121"/>
@@ -34791,7 +34787,7 @@
       <c r="AI912" s="125"/>
       <c r="AJ912" s="122"/>
     </row>
-    <row r="913" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="13:36" ht="15.75" customHeight="1">
       <c r="M913" s="119"/>
       <c r="N913" s="120"/>
       <c r="O913" s="121"/>
@@ -34817,7 +34813,7 @@
       <c r="AI913" s="125"/>
       <c r="AJ913" s="122"/>
     </row>
-    <row r="914" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="13:36" ht="15.75" customHeight="1">
       <c r="M914" s="119"/>
       <c r="N914" s="120"/>
       <c r="O914" s="121"/>
@@ -34843,7 +34839,7 @@
       <c r="AI914" s="125"/>
       <c r="AJ914" s="122"/>
     </row>
-    <row r="915" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="13:36" ht="15.75" customHeight="1">
       <c r="M915" s="119"/>
       <c r="N915" s="120"/>
       <c r="O915" s="121"/>
@@ -34869,7 +34865,7 @@
       <c r="AI915" s="125"/>
       <c r="AJ915" s="122"/>
     </row>
-    <row r="916" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="13:36" ht="15.75" customHeight="1">
       <c r="M916" s="119"/>
       <c r="N916" s="120"/>
       <c r="O916" s="121"/>
@@ -34895,7 +34891,7 @@
       <c r="AI916" s="125"/>
       <c r="AJ916" s="122"/>
     </row>
-    <row r="917" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="13:36" ht="15.75" customHeight="1">
       <c r="M917" s="119"/>
       <c r="N917" s="120"/>
       <c r="O917" s="121"/>
@@ -34921,7 +34917,7 @@
       <c r="AI917" s="125"/>
       <c r="AJ917" s="122"/>
     </row>
-    <row r="918" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="13:36" ht="15.75" customHeight="1">
       <c r="M918" s="119"/>
       <c r="N918" s="120"/>
       <c r="O918" s="121"/>
@@ -34947,7 +34943,7 @@
       <c r="AI918" s="125"/>
       <c r="AJ918" s="122"/>
     </row>
-    <row r="919" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="13:36" ht="15.75" customHeight="1">
       <c r="M919" s="119"/>
       <c r="N919" s="120"/>
       <c r="O919" s="121"/>
@@ -34973,7 +34969,7 @@
       <c r="AI919" s="125"/>
       <c r="AJ919" s="122"/>
     </row>
-    <row r="920" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="13:36" ht="15.75" customHeight="1">
       <c r="M920" s="119"/>
       <c r="N920" s="120"/>
       <c r="O920" s="121"/>
@@ -34999,7 +34995,7 @@
       <c r="AI920" s="125"/>
       <c r="AJ920" s="122"/>
     </row>
-    <row r="921" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="13:36" ht="15.75" customHeight="1">
       <c r="M921" s="119"/>
       <c r="N921" s="120"/>
       <c r="O921" s="121"/>
@@ -35025,7 +35021,7 @@
       <c r="AI921" s="125"/>
       <c r="AJ921" s="122"/>
     </row>
-    <row r="922" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="13:36" ht="15.75" customHeight="1">
       <c r="M922" s="119"/>
       <c r="N922" s="120"/>
       <c r="O922" s="121"/>
@@ -35051,7 +35047,7 @@
       <c r="AI922" s="125"/>
       <c r="AJ922" s="122"/>
     </row>
-    <row r="923" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="13:36" ht="15.75" customHeight="1">
       <c r="M923" s="119"/>
       <c r="N923" s="120"/>
       <c r="O923" s="121"/>
@@ -35077,7 +35073,7 @@
       <c r="AI923" s="125"/>
       <c r="AJ923" s="122"/>
     </row>
-    <row r="924" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="13:36" ht="15.75" customHeight="1">
       <c r="M924" s="119"/>
       <c r="N924" s="120"/>
       <c r="O924" s="121"/>
@@ -35103,7 +35099,7 @@
       <c r="AI924" s="125"/>
       <c r="AJ924" s="122"/>
     </row>
-    <row r="925" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="13:36" ht="15.75" customHeight="1">
       <c r="M925" s="119"/>
       <c r="N925" s="120"/>
       <c r="O925" s="121"/>
@@ -35129,7 +35125,7 @@
       <c r="AI925" s="125"/>
       <c r="AJ925" s="122"/>
     </row>
-    <row r="926" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="13:36" ht="15.75" customHeight="1">
       <c r="M926" s="119"/>
       <c r="N926" s="120"/>
       <c r="O926" s="121"/>
@@ -35155,7 +35151,7 @@
       <c r="AI926" s="125"/>
       <c r="AJ926" s="122"/>
     </row>
-    <row r="927" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="13:36" ht="15.75" customHeight="1">
       <c r="M927" s="119"/>
       <c r="N927" s="120"/>
       <c r="O927" s="121"/>
@@ -35181,7 +35177,7 @@
       <c r="AI927" s="125"/>
       <c r="AJ927" s="122"/>
     </row>
-    <row r="928" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="13:36" ht="15.75" customHeight="1">
       <c r="M928" s="119"/>
       <c r="N928" s="120"/>
       <c r="O928" s="121"/>
@@ -35207,7 +35203,7 @@
       <c r="AI928" s="125"/>
       <c r="AJ928" s="122"/>
     </row>
-    <row r="929" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="13:36" ht="15.75" customHeight="1">
       <c r="M929" s="119"/>
       <c r="N929" s="120"/>
       <c r="O929" s="121"/>
@@ -35233,7 +35229,7 @@
       <c r="AI929" s="125"/>
       <c r="AJ929" s="122"/>
     </row>
-    <row r="930" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="13:36" ht="15.75" customHeight="1">
       <c r="M930" s="119"/>
       <c r="N930" s="120"/>
       <c r="O930" s="121"/>
@@ -35259,7 +35255,7 @@
       <c r="AI930" s="125"/>
       <c r="AJ930" s="122"/>
     </row>
-    <row r="931" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="13:36" ht="15.75" customHeight="1">
       <c r="M931" s="119"/>
       <c r="N931" s="120"/>
       <c r="O931" s="121"/>
@@ -35285,7 +35281,7 @@
       <c r="AI931" s="125"/>
       <c r="AJ931" s="122"/>
     </row>
-    <row r="932" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="13:36" ht="15.75" customHeight="1">
       <c r="M932" s="119"/>
       <c r="N932" s="120"/>
       <c r="O932" s="121"/>
@@ -35311,7 +35307,7 @@
       <c r="AI932" s="125"/>
       <c r="AJ932" s="122"/>
     </row>
-    <row r="933" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="13:36" ht="15.75" customHeight="1">
       <c r="M933" s="119"/>
       <c r="N933" s="120"/>
       <c r="O933" s="121"/>
@@ -35337,7 +35333,7 @@
       <c r="AI933" s="125"/>
       <c r="AJ933" s="122"/>
     </row>
-    <row r="934" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="13:36" ht="15.75" customHeight="1">
       <c r="M934" s="119"/>
       <c r="N934" s="120"/>
       <c r="O934" s="121"/>
@@ -35363,7 +35359,7 @@
       <c r="AI934" s="125"/>
       <c r="AJ934" s="122"/>
     </row>
-    <row r="935" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="13:36" ht="15.75" customHeight="1">
       <c r="M935" s="119"/>
       <c r="N935" s="120"/>
       <c r="O935" s="121"/>
@@ -35389,7 +35385,7 @@
       <c r="AI935" s="125"/>
       <c r="AJ935" s="122"/>
     </row>
-    <row r="936" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="13:36" ht="15.75" customHeight="1">
       <c r="M936" s="119"/>
       <c r="N936" s="120"/>
       <c r="O936" s="121"/>
@@ -35415,7 +35411,7 @@
       <c r="AI936" s="125"/>
       <c r="AJ936" s="122"/>
     </row>
-    <row r="937" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="13:36" ht="15.75" customHeight="1">
       <c r="M937" s="119"/>
       <c r="N937" s="120"/>
       <c r="O937" s="121"/>
@@ -35441,7 +35437,7 @@
       <c r="AI937" s="125"/>
       <c r="AJ937" s="122"/>
     </row>
-    <row r="938" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="13:36" ht="15.75" customHeight="1">
       <c r="M938" s="119"/>
       <c r="N938" s="120"/>
       <c r="O938" s="121"/>
@@ -35467,7 +35463,7 @@
       <c r="AI938" s="125"/>
       <c r="AJ938" s="122"/>
     </row>
-    <row r="939" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="13:36" ht="15.75" customHeight="1">
       <c r="M939" s="119"/>
       <c r="N939" s="120"/>
       <c r="O939" s="121"/>
@@ -35493,7 +35489,7 @@
       <c r="AI939" s="125"/>
       <c r="AJ939" s="122"/>
     </row>
-    <row r="940" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="13:36" ht="15.75" customHeight="1">
       <c r="M940" s="119"/>
       <c r="N940" s="120"/>
       <c r="O940" s="121"/>
@@ -35519,7 +35515,7 @@
       <c r="AI940" s="125"/>
       <c r="AJ940" s="122"/>
     </row>
-    <row r="941" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="13:36" ht="15.75" customHeight="1">
       <c r="M941" s="119"/>
       <c r="N941" s="120"/>
       <c r="O941" s="121"/>
@@ -35545,7 +35541,7 @@
       <c r="AI941" s="125"/>
       <c r="AJ941" s="122"/>
     </row>
-    <row r="942" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="13:36" ht="15.75" customHeight="1">
       <c r="M942" s="119"/>
       <c r="N942" s="120"/>
       <c r="O942" s="121"/>
@@ -35571,7 +35567,7 @@
       <c r="AI942" s="125"/>
       <c r="AJ942" s="122"/>
     </row>
-    <row r="943" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="13:36" ht="15.75" customHeight="1">
       <c r="M943" s="119"/>
       <c r="N943" s="120"/>
       <c r="O943" s="121"/>
@@ -35597,7 +35593,7 @@
       <c r="AI943" s="125"/>
       <c r="AJ943" s="122"/>
     </row>
-    <row r="944" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="13:36" ht="15.75" customHeight="1">
       <c r="M944" s="119"/>
       <c r="N944" s="120"/>
       <c r="O944" s="121"/>
@@ -35623,7 +35619,7 @@
       <c r="AI944" s="125"/>
       <c r="AJ944" s="122"/>
     </row>
-    <row r="945" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="13:36" ht="15.75" customHeight="1">
       <c r="M945" s="119"/>
       <c r="N945" s="120"/>
       <c r="O945" s="121"/>
@@ -35649,7 +35645,7 @@
       <c r="AI945" s="125"/>
       <c r="AJ945" s="122"/>
     </row>
-    <row r="946" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="13:36" ht="15.75" customHeight="1">
       <c r="M946" s="119"/>
       <c r="N946" s="120"/>
       <c r="O946" s="121"/>
@@ -35675,7 +35671,7 @@
       <c r="AI946" s="125"/>
       <c r="AJ946" s="122"/>
     </row>
-    <row r="947" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="13:36" ht="15.75" customHeight="1">
       <c r="M947" s="119"/>
       <c r="N947" s="120"/>
       <c r="O947" s="121"/>
@@ -35701,7 +35697,7 @@
       <c r="AI947" s="125"/>
       <c r="AJ947" s="122"/>
     </row>
-    <row r="948" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="13:36" ht="15.75" customHeight="1">
       <c r="M948" s="119"/>
       <c r="N948" s="120"/>
       <c r="O948" s="121"/>
@@ -35727,7 +35723,7 @@
       <c r="AI948" s="125"/>
       <c r="AJ948" s="122"/>
     </row>
-    <row r="949" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="13:36" ht="15.75" customHeight="1">
       <c r="M949" s="119"/>
       <c r="N949" s="120"/>
       <c r="O949" s="121"/>
@@ -35753,7 +35749,7 @@
       <c r="AI949" s="125"/>
       <c r="AJ949" s="122"/>
     </row>
-    <row r="950" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="13:36" ht="15.75" customHeight="1">
       <c r="M950" s="119"/>
       <c r="N950" s="120"/>
       <c r="O950" s="121"/>
@@ -35779,7 +35775,7 @@
       <c r="AI950" s="125"/>
       <c r="AJ950" s="122"/>
     </row>
-    <row r="951" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="13:36" ht="15.75" customHeight="1">
       <c r="M951" s="119"/>
       <c r="N951" s="120"/>
       <c r="O951" s="121"/>
@@ -35805,7 +35801,7 @@
       <c r="AI951" s="125"/>
       <c r="AJ951" s="122"/>
     </row>
-    <row r="952" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="13:36" ht="15.75" customHeight="1">
       <c r="M952" s="119"/>
       <c r="N952" s="120"/>
       <c r="O952" s="121"/>
@@ -35831,7 +35827,7 @@
       <c r="AI952" s="125"/>
       <c r="AJ952" s="122"/>
     </row>
-    <row r="953" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="13:36" ht="15.75" customHeight="1">
       <c r="M953" s="119"/>
       <c r="N953" s="120"/>
       <c r="O953" s="121"/>
@@ -35857,7 +35853,7 @@
       <c r="AI953" s="125"/>
       <c r="AJ953" s="122"/>
     </row>
-    <row r="954" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="13:36" ht="15.75" customHeight="1">
       <c r="M954" s="119"/>
       <c r="N954" s="120"/>
       <c r="O954" s="121"/>
@@ -35883,7 +35879,7 @@
       <c r="AI954" s="125"/>
       <c r="AJ954" s="122"/>
     </row>
-    <row r="955" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="13:36" ht="15.75" customHeight="1">
       <c r="M955" s="119"/>
       <c r="N955" s="120"/>
       <c r="O955" s="121"/>
@@ -35909,7 +35905,7 @@
       <c r="AI955" s="125"/>
       <c r="AJ955" s="122"/>
     </row>
-    <row r="956" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="13:36" ht="15.75" customHeight="1">
       <c r="M956" s="119"/>
       <c r="N956" s="120"/>
       <c r="O956" s="121"/>
@@ -35935,7 +35931,7 @@
       <c r="AI956" s="125"/>
       <c r="AJ956" s="122"/>
     </row>
-    <row r="957" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="13:36" ht="15.75" customHeight="1">
       <c r="M957" s="119"/>
       <c r="N957" s="120"/>
       <c r="O957" s="121"/>
@@ -35961,7 +35957,7 @@
       <c r="AI957" s="125"/>
       <c r="AJ957" s="122"/>
     </row>
-    <row r="958" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="13:36" ht="15.75" customHeight="1">
       <c r="M958" s="119"/>
       <c r="N958" s="120"/>
       <c r="O958" s="121"/>
@@ -35987,7 +35983,7 @@
       <c r="AI958" s="125"/>
       <c r="AJ958" s="122"/>
     </row>
-    <row r="959" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="13:36" ht="15.75" customHeight="1">
       <c r="M959" s="119"/>
       <c r="N959" s="120"/>
       <c r="O959" s="121"/>
@@ -36013,7 +36009,7 @@
       <c r="AI959" s="125"/>
       <c r="AJ959" s="122"/>
     </row>
-    <row r="960" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="13:36" ht="15.75" customHeight="1">
       <c r="M960" s="119"/>
       <c r="N960" s="120"/>
       <c r="O960" s="121"/>
@@ -36039,7 +36035,7 @@
       <c r="AI960" s="125"/>
       <c r="AJ960" s="122"/>
     </row>
-    <row r="961" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="13:36" ht="15.75" customHeight="1">
       <c r="M961" s="119"/>
       <c r="N961" s="120"/>
       <c r="O961" s="121"/>
@@ -36065,7 +36061,7 @@
       <c r="AI961" s="125"/>
       <c r="AJ961" s="122"/>
     </row>
-    <row r="962" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="13:36" ht="15.75" customHeight="1">
       <c r="M962" s="119"/>
       <c r="N962" s="120"/>
       <c r="O962" s="121"/>
@@ -36091,7 +36087,7 @@
       <c r="AI962" s="125"/>
       <c r="AJ962" s="122"/>
     </row>
-    <row r="963" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="13:36" ht="15.75" customHeight="1">
       <c r="M963" s="119"/>
       <c r="N963" s="120"/>
       <c r="O963" s="121"/>
@@ -36117,7 +36113,7 @@
       <c r="AI963" s="125"/>
       <c r="AJ963" s="122"/>
     </row>
-    <row r="964" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="13:36" ht="15.75" customHeight="1">
       <c r="M964" s="119"/>
       <c r="N964" s="120"/>
       <c r="O964" s="121"/>
@@ -36143,7 +36139,7 @@
       <c r="AI964" s="125"/>
       <c r="AJ964" s="122"/>
     </row>
-    <row r="965" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="13:36" ht="15.75" customHeight="1">
       <c r="M965" s="119"/>
       <c r="N965" s="120"/>
       <c r="O965" s="121"/>
@@ -36169,7 +36165,7 @@
       <c r="AI965" s="125"/>
       <c r="AJ965" s="122"/>
     </row>
-    <row r="966" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="13:36" ht="15.75" customHeight="1">
       <c r="M966" s="119"/>
       <c r="N966" s="120"/>
       <c r="O966" s="121"/>
@@ -36195,7 +36191,7 @@
       <c r="AI966" s="125"/>
       <c r="AJ966" s="122"/>
     </row>
-    <row r="967" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="13:36" ht="15.75" customHeight="1">
       <c r="M967" s="119"/>
       <c r="N967" s="120"/>
       <c r="O967" s="121"/>
@@ -36221,7 +36217,7 @@
       <c r="AI967" s="125"/>
       <c r="AJ967" s="122"/>
     </row>
-    <row r="968" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="13:36" ht="15.75" customHeight="1">
       <c r="M968" s="119"/>
       <c r="N968" s="120"/>
       <c r="O968" s="121"/>
@@ -36247,7 +36243,7 @@
       <c r="AI968" s="125"/>
       <c r="AJ968" s="122"/>
     </row>
-    <row r="969" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="13:36" ht="15.75" customHeight="1">
       <c r="M969" s="119"/>
       <c r="N969" s="120"/>
       <c r="O969" s="121"/>
@@ -36273,7 +36269,7 @@
       <c r="AI969" s="125"/>
       <c r="AJ969" s="122"/>
     </row>
-    <row r="970" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="13:36" ht="15.75" customHeight="1">
       <c r="M970" s="119"/>
       <c r="N970" s="120"/>
       <c r="O970" s="121"/>
@@ -36299,7 +36295,7 @@
       <c r="AI970" s="125"/>
       <c r="AJ970" s="122"/>
     </row>
-    <row r="971" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="13:36" ht="15.75" customHeight="1">
       <c r="M971" s="119"/>
       <c r="N971" s="120"/>
       <c r="O971" s="121"/>
@@ -36325,7 +36321,7 @@
       <c r="AI971" s="125"/>
       <c r="AJ971" s="122"/>
     </row>
-    <row r="972" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="13:36" ht="15.75" customHeight="1">
       <c r="M972" s="119"/>
       <c r="N972" s="120"/>
       <c r="O972" s="121"/>
@@ -36351,7 +36347,7 @@
       <c r="AI972" s="125"/>
       <c r="AJ972" s="122"/>
     </row>
-    <row r="973" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="13:36" ht="15.75" customHeight="1">
       <c r="M973" s="119"/>
       <c r="N973" s="120"/>
       <c r="O973" s="121"/>
@@ -36377,7 +36373,7 @@
       <c r="AI973" s="125"/>
       <c r="AJ973" s="122"/>
     </row>
-    <row r="974" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="13:36" ht="15.75" customHeight="1">
       <c r="M974" s="119"/>
       <c r="N974" s="120"/>
       <c r="O974" s="121"/>
@@ -36403,7 +36399,7 @@
       <c r="AI974" s="125"/>
       <c r="AJ974" s="122"/>
     </row>
-    <row r="975" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="13:36" ht="15.75" customHeight="1">
       <c r="M975" s="119"/>
       <c r="N975" s="120"/>
       <c r="O975" s="121"/>
@@ -36429,7 +36425,7 @@
       <c r="AI975" s="125"/>
       <c r="AJ975" s="122"/>
     </row>
-    <row r="976" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="13:36" ht="15.75" customHeight="1">
       <c r="M976" s="119"/>
       <c r="N976" s="120"/>
       <c r="O976" s="121"/>
@@ -36455,7 +36451,7 @@
       <c r="AI976" s="125"/>
       <c r="AJ976" s="122"/>
     </row>
-    <row r="977" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="13:36" ht="15.75" customHeight="1">
       <c r="M977" s="119"/>
       <c r="N977" s="120"/>
       <c r="O977" s="121"/>
@@ -36481,7 +36477,7 @@
       <c r="AI977" s="125"/>
       <c r="AJ977" s="122"/>
     </row>
-    <row r="978" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="13:36" ht="15.75" customHeight="1">
       <c r="M978" s="119"/>
       <c r="N978" s="120"/>
       <c r="O978" s="121"/>
@@ -36507,7 +36503,7 @@
       <c r="AI978" s="125"/>
       <c r="AJ978" s="122"/>
     </row>
-    <row r="979" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="13:36" ht="15.75" customHeight="1">
       <c r="M979" s="119"/>
       <c r="N979" s="120"/>
       <c r="O979" s="121"/>
@@ -36533,7 +36529,7 @@
       <c r="AI979" s="125"/>
       <c r="AJ979" s="122"/>
     </row>
-    <row r="980" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="13:36" ht="15.75" customHeight="1">
       <c r="M980" s="119"/>
       <c r="N980" s="120"/>
       <c r="O980" s="121"/>
@@ -36559,7 +36555,7 @@
       <c r="AI980" s="125"/>
       <c r="AJ980" s="122"/>
     </row>
-    <row r="981" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="13:36" ht="15.75" customHeight="1">
       <c r="M981" s="119"/>
       <c r="N981" s="120"/>
       <c r="O981" s="121"/>
@@ -36585,7 +36581,7 @@
       <c r="AI981" s="125"/>
       <c r="AJ981" s="122"/>
     </row>
-    <row r="982" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="13:36" ht="15.75" customHeight="1">
       <c r="M982" s="119"/>
       <c r="N982" s="120"/>
       <c r="O982" s="121"/>
@@ -36611,7 +36607,7 @@
       <c r="AI982" s="125"/>
       <c r="AJ982" s="122"/>
     </row>
-    <row r="983" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="13:36" ht="15.75" customHeight="1">
       <c r="M983" s="119"/>
       <c r="N983" s="120"/>
       <c r="O983" s="121"/>
@@ -36637,7 +36633,7 @@
       <c r="AI983" s="125"/>
       <c r="AJ983" s="122"/>
     </row>
-    <row r="984" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="13:36" ht="15.75" customHeight="1">
       <c r="M984" s="119"/>
       <c r="N984" s="120"/>
       <c r="O984" s="121"/>
@@ -36663,7 +36659,7 @@
       <c r="AI984" s="125"/>
       <c r="AJ984" s="122"/>
     </row>
-    <row r="985" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="13:36" ht="15.75" customHeight="1">
       <c r="M985" s="119"/>
       <c r="N985" s="120"/>
       <c r="O985" s="121"/>
@@ -36689,7 +36685,7 @@
       <c r="AI985" s="125"/>
       <c r="AJ985" s="122"/>
     </row>
-    <row r="986" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="13:36" ht="15.75" customHeight="1">
       <c r="M986" s="119"/>
       <c r="N986" s="120"/>
       <c r="O986" s="121"/>

--- a/python/PSYCOHORTS-registers.xlsx
+++ b/python/PSYCOHORTS-registers.xlsx
@@ -11,29 +11,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="M3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>a.k.a. Lapset-81
-	-Lauri Sillanmäki</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,7 +824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1668,17 +1645,17 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1988,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1998,10 +1975,10 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomRight" activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.109375" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
@@ -2037,7 +2014,7 @@
     <col min="36" max="36" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,27 +2069,27 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
     </row>
-    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="126" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="126" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="126" t="s">
+      <c r="J2" s="129"/>
+      <c r="K2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="128"/>
+      <c r="L2" s="130"/>
       <c r="M2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2201,7 +2178,7 @@
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
     </row>
-    <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2330,7 +2307,7 @@
       <c r="AX3" s="29"/>
       <c r="AY3" s="29"/>
     </row>
-    <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" ht="15.75" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>25</v>
       </c>
@@ -2452,7 +2429,7 @@
       <c r="AX4" s="45"/>
       <c r="AY4" s="45"/>
     </row>
-    <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2513,7 +2490,7 @@
       <c r="AX5" s="60"/>
       <c r="AY5" s="60"/>
     </row>
-    <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -2586,7 +2563,7 @@
       <c r="AX6" s="5"/>
       <c r="AY6" s="5"/>
     </row>
-    <row r="7" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -2641,7 +2618,7 @@
       <c r="AX7" s="60"/>
       <c r="AY7" s="60"/>
     </row>
-    <row r="8" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" ht="15.75" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="31" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/7567e45d-72b7-428b-be9e-510440336edf/datasets/25ff4fc4-6166-4e6c-b6b8-e9c4c1a2cc7d","Perusterveydenhuollon avohoidon hoitoilmoitusrekisteri")</f>
@@ -2709,7 +2686,7 @@
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
     </row>
-    <row r="9" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" ht="15.75" customHeight="1">
       <c r="A9" s="46"/>
       <c r="B9" s="71" t="s">
         <v>54</v>
@@ -2766,7 +2743,7 @@
       <c r="AX9" s="60"/>
       <c r="AY9" s="60"/>
     </row>
-    <row r="10" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" ht="15.75" customHeight="1">
       <c r="A10" s="46"/>
       <c r="B10" s="79" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/21085403-7be8-4f93-bf05-231518c642a0","Syöpärekisteri")</f>
@@ -2834,7 +2811,7 @@
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
     </row>
-    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" ht="15.75" customHeight="1">
       <c r="A11" s="46"/>
       <c r="B11" s="46" t="s">
         <v>58</v>
@@ -2891,7 +2868,7 @@
       <c r="AX11" s="60"/>
       <c r="AY11" s="60"/>
     </row>
-    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="15.75" customHeight="1">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -2954,7 +2931,7 @@
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
     </row>
-    <row r="13" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" ht="15.75" customHeight="1">
       <c r="A13" s="46"/>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -3009,7 +2986,7 @@
       <c r="AX13" s="60"/>
       <c r="AY13" s="60"/>
     </row>
-    <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" ht="15.75" customHeight="1">
       <c r="A14" s="46"/>
       <c r="B14" s="79" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/4028c5c4-a235-4524-b92d-8a72071d2516","Syntymärekisteri")</f>
@@ -3093,7 +3070,7 @@
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
     </row>
-    <row r="15" spans="1:51" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" ht="13.8" customHeight="1">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
         <v>71</v>
@@ -3150,7 +3127,7 @@
       <c r="AX15" s="60"/>
       <c r="AY15" s="60"/>
     </row>
-    <row r="16" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" ht="13.8">
       <c r="A16" s="46"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -3217,7 +3194,7 @@
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
     </row>
-    <row r="17" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" ht="15.75" customHeight="1">
       <c r="A17" s="46"/>
       <c r="B17" s="86"/>
       <c r="C17" s="86"/>
@@ -3274,7 +3251,7 @@
       <c r="AX17" s="60"/>
       <c r="AY17" s="60"/>
     </row>
-    <row r="18" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" ht="24" customHeight="1">
       <c r="A18" s="46"/>
       <c r="B18" s="90" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/3696b67b-2e59-4840-a639-85c18c3bd72a","Näkövammarekisteri")</f>
@@ -3342,7 +3319,7 @@
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
     </row>
-    <row r="19" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" ht="15.75" customHeight="1">
       <c r="A19" s="46"/>
       <c r="B19" s="71" t="s">
         <v>82</v>
@@ -3399,7 +3376,7 @@
       <c r="AX19" s="60"/>
       <c r="AY19" s="60"/>
     </row>
-    <row r="20" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="31" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/d6eaf26a-0def-4171-a029-33503572ab4f","Tartuntatautirekisteri")</f>
@@ -3461,7 +3438,7 @@
       <c r="AX20" s="5"/>
       <c r="AY20" s="5"/>
     </row>
-    <row r="21" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="71" t="s">
         <v>85</v>
@@ -3518,7 +3495,7 @@
       <c r="AX21" s="60"/>
       <c r="AY21" s="60"/>
     </row>
-    <row r="22" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/dae286b6-f05b-4ccd-8677-490df8f12483","Raskaudenkeskeyttämisrekisteri")</f>
@@ -3584,7 +3561,7 @@
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
     </row>
-    <row r="23" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="71" t="s">
         <v>88</v>
@@ -3641,7 +3618,7 @@
       <c r="AX23" s="60"/>
       <c r="AY23" s="60"/>
     </row>
-    <row r="24" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/40d61867-321c-4638-b6c7-afaaef4a897d","Toimeentulorekisteri")</f>
@@ -3709,7 +3686,7 @@
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
     </row>
-    <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="71" t="s">
         <v>91</v>
@@ -3766,7 +3743,7 @@
       <c r="AX25" s="60"/>
       <c r="AY25" s="60"/>
     </row>
-    <row r="26" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/7567e45d-72b7-428b-be9e-510440336edf/datasets/abcc2578-1a24-41e0-bce9-2c214538b087","Sosiaalihuollon hoitoilmoitusrekisteri")</f>
@@ -3834,7 +3811,7 @@
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
     </row>
-    <row r="27" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="71" t="s">
         <v>97</v>
@@ -3891,7 +3868,7 @@
       <c r="AX27" s="60"/>
       <c r="AY27" s="60"/>
     </row>
-    <row r="28" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="93" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/c5c77504-6e32-4db0-91d0-f2d953f35fce","Lastensuojelurekisteri")</f>
@@ -3955,7 +3932,7 @@
       <c r="AX28" s="5"/>
       <c r="AY28" s="5"/>
     </row>
-    <row r="29" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" ht="15.75" customHeight="1">
       <c r="A29" s="94"/>
       <c r="B29" s="71" t="s">
         <v>101</v>
@@ -4012,7 +3989,7 @@
       <c r="AX29" s="60"/>
       <c r="AY29" s="60"/>
     </row>
-    <row r="30" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" ht="15.75" customHeight="1">
       <c r="A30" s="95" t="s">
         <v>103</v>
       </c>
@@ -4096,7 +4073,7 @@
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
     </row>
-    <row r="31" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -4157,7 +4134,7 @@
       <c r="AX31" s="60"/>
       <c r="AY31" s="60"/>
     </row>
-    <row r="32" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="97" t="str">
         <f>HYPERLINK("http://www.stat.fi/meta/rekisteriselosteet/rekisteriseloste_tyossakayntitilasto.html","Työssäkäyntitilasto")</f>
@@ -4221,7 +4198,7 @@
       <c r="AX32" s="5"/>
       <c r="AY32" s="5"/>
     </row>
-    <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="71" t="s">
         <v>118</v>
@@ -4278,7 +4255,7 @@
       <c r="AX33" s="60"/>
       <c r="AY33" s="60"/>
     </row>
-    <row r="34" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="31" t="str">
         <f>HYPERLINK("http://www.stat.fi/meta/rekisteriselosteet/rekisteriseloste_tutkintorekisteri.html","Tutkintorekisteri")</f>
@@ -4354,7 +4331,7 @@
       <c r="AX34" s="5"/>
       <c r="AY34" s="5"/>
     </row>
-    <row r="35" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" ht="15.75" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="71" t="s">
         <v>124</v>
@@ -4411,7 +4388,7 @@
       <c r="AX35" s="60"/>
       <c r="AY35" s="60"/>
     </row>
-    <row r="36" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" ht="15.75" customHeight="1">
       <c r="A36" s="95" t="s">
         <v>126</v>
       </c>
@@ -4475,7 +4452,7 @@
       <c r="AX36" s="5"/>
       <c r="AY36" s="5"/>
     </row>
-    <row r="37" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>129</v>
       </c>
@@ -4534,7 +4511,7 @@
       <c r="AX37" s="60"/>
       <c r="AY37" s="60"/>
     </row>
-    <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" ht="15.75" customHeight="1">
       <c r="A38" s="46"/>
       <c r="C38" s="46"/>
       <c r="D38" s="99" t="s">
@@ -4590,7 +4567,7 @@
       <c r="AX38" s="5"/>
       <c r="AY38" s="5"/>
     </row>
-    <row r="39" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" ht="15.75" customHeight="1">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -4645,7 +4622,7 @@
       <c r="AX39" s="60"/>
       <c r="AY39" s="60"/>
     </row>
-    <row r="40" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" ht="15.75" customHeight="1">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -4716,7 +4693,7 @@
       <c r="AX40" s="5"/>
       <c r="AY40" s="5"/>
     </row>
-    <row r="41" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" ht="15.75" customHeight="1">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -4771,7 +4748,7 @@
       <c r="AX41" s="60"/>
       <c r="AY41" s="60"/>
     </row>
-    <row r="42" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" ht="15.75" customHeight="1">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -4834,7 +4811,7 @@
       <c r="AX42" s="5"/>
       <c r="AY42" s="5"/>
     </row>
-    <row r="43" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" ht="15.75" customHeight="1">
       <c r="A43" s="46"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -4889,7 +4866,7 @@
       <c r="AX43" s="60"/>
       <c r="AY43" s="60"/>
     </row>
-    <row r="44" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" ht="15.75" customHeight="1">
       <c r="A44" s="46"/>
       <c r="B44" s="100"/>
       <c r="C44" s="46"/>
@@ -4954,7 +4931,7 @@
       <c r="AX44" s="5"/>
       <c r="AY44" s="5"/>
     </row>
-    <row r="45" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" ht="15.75" customHeight="1">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46"/>
@@ -5009,7 +4986,7 @@
       <c r="AX45" s="60"/>
       <c r="AY45" s="60"/>
     </row>
-    <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" ht="15.75" customHeight="1">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -5070,7 +5047,7 @@
       <c r="AX46" s="5"/>
       <c r="AY46" s="5"/>
     </row>
-    <row r="47" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" ht="15.75" customHeight="1">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -5125,7 +5102,7 @@
       <c r="AX47" s="60"/>
       <c r="AY47" s="60"/>
     </row>
-    <row r="48" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
@@ -5184,7 +5161,7 @@
       <c r="AX48" s="5"/>
       <c r="AY48" s="5"/>
     </row>
-    <row r="49" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
@@ -5239,7 +5216,7 @@
       <c r="AX49" s="60"/>
       <c r="AY49" s="60"/>
     </row>
-    <row r="50" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:51" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -5302,7 +5279,7 @@
       <c r="AX50" s="5"/>
       <c r="AY50" s="5"/>
     </row>
-    <row r="51" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
@@ -5357,7 +5334,7 @@
       <c r="AX51" s="60"/>
       <c r="AY51" s="60"/>
     </row>
-    <row r="52" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:51" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -5416,7 +5393,7 @@
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
     </row>
-    <row r="53" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -5471,7 +5448,7 @@
       <c r="AX53" s="60"/>
       <c r="AY53" s="60"/>
     </row>
-    <row r="54" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:51" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -5530,7 +5507,7 @@
       <c r="AX54" s="5"/>
       <c r="AY54" s="5"/>
     </row>
-    <row r="55" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
@@ -5585,7 +5562,7 @@
       <c r="AX55" s="60"/>
       <c r="AY55" s="60"/>
     </row>
-    <row r="56" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:51" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -5644,7 +5621,7 @@
       <c r="AX56" s="5"/>
       <c r="AY56" s="5"/>
     </row>
-    <row r="57" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:51" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
@@ -5699,7 +5676,7 @@
       <c r="AX57" s="60"/>
       <c r="AY57" s="60"/>
     </row>
-    <row r="58" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:51" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
@@ -5758,7 +5735,7 @@
       <c r="AX58" s="5"/>
       <c r="AY58" s="5"/>
     </row>
-    <row r="59" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" ht="15.75" customHeight="1">
       <c r="A59" s="94"/>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
@@ -5813,7 +5790,7 @@
       <c r="AX59" s="60"/>
       <c r="AY59" s="60"/>
     </row>
-    <row r="60" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:51" ht="15.75" customHeight="1">
       <c r="A60" s="95" t="s">
         <v>165</v>
       </c>
@@ -5883,7 +5860,7 @@
       <c r="AX60" s="5"/>
       <c r="AY60" s="5"/>
     </row>
-    <row r="61" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>170</v>
       </c>
@@ -5942,7 +5919,7 @@
       <c r="AX61" s="60"/>
       <c r="AY61" s="60"/>
     </row>
-    <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:51" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
@@ -6005,7 +5982,7 @@
       <c r="AX62" s="5"/>
       <c r="AY62" s="5"/>
     </row>
-    <row r="63" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
@@ -6060,7 +6037,7 @@
       <c r="AX63" s="60"/>
       <c r="AY63" s="60"/>
     </row>
-    <row r="64" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:51" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="107"/>
       <c r="C64" s="107"/>
@@ -6123,7 +6100,7 @@
       <c r="AX64" s="5"/>
       <c r="AY64" s="5"/>
     </row>
-    <row r="65" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:51" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
@@ -6178,7 +6155,7 @@
       <c r="AX65" s="60"/>
       <c r="AY65" s="60"/>
     </row>
-    <row r="66" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:51" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="91" t="s">
         <v>180</v>
@@ -6249,7 +6226,7 @@
       <c r="AX66" s="5"/>
       <c r="AY66" s="5"/>
     </row>
-    <row r="67" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:51" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="46" t="s">
         <v>184</v>
@@ -6306,7 +6283,7 @@
       <c r="AX67" s="60"/>
       <c r="AY67" s="60"/>
     </row>
-    <row r="68" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:51" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
@@ -6377,7 +6354,7 @@
       <c r="AX68" s="5"/>
       <c r="AY68" s="5"/>
     </row>
-    <row r="69" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:51" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
@@ -6432,7 +6409,7 @@
       <c r="AX69" s="60"/>
       <c r="AY69" s="60"/>
     </row>
-    <row r="70" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:51" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="46"/>
       <c r="C70" s="46"/>
@@ -6495,7 +6472,7 @@
       <c r="AX70" s="5"/>
       <c r="AY70" s="5"/>
     </row>
-    <row r="71" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:51" ht="15.75" customHeight="1">
       <c r="A71" s="94"/>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
@@ -6550,7 +6527,7 @@
       <c r="AX71" s="60"/>
       <c r="AY71" s="60"/>
     </row>
-    <row r="72" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:51" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>193</v>
       </c>
@@ -6619,7 +6596,7 @@
       <c r="AX72" s="5"/>
       <c r="AY72" s="5"/>
     </row>
-    <row r="73" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:51" ht="15.75" customHeight="1">
       <c r="A73" s="94" t="s">
         <v>200</v>
       </c>
@@ -6678,7 +6655,7 @@
       <c r="AX73" s="60"/>
       <c r="AY73" s="60"/>
     </row>
-    <row r="74" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:51" ht="15.75" customHeight="1">
       <c r="A74" s="95" t="s">
         <v>203</v>
       </c>
@@ -6754,7 +6731,7 @@
       <c r="AX74" s="5"/>
       <c r="AY74" s="5"/>
     </row>
-    <row r="75" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:51" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
@@ -6813,7 +6790,7 @@
       <c r="AX75" s="60"/>
       <c r="AY75" s="60"/>
     </row>
-    <row r="76" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:51" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="46"/>
       <c r="C76" s="46"/>
@@ -6876,7 +6853,7 @@
       <c r="AX76" s="5"/>
       <c r="AY76" s="5"/>
     </row>
-    <row r="77" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:51" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="46"/>
       <c r="C77" s="46"/>
@@ -6931,7 +6908,7 @@
       <c r="AX77" s="60"/>
       <c r="AY77" s="60"/>
     </row>
-    <row r="78" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:51" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
@@ -7004,7 +6981,7 @@
       <c r="AX78" s="5"/>
       <c r="AY78" s="5"/>
     </row>
-    <row r="79" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:51" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
@@ -7059,7 +7036,7 @@
       <c r="AX79" s="60"/>
       <c r="AY79" s="60"/>
     </row>
-    <row r="80" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:51" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -7126,7 +7103,7 @@
       <c r="AX80" s="5"/>
       <c r="AY80" s="5"/>
     </row>
-    <row r="81" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:51" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -7181,7 +7158,7 @@
       <c r="AX81" s="60"/>
       <c r="AY81" s="60"/>
     </row>
-    <row r="82" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:51" ht="15.75" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -7242,7 +7219,7 @@
       <c r="AX82" s="5"/>
       <c r="AY82" s="5"/>
     </row>
-    <row r="83" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:51" ht="15.75" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -7297,7 +7274,7 @@
       <c r="AX83" s="60"/>
       <c r="AY83" s="60"/>
     </row>
-    <row r="84" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:51" ht="15.75" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -7354,7 +7331,7 @@
       <c r="AX84" s="5"/>
       <c r="AY84" s="5"/>
     </row>
-    <row r="85" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" ht="15.75" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -7409,7 +7386,7 @@
       <c r="AX85" s="60"/>
       <c r="AY85" s="60"/>
     </row>
-    <row r="86" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:51" ht="15.75" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -7466,7 +7443,7 @@
       <c r="AX86" s="5"/>
       <c r="AY86" s="5"/>
     </row>
-    <row r="87" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:51" ht="15.75" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -7521,7 +7498,7 @@
       <c r="AX87" s="60"/>
       <c r="AY87" s="60"/>
     </row>
-    <row r="88" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:51" ht="15.75" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -7578,7 +7555,7 @@
       <c r="AX88" s="5"/>
       <c r="AY88" s="5"/>
     </row>
-    <row r="89" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:51" ht="15.75" customHeight="1">
       <c r="A89" s="60"/>
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
@@ -7633,7 +7610,7 @@
       <c r="AX89" s="60"/>
       <c r="AY89" s="60"/>
     </row>
-    <row r="90" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:51" ht="15.75" customHeight="1">
       <c r="A90" s="95" t="s">
         <v>237</v>
       </c>
@@ -7699,7 +7676,7 @@
       <c r="AX90" s="5"/>
       <c r="AY90" s="5"/>
     </row>
-    <row r="91" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:51" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>241</v>
       </c>
@@ -7758,7 +7735,7 @@
       <c r="AX91" s="60"/>
       <c r="AY91" s="60"/>
     </row>
-    <row r="92" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:51" ht="15.75" customHeight="1">
       <c r="A92" s="46"/>
       <c r="B92" s="46" t="s">
         <v>244</v>
@@ -7821,7 +7798,7 @@
       <c r="AX92" s="5"/>
       <c r="AY92" s="5"/>
     </row>
-    <row r="93" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:51" ht="15.75" customHeight="1">
       <c r="A93" s="71"/>
       <c r="B93" s="71" t="s">
         <v>247</v>
@@ -7878,7 +7855,7 @@
       <c r="AX93" s="60"/>
       <c r="AY93" s="60"/>
     </row>
-    <row r="94" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:51" ht="15.75" customHeight="1">
       <c r="A94" s="95" t="s">
         <v>249</v>
       </c>
@@ -7940,7 +7917,7 @@
       <c r="AX94" s="5"/>
       <c r="AY94" s="5"/>
     </row>
-    <row r="95" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:51" ht="15.75" customHeight="1">
       <c r="A95" s="94" t="s">
         <v>251</v>
       </c>
@@ -7997,7 +7974,7 @@
       <c r="AX95" s="60"/>
       <c r="AY95" s="60"/>
     </row>
-    <row r="96" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:51" ht="15.75" customHeight="1">
       <c r="A96" s="95" t="s">
         <v>253</v>
       </c>
@@ -8061,7 +8038,7 @@
       <c r="AX96" s="5"/>
       <c r="AY96" s="5"/>
     </row>
-    <row r="97" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:51" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>256</v>
       </c>
@@ -8120,8 +8097,8 @@
       <c r="AX97" s="60"/>
       <c r="AY97" s="60"/>
     </row>
-    <row r="98" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="129" t="s">
+    <row r="98" spans="1:51" ht="15.75" customHeight="1">
+      <c r="A98" s="126" t="s">
         <v>259</v>
       </c>
       <c r="B98" s="112" t="s">
@@ -8183,8 +8160,8 @@
       <c r="AX98" s="5"/>
       <c r="AY98" s="5"/>
     </row>
-    <row r="99" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="130" t="s">
+    <row r="99" spans="1:51" ht="15.75" customHeight="1">
+      <c r="A99" s="127" t="s">
         <v>259</v>
       </c>
       <c r="B99" s="104" t="s">
@@ -8242,7 +8219,7 @@
       <c r="AX99" s="60"/>
       <c r="AY99" s="60"/>
     </row>
-    <row r="100" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:51" ht="15.75" customHeight="1">
       <c r="A100" s="95" t="s">
         <v>262</v>
       </c>
@@ -8305,7 +8282,7 @@
       <c r="AX100" s="5"/>
       <c r="AY100" s="5"/>
     </row>
-    <row r="101" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:51" ht="15.75" customHeight="1">
       <c r="A101" s="101" t="s">
         <v>267</v>
       </c>
@@ -8364,7 +8341,7 @@
       <c r="AX101" s="5"/>
       <c r="AY101" s="5"/>
     </row>
-    <row r="102" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:51" ht="15.75" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8417,7 +8394,7 @@
       <c r="AX102" s="5"/>
       <c r="AY102" s="5"/>
     </row>
-    <row r="103" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:51" ht="15.75" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8470,7 +8447,7 @@
       <c r="AX103" s="5"/>
       <c r="AY103" s="5"/>
     </row>
-    <row r="104" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:51" ht="15.75" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8523,7 +8500,7 @@
       <c r="AX104" s="5"/>
       <c r="AY104" s="5"/>
     </row>
-    <row r="105" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:51" ht="15.75" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -8576,7 +8553,7 @@
       <c r="AX105" s="5"/>
       <c r="AY105" s="5"/>
     </row>
-    <row r="106" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:51" ht="15.75" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8629,7 +8606,7 @@
       <c r="AX106" s="5"/>
       <c r="AY106" s="5"/>
     </row>
-    <row r="107" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:51" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="124"/>
       <c r="C107" s="5"/>
@@ -8682,7 +8659,7 @@
       <c r="AX107" s="5"/>
       <c r="AY107" s="5"/>
     </row>
-    <row r="108" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:51" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="125"/>
       <c r="C108" s="5"/>
@@ -8735,7 +8712,7 @@
       <c r="AX108" s="5"/>
       <c r="AY108" s="5"/>
     </row>
-    <row r="109" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:51" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="124"/>
       <c r="C109" s="5"/>
@@ -8788,7 +8765,7 @@
       <c r="AX109" s="5"/>
       <c r="AY109" s="5"/>
     </row>
-    <row r="110" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:51" ht="15.75" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="125"/>
       <c r="C110" s="5"/>
@@ -8841,7 +8818,7 @@
       <c r="AX110" s="5"/>
       <c r="AY110" s="5"/>
     </row>
-    <row r="111" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:51" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -8894,7 +8871,7 @@
       <c r="AX111" s="5"/>
       <c r="AY111" s="5"/>
     </row>
-    <row r="112" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:51" ht="15.75" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -8947,7 +8924,7 @@
       <c r="AX112" s="5"/>
       <c r="AY112" s="5"/>
     </row>
-    <row r="113" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:51" ht="15.75" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -9000,7 +8977,7 @@
       <c r="AX113" s="5"/>
       <c r="AY113" s="5"/>
     </row>
-    <row r="114" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:51" ht="15.75" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -9053,7 +9030,7 @@
       <c r="AX114" s="5"/>
       <c r="AY114" s="5"/>
     </row>
-    <row r="115" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:51" ht="15.75" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -9106,7 +9083,7 @@
       <c r="AX115" s="5"/>
       <c r="AY115" s="5"/>
     </row>
-    <row r="116" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:51" ht="15.75" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -9159,7 +9136,7 @@
       <c r="AX116" s="5"/>
       <c r="AY116" s="5"/>
     </row>
-    <row r="117" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:51" ht="15.75" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -9212,7 +9189,7 @@
       <c r="AX117" s="5"/>
       <c r="AY117" s="5"/>
     </row>
-    <row r="118" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:51" ht="15.75" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -9265,7 +9242,7 @@
       <c r="AX118" s="5"/>
       <c r="AY118" s="5"/>
     </row>
-    <row r="119" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:51" ht="15.75" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -9318,7 +9295,7 @@
       <c r="AX119" s="5"/>
       <c r="AY119" s="5"/>
     </row>
-    <row r="120" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:51" ht="15.75" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -9371,7 +9348,7 @@
       <c r="AX120" s="5"/>
       <c r="AY120" s="5"/>
     </row>
-    <row r="121" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:51" ht="15.75" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -9424,7 +9401,7 @@
       <c r="AX121" s="5"/>
       <c r="AY121" s="5"/>
     </row>
-    <row r="122" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:51" ht="15.75" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -9477,7 +9454,7 @@
       <c r="AX122" s="5"/>
       <c r="AY122" s="5"/>
     </row>
-    <row r="123" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:51" ht="15.75" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -9530,7 +9507,7 @@
       <c r="AX123" s="5"/>
       <c r="AY123" s="5"/>
     </row>
-    <row r="124" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:51" ht="15.75" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -9583,7 +9560,7 @@
       <c r="AX124" s="5"/>
       <c r="AY124" s="5"/>
     </row>
-    <row r="125" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:51" ht="15.75" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -9636,7 +9613,7 @@
       <c r="AX125" s="5"/>
       <c r="AY125" s="5"/>
     </row>
-    <row r="126" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:51" ht="15.75" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -9689,7 +9666,7 @@
       <c r="AX126" s="5"/>
       <c r="AY126" s="5"/>
     </row>
-    <row r="127" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:51" ht="15.75" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -9742,7 +9719,7 @@
       <c r="AX127" s="5"/>
       <c r="AY127" s="5"/>
     </row>
-    <row r="128" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:51" ht="15.75" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -9795,7 +9772,7 @@
       <c r="AX128" s="5"/>
       <c r="AY128" s="5"/>
     </row>
-    <row r="129" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:51" ht="15.75" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -9848,7 +9825,7 @@
       <c r="AX129" s="5"/>
       <c r="AY129" s="5"/>
     </row>
-    <row r="130" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:51" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -9901,7 +9878,7 @@
       <c r="AX130" s="5"/>
       <c r="AY130" s="5"/>
     </row>
-    <row r="131" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:51" ht="15.75" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -9954,7 +9931,7 @@
       <c r="AX131" s="5"/>
       <c r="AY131" s="5"/>
     </row>
-    <row r="132" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:51" ht="15.75" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -10007,7 +9984,7 @@
       <c r="AX132" s="5"/>
       <c r="AY132" s="5"/>
     </row>
-    <row r="133" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:51" ht="15.75" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -10060,7 +10037,7 @@
       <c r="AX133" s="5"/>
       <c r="AY133" s="5"/>
     </row>
-    <row r="134" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:51" ht="15.75" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -10113,7 +10090,7 @@
       <c r="AX134" s="5"/>
       <c r="AY134" s="5"/>
     </row>
-    <row r="135" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:51" ht="15.75" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -10166,7 +10143,7 @@
       <c r="AX135" s="5"/>
       <c r="AY135" s="5"/>
     </row>
-    <row r="136" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:51" ht="15.75" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -10219,7 +10196,7 @@
       <c r="AX136" s="5"/>
       <c r="AY136" s="5"/>
     </row>
-    <row r="137" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:51" ht="15.75" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -10272,7 +10249,7 @@
       <c r="AX137" s="5"/>
       <c r="AY137" s="5"/>
     </row>
-    <row r="138" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:51" ht="15.75" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -10325,7 +10302,7 @@
       <c r="AX138" s="5"/>
       <c r="AY138" s="5"/>
     </row>
-    <row r="139" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:51" ht="15.75" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -10378,7 +10355,7 @@
       <c r="AX139" s="5"/>
       <c r="AY139" s="5"/>
     </row>
-    <row r="140" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:51" ht="15.75" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -10431,7 +10408,7 @@
       <c r="AX140" s="5"/>
       <c r="AY140" s="5"/>
     </row>
-    <row r="141" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:51" ht="15.75" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -10484,7 +10461,7 @@
       <c r="AX141" s="5"/>
       <c r="AY141" s="5"/>
     </row>
-    <row r="142" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:51" ht="15.75" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -10537,7 +10514,7 @@
       <c r="AX142" s="5"/>
       <c r="AY142" s="5"/>
     </row>
-    <row r="143" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:51" ht="15.75" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -10590,7 +10567,7 @@
       <c r="AX143" s="5"/>
       <c r="AY143" s="5"/>
     </row>
-    <row r="144" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:51" ht="15.75" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -10643,7 +10620,7 @@
       <c r="AX144" s="5"/>
       <c r="AY144" s="5"/>
     </row>
-    <row r="145" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:51" ht="15.75" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -10696,7 +10673,7 @@
       <c r="AX145" s="5"/>
       <c r="AY145" s="5"/>
     </row>
-    <row r="146" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:51" ht="15.75" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -10749,7 +10726,7 @@
       <c r="AX146" s="5"/>
       <c r="AY146" s="5"/>
     </row>
-    <row r="147" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:51" ht="15.75" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -10802,7 +10779,7 @@
       <c r="AX147" s="5"/>
       <c r="AY147" s="5"/>
     </row>
-    <row r="148" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:51" ht="15.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -10855,7 +10832,7 @@
       <c r="AX148" s="5"/>
       <c r="AY148" s="5"/>
     </row>
-    <row r="149" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:51" ht="15.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -10908,7 +10885,7 @@
       <c r="AX149" s="5"/>
       <c r="AY149" s="5"/>
     </row>
-    <row r="150" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:51" ht="15.75" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -10961,7 +10938,7 @@
       <c r="AX150" s="5"/>
       <c r="AY150" s="5"/>
     </row>
-    <row r="151" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:51" ht="15.75" customHeight="1">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -11014,7 +10991,7 @@
       <c r="AX151" s="5"/>
       <c r="AY151" s="5"/>
     </row>
-    <row r="152" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:51" ht="15.75" customHeight="1">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -11067,7 +11044,7 @@
       <c r="AX152" s="5"/>
       <c r="AY152" s="5"/>
     </row>
-    <row r="153" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:51" ht="15.75" customHeight="1">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -11120,7 +11097,7 @@
       <c r="AX153" s="5"/>
       <c r="AY153" s="5"/>
     </row>
-    <row r="154" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:51" ht="15.75" customHeight="1">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -11173,7 +11150,7 @@
       <c r="AX154" s="5"/>
       <c r="AY154" s="5"/>
     </row>
-    <row r="155" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:51" ht="15.75" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -11226,7 +11203,7 @@
       <c r="AX155" s="5"/>
       <c r="AY155" s="5"/>
     </row>
-    <row r="156" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:51" ht="15.75" customHeight="1">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -11279,7 +11256,7 @@
       <c r="AX156" s="5"/>
       <c r="AY156" s="5"/>
     </row>
-    <row r="157" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:51" ht="15.75" customHeight="1">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -11332,7 +11309,7 @@
       <c r="AX157" s="5"/>
       <c r="AY157" s="5"/>
     </row>
-    <row r="158" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:51" ht="15.75" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -11385,7 +11362,7 @@
       <c r="AX158" s="5"/>
       <c r="AY158" s="5"/>
     </row>
-    <row r="159" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:51" ht="15.75" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -11438,7 +11415,7 @@
       <c r="AX159" s="5"/>
       <c r="AY159" s="5"/>
     </row>
-    <row r="160" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:51" ht="15.75" customHeight="1">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -11491,7 +11468,7 @@
       <c r="AX160" s="5"/>
       <c r="AY160" s="5"/>
     </row>
-    <row r="161" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:51" ht="15.75" customHeight="1">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -11544,7 +11521,7 @@
       <c r="AX161" s="5"/>
       <c r="AY161" s="5"/>
     </row>
-    <row r="162" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:51" ht="15.75" customHeight="1">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -11597,7 +11574,7 @@
       <c r="AX162" s="5"/>
       <c r="AY162" s="5"/>
     </row>
-    <row r="163" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:51" ht="15.75" customHeight="1">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -11650,7 +11627,7 @@
       <c r="AX163" s="5"/>
       <c r="AY163" s="5"/>
     </row>
-    <row r="164" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:51" ht="15.75" customHeight="1">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -11703,7 +11680,7 @@
       <c r="AX164" s="5"/>
       <c r="AY164" s="5"/>
     </row>
-    <row r="165" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:51" ht="15.75" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -11756,7 +11733,7 @@
       <c r="AX165" s="5"/>
       <c r="AY165" s="5"/>
     </row>
-    <row r="166" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:51" ht="15.75" customHeight="1">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -11809,7 +11786,7 @@
       <c r="AX166" s="5"/>
       <c r="AY166" s="5"/>
     </row>
-    <row r="167" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:51" ht="15.75" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -11862,7 +11839,7 @@
       <c r="AX167" s="5"/>
       <c r="AY167" s="5"/>
     </row>
-    <row r="168" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:51" ht="15.75" customHeight="1">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -11915,7 +11892,7 @@
       <c r="AX168" s="5"/>
       <c r="AY168" s="5"/>
     </row>
-    <row r="169" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:51" ht="15.75" customHeight="1">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -11968,7 +11945,7 @@
       <c r="AX169" s="5"/>
       <c r="AY169" s="5"/>
     </row>
-    <row r="170" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:51" ht="15.75" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -12021,7 +11998,7 @@
       <c r="AX170" s="5"/>
       <c r="AY170" s="5"/>
     </row>
-    <row r="171" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:51" ht="15.75" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -12074,7 +12051,7 @@
       <c r="AX171" s="5"/>
       <c r="AY171" s="5"/>
     </row>
-    <row r="172" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:51" ht="15.75" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -12127,7 +12104,7 @@
       <c r="AX172" s="5"/>
       <c r="AY172" s="5"/>
     </row>
-    <row r="173" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:51" ht="15.75" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -12180,7 +12157,7 @@
       <c r="AX173" s="5"/>
       <c r="AY173" s="5"/>
     </row>
-    <row r="174" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:51" ht="15.75" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -12233,7 +12210,7 @@
       <c r="AX174" s="5"/>
       <c r="AY174" s="5"/>
     </row>
-    <row r="175" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:51" ht="15.75" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -12286,7 +12263,7 @@
       <c r="AX175" s="5"/>
       <c r="AY175" s="5"/>
     </row>
-    <row r="176" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:51" ht="15.75" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -12339,7 +12316,7 @@
       <c r="AX176" s="5"/>
       <c r="AY176" s="5"/>
     </row>
-    <row r="177" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:51" ht="15.75" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -12392,7 +12369,7 @@
       <c r="AX177" s="5"/>
       <c r="AY177" s="5"/>
     </row>
-    <row r="178" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:51" ht="15.75" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -12445,7 +12422,7 @@
       <c r="AX178" s="5"/>
       <c r="AY178" s="5"/>
     </row>
-    <row r="179" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:51" ht="15.75" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -12498,7 +12475,7 @@
       <c r="AX179" s="5"/>
       <c r="AY179" s="5"/>
     </row>
-    <row r="180" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:51" ht="15.75" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -12551,7 +12528,7 @@
       <c r="AX180" s="5"/>
       <c r="AY180" s="5"/>
     </row>
-    <row r="181" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:51" ht="15.75" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -12604,7 +12581,7 @@
       <c r="AX181" s="5"/>
       <c r="AY181" s="5"/>
     </row>
-    <row r="182" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:51" ht="15.75" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -12657,7 +12634,7 @@
       <c r="AX182" s="5"/>
       <c r="AY182" s="5"/>
     </row>
-    <row r="183" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:51" ht="15.75" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -12710,7 +12687,7 @@
       <c r="AX183" s="5"/>
       <c r="AY183" s="5"/>
     </row>
-    <row r="184" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:51" ht="15.75" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -12763,7 +12740,7 @@
       <c r="AX184" s="5"/>
       <c r="AY184" s="5"/>
     </row>
-    <row r="185" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:51" ht="15.75" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -12816,7 +12793,7 @@
       <c r="AX185" s="5"/>
       <c r="AY185" s="5"/>
     </row>
-    <row r="186" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:51" ht="15.75" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -12869,7 +12846,7 @@
       <c r="AX186" s="5"/>
       <c r="AY186" s="5"/>
     </row>
-    <row r="187" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:51" ht="15.75" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -12922,7 +12899,7 @@
       <c r="AX187" s="5"/>
       <c r="AY187" s="5"/>
     </row>
-    <row r="188" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:51" ht="15.75" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -12975,7 +12952,7 @@
       <c r="AX188" s="5"/>
       <c r="AY188" s="5"/>
     </row>
-    <row r="189" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:51" ht="15.75" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -13028,7 +13005,7 @@
       <c r="AX189" s="5"/>
       <c r="AY189" s="5"/>
     </row>
-    <row r="190" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:51" ht="15.75" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -13081,7 +13058,7 @@
       <c r="AX190" s="5"/>
       <c r="AY190" s="5"/>
     </row>
-    <row r="191" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:51" ht="15.75" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -13134,7 +13111,7 @@
       <c r="AX191" s="5"/>
       <c r="AY191" s="5"/>
     </row>
-    <row r="192" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:51" ht="15.75" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -13187,7 +13164,7 @@
       <c r="AX192" s="5"/>
       <c r="AY192" s="5"/>
     </row>
-    <row r="193" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:51" ht="15.75" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -13240,7 +13217,7 @@
       <c r="AX193" s="5"/>
       <c r="AY193" s="5"/>
     </row>
-    <row r="194" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:51" ht="15.75" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -13293,7 +13270,7 @@
       <c r="AX194" s="5"/>
       <c r="AY194" s="5"/>
     </row>
-    <row r="195" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:51" ht="15.75" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -13346,7 +13323,7 @@
       <c r="AX195" s="5"/>
       <c r="AY195" s="5"/>
     </row>
-    <row r="196" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:51" ht="15.75" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -13399,7 +13376,7 @@
       <c r="AX196" s="5"/>
       <c r="AY196" s="5"/>
     </row>
-    <row r="197" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:51" ht="15.75" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -13452,7 +13429,7 @@
       <c r="AX197" s="5"/>
       <c r="AY197" s="5"/>
     </row>
-    <row r="198" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:51" ht="15.75" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -13505,7 +13482,7 @@
       <c r="AX198" s="5"/>
       <c r="AY198" s="5"/>
     </row>
-    <row r="199" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:51" ht="15.75" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -13558,7 +13535,7 @@
       <c r="AX199" s="5"/>
       <c r="AY199" s="5"/>
     </row>
-    <row r="200" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:51" ht="15.75" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -13611,7 +13588,7 @@
       <c r="AX200" s="5"/>
       <c r="AY200" s="5"/>
     </row>
-    <row r="201" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:51" ht="15.75" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -13664,7 +13641,7 @@
       <c r="AX201" s="5"/>
       <c r="AY201" s="5"/>
     </row>
-    <row r="202" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:51" ht="15.75" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -13717,7 +13694,7 @@
       <c r="AX202" s="5"/>
       <c r="AY202" s="5"/>
     </row>
-    <row r="203" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:51" ht="15.75" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -13770,7 +13747,7 @@
       <c r="AX203" s="5"/>
       <c r="AY203" s="5"/>
     </row>
-    <row r="204" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:51" ht="15.75" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -13823,7 +13800,7 @@
       <c r="AX204" s="5"/>
       <c r="AY204" s="5"/>
     </row>
-    <row r="205" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:51" ht="15.75" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -13876,7 +13853,7 @@
       <c r="AX205" s="5"/>
       <c r="AY205" s="5"/>
     </row>
-    <row r="206" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:51" ht="15.75" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -13929,7 +13906,7 @@
       <c r="AX206" s="5"/>
       <c r="AY206" s="5"/>
     </row>
-    <row r="207" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:51" ht="15.75" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -13982,7 +13959,7 @@
       <c r="AX207" s="5"/>
       <c r="AY207" s="5"/>
     </row>
-    <row r="208" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:51" ht="15.75" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -14035,7 +14012,7 @@
       <c r="AX208" s="5"/>
       <c r="AY208" s="5"/>
     </row>
-    <row r="209" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:51" ht="15.75" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -14088,7 +14065,7 @@
       <c r="AX209" s="5"/>
       <c r="AY209" s="5"/>
     </row>
-    <row r="210" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:51" ht="15.75" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -14141,7 +14118,7 @@
       <c r="AX210" s="5"/>
       <c r="AY210" s="5"/>
     </row>
-    <row r="211" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:51" ht="15.75" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -14194,7 +14171,7 @@
       <c r="AX211" s="5"/>
       <c r="AY211" s="5"/>
     </row>
-    <row r="212" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:51" ht="15.75" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -14247,7 +14224,7 @@
       <c r="AX212" s="5"/>
       <c r="AY212" s="5"/>
     </row>
-    <row r="213" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:51" ht="15.75" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -14300,7 +14277,7 @@
       <c r="AX213" s="5"/>
       <c r="AY213" s="5"/>
     </row>
-    <row r="214" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:51" ht="15.75" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -14353,7 +14330,7 @@
       <c r="AX214" s="5"/>
       <c r="AY214" s="5"/>
     </row>
-    <row r="215" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:51" ht="15.75" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -14406,7 +14383,7 @@
       <c r="AX215" s="5"/>
       <c r="AY215" s="5"/>
     </row>
-    <row r="216" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:51" ht="15.75" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -14459,7 +14436,7 @@
       <c r="AX216" s="5"/>
       <c r="AY216" s="5"/>
     </row>
-    <row r="217" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:51" ht="15.75" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -14512,7 +14489,7 @@
       <c r="AX217" s="5"/>
       <c r="AY217" s="5"/>
     </row>
-    <row r="218" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:51" ht="15.75" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -14565,7 +14542,7 @@
       <c r="AX218" s="5"/>
       <c r="AY218" s="5"/>
     </row>
-    <row r="219" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:51" ht="15.75" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -14618,7 +14595,7 @@
       <c r="AX219" s="5"/>
       <c r="AY219" s="5"/>
     </row>
-    <row r="220" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:51" ht="15.75" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -14671,7 +14648,7 @@
       <c r="AX220" s="5"/>
       <c r="AY220" s="5"/>
     </row>
-    <row r="221" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:51" ht="15.75" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -14724,7 +14701,7 @@
       <c r="AX221" s="5"/>
       <c r="AY221" s="5"/>
     </row>
-    <row r="222" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:51" ht="15.75" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -14777,7 +14754,7 @@
       <c r="AX222" s="5"/>
       <c r="AY222" s="5"/>
     </row>
-    <row r="223" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:51" ht="15.75" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -14830,7 +14807,7 @@
       <c r="AX223" s="5"/>
       <c r="AY223" s="5"/>
     </row>
-    <row r="224" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:51" ht="15.75" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -14883,7 +14860,7 @@
       <c r="AX224" s="5"/>
       <c r="AY224" s="5"/>
     </row>
-    <row r="225" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:51" ht="15.75" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -14936,7 +14913,7 @@
       <c r="AX225" s="5"/>
       <c r="AY225" s="5"/>
     </row>
-    <row r="226" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:51" ht="15.75" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -14989,7 +14966,7 @@
       <c r="AX226" s="5"/>
       <c r="AY226" s="5"/>
     </row>
-    <row r="227" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:51" ht="15.75" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -15042,7 +15019,7 @@
       <c r="AX227" s="5"/>
       <c r="AY227" s="5"/>
     </row>
-    <row r="228" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:51" ht="15.75" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -15095,7 +15072,7 @@
       <c r="AX228" s="5"/>
       <c r="AY228" s="5"/>
     </row>
-    <row r="229" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:51" ht="15.75" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -15148,7 +15125,7 @@
       <c r="AX229" s="5"/>
       <c r="AY229" s="5"/>
     </row>
-    <row r="230" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:51" ht="15.75" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -15201,7 +15178,7 @@
       <c r="AX230" s="5"/>
       <c r="AY230" s="5"/>
     </row>
-    <row r="231" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:51" ht="15.75" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -15254,7 +15231,7 @@
       <c r="AX231" s="5"/>
       <c r="AY231" s="5"/>
     </row>
-    <row r="232" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:51" ht="15.75" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -15307,7 +15284,7 @@
       <c r="AX232" s="5"/>
       <c r="AY232" s="5"/>
     </row>
-    <row r="233" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:51" ht="15.75" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -15360,7 +15337,7 @@
       <c r="AX233" s="5"/>
       <c r="AY233" s="5"/>
     </row>
-    <row r="234" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:51" ht="15.75" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -15413,7 +15390,7 @@
       <c r="AX234" s="5"/>
       <c r="AY234" s="5"/>
     </row>
-    <row r="235" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:51" ht="15.75" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -15466,7 +15443,7 @@
       <c r="AX235" s="5"/>
       <c r="AY235" s="5"/>
     </row>
-    <row r="236" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:51" ht="15.75" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -15519,7 +15496,7 @@
       <c r="AX236" s="5"/>
       <c r="AY236" s="5"/>
     </row>
-    <row r="237" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:51" ht="15.75" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -15572,7 +15549,7 @@
       <c r="AX237" s="5"/>
       <c r="AY237" s="5"/>
     </row>
-    <row r="238" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:51" ht="15.75" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -15625,7 +15602,7 @@
       <c r="AX238" s="5"/>
       <c r="AY238" s="5"/>
     </row>
-    <row r="239" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:51" ht="15.75" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -15678,7 +15655,7 @@
       <c r="AX239" s="5"/>
       <c r="AY239" s="5"/>
     </row>
-    <row r="240" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:51" ht="15.75" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -15731,7 +15708,7 @@
       <c r="AX240" s="5"/>
       <c r="AY240" s="5"/>
     </row>
-    <row r="241" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:51" ht="15.75" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -15784,7 +15761,7 @@
       <c r="AX241" s="5"/>
       <c r="AY241" s="5"/>
     </row>
-    <row r="242" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:51" ht="15.75" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -15837,7 +15814,7 @@
       <c r="AX242" s="5"/>
       <c r="AY242" s="5"/>
     </row>
-    <row r="243" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:51" ht="15.75" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -15890,7 +15867,7 @@
       <c r="AX243" s="5"/>
       <c r="AY243" s="5"/>
     </row>
-    <row r="244" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:51" ht="15.75" customHeight="1">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -15943,7 +15920,7 @@
       <c r="AX244" s="5"/>
       <c r="AY244" s="5"/>
     </row>
-    <row r="245" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:51" ht="15.75" customHeight="1">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -15996,7 +15973,7 @@
       <c r="AX245" s="5"/>
       <c r="AY245" s="5"/>
     </row>
-    <row r="246" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:51" ht="15.75" customHeight="1">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -16049,7 +16026,7 @@
       <c r="AX246" s="5"/>
       <c r="AY246" s="5"/>
     </row>
-    <row r="247" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:51" ht="15.75" customHeight="1">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -16102,7 +16079,7 @@
       <c r="AX247" s="5"/>
       <c r="AY247" s="5"/>
     </row>
-    <row r="248" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:51" ht="15.75" customHeight="1">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -16155,7 +16132,7 @@
       <c r="AX248" s="5"/>
       <c r="AY248" s="5"/>
     </row>
-    <row r="249" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:51" ht="15.75" customHeight="1">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -16208,7 +16185,7 @@
       <c r="AX249" s="5"/>
       <c r="AY249" s="5"/>
     </row>
-    <row r="250" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:51" ht="15.75" customHeight="1">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -16261,7 +16238,7 @@
       <c r="AX250" s="5"/>
       <c r="AY250" s="5"/>
     </row>
-    <row r="251" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:51" ht="15.75" customHeight="1">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -16314,7 +16291,7 @@
       <c r="AX251" s="5"/>
       <c r="AY251" s="5"/>
     </row>
-    <row r="252" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:51" ht="15.75" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -16367,7 +16344,7 @@
       <c r="AX252" s="5"/>
       <c r="AY252" s="5"/>
     </row>
-    <row r="253" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:51" ht="15.75" customHeight="1">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -16420,7 +16397,7 @@
       <c r="AX253" s="5"/>
       <c r="AY253" s="5"/>
     </row>
-    <row r="254" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:51" ht="15.75" customHeight="1">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -16473,7 +16450,7 @@
       <c r="AX254" s="5"/>
       <c r="AY254" s="5"/>
     </row>
-    <row r="255" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:51" ht="15.75" customHeight="1">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -16526,7 +16503,7 @@
       <c r="AX255" s="5"/>
       <c r="AY255" s="5"/>
     </row>
-    <row r="256" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:51" ht="15.75" customHeight="1">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -16579,7 +16556,7 @@
       <c r="AX256" s="5"/>
       <c r="AY256" s="5"/>
     </row>
-    <row r="257" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:51" ht="15.75" customHeight="1">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -16632,7 +16609,7 @@
       <c r="AX257" s="5"/>
       <c r="AY257" s="5"/>
     </row>
-    <row r="258" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:51" ht="15.75" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -16685,7 +16662,7 @@
       <c r="AX258" s="5"/>
       <c r="AY258" s="5"/>
     </row>
-    <row r="259" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:51" ht="15.75" customHeight="1">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -16738,7 +16715,7 @@
       <c r="AX259" s="5"/>
       <c r="AY259" s="5"/>
     </row>
-    <row r="260" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:51" ht="15.75" customHeight="1">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -16791,7 +16768,7 @@
       <c r="AX260" s="5"/>
       <c r="AY260" s="5"/>
     </row>
-    <row r="261" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:51" ht="15.75" customHeight="1">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -16844,7 +16821,7 @@
       <c r="AX261" s="5"/>
       <c r="AY261" s="5"/>
     </row>
-    <row r="262" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:51" ht="15.75" customHeight="1">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -16897,7 +16874,7 @@
       <c r="AX262" s="5"/>
       <c r="AY262" s="5"/>
     </row>
-    <row r="263" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:51" ht="15.75" customHeight="1">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -16950,7 +16927,7 @@
       <c r="AX263" s="5"/>
       <c r="AY263" s="5"/>
     </row>
-    <row r="264" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:51" ht="15.75" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -17003,7 +16980,7 @@
       <c r="AX264" s="5"/>
       <c r="AY264" s="5"/>
     </row>
-    <row r="265" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:51" ht="15.75" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -17056,7 +17033,7 @@
       <c r="AX265" s="5"/>
       <c r="AY265" s="5"/>
     </row>
-    <row r="266" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:51" ht="15.75" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -17109,7 +17086,7 @@
       <c r="AX266" s="5"/>
       <c r="AY266" s="5"/>
     </row>
-    <row r="267" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:51" ht="15.75" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -17162,7 +17139,7 @@
       <c r="AX267" s="5"/>
       <c r="AY267" s="5"/>
     </row>
-    <row r="268" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:51" ht="15.75" customHeight="1">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -17215,7 +17192,7 @@
       <c r="AX268" s="5"/>
       <c r="AY268" s="5"/>
     </row>
-    <row r="269" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:51" ht="15.75" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -17268,7 +17245,7 @@
       <c r="AX269" s="5"/>
       <c r="AY269" s="5"/>
     </row>
-    <row r="270" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:51" ht="15.75" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -17321,7 +17298,7 @@
       <c r="AX270" s="5"/>
       <c r="AY270" s="5"/>
     </row>
-    <row r="271" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:51" ht="15.75" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -17374,7 +17351,7 @@
       <c r="AX271" s="5"/>
       <c r="AY271" s="5"/>
     </row>
-    <row r="272" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:51" ht="15.75" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -17427,7 +17404,7 @@
       <c r="AX272" s="5"/>
       <c r="AY272" s="5"/>
     </row>
-    <row r="273" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:51" ht="15.75" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -17480,7 +17457,7 @@
       <c r="AX273" s="5"/>
       <c r="AY273" s="5"/>
     </row>
-    <row r="274" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:51" ht="15.75" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -17533,7 +17510,7 @@
       <c r="AX274" s="5"/>
       <c r="AY274" s="5"/>
     </row>
-    <row r="275" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:51" ht="15.75" customHeight="1">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -17586,7 +17563,7 @@
       <c r="AX275" s="5"/>
       <c r="AY275" s="5"/>
     </row>
-    <row r="276" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:51" ht="15.75" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -17639,7 +17616,7 @@
       <c r="AX276" s="5"/>
       <c r="AY276" s="5"/>
     </row>
-    <row r="277" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:51" ht="15.75" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -17692,7 +17669,7 @@
       <c r="AX277" s="5"/>
       <c r="AY277" s="5"/>
     </row>
-    <row r="278" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:51" ht="15.75" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -17745,7 +17722,7 @@
       <c r="AX278" s="5"/>
       <c r="AY278" s="5"/>
     </row>
-    <row r="279" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:51" ht="15.75" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -17798,7 +17775,7 @@
       <c r="AX279" s="5"/>
       <c r="AY279" s="5"/>
     </row>
-    <row r="280" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:51" ht="15.75" customHeight="1">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -17851,7 +17828,7 @@
       <c r="AX280" s="5"/>
       <c r="AY280" s="5"/>
     </row>
-    <row r="281" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:51" ht="15.75" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -17904,7 +17881,7 @@
       <c r="AX281" s="5"/>
       <c r="AY281" s="5"/>
     </row>
-    <row r="282" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:51" ht="15.75" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -17957,7 +17934,7 @@
       <c r="AX282" s="5"/>
       <c r="AY282" s="5"/>
     </row>
-    <row r="283" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:51" ht="15.75" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -18010,7 +17987,7 @@
       <c r="AX283" s="5"/>
       <c r="AY283" s="5"/>
     </row>
-    <row r="284" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:51" ht="15.75" customHeight="1">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -18063,7 +18040,7 @@
       <c r="AX284" s="5"/>
       <c r="AY284" s="5"/>
     </row>
-    <row r="285" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:51" ht="15.75" customHeight="1">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -18116,7 +18093,7 @@
       <c r="AX285" s="5"/>
       <c r="AY285" s="5"/>
     </row>
-    <row r="286" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:51" ht="15.75" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -18169,7 +18146,7 @@
       <c r="AX286" s="5"/>
       <c r="AY286" s="5"/>
     </row>
-    <row r="287" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:51" ht="15.75" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -18222,7 +18199,7 @@
       <c r="AX287" s="5"/>
       <c r="AY287" s="5"/>
     </row>
-    <row r="288" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:51" ht="15.75" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -18275,7 +18252,7 @@
       <c r="AX288" s="5"/>
       <c r="AY288" s="5"/>
     </row>
-    <row r="289" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:51" ht="15.75" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -18328,7 +18305,7 @@
       <c r="AX289" s="5"/>
       <c r="AY289" s="5"/>
     </row>
-    <row r="290" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:51" ht="15.75" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -18381,7 +18358,7 @@
       <c r="AX290" s="5"/>
       <c r="AY290" s="5"/>
     </row>
-    <row r="291" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:51" ht="15.75" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -18434,7 +18411,7 @@
       <c r="AX291" s="5"/>
       <c r="AY291" s="5"/>
     </row>
-    <row r="292" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:51" ht="15.75" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -18487,7 +18464,7 @@
       <c r="AX292" s="5"/>
       <c r="AY292" s="5"/>
     </row>
-    <row r="293" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:51" ht="15.75" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -18540,7 +18517,7 @@
       <c r="AX293" s="5"/>
       <c r="AY293" s="5"/>
     </row>
-    <row r="294" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:51" ht="15.75" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -18593,7 +18570,7 @@
       <c r="AX294" s="5"/>
       <c r="AY294" s="5"/>
     </row>
-    <row r="295" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:51" ht="15.75" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -18646,7 +18623,7 @@
       <c r="AX295" s="5"/>
       <c r="AY295" s="5"/>
     </row>
-    <row r="296" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:51" ht="15.75" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -18699,7 +18676,7 @@
       <c r="AX296" s="5"/>
       <c r="AY296" s="5"/>
     </row>
-    <row r="297" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:51" ht="15.75" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -18752,7 +18729,7 @@
       <c r="AX297" s="5"/>
       <c r="AY297" s="5"/>
     </row>
-    <row r="298" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:51" ht="15.75" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -18805,7 +18782,7 @@
       <c r="AX298" s="5"/>
       <c r="AY298" s="5"/>
     </row>
-    <row r="299" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:51" ht="15.75" customHeight="1">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -18858,7 +18835,7 @@
       <c r="AX299" s="5"/>
       <c r="AY299" s="5"/>
     </row>
-    <row r="300" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:51" ht="15.75" customHeight="1">
       <c r="M300" s="117"/>
       <c r="N300" s="118"/>
       <c r="O300" s="119"/>
@@ -18884,7 +18861,7 @@
       <c r="AI300" s="123"/>
       <c r="AJ300" s="120"/>
     </row>
-    <row r="301" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:51" ht="15.75" customHeight="1">
       <c r="M301" s="117"/>
       <c r="N301" s="118"/>
       <c r="O301" s="119"/>
@@ -18910,7 +18887,7 @@
       <c r="AI301" s="123"/>
       <c r="AJ301" s="120"/>
     </row>
-    <row r="302" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:51" ht="15.75" customHeight="1">
       <c r="M302" s="117"/>
       <c r="N302" s="118"/>
       <c r="O302" s="119"/>
@@ -18936,7 +18913,7 @@
       <c r="AI302" s="123"/>
       <c r="AJ302" s="120"/>
     </row>
-    <row r="303" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:51" ht="15.75" customHeight="1">
       <c r="M303" s="117"/>
       <c r="N303" s="118"/>
       <c r="O303" s="119"/>
@@ -18962,7 +18939,7 @@
       <c r="AI303" s="123"/>
       <c r="AJ303" s="120"/>
     </row>
-    <row r="304" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:51" ht="15.75" customHeight="1">
       <c r="M304" s="117"/>
       <c r="N304" s="118"/>
       <c r="O304" s="119"/>
@@ -18988,7 +18965,7 @@
       <c r="AI304" s="123"/>
       <c r="AJ304" s="120"/>
     </row>
-    <row r="305" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="13:36" ht="15.75" customHeight="1">
       <c r="M305" s="117"/>
       <c r="N305" s="118"/>
       <c r="O305" s="119"/>
@@ -19014,7 +18991,7 @@
       <c r="AI305" s="123"/>
       <c r="AJ305" s="120"/>
     </row>
-    <row r="306" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="13:36" ht="15.75" customHeight="1">
       <c r="M306" s="117"/>
       <c r="N306" s="118"/>
       <c r="O306" s="119"/>
@@ -19040,7 +19017,7 @@
       <c r="AI306" s="123"/>
       <c r="AJ306" s="120"/>
     </row>
-    <row r="307" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="13:36" ht="15.75" customHeight="1">
       <c r="M307" s="117"/>
       <c r="N307" s="118"/>
       <c r="O307" s="119"/>
@@ -19066,7 +19043,7 @@
       <c r="AI307" s="123"/>
       <c r="AJ307" s="120"/>
     </row>
-    <row r="308" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="13:36" ht="15.75" customHeight="1">
       <c r="M308" s="117"/>
       <c r="N308" s="118"/>
       <c r="O308" s="119"/>
@@ -19092,7 +19069,7 @@
       <c r="AI308" s="123"/>
       <c r="AJ308" s="120"/>
     </row>
-    <row r="309" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="13:36" ht="15.75" customHeight="1">
       <c r="M309" s="117"/>
       <c r="N309" s="118"/>
       <c r="O309" s="119"/>
@@ -19118,7 +19095,7 @@
       <c r="AI309" s="123"/>
       <c r="AJ309" s="120"/>
     </row>
-    <row r="310" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="13:36" ht="15.75" customHeight="1">
       <c r="M310" s="117"/>
       <c r="N310" s="118"/>
       <c r="O310" s="119"/>
@@ -19144,7 +19121,7 @@
       <c r="AI310" s="123"/>
       <c r="AJ310" s="120"/>
     </row>
-    <row r="311" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="13:36" ht="15.75" customHeight="1">
       <c r="M311" s="117"/>
       <c r="N311" s="118"/>
       <c r="O311" s="119"/>
@@ -19170,7 +19147,7 @@
       <c r="AI311" s="123"/>
       <c r="AJ311" s="120"/>
     </row>
-    <row r="312" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="13:36" ht="15.75" customHeight="1">
       <c r="M312" s="117"/>
       <c r="N312" s="118"/>
       <c r="O312" s="119"/>
@@ -19196,7 +19173,7 @@
       <c r="AI312" s="123"/>
       <c r="AJ312" s="120"/>
     </row>
-    <row r="313" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="13:36" ht="15.75" customHeight="1">
       <c r="M313" s="117"/>
       <c r="N313" s="118"/>
       <c r="O313" s="119"/>
@@ -19222,7 +19199,7 @@
       <c r="AI313" s="123"/>
       <c r="AJ313" s="120"/>
     </row>
-    <row r="314" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="13:36" ht="15.75" customHeight="1">
       <c r="M314" s="117"/>
       <c r="N314" s="118"/>
       <c r="O314" s="119"/>
@@ -19248,7 +19225,7 @@
       <c r="AI314" s="123"/>
       <c r="AJ314" s="120"/>
     </row>
-    <row r="315" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="13:36" ht="15.75" customHeight="1">
       <c r="M315" s="117"/>
       <c r="N315" s="118"/>
       <c r="O315" s="119"/>
@@ -19274,7 +19251,7 @@
       <c r="AI315" s="123"/>
       <c r="AJ315" s="120"/>
     </row>
-    <row r="316" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="13:36" ht="15.75" customHeight="1">
       <c r="M316" s="117"/>
       <c r="N316" s="118"/>
       <c r="O316" s="119"/>
@@ -19300,7 +19277,7 @@
       <c r="AI316" s="123"/>
       <c r="AJ316" s="120"/>
     </row>
-    <row r="317" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="13:36" ht="15.75" customHeight="1">
       <c r="M317" s="117"/>
       <c r="N317" s="118"/>
       <c r="O317" s="119"/>
@@ -19326,7 +19303,7 @@
       <c r="AI317" s="123"/>
       <c r="AJ317" s="120"/>
     </row>
-    <row r="318" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="13:36" ht="15.75" customHeight="1">
       <c r="M318" s="117"/>
       <c r="N318" s="118"/>
       <c r="O318" s="119"/>
@@ -19352,7 +19329,7 @@
       <c r="AI318" s="123"/>
       <c r="AJ318" s="120"/>
     </row>
-    <row r="319" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="13:36" ht="15.75" customHeight="1">
       <c r="M319" s="117"/>
       <c r="N319" s="118"/>
       <c r="O319" s="119"/>
@@ -19378,7 +19355,7 @@
       <c r="AI319" s="123"/>
       <c r="AJ319" s="120"/>
     </row>
-    <row r="320" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="13:36" ht="15.75" customHeight="1">
       <c r="M320" s="117"/>
       <c r="N320" s="118"/>
       <c r="O320" s="119"/>
@@ -19404,7 +19381,7 @@
       <c r="AI320" s="123"/>
       <c r="AJ320" s="120"/>
     </row>
-    <row r="321" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="13:36" ht="15.75" customHeight="1">
       <c r="M321" s="117"/>
       <c r="N321" s="118"/>
       <c r="O321" s="119"/>
@@ -19430,7 +19407,7 @@
       <c r="AI321" s="123"/>
       <c r="AJ321" s="120"/>
     </row>
-    <row r="322" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="13:36" ht="15.75" customHeight="1">
       <c r="M322" s="117"/>
       <c r="N322" s="118"/>
       <c r="O322" s="119"/>
@@ -19456,7 +19433,7 @@
       <c r="AI322" s="123"/>
       <c r="AJ322" s="120"/>
     </row>
-    <row r="323" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="13:36" ht="15.75" customHeight="1">
       <c r="M323" s="117"/>
       <c r="N323" s="118"/>
       <c r="O323" s="119"/>
@@ -19482,7 +19459,7 @@
       <c r="AI323" s="123"/>
       <c r="AJ323" s="120"/>
     </row>
-    <row r="324" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="13:36" ht="15.75" customHeight="1">
       <c r="M324" s="117"/>
       <c r="N324" s="118"/>
       <c r="O324" s="119"/>
@@ -19508,7 +19485,7 @@
       <c r="AI324" s="123"/>
       <c r="AJ324" s="120"/>
     </row>
-    <row r="325" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="13:36" ht="15.75" customHeight="1">
       <c r="M325" s="117"/>
       <c r="N325" s="118"/>
       <c r="O325" s="119"/>
@@ -19534,7 +19511,7 @@
       <c r="AI325" s="123"/>
       <c r="AJ325" s="120"/>
     </row>
-    <row r="326" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="13:36" ht="15.75" customHeight="1">
       <c r="M326" s="117"/>
       <c r="N326" s="118"/>
       <c r="O326" s="119"/>
@@ -19560,7 +19537,7 @@
       <c r="AI326" s="123"/>
       <c r="AJ326" s="120"/>
     </row>
-    <row r="327" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="13:36" ht="15.75" customHeight="1">
       <c r="M327" s="117"/>
       <c r="N327" s="118"/>
       <c r="O327" s="119"/>
@@ -19586,7 +19563,7 @@
       <c r="AI327" s="123"/>
       <c r="AJ327" s="120"/>
     </row>
-    <row r="328" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="13:36" ht="15.75" customHeight="1">
       <c r="M328" s="117"/>
       <c r="N328" s="118"/>
       <c r="O328" s="119"/>
@@ -19612,7 +19589,7 @@
       <c r="AI328" s="123"/>
       <c r="AJ328" s="120"/>
     </row>
-    <row r="329" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="13:36" ht="15.75" customHeight="1">
       <c r="M329" s="117"/>
       <c r="N329" s="118"/>
       <c r="O329" s="119"/>
@@ -19638,7 +19615,7 @@
       <c r="AI329" s="123"/>
       <c r="AJ329" s="120"/>
     </row>
-    <row r="330" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="13:36" ht="15.75" customHeight="1">
       <c r="M330" s="117"/>
       <c r="N330" s="118"/>
       <c r="O330" s="119"/>
@@ -19664,7 +19641,7 @@
       <c r="AI330" s="123"/>
       <c r="AJ330" s="120"/>
     </row>
-    <row r="331" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="13:36" ht="15.75" customHeight="1">
       <c r="M331" s="117"/>
       <c r="N331" s="118"/>
       <c r="O331" s="119"/>
@@ -19690,7 +19667,7 @@
       <c r="AI331" s="123"/>
       <c r="AJ331" s="120"/>
     </row>
-    <row r="332" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="13:36" ht="15.75" customHeight="1">
       <c r="M332" s="117"/>
       <c r="N332" s="118"/>
       <c r="O332" s="119"/>
@@ -19716,7 +19693,7 @@
       <c r="AI332" s="123"/>
       <c r="AJ332" s="120"/>
     </row>
-    <row r="333" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="13:36" ht="15.75" customHeight="1">
       <c r="M333" s="117"/>
       <c r="N333" s="118"/>
       <c r="O333" s="119"/>
@@ -19742,7 +19719,7 @@
       <c r="AI333" s="123"/>
       <c r="AJ333" s="120"/>
     </row>
-    <row r="334" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="13:36" ht="15.75" customHeight="1">
       <c r="M334" s="117"/>
       <c r="N334" s="118"/>
       <c r="O334" s="119"/>
@@ -19768,7 +19745,7 @@
       <c r="AI334" s="123"/>
       <c r="AJ334" s="120"/>
     </row>
-    <row r="335" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="13:36" ht="15.75" customHeight="1">
       <c r="M335" s="117"/>
       <c r="N335" s="118"/>
       <c r="O335" s="119"/>
@@ -19794,7 +19771,7 @@
       <c r="AI335" s="123"/>
       <c r="AJ335" s="120"/>
     </row>
-    <row r="336" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="13:36" ht="15.75" customHeight="1">
       <c r="M336" s="117"/>
       <c r="N336" s="118"/>
       <c r="O336" s="119"/>
@@ -19820,7 +19797,7 @@
       <c r="AI336" s="123"/>
       <c r="AJ336" s="120"/>
     </row>
-    <row r="337" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="13:36" ht="15.75" customHeight="1">
       <c r="M337" s="117"/>
       <c r="N337" s="118"/>
       <c r="O337" s="119"/>
@@ -19846,7 +19823,7 @@
       <c r="AI337" s="123"/>
       <c r="AJ337" s="120"/>
     </row>
-    <row r="338" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="13:36" ht="15.75" customHeight="1">
       <c r="M338" s="117"/>
       <c r="N338" s="118"/>
       <c r="O338" s="119"/>
@@ -19872,7 +19849,7 @@
       <c r="AI338" s="123"/>
       <c r="AJ338" s="120"/>
     </row>
-    <row r="339" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="13:36" ht="15.75" customHeight="1">
       <c r="M339" s="117"/>
       <c r="N339" s="118"/>
       <c r="O339" s="119"/>
@@ -19898,7 +19875,7 @@
       <c r="AI339" s="123"/>
       <c r="AJ339" s="120"/>
     </row>
-    <row r="340" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="13:36" ht="15.75" customHeight="1">
       <c r="M340" s="117"/>
       <c r="N340" s="118"/>
       <c r="O340" s="119"/>
@@ -19924,7 +19901,7 @@
       <c r="AI340" s="123"/>
       <c r="AJ340" s="120"/>
     </row>
-    <row r="341" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="13:36" ht="15.75" customHeight="1">
       <c r="M341" s="117"/>
       <c r="N341" s="118"/>
       <c r="O341" s="119"/>
@@ -19950,7 +19927,7 @@
       <c r="AI341" s="123"/>
       <c r="AJ341" s="120"/>
     </row>
-    <row r="342" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="13:36" ht="15.75" customHeight="1">
       <c r="M342" s="117"/>
       <c r="N342" s="118"/>
       <c r="O342" s="119"/>
@@ -19976,7 +19953,7 @@
       <c r="AI342" s="123"/>
       <c r="AJ342" s="120"/>
     </row>
-    <row r="343" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="13:36" ht="15.75" customHeight="1">
       <c r="M343" s="117"/>
       <c r="N343" s="118"/>
       <c r="O343" s="119"/>
@@ -20002,7 +19979,7 @@
       <c r="AI343" s="123"/>
       <c r="AJ343" s="120"/>
     </row>
-    <row r="344" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="13:36" ht="15.75" customHeight="1">
       <c r="M344" s="117"/>
       <c r="N344" s="118"/>
       <c r="O344" s="119"/>
@@ -20028,7 +20005,7 @@
       <c r="AI344" s="123"/>
       <c r="AJ344" s="120"/>
     </row>
-    <row r="345" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="13:36" ht="15.75" customHeight="1">
       <c r="M345" s="117"/>
       <c r="N345" s="118"/>
       <c r="O345" s="119"/>
@@ -20054,7 +20031,7 @@
       <c r="AI345" s="123"/>
       <c r="AJ345" s="120"/>
     </row>
-    <row r="346" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="13:36" ht="15.75" customHeight="1">
       <c r="M346" s="117"/>
       <c r="N346" s="118"/>
       <c r="O346" s="119"/>
@@ -20080,7 +20057,7 @@
       <c r="AI346" s="123"/>
       <c r="AJ346" s="120"/>
     </row>
-    <row r="347" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="13:36" ht="15.75" customHeight="1">
       <c r="M347" s="117"/>
       <c r="N347" s="118"/>
       <c r="O347" s="119"/>
@@ -20106,7 +20083,7 @@
       <c r="AI347" s="123"/>
       <c r="AJ347" s="120"/>
     </row>
-    <row r="348" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="13:36" ht="15.75" customHeight="1">
       <c r="M348" s="117"/>
       <c r="N348" s="118"/>
       <c r="O348" s="119"/>
@@ -20132,7 +20109,7 @@
       <c r="AI348" s="123"/>
       <c r="AJ348" s="120"/>
     </row>
-    <row r="349" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="13:36" ht="15.75" customHeight="1">
       <c r="M349" s="117"/>
       <c r="N349" s="118"/>
       <c r="O349" s="119"/>
@@ -20158,7 +20135,7 @@
       <c r="AI349" s="123"/>
       <c r="AJ349" s="120"/>
     </row>
-    <row r="350" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="13:36" ht="15.75" customHeight="1">
       <c r="M350" s="117"/>
       <c r="N350" s="118"/>
       <c r="O350" s="119"/>
@@ -20184,7 +20161,7 @@
       <c r="AI350" s="123"/>
       <c r="AJ350" s="120"/>
     </row>
-    <row r="351" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="13:36" ht="15.75" customHeight="1">
       <c r="M351" s="117"/>
       <c r="N351" s="118"/>
       <c r="O351" s="119"/>
@@ -20210,7 +20187,7 @@
       <c r="AI351" s="123"/>
       <c r="AJ351" s="120"/>
     </row>
-    <row r="352" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="13:36" ht="15.75" customHeight="1">
       <c r="M352" s="117"/>
       <c r="N352" s="118"/>
       <c r="O352" s="119"/>
@@ -20236,7 +20213,7 @@
       <c r="AI352" s="123"/>
       <c r="AJ352" s="120"/>
     </row>
-    <row r="353" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="13:36" ht="15.75" customHeight="1">
       <c r="M353" s="117"/>
       <c r="N353" s="118"/>
       <c r="O353" s="119"/>
@@ -20262,7 +20239,7 @@
       <c r="AI353" s="123"/>
       <c r="AJ353" s="120"/>
     </row>
-    <row r="354" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="13:36" ht="15.75" customHeight="1">
       <c r="M354" s="117"/>
       <c r="N354" s="118"/>
       <c r="O354" s="119"/>
@@ -20288,7 +20265,7 @@
       <c r="AI354" s="123"/>
       <c r="AJ354" s="120"/>
     </row>
-    <row r="355" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="13:36" ht="15.75" customHeight="1">
       <c r="M355" s="117"/>
       <c r="N355" s="118"/>
       <c r="O355" s="119"/>
@@ -20314,7 +20291,7 @@
       <c r="AI355" s="123"/>
       <c r="AJ355" s="120"/>
     </row>
-    <row r="356" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="13:36" ht="15.75" customHeight="1">
       <c r="M356" s="117"/>
       <c r="N356" s="118"/>
       <c r="O356" s="119"/>
@@ -20340,7 +20317,7 @@
       <c r="AI356" s="123"/>
       <c r="AJ356" s="120"/>
     </row>
-    <row r="357" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="13:36" ht="15.75" customHeight="1">
       <c r="M357" s="117"/>
       <c r="N357" s="118"/>
       <c r="O357" s="119"/>
@@ -20366,7 +20343,7 @@
       <c r="AI357" s="123"/>
       <c r="AJ357" s="120"/>
     </row>
-    <row r="358" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="13:36" ht="15.75" customHeight="1">
       <c r="M358" s="117"/>
       <c r="N358" s="118"/>
       <c r="O358" s="119"/>
@@ -20392,7 +20369,7 @@
       <c r="AI358" s="123"/>
       <c r="AJ358" s="120"/>
     </row>
-    <row r="359" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="13:36" ht="15.75" customHeight="1">
       <c r="M359" s="117"/>
       <c r="N359" s="118"/>
       <c r="O359" s="119"/>
@@ -20418,7 +20395,7 @@
       <c r="AI359" s="123"/>
       <c r="AJ359" s="120"/>
     </row>
-    <row r="360" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="13:36" ht="15.75" customHeight="1">
       <c r="M360" s="117"/>
       <c r="N360" s="118"/>
       <c r="O360" s="119"/>
@@ -20444,7 +20421,7 @@
       <c r="AI360" s="123"/>
       <c r="AJ360" s="120"/>
     </row>
-    <row r="361" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="13:36" ht="15.75" customHeight="1">
       <c r="M361" s="117"/>
       <c r="N361" s="118"/>
       <c r="O361" s="119"/>
@@ -20470,7 +20447,7 @@
       <c r="AI361" s="123"/>
       <c r="AJ361" s="120"/>
     </row>
-    <row r="362" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="13:36" ht="15.75" customHeight="1">
       <c r="M362" s="117"/>
       <c r="N362" s="118"/>
       <c r="O362" s="119"/>
@@ -20496,7 +20473,7 @@
       <c r="AI362" s="123"/>
       <c r="AJ362" s="120"/>
     </row>
-    <row r="363" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="13:36" ht="15.75" customHeight="1">
       <c r="M363" s="117"/>
       <c r="N363" s="118"/>
       <c r="O363" s="119"/>
@@ -20522,7 +20499,7 @@
       <c r="AI363" s="123"/>
       <c r="AJ363" s="120"/>
     </row>
-    <row r="364" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="13:36" ht="15.75" customHeight="1">
       <c r="M364" s="117"/>
       <c r="N364" s="118"/>
       <c r="O364" s="119"/>
@@ -20548,7 +20525,7 @@
       <c r="AI364" s="123"/>
       <c r="AJ364" s="120"/>
     </row>
-    <row r="365" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="13:36" ht="15.75" customHeight="1">
       <c r="M365" s="117"/>
       <c r="N365" s="118"/>
       <c r="O365" s="119"/>
@@ -20574,7 +20551,7 @@
       <c r="AI365" s="123"/>
       <c r="AJ365" s="120"/>
     </row>
-    <row r="366" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="13:36" ht="15.75" customHeight="1">
       <c r="M366" s="117"/>
       <c r="N366" s="118"/>
       <c r="O366" s="119"/>
@@ -20600,7 +20577,7 @@
       <c r="AI366" s="123"/>
       <c r="AJ366" s="120"/>
     </row>
-    <row r="367" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="13:36" ht="15.75" customHeight="1">
       <c r="M367" s="117"/>
       <c r="N367" s="118"/>
       <c r="O367" s="119"/>
@@ -20626,7 +20603,7 @@
       <c r="AI367" s="123"/>
       <c r="AJ367" s="120"/>
     </row>
-    <row r="368" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="13:36" ht="15.75" customHeight="1">
       <c r="M368" s="117"/>
       <c r="N368" s="118"/>
       <c r="O368" s="119"/>
@@ -20652,7 +20629,7 @@
       <c r="AI368" s="123"/>
       <c r="AJ368" s="120"/>
     </row>
-    <row r="369" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="13:36" ht="15.75" customHeight="1">
       <c r="M369" s="117"/>
       <c r="N369" s="118"/>
       <c r="O369" s="119"/>
@@ -20678,7 +20655,7 @@
       <c r="AI369" s="123"/>
       <c r="AJ369" s="120"/>
     </row>
-    <row r="370" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="13:36" ht="15.75" customHeight="1">
       <c r="M370" s="117"/>
       <c r="N370" s="118"/>
       <c r="O370" s="119"/>
@@ -20704,7 +20681,7 @@
       <c r="AI370" s="123"/>
       <c r="AJ370" s="120"/>
     </row>
-    <row r="371" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="13:36" ht="15.75" customHeight="1">
       <c r="M371" s="117"/>
       <c r="N371" s="118"/>
       <c r="O371" s="119"/>
@@ -20730,7 +20707,7 @@
       <c r="AI371" s="123"/>
       <c r="AJ371" s="120"/>
     </row>
-    <row r="372" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="13:36" ht="15.75" customHeight="1">
       <c r="M372" s="117"/>
       <c r="N372" s="118"/>
       <c r="O372" s="119"/>
@@ -20756,7 +20733,7 @@
       <c r="AI372" s="123"/>
       <c r="AJ372" s="120"/>
     </row>
-    <row r="373" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="13:36" ht="15.75" customHeight="1">
       <c r="M373" s="117"/>
       <c r="N373" s="118"/>
       <c r="O373" s="119"/>
@@ -20782,7 +20759,7 @@
       <c r="AI373" s="123"/>
       <c r="AJ373" s="120"/>
     </row>
-    <row r="374" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="13:36" ht="15.75" customHeight="1">
       <c r="M374" s="117"/>
       <c r="N374" s="118"/>
       <c r="O374" s="119"/>
@@ -20808,7 +20785,7 @@
       <c r="AI374" s="123"/>
       <c r="AJ374" s="120"/>
     </row>
-    <row r="375" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="13:36" ht="15.75" customHeight="1">
       <c r="M375" s="117"/>
       <c r="N375" s="118"/>
       <c r="O375" s="119"/>
@@ -20834,7 +20811,7 @@
       <c r="AI375" s="123"/>
       <c r="AJ375" s="120"/>
     </row>
-    <row r="376" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="13:36" ht="15.75" customHeight="1">
       <c r="M376" s="117"/>
       <c r="N376" s="118"/>
       <c r="O376" s="119"/>
@@ -20860,7 +20837,7 @@
       <c r="AI376" s="123"/>
       <c r="AJ376" s="120"/>
     </row>
-    <row r="377" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="13:36" ht="15.75" customHeight="1">
       <c r="M377" s="117"/>
       <c r="N377" s="118"/>
       <c r="O377" s="119"/>
@@ -20886,7 +20863,7 @@
       <c r="AI377" s="123"/>
       <c r="AJ377" s="120"/>
     </row>
-    <row r="378" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="13:36" ht="15.75" customHeight="1">
       <c r="M378" s="117"/>
       <c r="N378" s="118"/>
       <c r="O378" s="119"/>
@@ -20912,7 +20889,7 @@
       <c r="AI378" s="123"/>
       <c r="AJ378" s="120"/>
     </row>
-    <row r="379" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="13:36" ht="15.75" customHeight="1">
       <c r="M379" s="117"/>
       <c r="N379" s="118"/>
       <c r="O379" s="119"/>
@@ -20938,7 +20915,7 @@
       <c r="AI379" s="123"/>
       <c r="AJ379" s="120"/>
     </row>
-    <row r="380" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="13:36" ht="15.75" customHeight="1">
       <c r="M380" s="117"/>
       <c r="N380" s="118"/>
       <c r="O380" s="119"/>
@@ -20964,7 +20941,7 @@
       <c r="AI380" s="123"/>
       <c r="AJ380" s="120"/>
     </row>
-    <row r="381" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="13:36" ht="15.75" customHeight="1">
       <c r="M381" s="117"/>
       <c r="N381" s="118"/>
       <c r="O381" s="119"/>
@@ -20990,7 +20967,7 @@
       <c r="AI381" s="123"/>
       <c r="AJ381" s="120"/>
     </row>
-    <row r="382" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="13:36" ht="15.75" customHeight="1">
       <c r="M382" s="117"/>
       <c r="N382" s="118"/>
       <c r="O382" s="119"/>
@@ -21016,7 +20993,7 @@
       <c r="AI382" s="123"/>
       <c r="AJ382" s="120"/>
     </row>
-    <row r="383" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="13:36" ht="15.75" customHeight="1">
       <c r="M383" s="117"/>
       <c r="N383" s="118"/>
       <c r="O383" s="119"/>
@@ -21042,7 +21019,7 @@
       <c r="AI383" s="123"/>
       <c r="AJ383" s="120"/>
     </row>
-    <row r="384" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="13:36" ht="15.75" customHeight="1">
       <c r="M384" s="117"/>
       <c r="N384" s="118"/>
       <c r="O384" s="119"/>
@@ -21068,7 +21045,7 @@
       <c r="AI384" s="123"/>
       <c r="AJ384" s="120"/>
     </row>
-    <row r="385" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="13:36" ht="15.75" customHeight="1">
       <c r="M385" s="117"/>
       <c r="N385" s="118"/>
       <c r="O385" s="119"/>
@@ -21094,7 +21071,7 @@
       <c r="AI385" s="123"/>
       <c r="AJ385" s="120"/>
     </row>
-    <row r="386" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="13:36" ht="15.75" customHeight="1">
       <c r="M386" s="117"/>
       <c r="N386" s="118"/>
       <c r="O386" s="119"/>
@@ -21120,7 +21097,7 @@
       <c r="AI386" s="123"/>
       <c r="AJ386" s="120"/>
     </row>
-    <row r="387" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="13:36" ht="15.75" customHeight="1">
       <c r="M387" s="117"/>
       <c r="N387" s="118"/>
       <c r="O387" s="119"/>
@@ -21146,7 +21123,7 @@
       <c r="AI387" s="123"/>
       <c r="AJ387" s="120"/>
     </row>
-    <row r="388" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="13:36" ht="15.75" customHeight="1">
       <c r="M388" s="117"/>
       <c r="N388" s="118"/>
       <c r="O388" s="119"/>
@@ -21172,7 +21149,7 @@
       <c r="AI388" s="123"/>
       <c r="AJ388" s="120"/>
     </row>
-    <row r="389" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="13:36" ht="15.75" customHeight="1">
       <c r="M389" s="117"/>
       <c r="N389" s="118"/>
       <c r="O389" s="119"/>
@@ -21198,7 +21175,7 @@
       <c r="AI389" s="123"/>
       <c r="AJ389" s="120"/>
     </row>
-    <row r="390" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="13:36" ht="15.75" customHeight="1">
       <c r="M390" s="117"/>
       <c r="N390" s="118"/>
       <c r="O390" s="119"/>
@@ -21224,7 +21201,7 @@
       <c r="AI390" s="123"/>
       <c r="AJ390" s="120"/>
     </row>
-    <row r="391" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="13:36" ht="15.75" customHeight="1">
       <c r="M391" s="117"/>
       <c r="N391" s="118"/>
       <c r="O391" s="119"/>
@@ -21250,7 +21227,7 @@
       <c r="AI391" s="123"/>
       <c r="AJ391" s="120"/>
     </row>
-    <row r="392" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="13:36" ht="15.75" customHeight="1">
       <c r="M392" s="117"/>
       <c r="N392" s="118"/>
       <c r="O392" s="119"/>
@@ -21276,7 +21253,7 @@
       <c r="AI392" s="123"/>
       <c r="AJ392" s="120"/>
     </row>
-    <row r="393" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="13:36" ht="15.75" customHeight="1">
       <c r="M393" s="117"/>
       <c r="N393" s="118"/>
       <c r="O393" s="119"/>
@@ -21302,7 +21279,7 @@
       <c r="AI393" s="123"/>
       <c r="AJ393" s="120"/>
     </row>
-    <row r="394" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="13:36" ht="15.75" customHeight="1">
       <c r="M394" s="117"/>
       <c r="N394" s="118"/>
       <c r="O394" s="119"/>
@@ -21328,7 +21305,7 @@
       <c r="AI394" s="123"/>
       <c r="AJ394" s="120"/>
     </row>
-    <row r="395" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="13:36" ht="15.75" customHeight="1">
       <c r="M395" s="117"/>
       <c r="N395" s="118"/>
       <c r="O395" s="119"/>
@@ -21354,7 +21331,7 @@
       <c r="AI395" s="123"/>
       <c r="AJ395" s="120"/>
     </row>
-    <row r="396" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="13:36" ht="15.75" customHeight="1">
       <c r="M396" s="117"/>
       <c r="N396" s="118"/>
       <c r="O396" s="119"/>
@@ -21380,7 +21357,7 @@
       <c r="AI396" s="123"/>
       <c r="AJ396" s="120"/>
     </row>
-    <row r="397" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="13:36" ht="15.75" customHeight="1">
       <c r="M397" s="117"/>
       <c r="N397" s="118"/>
       <c r="O397" s="119"/>
@@ -21406,7 +21383,7 @@
       <c r="AI397" s="123"/>
       <c r="AJ397" s="120"/>
     </row>
-    <row r="398" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="13:36" ht="15.75" customHeight="1">
       <c r="M398" s="117"/>
       <c r="N398" s="118"/>
       <c r="O398" s="119"/>
@@ -21432,7 +21409,7 @@
       <c r="AI398" s="123"/>
       <c r="AJ398" s="120"/>
     </row>
-    <row r="399" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="13:36" ht="15.75" customHeight="1">
       <c r="M399" s="117"/>
       <c r="N399" s="118"/>
       <c r="O399" s="119"/>
@@ -21458,7 +21435,7 @@
       <c r="AI399" s="123"/>
       <c r="AJ399" s="120"/>
     </row>
-    <row r="400" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="13:36" ht="15.75" customHeight="1">
       <c r="M400" s="117"/>
       <c r="N400" s="118"/>
       <c r="O400" s="119"/>
@@ -21484,7 +21461,7 @@
       <c r="AI400" s="123"/>
       <c r="AJ400" s="120"/>
     </row>
-    <row r="401" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="13:36" ht="15.75" customHeight="1">
       <c r="M401" s="117"/>
       <c r="N401" s="118"/>
       <c r="O401" s="119"/>
@@ -21510,7 +21487,7 @@
       <c r="AI401" s="123"/>
       <c r="AJ401" s="120"/>
     </row>
-    <row r="402" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="13:36" ht="15.75" customHeight="1">
       <c r="M402" s="117"/>
       <c r="N402" s="118"/>
       <c r="O402" s="119"/>
@@ -21536,7 +21513,7 @@
       <c r="AI402" s="123"/>
       <c r="AJ402" s="120"/>
     </row>
-    <row r="403" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="13:36" ht="15.75" customHeight="1">
       <c r="M403" s="117"/>
       <c r="N403" s="118"/>
       <c r="O403" s="119"/>
@@ -21562,7 +21539,7 @@
       <c r="AI403" s="123"/>
       <c r="AJ403" s="120"/>
     </row>
-    <row r="404" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="13:36" ht="15.75" customHeight="1">
       <c r="M404" s="117"/>
       <c r="N404" s="118"/>
       <c r="O404" s="119"/>
@@ -21588,7 +21565,7 @@
       <c r="AI404" s="123"/>
       <c r="AJ404" s="120"/>
     </row>
-    <row r="405" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="13:36" ht="15.75" customHeight="1">
       <c r="M405" s="117"/>
       <c r="N405" s="118"/>
       <c r="O405" s="119"/>
@@ -21614,7 +21591,7 @@
       <c r="AI405" s="123"/>
       <c r="AJ405" s="120"/>
     </row>
-    <row r="406" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="13:36" ht="15.75" customHeight="1">
       <c r="M406" s="117"/>
       <c r="N406" s="118"/>
       <c r="O406" s="119"/>
@@ -21640,7 +21617,7 @@
       <c r="AI406" s="123"/>
       <c r="AJ406" s="120"/>
     </row>
-    <row r="407" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="13:36" ht="15.75" customHeight="1">
       <c r="M407" s="117"/>
       <c r="N407" s="118"/>
       <c r="O407" s="119"/>
@@ -21666,7 +21643,7 @@
       <c r="AI407" s="123"/>
       <c r="AJ407" s="120"/>
     </row>
-    <row r="408" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="13:36" ht="15.75" customHeight="1">
       <c r="M408" s="117"/>
       <c r="N408" s="118"/>
       <c r="O408" s="119"/>
@@ -21692,7 +21669,7 @@
       <c r="AI408" s="123"/>
       <c r="AJ408" s="120"/>
     </row>
-    <row r="409" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="13:36" ht="15.75" customHeight="1">
       <c r="M409" s="117"/>
       <c r="N409" s="118"/>
       <c r="O409" s="119"/>
@@ -21718,7 +21695,7 @@
       <c r="AI409" s="123"/>
       <c r="AJ409" s="120"/>
     </row>
-    <row r="410" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="13:36" ht="15.75" customHeight="1">
       <c r="M410" s="117"/>
       <c r="N410" s="118"/>
       <c r="O410" s="119"/>
@@ -21744,7 +21721,7 @@
       <c r="AI410" s="123"/>
       <c r="AJ410" s="120"/>
     </row>
-    <row r="411" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="13:36" ht="15.75" customHeight="1">
       <c r="M411" s="117"/>
       <c r="N411" s="118"/>
       <c r="O411" s="119"/>
@@ -21770,7 +21747,7 @@
       <c r="AI411" s="123"/>
       <c r="AJ411" s="120"/>
     </row>
-    <row r="412" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="13:36" ht="15.75" customHeight="1">
       <c r="M412" s="117"/>
       <c r="N412" s="118"/>
       <c r="O412" s="119"/>
@@ -21796,7 +21773,7 @@
       <c r="AI412" s="123"/>
       <c r="AJ412" s="120"/>
     </row>
-    <row r="413" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="13:36" ht="15.75" customHeight="1">
       <c r="M413" s="117"/>
       <c r="N413" s="118"/>
       <c r="O413" s="119"/>
@@ -21822,7 +21799,7 @@
       <c r="AI413" s="123"/>
       <c r="AJ413" s="120"/>
     </row>
-    <row r="414" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="13:36" ht="15.75" customHeight="1">
       <c r="M414" s="117"/>
       <c r="N414" s="118"/>
       <c r="O414" s="119"/>
@@ -21848,7 +21825,7 @@
       <c r="AI414" s="123"/>
       <c r="AJ414" s="120"/>
     </row>
-    <row r="415" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="13:36" ht="15.75" customHeight="1">
       <c r="M415" s="117"/>
       <c r="N415" s="118"/>
       <c r="O415" s="119"/>
@@ -21874,7 +21851,7 @@
       <c r="AI415" s="123"/>
       <c r="AJ415" s="120"/>
     </row>
-    <row r="416" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="13:36" ht="15.75" customHeight="1">
       <c r="M416" s="117"/>
       <c r="N416" s="118"/>
       <c r="O416" s="119"/>
@@ -21900,7 +21877,7 @@
       <c r="AI416" s="123"/>
       <c r="AJ416" s="120"/>
     </row>
-    <row r="417" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="13:36" ht="15.75" customHeight="1">
       <c r="M417" s="117"/>
       <c r="N417" s="118"/>
       <c r="O417" s="119"/>
@@ -21926,7 +21903,7 @@
       <c r="AI417" s="123"/>
       <c r="AJ417" s="120"/>
     </row>
-    <row r="418" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="13:36" ht="15.75" customHeight="1">
       <c r="M418" s="117"/>
       <c r="N418" s="118"/>
       <c r="O418" s="119"/>
@@ -21952,7 +21929,7 @@
       <c r="AI418" s="123"/>
       <c r="AJ418" s="120"/>
     </row>
-    <row r="419" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="13:36" ht="15.75" customHeight="1">
       <c r="M419" s="117"/>
       <c r="N419" s="118"/>
       <c r="O419" s="119"/>
@@ -21978,7 +21955,7 @@
       <c r="AI419" s="123"/>
       <c r="AJ419" s="120"/>
     </row>
-    <row r="420" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="13:36" ht="15.75" customHeight="1">
       <c r="M420" s="117"/>
       <c r="N420" s="118"/>
       <c r="O420" s="119"/>
@@ -22004,7 +21981,7 @@
       <c r="AI420" s="123"/>
       <c r="AJ420" s="120"/>
     </row>
-    <row r="421" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="13:36" ht="15.75" customHeight="1">
       <c r="M421" s="117"/>
       <c r="N421" s="118"/>
       <c r="O421" s="119"/>
@@ -22030,7 +22007,7 @@
       <c r="AI421" s="123"/>
       <c r="AJ421" s="120"/>
     </row>
-    <row r="422" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="13:36" ht="15.75" customHeight="1">
       <c r="M422" s="117"/>
       <c r="N422" s="118"/>
       <c r="O422" s="119"/>
@@ -22056,7 +22033,7 @@
       <c r="AI422" s="123"/>
       <c r="AJ422" s="120"/>
     </row>
-    <row r="423" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="13:36" ht="15.75" customHeight="1">
       <c r="M423" s="117"/>
       <c r="N423" s="118"/>
       <c r="O423" s="119"/>
@@ -22082,7 +22059,7 @@
       <c r="AI423" s="123"/>
       <c r="AJ423" s="120"/>
     </row>
-    <row r="424" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="13:36" ht="15.75" customHeight="1">
       <c r="M424" s="117"/>
       <c r="N424" s="118"/>
       <c r="O424" s="119"/>
@@ -22108,7 +22085,7 @@
       <c r="AI424" s="123"/>
       <c r="AJ424" s="120"/>
     </row>
-    <row r="425" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="13:36" ht="15.75" customHeight="1">
       <c r="M425" s="117"/>
       <c r="N425" s="118"/>
       <c r="O425" s="119"/>
@@ -22134,7 +22111,7 @@
       <c r="AI425" s="123"/>
       <c r="AJ425" s="120"/>
     </row>
-    <row r="426" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="13:36" ht="15.75" customHeight="1">
       <c r="M426" s="117"/>
       <c r="N426" s="118"/>
       <c r="O426" s="119"/>
@@ -22160,7 +22137,7 @@
       <c r="AI426" s="123"/>
       <c r="AJ426" s="120"/>
     </row>
-    <row r="427" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="13:36" ht="15.75" customHeight="1">
       <c r="M427" s="117"/>
       <c r="N427" s="118"/>
       <c r="O427" s="119"/>
@@ -22186,7 +22163,7 @@
       <c r="AI427" s="123"/>
       <c r="AJ427" s="120"/>
     </row>
-    <row r="428" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="13:36" ht="15.75" customHeight="1">
       <c r="M428" s="117"/>
       <c r="N428" s="118"/>
       <c r="O428" s="119"/>
@@ -22212,7 +22189,7 @@
       <c r="AI428" s="123"/>
       <c r="AJ428" s="120"/>
     </row>
-    <row r="429" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="13:36" ht="15.75" customHeight="1">
       <c r="M429" s="117"/>
       <c r="N429" s="118"/>
       <c r="O429" s="119"/>
@@ -22238,7 +22215,7 @@
       <c r="AI429" s="123"/>
       <c r="AJ429" s="120"/>
     </row>
-    <row r="430" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="13:36" ht="15.75" customHeight="1">
       <c r="M430" s="117"/>
       <c r="N430" s="118"/>
       <c r="O430" s="119"/>
@@ -22264,7 +22241,7 @@
       <c r="AI430" s="123"/>
       <c r="AJ430" s="120"/>
     </row>
-    <row r="431" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="13:36" ht="15.75" customHeight="1">
       <c r="M431" s="117"/>
       <c r="N431" s="118"/>
       <c r="O431" s="119"/>
@@ -22290,7 +22267,7 @@
       <c r="AI431" s="123"/>
       <c r="AJ431" s="120"/>
     </row>
-    <row r="432" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="13:36" ht="15.75" customHeight="1">
       <c r="M432" s="117"/>
       <c r="N432" s="118"/>
       <c r="O432" s="119"/>
@@ -22316,7 +22293,7 @@
       <c r="AI432" s="123"/>
       <c r="AJ432" s="120"/>
     </row>
-    <row r="433" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="13:36" ht="15.75" customHeight="1">
       <c r="M433" s="117"/>
       <c r="N433" s="118"/>
       <c r="O433" s="119"/>
@@ -22342,7 +22319,7 @@
       <c r="AI433" s="123"/>
       <c r="AJ433" s="120"/>
     </row>
-    <row r="434" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="13:36" ht="15.75" customHeight="1">
       <c r="M434" s="117"/>
       <c r="N434" s="118"/>
       <c r="O434" s="119"/>
@@ -22368,7 +22345,7 @@
       <c r="AI434" s="123"/>
       <c r="AJ434" s="120"/>
     </row>
-    <row r="435" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="13:36" ht="15.75" customHeight="1">
       <c r="M435" s="117"/>
       <c r="N435" s="118"/>
       <c r="O435" s="119"/>
@@ -22394,7 +22371,7 @@
       <c r="AI435" s="123"/>
       <c r="AJ435" s="120"/>
     </row>
-    <row r="436" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="13:36" ht="15.75" customHeight="1">
       <c r="M436" s="117"/>
       <c r="N436" s="118"/>
       <c r="O436" s="119"/>
@@ -22420,7 +22397,7 @@
       <c r="AI436" s="123"/>
       <c r="AJ436" s="120"/>
     </row>
-    <row r="437" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="13:36" ht="15.75" customHeight="1">
       <c r="M437" s="117"/>
       <c r="N437" s="118"/>
       <c r="O437" s="119"/>
@@ -22446,7 +22423,7 @@
       <c r="AI437" s="123"/>
       <c r="AJ437" s="120"/>
     </row>
-    <row r="438" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="13:36" ht="15.75" customHeight="1">
       <c r="M438" s="117"/>
       <c r="N438" s="118"/>
       <c r="O438" s="119"/>
@@ -22472,7 +22449,7 @@
       <c r="AI438" s="123"/>
       <c r="AJ438" s="120"/>
     </row>
-    <row r="439" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="13:36" ht="15.75" customHeight="1">
       <c r="M439" s="117"/>
       <c r="N439" s="118"/>
       <c r="O439" s="119"/>
@@ -22498,7 +22475,7 @@
       <c r="AI439" s="123"/>
       <c r="AJ439" s="120"/>
     </row>
-    <row r="440" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="13:36" ht="15.75" customHeight="1">
       <c r="M440" s="117"/>
       <c r="N440" s="118"/>
       <c r="O440" s="119"/>
@@ -22524,7 +22501,7 @@
       <c r="AI440" s="123"/>
       <c r="AJ440" s="120"/>
     </row>
-    <row r="441" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="13:36" ht="15.75" customHeight="1">
       <c r="M441" s="117"/>
       <c r="N441" s="118"/>
       <c r="O441" s="119"/>
@@ -22550,7 +22527,7 @@
       <c r="AI441" s="123"/>
       <c r="AJ441" s="120"/>
     </row>
-    <row r="442" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="13:36" ht="15.75" customHeight="1">
       <c r="M442" s="117"/>
       <c r="N442" s="118"/>
       <c r="O442" s="119"/>
@@ -22576,7 +22553,7 @@
       <c r="AI442" s="123"/>
       <c r="AJ442" s="120"/>
     </row>
-    <row r="443" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="13:36" ht="15.75" customHeight="1">
       <c r="M443" s="117"/>
       <c r="N443" s="118"/>
       <c r="O443" s="119"/>
@@ -22602,7 +22579,7 @@
       <c r="AI443" s="123"/>
       <c r="AJ443" s="120"/>
     </row>
-    <row r="444" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="13:36" ht="15.75" customHeight="1">
       <c r="M444" s="117"/>
       <c r="N444" s="118"/>
       <c r="O444" s="119"/>
@@ -22628,7 +22605,7 @@
       <c r="AI444" s="123"/>
       <c r="AJ444" s="120"/>
     </row>
-    <row r="445" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="13:36" ht="15.75" customHeight="1">
       <c r="M445" s="117"/>
       <c r="N445" s="118"/>
       <c r="O445" s="119"/>
@@ -22654,7 +22631,7 @@
       <c r="AI445" s="123"/>
       <c r="AJ445" s="120"/>
     </row>
-    <row r="446" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="13:36" ht="15.75" customHeight="1">
       <c r="M446" s="117"/>
       <c r="N446" s="118"/>
       <c r="O446" s="119"/>
@@ -22680,7 +22657,7 @@
       <c r="AI446" s="123"/>
       <c r="AJ446" s="120"/>
     </row>
-    <row r="447" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="13:36" ht="15.75" customHeight="1">
       <c r="M447" s="117"/>
       <c r="N447" s="118"/>
       <c r="O447" s="119"/>
@@ -22706,7 +22683,7 @@
       <c r="AI447" s="123"/>
       <c r="AJ447" s="120"/>
     </row>
-    <row r="448" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="13:36" ht="15.75" customHeight="1">
       <c r="M448" s="117"/>
       <c r="N448" s="118"/>
       <c r="O448" s="119"/>
@@ -22732,7 +22709,7 @@
       <c r="AI448" s="123"/>
       <c r="AJ448" s="120"/>
     </row>
-    <row r="449" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="13:36" ht="15.75" customHeight="1">
       <c r="M449" s="117"/>
       <c r="N449" s="118"/>
       <c r="O449" s="119"/>
@@ -22758,7 +22735,7 @@
       <c r="AI449" s="123"/>
       <c r="AJ449" s="120"/>
     </row>
-    <row r="450" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="13:36" ht="15.75" customHeight="1">
       <c r="M450" s="117"/>
       <c r="N450" s="118"/>
       <c r="O450" s="119"/>
@@ -22784,7 +22761,7 @@
       <c r="AI450" s="123"/>
       <c r="AJ450" s="120"/>
     </row>
-    <row r="451" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="13:36" ht="15.75" customHeight="1">
       <c r="M451" s="117"/>
       <c r="N451" s="118"/>
       <c r="O451" s="119"/>
@@ -22810,7 +22787,7 @@
       <c r="AI451" s="123"/>
       <c r="AJ451" s="120"/>
     </row>
-    <row r="452" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="13:36" ht="15.75" customHeight="1">
       <c r="M452" s="117"/>
       <c r="N452" s="118"/>
       <c r="O452" s="119"/>
@@ -22836,7 +22813,7 @@
       <c r="AI452" s="123"/>
       <c r="AJ452" s="120"/>
     </row>
-    <row r="453" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="13:36" ht="15.75" customHeight="1">
       <c r="M453" s="117"/>
       <c r="N453" s="118"/>
       <c r="O453" s="119"/>
@@ -22862,7 +22839,7 @@
       <c r="AI453" s="123"/>
       <c r="AJ453" s="120"/>
     </row>
-    <row r="454" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="13:36" ht="15.75" customHeight="1">
       <c r="M454" s="117"/>
       <c r="N454" s="118"/>
       <c r="O454" s="119"/>
@@ -22888,7 +22865,7 @@
       <c r="AI454" s="123"/>
       <c r="AJ454" s="120"/>
     </row>
-    <row r="455" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="13:36" ht="15.75" customHeight="1">
       <c r="M455" s="117"/>
       <c r="N455" s="118"/>
       <c r="O455" s="119"/>
@@ -22914,7 +22891,7 @@
       <c r="AI455" s="123"/>
       <c r="AJ455" s="120"/>
     </row>
-    <row r="456" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="13:36" ht="15.75" customHeight="1">
       <c r="M456" s="117"/>
       <c r="N456" s="118"/>
       <c r="O456" s="119"/>
@@ -22940,7 +22917,7 @@
       <c r="AI456" s="123"/>
       <c r="AJ456" s="120"/>
     </row>
-    <row r="457" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="13:36" ht="15.75" customHeight="1">
       <c r="M457" s="117"/>
       <c r="N457" s="118"/>
       <c r="O457" s="119"/>
@@ -22966,7 +22943,7 @@
       <c r="AI457" s="123"/>
       <c r="AJ457" s="120"/>
     </row>
-    <row r="458" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="13:36" ht="15.75" customHeight="1">
       <c r="M458" s="117"/>
       <c r="N458" s="118"/>
       <c r="O458" s="119"/>
@@ -22992,7 +22969,7 @@
       <c r="AI458" s="123"/>
       <c r="AJ458" s="120"/>
     </row>
-    <row r="459" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="13:36" ht="15.75" customHeight="1">
       <c r="M459" s="117"/>
       <c r="N459" s="118"/>
       <c r="O459" s="119"/>
@@ -23018,7 +22995,7 @@
       <c r="AI459" s="123"/>
       <c r="AJ459" s="120"/>
     </row>
-    <row r="460" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="13:36" ht="15.75" customHeight="1">
       <c r="M460" s="117"/>
       <c r="N460" s="118"/>
       <c r="O460" s="119"/>
@@ -23044,7 +23021,7 @@
       <c r="AI460" s="123"/>
       <c r="AJ460" s="120"/>
     </row>
-    <row r="461" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="13:36" ht="15.75" customHeight="1">
       <c r="M461" s="117"/>
       <c r="N461" s="118"/>
       <c r="O461" s="119"/>
@@ -23070,7 +23047,7 @@
       <c r="AI461" s="123"/>
       <c r="AJ461" s="120"/>
     </row>
-    <row r="462" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="13:36" ht="15.75" customHeight="1">
       <c r="M462" s="117"/>
       <c r="N462" s="118"/>
       <c r="O462" s="119"/>
@@ -23096,7 +23073,7 @@
       <c r="AI462" s="123"/>
       <c r="AJ462" s="120"/>
     </row>
-    <row r="463" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="13:36" ht="15.75" customHeight="1">
       <c r="M463" s="117"/>
       <c r="N463" s="118"/>
       <c r="O463" s="119"/>
@@ -23122,7 +23099,7 @@
       <c r="AI463" s="123"/>
       <c r="AJ463" s="120"/>
     </row>
-    <row r="464" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="13:36" ht="15.75" customHeight="1">
       <c r="M464" s="117"/>
       <c r="N464" s="118"/>
       <c r="O464" s="119"/>
@@ -23148,7 +23125,7 @@
       <c r="AI464" s="123"/>
       <c r="AJ464" s="120"/>
     </row>
-    <row r="465" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="13:36" ht="15.75" customHeight="1">
       <c r="M465" s="117"/>
       <c r="N465" s="118"/>
       <c r="O465" s="119"/>
@@ -23174,7 +23151,7 @@
       <c r="AI465" s="123"/>
       <c r="AJ465" s="120"/>
     </row>
-    <row r="466" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="13:36" ht="15.75" customHeight="1">
       <c r="M466" s="117"/>
       <c r="N466" s="118"/>
       <c r="O466" s="119"/>
@@ -23200,7 +23177,7 @@
       <c r="AI466" s="123"/>
       <c r="AJ466" s="120"/>
     </row>
-    <row r="467" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="13:36" ht="15.75" customHeight="1">
       <c r="M467" s="117"/>
       <c r="N467" s="118"/>
       <c r="O467" s="119"/>
@@ -23226,7 +23203,7 @@
       <c r="AI467" s="123"/>
       <c r="AJ467" s="120"/>
     </row>
-    <row r="468" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="13:36" ht="15.75" customHeight="1">
       <c r="M468" s="117"/>
       <c r="N468" s="118"/>
       <c r="O468" s="119"/>
@@ -23252,7 +23229,7 @@
       <c r="AI468" s="123"/>
       <c r="AJ468" s="120"/>
     </row>
-    <row r="469" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="13:36" ht="15.75" customHeight="1">
       <c r="M469" s="117"/>
       <c r="N469" s="118"/>
       <c r="O469" s="119"/>
@@ -23278,7 +23255,7 @@
       <c r="AI469" s="123"/>
       <c r="AJ469" s="120"/>
     </row>
-    <row r="470" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="13:36" ht="15.75" customHeight="1">
       <c r="M470" s="117"/>
       <c r="N470" s="118"/>
       <c r="O470" s="119"/>
@@ -23304,7 +23281,7 @@
       <c r="AI470" s="123"/>
       <c r="AJ470" s="120"/>
     </row>
-    <row r="471" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="13:36" ht="15.75" customHeight="1">
       <c r="M471" s="117"/>
       <c r="N471" s="118"/>
       <c r="O471" s="119"/>
@@ -23330,7 +23307,7 @@
       <c r="AI471" s="123"/>
       <c r="AJ471" s="120"/>
     </row>
-    <row r="472" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="13:36" ht="15.75" customHeight="1">
       <c r="M472" s="117"/>
       <c r="N472" s="118"/>
       <c r="O472" s="119"/>
@@ -23356,7 +23333,7 @@
       <c r="AI472" s="123"/>
       <c r="AJ472" s="120"/>
     </row>
-    <row r="473" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="13:36" ht="15.75" customHeight="1">
       <c r="M473" s="117"/>
       <c r="N473" s="118"/>
       <c r="O473" s="119"/>
@@ -23382,7 +23359,7 @@
       <c r="AI473" s="123"/>
       <c r="AJ473" s="120"/>
     </row>
-    <row r="474" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="13:36" ht="15.75" customHeight="1">
       <c r="M474" s="117"/>
       <c r="N474" s="118"/>
       <c r="O474" s="119"/>
@@ -23408,7 +23385,7 @@
       <c r="AI474" s="123"/>
       <c r="AJ474" s="120"/>
     </row>
-    <row r="475" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="13:36" ht="15.75" customHeight="1">
       <c r="M475" s="117"/>
       <c r="N475" s="118"/>
       <c r="O475" s="119"/>
@@ -23434,7 +23411,7 @@
       <c r="AI475" s="123"/>
       <c r="AJ475" s="120"/>
     </row>
-    <row r="476" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="13:36" ht="15.75" customHeight="1">
       <c r="M476" s="117"/>
       <c r="N476" s="118"/>
       <c r="O476" s="119"/>
@@ -23460,7 +23437,7 @@
       <c r="AI476" s="123"/>
       <c r="AJ476" s="120"/>
     </row>
-    <row r="477" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="13:36" ht="15.75" customHeight="1">
       <c r="M477" s="117"/>
       <c r="N477" s="118"/>
       <c r="O477" s="119"/>
@@ -23486,7 +23463,7 @@
       <c r="AI477" s="123"/>
       <c r="AJ477" s="120"/>
     </row>
-    <row r="478" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="13:36" ht="15.75" customHeight="1">
       <c r="M478" s="117"/>
       <c r="N478" s="118"/>
       <c r="O478" s="119"/>
@@ -23512,7 +23489,7 @@
       <c r="AI478" s="123"/>
       <c r="AJ478" s="120"/>
     </row>
-    <row r="479" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="13:36" ht="15.75" customHeight="1">
       <c r="M479" s="117"/>
       <c r="N479" s="118"/>
       <c r="O479" s="119"/>
@@ -23538,7 +23515,7 @@
       <c r="AI479" s="123"/>
       <c r="AJ479" s="120"/>
     </row>
-    <row r="480" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="13:36" ht="15.75" customHeight="1">
       <c r="M480" s="117"/>
       <c r="N480" s="118"/>
       <c r="O480" s="119"/>
@@ -23564,7 +23541,7 @@
       <c r="AI480" s="123"/>
       <c r="AJ480" s="120"/>
     </row>
-    <row r="481" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="13:36" ht="15.75" customHeight="1">
       <c r="M481" s="117"/>
       <c r="N481" s="118"/>
       <c r="O481" s="119"/>
@@ -23590,7 +23567,7 @@
       <c r="AI481" s="123"/>
       <c r="AJ481" s="120"/>
     </row>
-    <row r="482" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="13:36" ht="15.75" customHeight="1">
       <c r="M482" s="117"/>
       <c r="N482" s="118"/>
       <c r="O482" s="119"/>
@@ -23616,7 +23593,7 @@
       <c r="AI482" s="123"/>
       <c r="AJ482" s="120"/>
     </row>
-    <row r="483" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="13:36" ht="15.75" customHeight="1">
       <c r="M483" s="117"/>
       <c r="N483" s="118"/>
       <c r="O483" s="119"/>
@@ -23642,7 +23619,7 @@
       <c r="AI483" s="123"/>
       <c r="AJ483" s="120"/>
     </row>
-    <row r="484" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="13:36" ht="15.75" customHeight="1">
       <c r="M484" s="117"/>
       <c r="N484" s="118"/>
       <c r="O484" s="119"/>
@@ -23668,7 +23645,7 @@
       <c r="AI484" s="123"/>
       <c r="AJ484" s="120"/>
     </row>
-    <row r="485" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="13:36" ht="15.75" customHeight="1">
       <c r="M485" s="117"/>
       <c r="N485" s="118"/>
       <c r="O485" s="119"/>
@@ -23694,7 +23671,7 @@
       <c r="AI485" s="123"/>
       <c r="AJ485" s="120"/>
     </row>
-    <row r="486" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="13:36" ht="15.75" customHeight="1">
       <c r="M486" s="117"/>
       <c r="N486" s="118"/>
       <c r="O486" s="119"/>
@@ -23720,7 +23697,7 @@
       <c r="AI486" s="123"/>
       <c r="AJ486" s="120"/>
     </row>
-    <row r="487" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="13:36" ht="15.75" customHeight="1">
       <c r="M487" s="117"/>
       <c r="N487" s="118"/>
       <c r="O487" s="119"/>
@@ -23746,7 +23723,7 @@
       <c r="AI487" s="123"/>
       <c r="AJ487" s="120"/>
     </row>
-    <row r="488" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="13:36" ht="15.75" customHeight="1">
       <c r="M488" s="117"/>
       <c r="N488" s="118"/>
       <c r="O488" s="119"/>
@@ -23772,7 +23749,7 @@
       <c r="AI488" s="123"/>
       <c r="AJ488" s="120"/>
     </row>
-    <row r="489" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="13:36" ht="15.75" customHeight="1">
       <c r="M489" s="117"/>
       <c r="N489" s="118"/>
       <c r="O489" s="119"/>
@@ -23798,7 +23775,7 @@
       <c r="AI489" s="123"/>
       <c r="AJ489" s="120"/>
     </row>
-    <row r="490" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="13:36" ht="15.75" customHeight="1">
       <c r="M490" s="117"/>
       <c r="N490" s="118"/>
       <c r="O490" s="119"/>
@@ -23824,7 +23801,7 @@
       <c r="AI490" s="123"/>
       <c r="AJ490" s="120"/>
     </row>
-    <row r="491" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="13:36" ht="15.75" customHeight="1">
       <c r="M491" s="117"/>
       <c r="N491" s="118"/>
       <c r="O491" s="119"/>
@@ -23850,7 +23827,7 @@
       <c r="AI491" s="123"/>
       <c r="AJ491" s="120"/>
     </row>
-    <row r="492" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="13:36" ht="15.75" customHeight="1">
       <c r="M492" s="117"/>
       <c r="N492" s="118"/>
       <c r="O492" s="119"/>
@@ -23876,7 +23853,7 @@
       <c r="AI492" s="123"/>
       <c r="AJ492" s="120"/>
     </row>
-    <row r="493" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="13:36" ht="15.75" customHeight="1">
       <c r="M493" s="117"/>
       <c r="N493" s="118"/>
       <c r="O493" s="119"/>
@@ -23902,7 +23879,7 @@
       <c r="AI493" s="123"/>
       <c r="AJ493" s="120"/>
     </row>
-    <row r="494" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="13:36" ht="15.75" customHeight="1">
       <c r="M494" s="117"/>
       <c r="N494" s="118"/>
       <c r="O494" s="119"/>
@@ -23928,7 +23905,7 @@
       <c r="AI494" s="123"/>
       <c r="AJ494" s="120"/>
     </row>
-    <row r="495" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="13:36" ht="15.75" customHeight="1">
       <c r="M495" s="117"/>
       <c r="N495" s="118"/>
       <c r="O495" s="119"/>
@@ -23954,7 +23931,7 @@
       <c r="AI495" s="123"/>
       <c r="AJ495" s="120"/>
     </row>
-    <row r="496" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="13:36" ht="15.75" customHeight="1">
       <c r="M496" s="117"/>
       <c r="N496" s="118"/>
       <c r="O496" s="119"/>
@@ -23980,7 +23957,7 @@
       <c r="AI496" s="123"/>
       <c r="AJ496" s="120"/>
     </row>
-    <row r="497" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="13:36" ht="15.75" customHeight="1">
       <c r="M497" s="117"/>
       <c r="N497" s="118"/>
       <c r="O497" s="119"/>
@@ -24006,7 +23983,7 @@
       <c r="AI497" s="123"/>
       <c r="AJ497" s="120"/>
     </row>
-    <row r="498" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="13:36" ht="15.75" customHeight="1">
       <c r="M498" s="117"/>
       <c r="N498" s="118"/>
       <c r="O498" s="119"/>
@@ -24032,7 +24009,7 @@
       <c r="AI498" s="123"/>
       <c r="AJ498" s="120"/>
     </row>
-    <row r="499" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="13:36" ht="15.75" customHeight="1">
       <c r="M499" s="117"/>
       <c r="N499" s="118"/>
       <c r="O499" s="119"/>
@@ -24058,7 +24035,7 @@
       <c r="AI499" s="123"/>
       <c r="AJ499" s="120"/>
     </row>
-    <row r="500" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="13:36" ht="15.75" customHeight="1">
       <c r="M500" s="117"/>
       <c r="N500" s="118"/>
       <c r="O500" s="119"/>
@@ -24084,7 +24061,7 @@
       <c r="AI500" s="123"/>
       <c r="AJ500" s="120"/>
     </row>
-    <row r="501" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="13:36" ht="15.75" customHeight="1">
       <c r="M501" s="117"/>
       <c r="N501" s="118"/>
       <c r="O501" s="119"/>
@@ -24110,7 +24087,7 @@
       <c r="AI501" s="123"/>
       <c r="AJ501" s="120"/>
     </row>
-    <row r="502" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="13:36" ht="15.75" customHeight="1">
       <c r="M502" s="117"/>
       <c r="N502" s="118"/>
       <c r="O502" s="119"/>
@@ -24136,7 +24113,7 @@
       <c r="AI502" s="123"/>
       <c r="AJ502" s="120"/>
     </row>
-    <row r="503" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="13:36" ht="15.75" customHeight="1">
       <c r="M503" s="117"/>
       <c r="N503" s="118"/>
       <c r="O503" s="119"/>
@@ -24162,7 +24139,7 @@
       <c r="AI503" s="123"/>
       <c r="AJ503" s="120"/>
     </row>
-    <row r="504" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="13:36" ht="15.75" customHeight="1">
       <c r="M504" s="117"/>
       <c r="N504" s="118"/>
       <c r="O504" s="119"/>
@@ -24188,7 +24165,7 @@
       <c r="AI504" s="123"/>
       <c r="AJ504" s="120"/>
     </row>
-    <row r="505" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="13:36" ht="15.75" customHeight="1">
       <c r="M505" s="117"/>
       <c r="N505" s="118"/>
       <c r="O505" s="119"/>
@@ -24214,7 +24191,7 @@
       <c r="AI505" s="123"/>
       <c r="AJ505" s="120"/>
     </row>
-    <row r="506" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="13:36" ht="15.75" customHeight="1">
       <c r="M506" s="117"/>
       <c r="N506" s="118"/>
       <c r="O506" s="119"/>
@@ -24240,7 +24217,7 @@
       <c r="AI506" s="123"/>
       <c r="AJ506" s="120"/>
     </row>
-    <row r="507" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="13:36" ht="15.75" customHeight="1">
       <c r="M507" s="117"/>
       <c r="N507" s="118"/>
       <c r="O507" s="119"/>
@@ -24266,7 +24243,7 @@
       <c r="AI507" s="123"/>
       <c r="AJ507" s="120"/>
     </row>
-    <row r="508" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="13:36" ht="15.75" customHeight="1">
       <c r="M508" s="117"/>
       <c r="N508" s="118"/>
       <c r="O508" s="119"/>
@@ -24292,7 +24269,7 @@
       <c r="AI508" s="123"/>
       <c r="AJ508" s="120"/>
     </row>
-    <row r="509" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="13:36" ht="15.75" customHeight="1">
       <c r="M509" s="117"/>
       <c r="N509" s="118"/>
       <c r="O509" s="119"/>
@@ -24318,7 +24295,7 @@
       <c r="AI509" s="123"/>
       <c r="AJ509" s="120"/>
     </row>
-    <row r="510" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="13:36" ht="15.75" customHeight="1">
       <c r="M510" s="117"/>
       <c r="N510" s="118"/>
       <c r="O510" s="119"/>
@@ -24344,7 +24321,7 @@
       <c r="AI510" s="123"/>
       <c r="AJ510" s="120"/>
     </row>
-    <row r="511" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="13:36" ht="15.75" customHeight="1">
       <c r="M511" s="117"/>
       <c r="N511" s="118"/>
       <c r="O511" s="119"/>
@@ -24370,7 +24347,7 @@
       <c r="AI511" s="123"/>
       <c r="AJ511" s="120"/>
     </row>
-    <row r="512" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="13:36" ht="15.75" customHeight="1">
       <c r="M512" s="117"/>
       <c r="N512" s="118"/>
       <c r="O512" s="119"/>
@@ -24396,7 +24373,7 @@
       <c r="AI512" s="123"/>
       <c r="AJ512" s="120"/>
     </row>
-    <row r="513" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="13:36" ht="15.75" customHeight="1">
       <c r="M513" s="117"/>
       <c r="N513" s="118"/>
       <c r="O513" s="119"/>
@@ -24422,7 +24399,7 @@
       <c r="AI513" s="123"/>
       <c r="AJ513" s="120"/>
     </row>
-    <row r="514" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="13:36" ht="15.75" customHeight="1">
       <c r="M514" s="117"/>
       <c r="N514" s="118"/>
       <c r="O514" s="119"/>
@@ -24448,7 +24425,7 @@
       <c r="AI514" s="123"/>
       <c r="AJ514" s="120"/>
     </row>
-    <row r="515" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="13:36" ht="15.75" customHeight="1">
       <c r="M515" s="117"/>
       <c r="N515" s="118"/>
       <c r="O515" s="119"/>
@@ -24474,7 +24451,7 @@
       <c r="AI515" s="123"/>
       <c r="AJ515" s="120"/>
     </row>
-    <row r="516" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="13:36" ht="15.75" customHeight="1">
       <c r="M516" s="117"/>
       <c r="N516" s="118"/>
       <c r="O516" s="119"/>
@@ -24500,7 +24477,7 @@
       <c r="AI516" s="123"/>
       <c r="AJ516" s="120"/>
     </row>
-    <row r="517" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="13:36" ht="15.75" customHeight="1">
       <c r="M517" s="117"/>
       <c r="N517" s="118"/>
       <c r="O517" s="119"/>
@@ -24526,7 +24503,7 @@
       <c r="AI517" s="123"/>
       <c r="AJ517" s="120"/>
     </row>
-    <row r="518" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="13:36" ht="15.75" customHeight="1">
       <c r="M518" s="117"/>
       <c r="N518" s="118"/>
       <c r="O518" s="119"/>
@@ -24552,7 +24529,7 @@
       <c r="AI518" s="123"/>
       <c r="AJ518" s="120"/>
     </row>
-    <row r="519" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="13:36" ht="15.75" customHeight="1">
       <c r="M519" s="117"/>
       <c r="N519" s="118"/>
       <c r="O519" s="119"/>
@@ -24578,7 +24555,7 @@
       <c r="AI519" s="123"/>
       <c r="AJ519" s="120"/>
     </row>
-    <row r="520" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="13:36" ht="15.75" customHeight="1">
       <c r="M520" s="117"/>
       <c r="N520" s="118"/>
       <c r="O520" s="119"/>
@@ -24604,7 +24581,7 @@
       <c r="AI520" s="123"/>
       <c r="AJ520" s="120"/>
     </row>
-    <row r="521" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="13:36" ht="15.75" customHeight="1">
       <c r="M521" s="117"/>
       <c r="N521" s="118"/>
       <c r="O521" s="119"/>
@@ -24630,7 +24607,7 @@
       <c r="AI521" s="123"/>
       <c r="AJ521" s="120"/>
     </row>
-    <row r="522" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="13:36" ht="15.75" customHeight="1">
       <c r="M522" s="117"/>
       <c r="N522" s="118"/>
       <c r="O522" s="119"/>
@@ -24656,7 +24633,7 @@
       <c r="AI522" s="123"/>
       <c r="AJ522" s="120"/>
     </row>
-    <row r="523" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="13:36" ht="15.75" customHeight="1">
       <c r="M523" s="117"/>
       <c r="N523" s="118"/>
       <c r="O523" s="119"/>
@@ -24682,7 +24659,7 @@
       <c r="AI523" s="123"/>
       <c r="AJ523" s="120"/>
     </row>
-    <row r="524" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="13:36" ht="15.75" customHeight="1">
       <c r="M524" s="117"/>
       <c r="N524" s="118"/>
       <c r="O524" s="119"/>
@@ -24708,7 +24685,7 @@
       <c r="AI524" s="123"/>
       <c r="AJ524" s="120"/>
     </row>
-    <row r="525" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="13:36" ht="15.75" customHeight="1">
       <c r="M525" s="117"/>
       <c r="N525" s="118"/>
       <c r="O525" s="119"/>
@@ -24734,7 +24711,7 @@
       <c r="AI525" s="123"/>
       <c r="AJ525" s="120"/>
     </row>
-    <row r="526" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="13:36" ht="15.75" customHeight="1">
       <c r="M526" s="117"/>
       <c r="N526" s="118"/>
       <c r="O526" s="119"/>
@@ -24760,7 +24737,7 @@
       <c r="AI526" s="123"/>
       <c r="AJ526" s="120"/>
     </row>
-    <row r="527" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="13:36" ht="15.75" customHeight="1">
       <c r="M527" s="117"/>
       <c r="N527" s="118"/>
       <c r="O527" s="119"/>
@@ -24786,7 +24763,7 @@
       <c r="AI527" s="123"/>
       <c r="AJ527" s="120"/>
     </row>
-    <row r="528" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="13:36" ht="15.75" customHeight="1">
       <c r="M528" s="117"/>
       <c r="N528" s="118"/>
       <c r="O528" s="119"/>
@@ -24812,7 +24789,7 @@
       <c r="AI528" s="123"/>
       <c r="AJ528" s="120"/>
     </row>
-    <row r="529" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="13:36" ht="15.75" customHeight="1">
       <c r="M529" s="117"/>
       <c r="N529" s="118"/>
       <c r="O529" s="119"/>
@@ -24838,7 +24815,7 @@
       <c r="AI529" s="123"/>
       <c r="AJ529" s="120"/>
     </row>
-    <row r="530" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="13:36" ht="15.75" customHeight="1">
       <c r="M530" s="117"/>
       <c r="N530" s="118"/>
       <c r="O530" s="119"/>
@@ -24864,7 +24841,7 @@
       <c r="AI530" s="123"/>
       <c r="AJ530" s="120"/>
     </row>
-    <row r="531" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="13:36" ht="15.75" customHeight="1">
       <c r="M531" s="117"/>
       <c r="N531" s="118"/>
       <c r="O531" s="119"/>
@@ -24890,7 +24867,7 @@
       <c r="AI531" s="123"/>
       <c r="AJ531" s="120"/>
     </row>
-    <row r="532" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="13:36" ht="15.75" customHeight="1">
       <c r="M532" s="117"/>
       <c r="N532" s="118"/>
       <c r="O532" s="119"/>
@@ -24916,7 +24893,7 @@
       <c r="AI532" s="123"/>
       <c r="AJ532" s="120"/>
     </row>
-    <row r="533" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="13:36" ht="15.75" customHeight="1">
       <c r="M533" s="117"/>
       <c r="N533" s="118"/>
       <c r="O533" s="119"/>
@@ -24942,7 +24919,7 @@
       <c r="AI533" s="123"/>
       <c r="AJ533" s="120"/>
     </row>
-    <row r="534" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="13:36" ht="15.75" customHeight="1">
       <c r="M534" s="117"/>
       <c r="N534" s="118"/>
       <c r="O534" s="119"/>
@@ -24968,7 +24945,7 @@
       <c r="AI534" s="123"/>
       <c r="AJ534" s="120"/>
     </row>
-    <row r="535" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="13:36" ht="15.75" customHeight="1">
       <c r="M535" s="117"/>
       <c r="N535" s="118"/>
       <c r="O535" s="119"/>
@@ -24994,7 +24971,7 @@
       <c r="AI535" s="123"/>
       <c r="AJ535" s="120"/>
     </row>
-    <row r="536" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="13:36" ht="15.75" customHeight="1">
       <c r="M536" s="117"/>
       <c r="N536" s="118"/>
       <c r="O536" s="119"/>
@@ -25020,7 +24997,7 @@
       <c r="AI536" s="123"/>
       <c r="AJ536" s="120"/>
     </row>
-    <row r="537" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="13:36" ht="15.75" customHeight="1">
       <c r="M537" s="117"/>
       <c r="N537" s="118"/>
       <c r="O537" s="119"/>
@@ -25046,7 +25023,7 @@
       <c r="AI537" s="123"/>
       <c r="AJ537" s="120"/>
     </row>
-    <row r="538" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="13:36" ht="15.75" customHeight="1">
       <c r="M538" s="117"/>
       <c r="N538" s="118"/>
       <c r="O538" s="119"/>
@@ -25072,7 +25049,7 @@
       <c r="AI538" s="123"/>
       <c r="AJ538" s="120"/>
     </row>
-    <row r="539" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="13:36" ht="15.75" customHeight="1">
       <c r="M539" s="117"/>
       <c r="N539" s="118"/>
       <c r="O539" s="119"/>
@@ -25098,7 +25075,7 @@
       <c r="AI539" s="123"/>
       <c r="AJ539" s="120"/>
     </row>
-    <row r="540" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="13:36" ht="15.75" customHeight="1">
       <c r="M540" s="117"/>
       <c r="N540" s="118"/>
       <c r="O540" s="119"/>
@@ -25124,7 +25101,7 @@
       <c r="AI540" s="123"/>
       <c r="AJ540" s="120"/>
     </row>
-    <row r="541" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="13:36" ht="15.75" customHeight="1">
       <c r="M541" s="117"/>
       <c r="N541" s="118"/>
       <c r="O541" s="119"/>
@@ -25150,7 +25127,7 @@
       <c r="AI541" s="123"/>
       <c r="AJ541" s="120"/>
     </row>
-    <row r="542" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="13:36" ht="15.75" customHeight="1">
       <c r="M542" s="117"/>
       <c r="N542" s="118"/>
       <c r="O542" s="119"/>
@@ -25176,7 +25153,7 @@
       <c r="AI542" s="123"/>
       <c r="AJ542" s="120"/>
     </row>
-    <row r="543" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="13:36" ht="15.75" customHeight="1">
       <c r="M543" s="117"/>
       <c r="N543" s="118"/>
       <c r="O543" s="119"/>
@@ -25202,7 +25179,7 @@
       <c r="AI543" s="123"/>
       <c r="AJ543" s="120"/>
     </row>
-    <row r="544" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="13:36" ht="15.75" customHeight="1">
       <c r="M544" s="117"/>
       <c r="N544" s="118"/>
       <c r="O544" s="119"/>
@@ -25228,7 +25205,7 @@
       <c r="AI544" s="123"/>
       <c r="AJ544" s="120"/>
     </row>
-    <row r="545" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="13:36" ht="15.75" customHeight="1">
       <c r="M545" s="117"/>
       <c r="N545" s="118"/>
       <c r="O545" s="119"/>
@@ -25254,7 +25231,7 @@
       <c r="AI545" s="123"/>
       <c r="AJ545" s="120"/>
     </row>
-    <row r="546" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="13:36" ht="15.75" customHeight="1">
       <c r="M546" s="117"/>
       <c r="N546" s="118"/>
       <c r="O546" s="119"/>
@@ -25280,7 +25257,7 @@
       <c r="AI546" s="123"/>
       <c r="AJ546" s="120"/>
     </row>
-    <row r="547" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="13:36" ht="15.75" customHeight="1">
       <c r="M547" s="117"/>
       <c r="N547" s="118"/>
       <c r="O547" s="119"/>
@@ -25306,7 +25283,7 @@
       <c r="AI547" s="123"/>
       <c r="AJ547" s="120"/>
     </row>
-    <row r="548" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="13:36" ht="15.75" customHeight="1">
       <c r="M548" s="117"/>
       <c r="N548" s="118"/>
       <c r="O548" s="119"/>
@@ -25332,7 +25309,7 @@
       <c r="AI548" s="123"/>
       <c r="AJ548" s="120"/>
     </row>
-    <row r="549" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="13:36" ht="15.75" customHeight="1">
       <c r="M549" s="117"/>
       <c r="N549" s="118"/>
       <c r="O549" s="119"/>
@@ -25358,7 +25335,7 @@
       <c r="AI549" s="123"/>
       <c r="AJ549" s="120"/>
     </row>
-    <row r="550" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="13:36" ht="15.75" customHeight="1">
       <c r="M550" s="117"/>
       <c r="N550" s="118"/>
       <c r="O550" s="119"/>
@@ -25384,7 +25361,7 @@
       <c r="AI550" s="123"/>
       <c r="AJ550" s="120"/>
     </row>
-    <row r="551" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="13:36" ht="15.75" customHeight="1">
       <c r="M551" s="117"/>
       <c r="N551" s="118"/>
       <c r="O551" s="119"/>
@@ -25410,7 +25387,7 @@
       <c r="AI551" s="123"/>
       <c r="AJ551" s="120"/>
     </row>
-    <row r="552" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="13:36" ht="15.75" customHeight="1">
       <c r="M552" s="117"/>
       <c r="N552" s="118"/>
       <c r="O552" s="119"/>
@@ -25436,7 +25413,7 @@
       <c r="AI552" s="123"/>
       <c r="AJ552" s="120"/>
     </row>
-    <row r="553" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="13:36" ht="15.75" customHeight="1">
       <c r="M553" s="117"/>
       <c r="N553" s="118"/>
       <c r="O553" s="119"/>
@@ -25462,7 +25439,7 @@
       <c r="AI553" s="123"/>
       <c r="AJ553" s="120"/>
     </row>
-    <row r="554" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="13:36" ht="15.75" customHeight="1">
       <c r="M554" s="117"/>
       <c r="N554" s="118"/>
       <c r="O554" s="119"/>
@@ -25488,7 +25465,7 @@
       <c r="AI554" s="123"/>
       <c r="AJ554" s="120"/>
     </row>
-    <row r="555" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="13:36" ht="15.75" customHeight="1">
       <c r="M555" s="117"/>
       <c r="N555" s="118"/>
       <c r="O555" s="119"/>
@@ -25514,7 +25491,7 @@
       <c r="AI555" s="123"/>
       <c r="AJ555" s="120"/>
     </row>
-    <row r="556" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="13:36" ht="15.75" customHeight="1">
       <c r="M556" s="117"/>
       <c r="N556" s="118"/>
       <c r="O556" s="119"/>
@@ -25540,7 +25517,7 @@
       <c r="AI556" s="123"/>
       <c r="AJ556" s="120"/>
     </row>
-    <row r="557" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="13:36" ht="15.75" customHeight="1">
       <c r="M557" s="117"/>
       <c r="N557" s="118"/>
       <c r="O557" s="119"/>
@@ -25566,7 +25543,7 @@
       <c r="AI557" s="123"/>
       <c r="AJ557" s="120"/>
     </row>
-    <row r="558" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="13:36" ht="15.75" customHeight="1">
       <c r="M558" s="117"/>
       <c r="N558" s="118"/>
       <c r="O558" s="119"/>
@@ -25592,7 +25569,7 @@
       <c r="AI558" s="123"/>
       <c r="AJ558" s="120"/>
     </row>
-    <row r="559" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="13:36" ht="15.75" customHeight="1">
       <c r="M559" s="117"/>
       <c r="N559" s="118"/>
       <c r="O559" s="119"/>
@@ -25618,7 +25595,7 @@
       <c r="AI559" s="123"/>
       <c r="AJ559" s="120"/>
     </row>
-    <row r="560" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="13:36" ht="15.75" customHeight="1">
       <c r="M560" s="117"/>
       <c r="N560" s="118"/>
       <c r="O560" s="119"/>
@@ -25644,7 +25621,7 @@
       <c r="AI560" s="123"/>
       <c r="AJ560" s="120"/>
     </row>
-    <row r="561" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="13:36" ht="15.75" customHeight="1">
       <c r="M561" s="117"/>
       <c r="N561" s="118"/>
       <c r="O561" s="119"/>
@@ -25670,7 +25647,7 @@
       <c r="AI561" s="123"/>
       <c r="AJ561" s="120"/>
     </row>
-    <row r="562" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="13:36" ht="15.75" customHeight="1">
       <c r="M562" s="117"/>
       <c r="N562" s="118"/>
       <c r="O562" s="119"/>
@@ -25696,7 +25673,7 @@
       <c r="AI562" s="123"/>
       <c r="AJ562" s="120"/>
     </row>
-    <row r="563" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="13:36" ht="15.75" customHeight="1">
       <c r="M563" s="117"/>
       <c r="N563" s="118"/>
       <c r="O563" s="119"/>
@@ -25722,7 +25699,7 @@
       <c r="AI563" s="123"/>
       <c r="AJ563" s="120"/>
     </row>
-    <row r="564" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="13:36" ht="15.75" customHeight="1">
       <c r="M564" s="117"/>
       <c r="N564" s="118"/>
       <c r="O564" s="119"/>
@@ -25748,7 +25725,7 @@
       <c r="AI564" s="123"/>
       <c r="AJ564" s="120"/>
     </row>
-    <row r="565" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="13:36" ht="15.75" customHeight="1">
       <c r="M565" s="117"/>
       <c r="N565" s="118"/>
       <c r="O565" s="119"/>
@@ -25774,7 +25751,7 @@
       <c r="AI565" s="123"/>
       <c r="AJ565" s="120"/>
     </row>
-    <row r="566" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="13:36" ht="15.75" customHeight="1">
       <c r="M566" s="117"/>
       <c r="N566" s="118"/>
       <c r="O566" s="119"/>
@@ -25800,7 +25777,7 @@
       <c r="AI566" s="123"/>
       <c r="AJ566" s="120"/>
     </row>
-    <row r="567" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="13:36" ht="15.75" customHeight="1">
       <c r="M567" s="117"/>
       <c r="N567" s="118"/>
       <c r="O567" s="119"/>
@@ -25826,7 +25803,7 @@
       <c r="AI567" s="123"/>
       <c r="AJ567" s="120"/>
     </row>
-    <row r="568" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="13:36" ht="15.75" customHeight="1">
       <c r="M568" s="117"/>
       <c r="N568" s="118"/>
       <c r="O568" s="119"/>
@@ -25852,7 +25829,7 @@
       <c r="AI568" s="123"/>
       <c r="AJ568" s="120"/>
     </row>
-    <row r="569" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="13:36" ht="15.75" customHeight="1">
       <c r="M569" s="117"/>
       <c r="N569" s="118"/>
       <c r="O569" s="119"/>
@@ -25878,7 +25855,7 @@
       <c r="AI569" s="123"/>
       <c r="AJ569" s="120"/>
     </row>
-    <row r="570" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="13:36" ht="15.75" customHeight="1">
       <c r="M570" s="117"/>
       <c r="N570" s="118"/>
       <c r="O570" s="119"/>
@@ -25904,7 +25881,7 @@
       <c r="AI570" s="123"/>
       <c r="AJ570" s="120"/>
     </row>
-    <row r="571" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="13:36" ht="15.75" customHeight="1">
       <c r="M571" s="117"/>
       <c r="N571" s="118"/>
       <c r="O571" s="119"/>
@@ -25930,7 +25907,7 @@
       <c r="AI571" s="123"/>
       <c r="AJ571" s="120"/>
     </row>
-    <row r="572" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="13:36" ht="15.75" customHeight="1">
       <c r="M572" s="117"/>
       <c r="N572" s="118"/>
       <c r="O572" s="119"/>
@@ -25956,7 +25933,7 @@
       <c r="AI572" s="123"/>
       <c r="AJ572" s="120"/>
     </row>
-    <row r="573" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="13:36" ht="15.75" customHeight="1">
       <c r="M573" s="117"/>
       <c r="N573" s="118"/>
       <c r="O573" s="119"/>
@@ -25982,7 +25959,7 @@
       <c r="AI573" s="123"/>
       <c r="AJ573" s="120"/>
     </row>
-    <row r="574" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="13:36" ht="15.75" customHeight="1">
       <c r="M574" s="117"/>
       <c r="N574" s="118"/>
       <c r="O574" s="119"/>
@@ -26008,7 +25985,7 @@
       <c r="AI574" s="123"/>
       <c r="AJ574" s="120"/>
     </row>
-    <row r="575" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="13:36" ht="15.75" customHeight="1">
       <c r="M575" s="117"/>
       <c r="N575" s="118"/>
       <c r="O575" s="119"/>
@@ -26034,7 +26011,7 @@
       <c r="AI575" s="123"/>
       <c r="AJ575" s="120"/>
     </row>
-    <row r="576" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="13:36" ht="15.75" customHeight="1">
       <c r="M576" s="117"/>
       <c r="N576" s="118"/>
       <c r="O576" s="119"/>
@@ -26060,7 +26037,7 @@
       <c r="AI576" s="123"/>
       <c r="AJ576" s="120"/>
     </row>
-    <row r="577" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="13:36" ht="15.75" customHeight="1">
       <c r="M577" s="117"/>
       <c r="N577" s="118"/>
       <c r="O577" s="119"/>
@@ -26086,7 +26063,7 @@
       <c r="AI577" s="123"/>
       <c r="AJ577" s="120"/>
     </row>
-    <row r="578" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="13:36" ht="15.75" customHeight="1">
       <c r="M578" s="117"/>
       <c r="N578" s="118"/>
       <c r="O578" s="119"/>
@@ -26112,7 +26089,7 @@
       <c r="AI578" s="123"/>
       <c r="AJ578" s="120"/>
     </row>
-    <row r="579" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="13:36" ht="15.75" customHeight="1">
       <c r="M579" s="117"/>
       <c r="N579" s="118"/>
       <c r="O579" s="119"/>
@@ -26138,7 +26115,7 @@
       <c r="AI579" s="123"/>
       <c r="AJ579" s="120"/>
     </row>
-    <row r="580" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="13:36" ht="15.75" customHeight="1">
       <c r="M580" s="117"/>
       <c r="N580" s="118"/>
       <c r="O580" s="119"/>
@@ -26164,7 +26141,7 @@
       <c r="AI580" s="123"/>
       <c r="AJ580" s="120"/>
     </row>
-    <row r="581" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="13:36" ht="15.75" customHeight="1">
       <c r="M581" s="117"/>
       <c r="N581" s="118"/>
       <c r="O581" s="119"/>
@@ -26190,7 +26167,7 @@
       <c r="AI581" s="123"/>
       <c r="AJ581" s="120"/>
     </row>
-    <row r="582" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="13:36" ht="15.75" customHeight="1">
       <c r="M582" s="117"/>
       <c r="N582" s="118"/>
       <c r="O582" s="119"/>
@@ -26216,7 +26193,7 @@
       <c r="AI582" s="123"/>
       <c r="AJ582" s="120"/>
     </row>
-    <row r="583" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="13:36" ht="15.75" customHeight="1">
       <c r="M583" s="117"/>
       <c r="N583" s="118"/>
       <c r="O583" s="119"/>
@@ -26242,7 +26219,7 @@
       <c r="AI583" s="123"/>
       <c r="AJ583" s="120"/>
     </row>
-    <row r="584" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="13:36" ht="15.75" customHeight="1">
       <c r="M584" s="117"/>
       <c r="N584" s="118"/>
       <c r="O584" s="119"/>
@@ -26268,7 +26245,7 @@
       <c r="AI584" s="123"/>
       <c r="AJ584" s="120"/>
     </row>
-    <row r="585" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="13:36" ht="15.75" customHeight="1">
       <c r="M585" s="117"/>
       <c r="N585" s="118"/>
       <c r="O585" s="119"/>
@@ -26294,7 +26271,7 @@
       <c r="AI585" s="123"/>
       <c r="AJ585" s="120"/>
     </row>
-    <row r="586" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="13:36" ht="15.75" customHeight="1">
       <c r="M586" s="117"/>
       <c r="N586" s="118"/>
       <c r="O586" s="119"/>
@@ -26320,7 +26297,7 @@
       <c r="AI586" s="123"/>
       <c r="AJ586" s="120"/>
     </row>
-    <row r="587" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="13:36" ht="15.75" customHeight="1">
       <c r="M587" s="117"/>
       <c r="N587" s="118"/>
       <c r="O587" s="119"/>
@@ -26346,7 +26323,7 @@
       <c r="AI587" s="123"/>
       <c r="AJ587" s="120"/>
     </row>
-    <row r="588" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="13:36" ht="15.75" customHeight="1">
       <c r="M588" s="117"/>
       <c r="N588" s="118"/>
       <c r="O588" s="119"/>
@@ -26372,7 +26349,7 @@
       <c r="AI588" s="123"/>
       <c r="AJ588" s="120"/>
     </row>
-    <row r="589" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="13:36" ht="15.75" customHeight="1">
       <c r="M589" s="117"/>
       <c r="N589" s="118"/>
       <c r="O589" s="119"/>
@@ -26398,7 +26375,7 @@
       <c r="AI589" s="123"/>
       <c r="AJ589" s="120"/>
     </row>
-    <row r="590" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="13:36" ht="15.75" customHeight="1">
       <c r="M590" s="117"/>
       <c r="N590" s="118"/>
       <c r="O590" s="119"/>
@@ -26424,7 +26401,7 @@
       <c r="AI590" s="123"/>
       <c r="AJ590" s="120"/>
     </row>
-    <row r="591" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="13:36" ht="15.75" customHeight="1">
       <c r="M591" s="117"/>
       <c r="N591" s="118"/>
       <c r="O591" s="119"/>
@@ -26450,7 +26427,7 @@
       <c r="AI591" s="123"/>
       <c r="AJ591" s="120"/>
     </row>
-    <row r="592" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="13:36" ht="15.75" customHeight="1">
       <c r="M592" s="117"/>
       <c r="N592" s="118"/>
       <c r="O592" s="119"/>
@@ -26476,7 +26453,7 @@
       <c r="AI592" s="123"/>
       <c r="AJ592" s="120"/>
     </row>
-    <row r="593" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="13:36" ht="15.75" customHeight="1">
       <c r="M593" s="117"/>
       <c r="N593" s="118"/>
       <c r="O593" s="119"/>
@@ -26502,7 +26479,7 @@
       <c r="AI593" s="123"/>
       <c r="AJ593" s="120"/>
     </row>
-    <row r="594" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="13:36" ht="15.75" customHeight="1">
       <c r="M594" s="117"/>
       <c r="N594" s="118"/>
       <c r="O594" s="119"/>
@@ -26528,7 +26505,7 @@
       <c r="AI594" s="123"/>
       <c r="AJ594" s="120"/>
     </row>
-    <row r="595" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="13:36" ht="15.75" customHeight="1">
       <c r="M595" s="117"/>
       <c r="N595" s="118"/>
       <c r="O595" s="119"/>
@@ -26554,7 +26531,7 @@
       <c r="AI595" s="123"/>
       <c r="AJ595" s="120"/>
     </row>
-    <row r="596" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="13:36" ht="15.75" customHeight="1">
       <c r="M596" s="117"/>
       <c r="N596" s="118"/>
       <c r="O596" s="119"/>
@@ -26580,7 +26557,7 @@
       <c r="AI596" s="123"/>
       <c r="AJ596" s="120"/>
     </row>
-    <row r="597" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="13:36" ht="15.75" customHeight="1">
       <c r="M597" s="117"/>
       <c r="N597" s="118"/>
       <c r="O597" s="119"/>
@@ -26606,7 +26583,7 @@
       <c r="AI597" s="123"/>
       <c r="AJ597" s="120"/>
     </row>
-    <row r="598" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="13:36" ht="15.75" customHeight="1">
       <c r="M598" s="117"/>
       <c r="N598" s="118"/>
       <c r="O598" s="119"/>
@@ -26632,7 +26609,7 @@
       <c r="AI598" s="123"/>
       <c r="AJ598" s="120"/>
     </row>
-    <row r="599" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="13:36" ht="15.75" customHeight="1">
       <c r="M599" s="117"/>
       <c r="N599" s="118"/>
       <c r="O599" s="119"/>
@@ -26658,7 +26635,7 @@
       <c r="AI599" s="123"/>
       <c r="AJ599" s="120"/>
     </row>
-    <row r="600" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="13:36" ht="15.75" customHeight="1">
       <c r="M600" s="117"/>
       <c r="N600" s="118"/>
       <c r="O600" s="119"/>
@@ -26684,7 +26661,7 @@
       <c r="AI600" s="123"/>
       <c r="AJ600" s="120"/>
     </row>
-    <row r="601" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="13:36" ht="15.75" customHeight="1">
       <c r="M601" s="117"/>
       <c r="N601" s="118"/>
       <c r="O601" s="119"/>
@@ -26710,7 +26687,7 @@
       <c r="AI601" s="123"/>
       <c r="AJ601" s="120"/>
     </row>
-    <row r="602" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="13:36" ht="15.75" customHeight="1">
       <c r="M602" s="117"/>
       <c r="N602" s="118"/>
       <c r="O602" s="119"/>
@@ -26736,7 +26713,7 @@
       <c r="AI602" s="123"/>
       <c r="AJ602" s="120"/>
     </row>
-    <row r="603" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="13:36" ht="15.75" customHeight="1">
       <c r="M603" s="117"/>
       <c r="N603" s="118"/>
       <c r="O603" s="119"/>
@@ -26762,7 +26739,7 @@
       <c r="AI603" s="123"/>
       <c r="AJ603" s="120"/>
     </row>
-    <row r="604" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="13:36" ht="15.75" customHeight="1">
       <c r="M604" s="117"/>
       <c r="N604" s="118"/>
       <c r="O604" s="119"/>
@@ -26788,7 +26765,7 @@
       <c r="AI604" s="123"/>
       <c r="AJ604" s="120"/>
     </row>
-    <row r="605" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="13:36" ht="15.75" customHeight="1">
       <c r="M605" s="117"/>
       <c r="N605" s="118"/>
       <c r="O605" s="119"/>
@@ -26814,7 +26791,7 @@
       <c r="AI605" s="123"/>
       <c r="AJ605" s="120"/>
     </row>
-    <row r="606" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="13:36" ht="15.75" customHeight="1">
       <c r="M606" s="117"/>
       <c r="N606" s="118"/>
       <c r="O606" s="119"/>
@@ -26840,7 +26817,7 @@
       <c r="AI606" s="123"/>
       <c r="AJ606" s="120"/>
     </row>
-    <row r="607" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="13:36" ht="15.75" customHeight="1">
       <c r="M607" s="117"/>
       <c r="N607" s="118"/>
       <c r="O607" s="119"/>
@@ -26866,7 +26843,7 @@
       <c r="AI607" s="123"/>
       <c r="AJ607" s="120"/>
     </row>
-    <row r="608" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="13:36" ht="15.75" customHeight="1">
       <c r="M608" s="117"/>
       <c r="N608" s="118"/>
       <c r="O608" s="119"/>
@@ -26892,7 +26869,7 @@
       <c r="AI608" s="123"/>
       <c r="AJ608" s="120"/>
     </row>
-    <row r="609" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="13:36" ht="15.75" customHeight="1">
       <c r="M609" s="117"/>
       <c r="N609" s="118"/>
       <c r="O609" s="119"/>
@@ -26918,7 +26895,7 @@
       <c r="AI609" s="123"/>
       <c r="AJ609" s="120"/>
     </row>
-    <row r="610" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="13:36" ht="15.75" customHeight="1">
       <c r="M610" s="117"/>
       <c r="N610" s="118"/>
       <c r="O610" s="119"/>
@@ -26944,7 +26921,7 @@
       <c r="AI610" s="123"/>
       <c r="AJ610" s="120"/>
     </row>
-    <row r="611" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="13:36" ht="15.75" customHeight="1">
       <c r="M611" s="117"/>
       <c r="N611" s="118"/>
       <c r="O611" s="119"/>
@@ -26970,7 +26947,7 @@
       <c r="AI611" s="123"/>
       <c r="AJ611" s="120"/>
     </row>
-    <row r="612" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="13:36" ht="15.75" customHeight="1">
       <c r="M612" s="117"/>
       <c r="N612" s="118"/>
       <c r="O612" s="119"/>
@@ -26996,7 +26973,7 @@
       <c r="AI612" s="123"/>
       <c r="AJ612" s="120"/>
     </row>
-    <row r="613" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="13:36" ht="15.75" customHeight="1">
       <c r="M613" s="117"/>
       <c r="N613" s="118"/>
       <c r="O613" s="119"/>
@@ -27022,7 +26999,7 @@
       <c r="AI613" s="123"/>
       <c r="AJ613" s="120"/>
     </row>
-    <row r="614" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="13:36" ht="15.75" customHeight="1">
       <c r="M614" s="117"/>
       <c r="N614" s="118"/>
       <c r="O614" s="119"/>
@@ -27048,7 +27025,7 @@
       <c r="AI614" s="123"/>
       <c r="AJ614" s="120"/>
     </row>
-    <row r="615" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="13:36" ht="15.75" customHeight="1">
       <c r="M615" s="117"/>
       <c r="N615" s="118"/>
       <c r="O615" s="119"/>
@@ -27074,7 +27051,7 @@
       <c r="AI615" s="123"/>
       <c r="AJ615" s="120"/>
     </row>
-    <row r="616" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="13:36" ht="15.75" customHeight="1">
       <c r="M616" s="117"/>
       <c r="N616" s="118"/>
       <c r="O616" s="119"/>
@@ -27100,7 +27077,7 @@
       <c r="AI616" s="123"/>
       <c r="AJ616" s="120"/>
     </row>
-    <row r="617" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="13:36" ht="15.75" customHeight="1">
       <c r="M617" s="117"/>
       <c r="N617" s="118"/>
       <c r="O617" s="119"/>
@@ -27126,7 +27103,7 @@
       <c r="AI617" s="123"/>
       <c r="AJ617" s="120"/>
     </row>
-    <row r="618" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="13:36" ht="15.75" customHeight="1">
       <c r="M618" s="117"/>
       <c r="N618" s="118"/>
       <c r="O618" s="119"/>
@@ -27152,7 +27129,7 @@
       <c r="AI618" s="123"/>
       <c r="AJ618" s="120"/>
     </row>
-    <row r="619" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="13:36" ht="15.75" customHeight="1">
       <c r="M619" s="117"/>
       <c r="N619" s="118"/>
       <c r="O619" s="119"/>
@@ -27178,7 +27155,7 @@
       <c r="AI619" s="123"/>
       <c r="AJ619" s="120"/>
     </row>
-    <row r="620" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="13:36" ht="15.75" customHeight="1">
       <c r="M620" s="117"/>
       <c r="N620" s="118"/>
       <c r="O620" s="119"/>
@@ -27204,7 +27181,7 @@
       <c r="AI620" s="123"/>
       <c r="AJ620" s="120"/>
     </row>
-    <row r="621" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="13:36" ht="15.75" customHeight="1">
       <c r="M621" s="117"/>
       <c r="N621" s="118"/>
       <c r="O621" s="119"/>
@@ -27230,7 +27207,7 @@
       <c r="AI621" s="123"/>
       <c r="AJ621" s="120"/>
     </row>
-    <row r="622" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="13:36" ht="15.75" customHeight="1">
       <c r="M622" s="117"/>
       <c r="N622" s="118"/>
       <c r="O622" s="119"/>
@@ -27256,7 +27233,7 @@
       <c r="AI622" s="123"/>
       <c r="AJ622" s="120"/>
     </row>
-    <row r="623" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="13:36" ht="15.75" customHeight="1">
       <c r="M623" s="117"/>
       <c r="N623" s="118"/>
       <c r="O623" s="119"/>
@@ -27282,7 +27259,7 @@
       <c r="AI623" s="123"/>
       <c r="AJ623" s="120"/>
     </row>
-    <row r="624" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="13:36" ht="15.75" customHeight="1">
       <c r="M624" s="117"/>
       <c r="N624" s="118"/>
       <c r="O624" s="119"/>
@@ -27308,7 +27285,7 @@
       <c r="AI624" s="123"/>
       <c r="AJ624" s="120"/>
     </row>
-    <row r="625" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="13:36" ht="15.75" customHeight="1">
       <c r="M625" s="117"/>
       <c r="N625" s="118"/>
       <c r="O625" s="119"/>
@@ -27334,7 +27311,7 @@
       <c r="AI625" s="123"/>
       <c r="AJ625" s="120"/>
     </row>
-    <row r="626" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="13:36" ht="15.75" customHeight="1">
       <c r="M626" s="117"/>
       <c r="N626" s="118"/>
       <c r="O626" s="119"/>
@@ -27360,7 +27337,7 @@
       <c r="AI626" s="123"/>
       <c r="AJ626" s="120"/>
     </row>
-    <row r="627" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="13:36" ht="15.75" customHeight="1">
       <c r="M627" s="117"/>
       <c r="N627" s="118"/>
       <c r="O627" s="119"/>
@@ -27386,7 +27363,7 @@
       <c r="AI627" s="123"/>
       <c r="AJ627" s="120"/>
     </row>
-    <row r="628" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="13:36" ht="15.75" customHeight="1">
       <c r="M628" s="117"/>
       <c r="N628" s="118"/>
       <c r="O628" s="119"/>
@@ -27412,7 +27389,7 @@
       <c r="AI628" s="123"/>
       <c r="AJ628" s="120"/>
     </row>
-    <row r="629" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="13:36" ht="15.75" customHeight="1">
       <c r="M629" s="117"/>
       <c r="N629" s="118"/>
       <c r="O629" s="119"/>
@@ -27438,7 +27415,7 @@
       <c r="AI629" s="123"/>
       <c r="AJ629" s="120"/>
     </row>
-    <row r="630" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="13:36" ht="15.75" customHeight="1">
       <c r="M630" s="117"/>
       <c r="N630" s="118"/>
       <c r="O630" s="119"/>
@@ -27464,7 +27441,7 @@
       <c r="AI630" s="123"/>
       <c r="AJ630" s="120"/>
     </row>
-    <row r="631" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="13:36" ht="15.75" customHeight="1">
       <c r="M631" s="117"/>
       <c r="N631" s="118"/>
       <c r="O631" s="119"/>
@@ -27490,7 +27467,7 @@
       <c r="AI631" s="123"/>
       <c r="AJ631" s="120"/>
     </row>
-    <row r="632" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="13:36" ht="15.75" customHeight="1">
       <c r="M632" s="117"/>
       <c r="N632" s="118"/>
       <c r="O632" s="119"/>
@@ -27516,7 +27493,7 @@
       <c r="AI632" s="123"/>
       <c r="AJ632" s="120"/>
     </row>
-    <row r="633" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="13:36" ht="15.75" customHeight="1">
       <c r="M633" s="117"/>
       <c r="N633" s="118"/>
       <c r="O633" s="119"/>
@@ -27542,7 +27519,7 @@
       <c r="AI633" s="123"/>
       <c r="AJ633" s="120"/>
     </row>
-    <row r="634" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="13:36" ht="15.75" customHeight="1">
       <c r="M634" s="117"/>
       <c r="N634" s="118"/>
       <c r="O634" s="119"/>
@@ -27568,7 +27545,7 @@
       <c r="AI634" s="123"/>
       <c r="AJ634" s="120"/>
     </row>
-    <row r="635" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="13:36" ht="15.75" customHeight="1">
       <c r="M635" s="117"/>
       <c r="N635" s="118"/>
       <c r="O635" s="119"/>
@@ -27594,7 +27571,7 @@
       <c r="AI635" s="123"/>
       <c r="AJ635" s="120"/>
     </row>
-    <row r="636" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="13:36" ht="15.75" customHeight="1">
       <c r="M636" s="117"/>
       <c r="N636" s="118"/>
       <c r="O636" s="119"/>
@@ -27620,7 +27597,7 @@
       <c r="AI636" s="123"/>
       <c r="AJ636" s="120"/>
     </row>
-    <row r="637" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="13:36" ht="15.75" customHeight="1">
       <c r="M637" s="117"/>
       <c r="N637" s="118"/>
       <c r="O637" s="119"/>
@@ -27646,7 +27623,7 @@
       <c r="AI637" s="123"/>
       <c r="AJ637" s="120"/>
     </row>
-    <row r="638" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="13:36" ht="15.75" customHeight="1">
       <c r="M638" s="117"/>
       <c r="N638" s="118"/>
       <c r="O638" s="119"/>
@@ -27672,7 +27649,7 @@
       <c r="AI638" s="123"/>
       <c r="AJ638" s="120"/>
     </row>
-    <row r="639" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="13:36" ht="15.75" customHeight="1">
       <c r="M639" s="117"/>
       <c r="N639" s="118"/>
       <c r="O639" s="119"/>
@@ -27698,7 +27675,7 @@
       <c r="AI639" s="123"/>
       <c r="AJ639" s="120"/>
     </row>
-    <row r="640" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="13:36" ht="15.75" customHeight="1">
       <c r="M640" s="117"/>
       <c r="N640" s="118"/>
       <c r="O640" s="119"/>
@@ -27724,7 +27701,7 @@
       <c r="AI640" s="123"/>
       <c r="AJ640" s="120"/>
     </row>
-    <row r="641" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="13:36" ht="15.75" customHeight="1">
       <c r="M641" s="117"/>
       <c r="N641" s="118"/>
       <c r="O641" s="119"/>
@@ -27750,7 +27727,7 @@
       <c r="AI641" s="123"/>
       <c r="AJ641" s="120"/>
     </row>
-    <row r="642" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="13:36" ht="15.75" customHeight="1">
       <c r="M642" s="117"/>
       <c r="N642" s="118"/>
       <c r="O642" s="119"/>
@@ -27776,7 +27753,7 @@
       <c r="AI642" s="123"/>
       <c r="AJ642" s="120"/>
     </row>
-    <row r="643" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="13:36" ht="15.75" customHeight="1">
       <c r="M643" s="117"/>
       <c r="N643" s="118"/>
       <c r="O643" s="119"/>
@@ -27802,7 +27779,7 @@
       <c r="AI643" s="123"/>
       <c r="AJ643" s="120"/>
     </row>
-    <row r="644" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="13:36" ht="15.75" customHeight="1">
       <c r="M644" s="117"/>
       <c r="N644" s="118"/>
       <c r="O644" s="119"/>
@@ -27828,7 +27805,7 @@
       <c r="AI644" s="123"/>
       <c r="AJ644" s="120"/>
     </row>
-    <row r="645" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="13:36" ht="15.75" customHeight="1">
       <c r="M645" s="117"/>
       <c r="N645" s="118"/>
       <c r="O645" s="119"/>
@@ -27854,7 +27831,7 @@
       <c r="AI645" s="123"/>
       <c r="AJ645" s="120"/>
     </row>
-    <row r="646" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="13:36" ht="15.75" customHeight="1">
       <c r="M646" s="117"/>
       <c r="N646" s="118"/>
       <c r="O646" s="119"/>
@@ -27880,7 +27857,7 @@
       <c r="AI646" s="123"/>
       <c r="AJ646" s="120"/>
     </row>
-    <row r="647" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="13:36" ht="15.75" customHeight="1">
       <c r="M647" s="117"/>
       <c r="N647" s="118"/>
       <c r="O647" s="119"/>
@@ -27906,7 +27883,7 @@
       <c r="AI647" s="123"/>
       <c r="AJ647" s="120"/>
     </row>
-    <row r="648" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="13:36" ht="15.75" customHeight="1">
       <c r="M648" s="117"/>
       <c r="N648" s="118"/>
       <c r="O648" s="119"/>
@@ -27932,7 +27909,7 @@
       <c r="AI648" s="123"/>
       <c r="AJ648" s="120"/>
     </row>
-    <row r="649" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="13:36" ht="15.75" customHeight="1">
       <c r="M649" s="117"/>
       <c r="N649" s="118"/>
       <c r="O649" s="119"/>
@@ -27958,7 +27935,7 @@
       <c r="AI649" s="123"/>
       <c r="AJ649" s="120"/>
     </row>
-    <row r="650" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="13:36" ht="15.75" customHeight="1">
       <c r="M650" s="117"/>
       <c r="N650" s="118"/>
       <c r="O650" s="119"/>
@@ -27984,7 +27961,7 @@
       <c r="AI650" s="123"/>
       <c r="AJ650" s="120"/>
     </row>
-    <row r="651" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="13:36" ht="15.75" customHeight="1">
       <c r="M651" s="117"/>
       <c r="N651" s="118"/>
       <c r="O651" s="119"/>
@@ -28010,7 +27987,7 @@
       <c r="AI651" s="123"/>
       <c r="AJ651" s="120"/>
     </row>
-    <row r="652" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="13:36" ht="15.75" customHeight="1">
       <c r="M652" s="117"/>
       <c r="N652" s="118"/>
       <c r="O652" s="119"/>
@@ -28036,7 +28013,7 @@
       <c r="AI652" s="123"/>
       <c r="AJ652" s="120"/>
     </row>
-    <row r="653" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="13:36" ht="15.75" customHeight="1">
       <c r="M653" s="117"/>
       <c r="N653" s="118"/>
       <c r="O653" s="119"/>
@@ -28062,7 +28039,7 @@
       <c r="AI653" s="123"/>
       <c r="AJ653" s="120"/>
     </row>
-    <row r="654" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="13:36" ht="15.75" customHeight="1">
       <c r="M654" s="117"/>
       <c r="N654" s="118"/>
       <c r="O654" s="119"/>
@@ -28088,7 +28065,7 @@
       <c r="AI654" s="123"/>
       <c r="AJ654" s="120"/>
     </row>
-    <row r="655" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="13:36" ht="15.75" customHeight="1">
       <c r="M655" s="117"/>
       <c r="N655" s="118"/>
       <c r="O655" s="119"/>
@@ -28114,7 +28091,7 @@
       <c r="AI655" s="123"/>
       <c r="AJ655" s="120"/>
     </row>
-    <row r="656" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="13:36" ht="15.75" customHeight="1">
       <c r="M656" s="117"/>
       <c r="N656" s="118"/>
       <c r="O656" s="119"/>
@@ -28140,7 +28117,7 @@
       <c r="AI656" s="123"/>
       <c r="AJ656" s="120"/>
     </row>
-    <row r="657" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="13:36" ht="15.75" customHeight="1">
       <c r="M657" s="117"/>
       <c r="N657" s="118"/>
       <c r="O657" s="119"/>
@@ -28166,7 +28143,7 @@
       <c r="AI657" s="123"/>
       <c r="AJ657" s="120"/>
     </row>
-    <row r="658" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="13:36" ht="15.75" customHeight="1">
       <c r="M658" s="117"/>
       <c r="N658" s="118"/>
       <c r="O658" s="119"/>
@@ -28192,7 +28169,7 @@
       <c r="AI658" s="123"/>
       <c r="AJ658" s="120"/>
     </row>
-    <row r="659" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="13:36" ht="15.75" customHeight="1">
       <c r="M659" s="117"/>
       <c r="N659" s="118"/>
       <c r="O659" s="119"/>
@@ -28218,7 +28195,7 @@
       <c r="AI659" s="123"/>
       <c r="AJ659" s="120"/>
     </row>
-    <row r="660" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="13:36" ht="15.75" customHeight="1">
       <c r="M660" s="117"/>
       <c r="N660" s="118"/>
       <c r="O660" s="119"/>
@@ -28244,7 +28221,7 @@
       <c r="AI660" s="123"/>
       <c r="AJ660" s="120"/>
     </row>
-    <row r="661" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="13:36" ht="15.75" customHeight="1">
       <c r="M661" s="117"/>
       <c r="N661" s="118"/>
       <c r="O661" s="119"/>
@@ -28270,7 +28247,7 @@
       <c r="AI661" s="123"/>
       <c r="AJ661" s="120"/>
     </row>
-    <row r="662" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="13:36" ht="15.75" customHeight="1">
       <c r="M662" s="117"/>
       <c r="N662" s="118"/>
       <c r="O662" s="119"/>
@@ -28296,7 +28273,7 @@
       <c r="AI662" s="123"/>
       <c r="AJ662" s="120"/>
     </row>
-    <row r="663" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="13:36" ht="15.75" customHeight="1">
       <c r="M663" s="117"/>
       <c r="N663" s="118"/>
       <c r="O663" s="119"/>
@@ -28322,7 +28299,7 @@
       <c r="AI663" s="123"/>
       <c r="AJ663" s="120"/>
     </row>
-    <row r="664" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="13:36" ht="15.75" customHeight="1">
       <c r="M664" s="117"/>
       <c r="N664" s="118"/>
       <c r="O664" s="119"/>
@@ -28348,7 +28325,7 @@
       <c r="AI664" s="123"/>
       <c r="AJ664" s="120"/>
     </row>
-    <row r="665" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="13:36" ht="15.75" customHeight="1">
       <c r="M665" s="117"/>
       <c r="N665" s="118"/>
       <c r="O665" s="119"/>
@@ -28374,7 +28351,7 @@
       <c r="AI665" s="123"/>
       <c r="AJ665" s="120"/>
     </row>
-    <row r="666" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="13:36" ht="15.75" customHeight="1">
       <c r="M666" s="117"/>
       <c r="N666" s="118"/>
       <c r="O666" s="119"/>
@@ -28400,7 +28377,7 @@
       <c r="AI666" s="123"/>
       <c r="AJ666" s="120"/>
     </row>
-    <row r="667" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="13:36" ht="15.75" customHeight="1">
       <c r="M667" s="117"/>
       <c r="N667" s="118"/>
       <c r="O667" s="119"/>
@@ -28426,7 +28403,7 @@
       <c r="AI667" s="123"/>
       <c r="AJ667" s="120"/>
     </row>
-    <row r="668" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="13:36" ht="15.75" customHeight="1">
       <c r="M668" s="117"/>
       <c r="N668" s="118"/>
       <c r="O668" s="119"/>
@@ -28452,7 +28429,7 @@
       <c r="AI668" s="123"/>
       <c r="AJ668" s="120"/>
     </row>
-    <row r="669" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="13:36" ht="15.75" customHeight="1">
       <c r="M669" s="117"/>
       <c r="N669" s="118"/>
       <c r="O669" s="119"/>
@@ -28478,7 +28455,7 @@
       <c r="AI669" s="123"/>
       <c r="AJ669" s="120"/>
     </row>
-    <row r="670" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="13:36" ht="15.75" customHeight="1">
       <c r="M670" s="117"/>
       <c r="N670" s="118"/>
       <c r="O670" s="119"/>
@@ -28504,7 +28481,7 @@
       <c r="AI670" s="123"/>
       <c r="AJ670" s="120"/>
     </row>
-    <row r="671" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="13:36" ht="15.75" customHeight="1">
       <c r="M671" s="117"/>
       <c r="N671" s="118"/>
       <c r="O671" s="119"/>
@@ -28530,7 +28507,7 @@
       <c r="AI671" s="123"/>
       <c r="AJ671" s="120"/>
     </row>
-    <row r="672" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="13:36" ht="15.75" customHeight="1">
       <c r="M672" s="117"/>
       <c r="N672" s="118"/>
       <c r="O672" s="119"/>
@@ -28556,7 +28533,7 @@
       <c r="AI672" s="123"/>
       <c r="AJ672" s="120"/>
     </row>
-    <row r="673" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="13:36" ht="15.75" customHeight="1">
       <c r="M673" s="117"/>
       <c r="N673" s="118"/>
       <c r="O673" s="119"/>
@@ -28582,7 +28559,7 @@
       <c r="AI673" s="123"/>
       <c r="AJ673" s="120"/>
     </row>
-    <row r="674" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="13:36" ht="15.75" customHeight="1">
       <c r="M674" s="117"/>
       <c r="N674" s="118"/>
       <c r="O674" s="119"/>
@@ -28608,7 +28585,7 @@
       <c r="AI674" s="123"/>
       <c r="AJ674" s="120"/>
     </row>
-    <row r="675" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="13:36" ht="15.75" customHeight="1">
       <c r="M675" s="117"/>
       <c r="N675" s="118"/>
       <c r="O675" s="119"/>
@@ -28634,7 +28611,7 @@
       <c r="AI675" s="123"/>
       <c r="AJ675" s="120"/>
     </row>
-    <row r="676" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="13:36" ht="15.75" customHeight="1">
       <c r="M676" s="117"/>
       <c r="N676" s="118"/>
       <c r="O676" s="119"/>
@@ -28660,7 +28637,7 @@
       <c r="AI676" s="123"/>
       <c r="AJ676" s="120"/>
     </row>
-    <row r="677" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="13:36" ht="15.75" customHeight="1">
       <c r="M677" s="117"/>
       <c r="N677" s="118"/>
       <c r="O677" s="119"/>
@@ -28686,7 +28663,7 @@
       <c r="AI677" s="123"/>
       <c r="AJ677" s="120"/>
     </row>
-    <row r="678" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="13:36" ht="15.75" customHeight="1">
       <c r="M678" s="117"/>
       <c r="N678" s="118"/>
       <c r="O678" s="119"/>
@@ -28712,7 +28689,7 @@
       <c r="AI678" s="123"/>
       <c r="AJ678" s="120"/>
     </row>
-    <row r="679" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="13:36" ht="15.75" customHeight="1">
       <c r="M679" s="117"/>
       <c r="N679" s="118"/>
       <c r="O679" s="119"/>
@@ -28738,7 +28715,7 @@
       <c r="AI679" s="123"/>
       <c r="AJ679" s="120"/>
     </row>
-    <row r="680" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="13:36" ht="15.75" customHeight="1">
       <c r="M680" s="117"/>
       <c r="N680" s="118"/>
       <c r="O680" s="119"/>
@@ -28764,7 +28741,7 @@
       <c r="AI680" s="123"/>
       <c r="AJ680" s="120"/>
     </row>
-    <row r="681" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="13:36" ht="15.75" customHeight="1">
       <c r="M681" s="117"/>
       <c r="N681" s="118"/>
       <c r="O681" s="119"/>
@@ -28790,7 +28767,7 @@
       <c r="AI681" s="123"/>
       <c r="AJ681" s="120"/>
     </row>
-    <row r="682" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="13:36" ht="15.75" customHeight="1">
       <c r="M682" s="117"/>
       <c r="N682" s="118"/>
       <c r="O682" s="119"/>
@@ -28816,7 +28793,7 @@
       <c r="AI682" s="123"/>
       <c r="AJ682" s="120"/>
     </row>
-    <row r="683" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="13:36" ht="15.75" customHeight="1">
       <c r="M683" s="117"/>
       <c r="N683" s="118"/>
       <c r="O683" s="119"/>
@@ -28842,7 +28819,7 @@
       <c r="AI683" s="123"/>
       <c r="AJ683" s="120"/>
     </row>
-    <row r="684" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="13:36" ht="15.75" customHeight="1">
       <c r="M684" s="117"/>
       <c r="N684" s="118"/>
       <c r="O684" s="119"/>
@@ -28868,7 +28845,7 @@
       <c r="AI684" s="123"/>
       <c r="AJ684" s="120"/>
     </row>
-    <row r="685" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="13:36" ht="15.75" customHeight="1">
       <c r="M685" s="117"/>
       <c r="N685" s="118"/>
       <c r="O685" s="119"/>
@@ -28894,7 +28871,7 @@
       <c r="AI685" s="123"/>
       <c r="AJ685" s="120"/>
     </row>
-    <row r="686" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="13:36" ht="15.75" customHeight="1">
       <c r="M686" s="117"/>
       <c r="N686" s="118"/>
       <c r="O686" s="119"/>
@@ -28920,7 +28897,7 @@
       <c r="AI686" s="123"/>
       <c r="AJ686" s="120"/>
     </row>
-    <row r="687" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="13:36" ht="15.75" customHeight="1">
       <c r="M687" s="117"/>
       <c r="N687" s="118"/>
       <c r="O687" s="119"/>
@@ -28946,7 +28923,7 @@
       <c r="AI687" s="123"/>
       <c r="AJ687" s="120"/>
     </row>
-    <row r="688" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="13:36" ht="15.75" customHeight="1">
       <c r="M688" s="117"/>
       <c r="N688" s="118"/>
       <c r="O688" s="119"/>
@@ -28972,7 +28949,7 @@
       <c r="AI688" s="123"/>
       <c r="AJ688" s="120"/>
     </row>
-    <row r="689" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="13:36" ht="15.75" customHeight="1">
       <c r="M689" s="117"/>
       <c r="N689" s="118"/>
       <c r="O689" s="119"/>
@@ -28998,7 +28975,7 @@
       <c r="AI689" s="123"/>
       <c r="AJ689" s="120"/>
     </row>
-    <row r="690" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="13:36" ht="15.75" customHeight="1">
       <c r="M690" s="117"/>
       <c r="N690" s="118"/>
       <c r="O690" s="119"/>
@@ -29024,7 +29001,7 @@
       <c r="AI690" s="123"/>
       <c r="AJ690" s="120"/>
     </row>
-    <row r="691" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="13:36" ht="15.75" customHeight="1">
       <c r="M691" s="117"/>
       <c r="N691" s="118"/>
       <c r="O691" s="119"/>
@@ -29050,7 +29027,7 @@
       <c r="AI691" s="123"/>
       <c r="AJ691" s="120"/>
     </row>
-    <row r="692" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="13:36" ht="15.75" customHeight="1">
       <c r="M692" s="117"/>
       <c r="N692" s="118"/>
       <c r="O692" s="119"/>
@@ -29076,7 +29053,7 @@
       <c r="AI692" s="123"/>
       <c r="AJ692" s="120"/>
     </row>
-    <row r="693" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="13:36" ht="15.75" customHeight="1">
       <c r="M693" s="117"/>
       <c r="N693" s="118"/>
       <c r="O693" s="119"/>
@@ -29102,7 +29079,7 @@
       <c r="AI693" s="123"/>
       <c r="AJ693" s="120"/>
     </row>
-    <row r="694" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="13:36" ht="15.75" customHeight="1">
       <c r="M694" s="117"/>
       <c r="N694" s="118"/>
       <c r="O694" s="119"/>
@@ -29128,7 +29105,7 @@
       <c r="AI694" s="123"/>
       <c r="AJ694" s="120"/>
     </row>
-    <row r="695" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="13:36" ht="15.75" customHeight="1">
       <c r="M695" s="117"/>
       <c r="N695" s="118"/>
       <c r="O695" s="119"/>
@@ -29154,7 +29131,7 @@
       <c r="AI695" s="123"/>
       <c r="AJ695" s="120"/>
     </row>
-    <row r="696" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="13:36" ht="15.75" customHeight="1">
       <c r="M696" s="117"/>
       <c r="N696" s="118"/>
       <c r="O696" s="119"/>
@@ -29180,7 +29157,7 @@
       <c r="AI696" s="123"/>
       <c r="AJ696" s="120"/>
     </row>
-    <row r="697" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="13:36" ht="15.75" customHeight="1">
       <c r="M697" s="117"/>
       <c r="N697" s="118"/>
       <c r="O697" s="119"/>
@@ -29206,7 +29183,7 @@
       <c r="AI697" s="123"/>
       <c r="AJ697" s="120"/>
     </row>
-    <row r="698" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="13:36" ht="15.75" customHeight="1">
       <c r="M698" s="117"/>
       <c r="N698" s="118"/>
       <c r="O698" s="119"/>
@@ -29232,7 +29209,7 @@
       <c r="AI698" s="123"/>
       <c r="AJ698" s="120"/>
     </row>
-    <row r="699" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="13:36" ht="15.75" customHeight="1">
       <c r="M699" s="117"/>
       <c r="N699" s="118"/>
       <c r="O699" s="119"/>
@@ -29258,7 +29235,7 @@
       <c r="AI699" s="123"/>
       <c r="AJ699" s="120"/>
     </row>
-    <row r="700" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="13:36" ht="15.75" customHeight="1">
       <c r="M700" s="117"/>
       <c r="N700" s="118"/>
       <c r="O700" s="119"/>
@@ -29284,7 +29261,7 @@
       <c r="AI700" s="123"/>
       <c r="AJ700" s="120"/>
     </row>
-    <row r="701" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="13:36" ht="15.75" customHeight="1">
       <c r="M701" s="117"/>
       <c r="N701" s="118"/>
       <c r="O701" s="119"/>
@@ -29310,7 +29287,7 @@
       <c r="AI701" s="123"/>
       <c r="AJ701" s="120"/>
     </row>
-    <row r="702" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="13:36" ht="15.75" customHeight="1">
       <c r="M702" s="117"/>
       <c r="N702" s="118"/>
       <c r="O702" s="119"/>
@@ -29336,7 +29313,7 @@
       <c r="AI702" s="123"/>
       <c r="AJ702" s="120"/>
     </row>
-    <row r="703" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="13:36" ht="15.75" customHeight="1">
       <c r="M703" s="117"/>
       <c r="N703" s="118"/>
       <c r="O703" s="119"/>
@@ -29362,7 +29339,7 @@
       <c r="AI703" s="123"/>
       <c r="AJ703" s="120"/>
     </row>
-    <row r="704" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="13:36" ht="15.75" customHeight="1">
       <c r="M704" s="117"/>
       <c r="N704" s="118"/>
       <c r="O704" s="119"/>
@@ -29388,7 +29365,7 @@
       <c r="AI704" s="123"/>
       <c r="AJ704" s="120"/>
     </row>
-    <row r="705" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="13:36" ht="15.75" customHeight="1">
       <c r="M705" s="117"/>
       <c r="N705" s="118"/>
       <c r="O705" s="119"/>
@@ -29414,7 +29391,7 @@
       <c r="AI705" s="123"/>
       <c r="AJ705" s="120"/>
     </row>
-    <row r="706" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="13:36" ht="15.75" customHeight="1">
       <c r="M706" s="117"/>
       <c r="N706" s="118"/>
       <c r="O706" s="119"/>
@@ -29440,7 +29417,7 @@
       <c r="AI706" s="123"/>
       <c r="AJ706" s="120"/>
     </row>
-    <row r="707" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="13:36" ht="15.75" customHeight="1">
       <c r="M707" s="117"/>
       <c r="N707" s="118"/>
       <c r="O707" s="119"/>
@@ -29466,7 +29443,7 @@
       <c r="AI707" s="123"/>
       <c r="AJ707" s="120"/>
     </row>
-    <row r="708" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="13:36" ht="15.75" customHeight="1">
       <c r="M708" s="117"/>
       <c r="N708" s="118"/>
       <c r="O708" s="119"/>
@@ -29492,7 +29469,7 @@
       <c r="AI708" s="123"/>
       <c r="AJ708" s="120"/>
     </row>
-    <row r="709" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="13:36" ht="15.75" customHeight="1">
       <c r="M709" s="117"/>
       <c r="N709" s="118"/>
       <c r="O709" s="119"/>
@@ -29518,7 +29495,7 @@
       <c r="AI709" s="123"/>
       <c r="AJ709" s="120"/>
     </row>
-    <row r="710" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="13:36" ht="15.75" customHeight="1">
       <c r="M710" s="117"/>
       <c r="N710" s="118"/>
       <c r="O710" s="119"/>
@@ -29544,7 +29521,7 @@
       <c r="AI710" s="123"/>
       <c r="AJ710" s="120"/>
     </row>
-    <row r="711" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="13:36" ht="15.75" customHeight="1">
       <c r="M711" s="117"/>
       <c r="N711" s="118"/>
       <c r="O711" s="119"/>
@@ -29570,7 +29547,7 @@
       <c r="AI711" s="123"/>
       <c r="AJ711" s="120"/>
     </row>
-    <row r="712" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="13:36" ht="15.75" customHeight="1">
       <c r="M712" s="117"/>
       <c r="N712" s="118"/>
       <c r="O712" s="119"/>
@@ -29596,7 +29573,7 @@
       <c r="AI712" s="123"/>
       <c r="AJ712" s="120"/>
     </row>
-    <row r="713" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="13:36" ht="15.75" customHeight="1">
       <c r="M713" s="117"/>
       <c r="N713" s="118"/>
       <c r="O713" s="119"/>
@@ -29622,7 +29599,7 @@
       <c r="AI713" s="123"/>
       <c r="AJ713" s="120"/>
     </row>
-    <row r="714" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="13:36" ht="15.75" customHeight="1">
       <c r="M714" s="117"/>
       <c r="N714" s="118"/>
       <c r="O714" s="119"/>
@@ -29648,7 +29625,7 @@
       <c r="AI714" s="123"/>
       <c r="AJ714" s="120"/>
     </row>
-    <row r="715" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="13:36" ht="15.75" customHeight="1">
       <c r="M715" s="117"/>
       <c r="N715" s="118"/>
       <c r="O715" s="119"/>
@@ -29674,7 +29651,7 @@
       <c r="AI715" s="123"/>
       <c r="AJ715" s="120"/>
     </row>
-    <row r="716" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="13:36" ht="15.75" customHeight="1">
       <c r="M716" s="117"/>
       <c r="N716" s="118"/>
       <c r="O716" s="119"/>
@@ -29700,7 +29677,7 @@
       <c r="AI716" s="123"/>
       <c r="AJ716" s="120"/>
     </row>
-    <row r="717" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="13:36" ht="15.75" customHeight="1">
       <c r="M717" s="117"/>
       <c r="N717" s="118"/>
       <c r="O717" s="119"/>
@@ -29726,7 +29703,7 @@
       <c r="AI717" s="123"/>
       <c r="AJ717" s="120"/>
     </row>
-    <row r="718" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="13:36" ht="15.75" customHeight="1">
       <c r="M718" s="117"/>
       <c r="N718" s="118"/>
       <c r="O718" s="119"/>
@@ -29752,7 +29729,7 @@
       <c r="AI718" s="123"/>
       <c r="AJ718" s="120"/>
     </row>
-    <row r="719" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="13:36" ht="15.75" customHeight="1">
       <c r="M719" s="117"/>
       <c r="N719" s="118"/>
       <c r="O719" s="119"/>
@@ -29778,7 +29755,7 @@
       <c r="AI719" s="123"/>
       <c r="AJ719" s="120"/>
     </row>
-    <row r="720" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="13:36" ht="15.75" customHeight="1">
       <c r="M720" s="117"/>
       <c r="N720" s="118"/>
       <c r="O720" s="119"/>
@@ -29804,7 +29781,7 @@
       <c r="AI720" s="123"/>
       <c r="AJ720" s="120"/>
     </row>
-    <row r="721" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="13:36" ht="15.75" customHeight="1">
       <c r="M721" s="117"/>
       <c r="N721" s="118"/>
       <c r="O721" s="119"/>
@@ -29830,7 +29807,7 @@
       <c r="AI721" s="123"/>
       <c r="AJ721" s="120"/>
     </row>
-    <row r="722" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="13:36" ht="15.75" customHeight="1">
       <c r="M722" s="117"/>
       <c r="N722" s="118"/>
       <c r="O722" s="119"/>
@@ -29856,7 +29833,7 @@
       <c r="AI722" s="123"/>
       <c r="AJ722" s="120"/>
     </row>
-    <row r="723" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="13:36" ht="15.75" customHeight="1">
       <c r="M723" s="117"/>
       <c r="N723" s="118"/>
       <c r="O723" s="119"/>
@@ -29882,7 +29859,7 @@
       <c r="AI723" s="123"/>
       <c r="AJ723" s="120"/>
     </row>
-    <row r="724" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="13:36" ht="15.75" customHeight="1">
       <c r="M724" s="117"/>
       <c r="N724" s="118"/>
       <c r="O724" s="119"/>
@@ -29908,7 +29885,7 @@
       <c r="AI724" s="123"/>
       <c r="AJ724" s="120"/>
     </row>
-    <row r="725" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="13:36" ht="15.75" customHeight="1">
       <c r="M725" s="117"/>
       <c r="N725" s="118"/>
       <c r="O725" s="119"/>
@@ -29934,7 +29911,7 @@
       <c r="AI725" s="123"/>
       <c r="AJ725" s="120"/>
     </row>
-    <row r="726" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="13:36" ht="15.75" customHeight="1">
       <c r="M726" s="117"/>
       <c r="N726" s="118"/>
       <c r="O726" s="119"/>
@@ -29960,7 +29937,7 @@
       <c r="AI726" s="123"/>
       <c r="AJ726" s="120"/>
     </row>
-    <row r="727" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="13:36" ht="15.75" customHeight="1">
       <c r="M727" s="117"/>
       <c r="N727" s="118"/>
       <c r="O727" s="119"/>
@@ -29986,7 +29963,7 @@
       <c r="AI727" s="123"/>
       <c r="AJ727" s="120"/>
     </row>
-    <row r="728" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="13:36" ht="15.75" customHeight="1">
       <c r="M728" s="117"/>
       <c r="N728" s="118"/>
       <c r="O728" s="119"/>
@@ -30012,7 +29989,7 @@
       <c r="AI728" s="123"/>
       <c r="AJ728" s="120"/>
     </row>
-    <row r="729" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="13:36" ht="15.75" customHeight="1">
       <c r="M729" s="117"/>
       <c r="N729" s="118"/>
       <c r="O729" s="119"/>
@@ -30038,7 +30015,7 @@
       <c r="AI729" s="123"/>
       <c r="AJ729" s="120"/>
     </row>
-    <row r="730" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="13:36" ht="15.75" customHeight="1">
       <c r="M730" s="117"/>
       <c r="N730" s="118"/>
       <c r="O730" s="119"/>
@@ -30064,7 +30041,7 @@
       <c r="AI730" s="123"/>
       <c r="AJ730" s="120"/>
     </row>
-    <row r="731" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="13:36" ht="15.75" customHeight="1">
       <c r="M731" s="117"/>
       <c r="N731" s="118"/>
       <c r="O731" s="119"/>
@@ -30090,7 +30067,7 @@
       <c r="AI731" s="123"/>
       <c r="AJ731" s="120"/>
     </row>
-    <row r="732" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="13:36" ht="15.75" customHeight="1">
       <c r="M732" s="117"/>
       <c r="N732" s="118"/>
       <c r="O732" s="119"/>
@@ -30116,7 +30093,7 @@
       <c r="AI732" s="123"/>
       <c r="AJ732" s="120"/>
     </row>
-    <row r="733" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="13:36" ht="15.75" customHeight="1">
       <c r="M733" s="117"/>
       <c r="N733" s="118"/>
       <c r="O733" s="119"/>
@@ -30142,7 +30119,7 @@
       <c r="AI733" s="123"/>
       <c r="AJ733" s="120"/>
     </row>
-    <row r="734" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="13:36" ht="15.75" customHeight="1">
       <c r="M734" s="117"/>
       <c r="N734" s="118"/>
       <c r="O734" s="119"/>
@@ -30168,7 +30145,7 @@
       <c r="AI734" s="123"/>
       <c r="AJ734" s="120"/>
     </row>
-    <row r="735" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="13:36" ht="15.75" customHeight="1">
       <c r="M735" s="117"/>
       <c r="N735" s="118"/>
       <c r="O735" s="119"/>
@@ -30194,7 +30171,7 @@
       <c r="AI735" s="123"/>
       <c r="AJ735" s="120"/>
     </row>
-    <row r="736" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="13:36" ht="15.75" customHeight="1">
       <c r="M736" s="117"/>
       <c r="N736" s="118"/>
       <c r="O736" s="119"/>
@@ -30220,7 +30197,7 @@
       <c r="AI736" s="123"/>
       <c r="AJ736" s="120"/>
     </row>
-    <row r="737" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="13:36" ht="15.75" customHeight="1">
       <c r="M737" s="117"/>
       <c r="N737" s="118"/>
       <c r="O737" s="119"/>
@@ -30246,7 +30223,7 @@
       <c r="AI737" s="123"/>
       <c r="AJ737" s="120"/>
     </row>
-    <row r="738" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="13:36" ht="15.75" customHeight="1">
       <c r="M738" s="117"/>
       <c r="N738" s="118"/>
       <c r="O738" s="119"/>
@@ -30272,7 +30249,7 @@
       <c r="AI738" s="123"/>
       <c r="AJ738" s="120"/>
     </row>
-    <row r="739" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="13:36" ht="15.75" customHeight="1">
       <c r="M739" s="117"/>
       <c r="N739" s="118"/>
       <c r="O739" s="119"/>
@@ -30298,7 +30275,7 @@
       <c r="AI739" s="123"/>
       <c r="AJ739" s="120"/>
     </row>
-    <row r="740" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="13:36" ht="15.75" customHeight="1">
       <c r="M740" s="117"/>
       <c r="N740" s="118"/>
       <c r="O740" s="119"/>
@@ -30324,7 +30301,7 @@
       <c r="AI740" s="123"/>
       <c r="AJ740" s="120"/>
     </row>
-    <row r="741" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="13:36" ht="15.75" customHeight="1">
       <c r="M741" s="117"/>
       <c r="N741" s="118"/>
       <c r="O741" s="119"/>
@@ -30350,7 +30327,7 @@
       <c r="AI741" s="123"/>
       <c r="AJ741" s="120"/>
     </row>
-    <row r="742" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="13:36" ht="15.75" customHeight="1">
       <c r="M742" s="117"/>
       <c r="N742" s="118"/>
       <c r="O742" s="119"/>
@@ -30376,7 +30353,7 @@
       <c r="AI742" s="123"/>
       <c r="AJ742" s="120"/>
     </row>
-    <row r="743" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="13:36" ht="15.75" customHeight="1">
       <c r="M743" s="117"/>
       <c r="N743" s="118"/>
       <c r="O743" s="119"/>
@@ -30402,7 +30379,7 @@
       <c r="AI743" s="123"/>
       <c r="AJ743" s="120"/>
     </row>
-    <row r="744" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="13:36" ht="15.75" customHeight="1">
       <c r="M744" s="117"/>
       <c r="N744" s="118"/>
       <c r="O744" s="119"/>
@@ -30428,7 +30405,7 @@
       <c r="AI744" s="123"/>
       <c r="AJ744" s="120"/>
     </row>
-    <row r="745" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="13:36" ht="15.75" customHeight="1">
       <c r="M745" s="117"/>
       <c r="N745" s="118"/>
       <c r="O745" s="119"/>
@@ -30454,7 +30431,7 @@
       <c r="AI745" s="123"/>
       <c r="AJ745" s="120"/>
     </row>
-    <row r="746" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="13:36" ht="15.75" customHeight="1">
       <c r="M746" s="117"/>
       <c r="N746" s="118"/>
       <c r="O746" s="119"/>
@@ -30480,7 +30457,7 @@
       <c r="AI746" s="123"/>
       <c r="AJ746" s="120"/>
     </row>
-    <row r="747" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="13:36" ht="15.75" customHeight="1">
       <c r="M747" s="117"/>
       <c r="N747" s="118"/>
       <c r="O747" s="119"/>
@@ -30506,7 +30483,7 @@
       <c r="AI747" s="123"/>
       <c r="AJ747" s="120"/>
     </row>
-    <row r="748" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="13:36" ht="15.75" customHeight="1">
       <c r="M748" s="117"/>
       <c r="N748" s="118"/>
       <c r="O748" s="119"/>
@@ -30532,7 +30509,7 @@
       <c r="AI748" s="123"/>
       <c r="AJ748" s="120"/>
     </row>
-    <row r="749" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="13:36" ht="15.75" customHeight="1">
       <c r="M749" s="117"/>
       <c r="N749" s="118"/>
       <c r="O749" s="119"/>
@@ -30558,7 +30535,7 @@
       <c r="AI749" s="123"/>
       <c r="AJ749" s="120"/>
     </row>
-    <row r="750" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="13:36" ht="15.75" customHeight="1">
       <c r="M750" s="117"/>
       <c r="N750" s="118"/>
       <c r="O750" s="119"/>
@@ -30584,7 +30561,7 @@
       <c r="AI750" s="123"/>
       <c r="AJ750" s="120"/>
     </row>
-    <row r="751" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="13:36" ht="15.75" customHeight="1">
       <c r="M751" s="117"/>
       <c r="N751" s="118"/>
       <c r="O751" s="119"/>
@@ -30610,7 +30587,7 @@
       <c r="AI751" s="123"/>
       <c r="AJ751" s="120"/>
     </row>
-    <row r="752" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="13:36" ht="15.75" customHeight="1">
       <c r="M752" s="117"/>
       <c r="N752" s="118"/>
       <c r="O752" s="119"/>
@@ -30636,7 +30613,7 @@
       <c r="AI752" s="123"/>
       <c r="AJ752" s="120"/>
     </row>
-    <row r="753" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="13:36" ht="15.75" customHeight="1">
       <c r="M753" s="117"/>
       <c r="N753" s="118"/>
       <c r="O753" s="119"/>
@@ -30662,7 +30639,7 @@
       <c r="AI753" s="123"/>
       <c r="AJ753" s="120"/>
     </row>
-    <row r="754" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="13:36" ht="15.75" customHeight="1">
       <c r="M754" s="117"/>
       <c r="N754" s="118"/>
       <c r="O754" s="119"/>
@@ -30688,7 +30665,7 @@
       <c r="AI754" s="123"/>
       <c r="AJ754" s="120"/>
     </row>
-    <row r="755" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="13:36" ht="15.75" customHeight="1">
       <c r="M755" s="117"/>
       <c r="N755" s="118"/>
       <c r="O755" s="119"/>
@@ -30714,7 +30691,7 @@
       <c r="AI755" s="123"/>
       <c r="AJ755" s="120"/>
     </row>
-    <row r="756" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="13:36" ht="15.75" customHeight="1">
       <c r="M756" s="117"/>
       <c r="N756" s="118"/>
       <c r="O756" s="119"/>
@@ -30740,7 +30717,7 @@
       <c r="AI756" s="123"/>
       <c r="AJ756" s="120"/>
     </row>
-    <row r="757" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="13:36" ht="15.75" customHeight="1">
       <c r="M757" s="117"/>
       <c r="N757" s="118"/>
       <c r="O757" s="119"/>
@@ -30766,7 +30743,7 @@
       <c r="AI757" s="123"/>
       <c r="AJ757" s="120"/>
     </row>
-    <row r="758" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="13:36" ht="15.75" customHeight="1">
       <c r="M758" s="117"/>
       <c r="N758" s="118"/>
       <c r="O758" s="119"/>
@@ -30792,7 +30769,7 @@
       <c r="AI758" s="123"/>
       <c r="AJ758" s="120"/>
     </row>
-    <row r="759" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="13:36" ht="15.75" customHeight="1">
       <c r="M759" s="117"/>
       <c r="N759" s="118"/>
       <c r="O759" s="119"/>
@@ -30818,7 +30795,7 @@
       <c r="AI759" s="123"/>
       <c r="AJ759" s="120"/>
     </row>
-    <row r="760" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="13:36" ht="15.75" customHeight="1">
       <c r="M760" s="117"/>
       <c r="N760" s="118"/>
       <c r="O760" s="119"/>
@@ -30844,7 +30821,7 @@
       <c r="AI760" s="123"/>
       <c r="AJ760" s="120"/>
     </row>
-    <row r="761" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="13:36" ht="15.75" customHeight="1">
       <c r="M761" s="117"/>
       <c r="N761" s="118"/>
       <c r="O761" s="119"/>
@@ -30870,7 +30847,7 @@
       <c r="AI761" s="123"/>
       <c r="AJ761" s="120"/>
     </row>
-    <row r="762" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="13:36" ht="15.75" customHeight="1">
       <c r="M762" s="117"/>
       <c r="N762" s="118"/>
       <c r="O762" s="119"/>
@@ -30896,7 +30873,7 @@
       <c r="AI762" s="123"/>
       <c r="AJ762" s="120"/>
     </row>
-    <row r="763" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="13:36" ht="15.75" customHeight="1">
       <c r="M763" s="117"/>
       <c r="N763" s="118"/>
       <c r="O763" s="119"/>
@@ -30922,7 +30899,7 @@
       <c r="AI763" s="123"/>
       <c r="AJ763" s="120"/>
     </row>
-    <row r="764" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="13:36" ht="15.75" customHeight="1">
       <c r="M764" s="117"/>
       <c r="N764" s="118"/>
       <c r="O764" s="119"/>
@@ -30948,7 +30925,7 @@
       <c r="AI764" s="123"/>
       <c r="AJ764" s="120"/>
     </row>
-    <row r="765" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="13:36" ht="15.75" customHeight="1">
       <c r="M765" s="117"/>
       <c r="N765" s="118"/>
       <c r="O765" s="119"/>
@@ -30974,7 +30951,7 @@
       <c r="AI765" s="123"/>
       <c r="AJ765" s="120"/>
     </row>
-    <row r="766" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="13:36" ht="15.75" customHeight="1">
       <c r="M766" s="117"/>
       <c r="N766" s="118"/>
       <c r="O766" s="119"/>
@@ -31000,7 +30977,7 @@
       <c r="AI766" s="123"/>
       <c r="AJ766" s="120"/>
     </row>
-    <row r="767" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="13:36" ht="15.75" customHeight="1">
       <c r="M767" s="117"/>
       <c r="N767" s="118"/>
       <c r="O767" s="119"/>
@@ -31026,7 +31003,7 @@
       <c r="AI767" s="123"/>
       <c r="AJ767" s="120"/>
     </row>
-    <row r="768" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="13:36" ht="15.75" customHeight="1">
       <c r="M768" s="117"/>
       <c r="N768" s="118"/>
       <c r="O768" s="119"/>
@@ -31052,7 +31029,7 @@
       <c r="AI768" s="123"/>
       <c r="AJ768" s="120"/>
     </row>
-    <row r="769" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="13:36" ht="15.75" customHeight="1">
       <c r="M769" s="117"/>
       <c r="N769" s="118"/>
       <c r="O769" s="119"/>
@@ -31078,7 +31055,7 @@
       <c r="AI769" s="123"/>
       <c r="AJ769" s="120"/>
     </row>
-    <row r="770" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="13:36" ht="15.75" customHeight="1">
       <c r="M770" s="117"/>
       <c r="N770" s="118"/>
       <c r="O770" s="119"/>
@@ -31104,7 +31081,7 @@
       <c r="AI770" s="123"/>
       <c r="AJ770" s="120"/>
     </row>
-    <row r="771" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="13:36" ht="15.75" customHeight="1">
       <c r="M771" s="117"/>
       <c r="N771" s="118"/>
       <c r="O771" s="119"/>
@@ -31130,7 +31107,7 @@
       <c r="AI771" s="123"/>
       <c r="AJ771" s="120"/>
     </row>
-    <row r="772" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="13:36" ht="15.75" customHeight="1">
       <c r="M772" s="117"/>
       <c r="N772" s="118"/>
       <c r="O772" s="119"/>
@@ -31156,7 +31133,7 @@
       <c r="AI772" s="123"/>
       <c r="AJ772" s="120"/>
     </row>
-    <row r="773" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="13:36" ht="15.75" customHeight="1">
       <c r="M773" s="117"/>
       <c r="N773" s="118"/>
       <c r="O773" s="119"/>
@@ -31182,7 +31159,7 @@
       <c r="AI773" s="123"/>
       <c r="AJ773" s="120"/>
     </row>
-    <row r="774" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="13:36" ht="15.75" customHeight="1">
       <c r="M774" s="117"/>
       <c r="N774" s="118"/>
       <c r="O774" s="119"/>
@@ -31208,7 +31185,7 @@
       <c r="AI774" s="123"/>
       <c r="AJ774" s="120"/>
     </row>
-    <row r="775" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="13:36" ht="15.75" customHeight="1">
       <c r="M775" s="117"/>
       <c r="N775" s="118"/>
       <c r="O775" s="119"/>
@@ -31234,7 +31211,7 @@
       <c r="AI775" s="123"/>
       <c r="AJ775" s="120"/>
     </row>
-    <row r="776" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="13:36" ht="15.75" customHeight="1">
       <c r="M776" s="117"/>
       <c r="N776" s="118"/>
       <c r="O776" s="119"/>
@@ -31260,7 +31237,7 @@
       <c r="AI776" s="123"/>
       <c r="AJ776" s="120"/>
     </row>
-    <row r="777" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="13:36" ht="15.75" customHeight="1">
       <c r="M777" s="117"/>
       <c r="N777" s="118"/>
       <c r="O777" s="119"/>
@@ -31286,7 +31263,7 @@
       <c r="AI777" s="123"/>
       <c r="AJ777" s="120"/>
     </row>
-    <row r="778" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="13:36" ht="15.75" customHeight="1">
       <c r="M778" s="117"/>
       <c r="N778" s="118"/>
       <c r="O778" s="119"/>
@@ -31312,7 +31289,7 @@
       <c r="AI778" s="123"/>
       <c r="AJ778" s="120"/>
     </row>
-    <row r="779" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="13:36" ht="15.75" customHeight="1">
       <c r="M779" s="117"/>
       <c r="N779" s="118"/>
       <c r="O779" s="119"/>
@@ -31338,7 +31315,7 @@
       <c r="AI779" s="123"/>
       <c r="AJ779" s="120"/>
     </row>
-    <row r="780" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="13:36" ht="15.75" customHeight="1">
       <c r="M780" s="117"/>
       <c r="N780" s="118"/>
       <c r="O780" s="119"/>
@@ -31364,7 +31341,7 @@
       <c r="AI780" s="123"/>
       <c r="AJ780" s="120"/>
     </row>
-    <row r="781" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="13:36" ht="15.75" customHeight="1">
       <c r="M781" s="117"/>
       <c r="N781" s="118"/>
       <c r="O781" s="119"/>
@@ -31390,7 +31367,7 @@
       <c r="AI781" s="123"/>
       <c r="AJ781" s="120"/>
     </row>
-    <row r="782" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="13:36" ht="15.75" customHeight="1">
       <c r="M782" s="117"/>
       <c r="N782" s="118"/>
       <c r="O782" s="119"/>
@@ -31416,7 +31393,7 @@
       <c r="AI782" s="123"/>
       <c r="AJ782" s="120"/>
     </row>
-    <row r="783" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="13:36" ht="15.75" customHeight="1">
       <c r="M783" s="117"/>
       <c r="N783" s="118"/>
       <c r="O783" s="119"/>
@@ -31442,7 +31419,7 @@
       <c r="AI783" s="123"/>
       <c r="AJ783" s="120"/>
     </row>
-    <row r="784" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="13:36" ht="15.75" customHeight="1">
       <c r="M784" s="117"/>
       <c r="N784" s="118"/>
       <c r="O784" s="119"/>
@@ -31468,7 +31445,7 @@
       <c r="AI784" s="123"/>
       <c r="AJ784" s="120"/>
     </row>
-    <row r="785" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="13:36" ht="15.75" customHeight="1">
       <c r="M785" s="117"/>
       <c r="N785" s="118"/>
       <c r="O785" s="119"/>
@@ -31494,7 +31471,7 @@
       <c r="AI785" s="123"/>
       <c r="AJ785" s="120"/>
     </row>
-    <row r="786" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="13:36" ht="15.75" customHeight="1">
       <c r="M786" s="117"/>
       <c r="N786" s="118"/>
       <c r="O786" s="119"/>
@@ -31520,7 +31497,7 @@
       <c r="AI786" s="123"/>
       <c r="AJ786" s="120"/>
     </row>
-    <row r="787" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="13:36" ht="15.75" customHeight="1">
       <c r="M787" s="117"/>
       <c r="N787" s="118"/>
       <c r="O787" s="119"/>
@@ -31546,7 +31523,7 @@
       <c r="AI787" s="123"/>
       <c r="AJ787" s="120"/>
     </row>
-    <row r="788" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="13:36" ht="15.75" customHeight="1">
       <c r="M788" s="117"/>
       <c r="N788" s="118"/>
       <c r="O788" s="119"/>
@@ -31572,7 +31549,7 @@
       <c r="AI788" s="123"/>
       <c r="AJ788" s="120"/>
     </row>
-    <row r="789" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="13:36" ht="15.75" customHeight="1">
       <c r="M789" s="117"/>
       <c r="N789" s="118"/>
       <c r="O789" s="119"/>
@@ -31598,7 +31575,7 @@
       <c r="AI789" s="123"/>
       <c r="AJ789" s="120"/>
     </row>
-    <row r="790" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="13:36" ht="15.75" customHeight="1">
       <c r="M790" s="117"/>
       <c r="N790" s="118"/>
       <c r="O790" s="119"/>
@@ -31624,7 +31601,7 @@
       <c r="AI790" s="123"/>
       <c r="AJ790" s="120"/>
     </row>
-    <row r="791" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="13:36" ht="15.75" customHeight="1">
       <c r="M791" s="117"/>
       <c r="N791" s="118"/>
       <c r="O791" s="119"/>
@@ -31650,7 +31627,7 @@
       <c r="AI791" s="123"/>
       <c r="AJ791" s="120"/>
     </row>
-    <row r="792" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="13:36" ht="15.75" customHeight="1">
       <c r="M792" s="117"/>
       <c r="N792" s="118"/>
       <c r="O792" s="119"/>
@@ -31676,7 +31653,7 @@
       <c r="AI792" s="123"/>
       <c r="AJ792" s="120"/>
     </row>
-    <row r="793" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="13:36" ht="15.75" customHeight="1">
       <c r="M793" s="117"/>
       <c r="N793" s="118"/>
       <c r="O793" s="119"/>
@@ -31702,7 +31679,7 @@
       <c r="AI793" s="123"/>
       <c r="AJ793" s="120"/>
     </row>
-    <row r="794" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="13:36" ht="15.75" customHeight="1">
       <c r="M794" s="117"/>
       <c r="N794" s="118"/>
       <c r="O794" s="119"/>
@@ -31728,7 +31705,7 @@
       <c r="AI794" s="123"/>
       <c r="AJ794" s="120"/>
     </row>
-    <row r="795" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="13:36" ht="15.75" customHeight="1">
       <c r="M795" s="117"/>
       <c r="N795" s="118"/>
       <c r="O795" s="119"/>
@@ -31754,7 +31731,7 @@
       <c r="AI795" s="123"/>
       <c r="AJ795" s="120"/>
     </row>
-    <row r="796" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="13:36" ht="15.75" customHeight="1">
       <c r="M796" s="117"/>
       <c r="N796" s="118"/>
       <c r="O796" s="119"/>
@@ -31780,7 +31757,7 @@
       <c r="AI796" s="123"/>
       <c r="AJ796" s="120"/>
     </row>
-    <row r="797" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="13:36" ht="15.75" customHeight="1">
       <c r="M797" s="117"/>
       <c r="N797" s="118"/>
       <c r="O797" s="119"/>
@@ -31806,7 +31783,7 @@
       <c r="AI797" s="123"/>
       <c r="AJ797" s="120"/>
     </row>
-    <row r="798" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="13:36" ht="15.75" customHeight="1">
       <c r="M798" s="117"/>
       <c r="N798" s="118"/>
       <c r="O798" s="119"/>
@@ -31832,7 +31809,7 @@
       <c r="AI798" s="123"/>
       <c r="AJ798" s="120"/>
     </row>
-    <row r="799" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="13:36" ht="15.75" customHeight="1">
       <c r="M799" s="117"/>
       <c r="N799" s="118"/>
       <c r="O799" s="119"/>
@@ -31858,7 +31835,7 @@
       <c r="AI799" s="123"/>
       <c r="AJ799" s="120"/>
     </row>
-    <row r="800" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="13:36" ht="15.75" customHeight="1">
       <c r="M800" s="117"/>
       <c r="N800" s="118"/>
       <c r="O800" s="119"/>
@@ -31884,7 +31861,7 @@
       <c r="AI800" s="123"/>
       <c r="AJ800" s="120"/>
     </row>
-    <row r="801" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="13:36" ht="15.75" customHeight="1">
       <c r="M801" s="117"/>
       <c r="N801" s="118"/>
       <c r="O801" s="119"/>
@@ -31910,7 +31887,7 @@
       <c r="AI801" s="123"/>
       <c r="AJ801" s="120"/>
     </row>
-    <row r="802" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="13:36" ht="15.75" customHeight="1">
       <c r="M802" s="117"/>
       <c r="N802" s="118"/>
       <c r="O802" s="119"/>
@@ -31936,7 +31913,7 @@
       <c r="AI802" s="123"/>
       <c r="AJ802" s="120"/>
     </row>
-    <row r="803" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="13:36" ht="15.75" customHeight="1">
       <c r="M803" s="117"/>
       <c r="N803" s="118"/>
       <c r="O803" s="119"/>
@@ -31962,7 +31939,7 @@
       <c r="AI803" s="123"/>
       <c r="AJ803" s="120"/>
     </row>
-    <row r="804" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="13:36" ht="15.75" customHeight="1">
       <c r="M804" s="117"/>
       <c r="N804" s="118"/>
       <c r="O804" s="119"/>
@@ -31988,7 +31965,7 @@
       <c r="AI804" s="123"/>
       <c r="AJ804" s="120"/>
     </row>
-    <row r="805" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="13:36" ht="15.75" customHeight="1">
       <c r="M805" s="117"/>
       <c r="N805" s="118"/>
       <c r="O805" s="119"/>
@@ -32014,7 +31991,7 @@
       <c r="AI805" s="123"/>
       <c r="AJ805" s="120"/>
     </row>
-    <row r="806" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="13:36" ht="15.75" customHeight="1">
       <c r="M806" s="117"/>
       <c r="N806" s="118"/>
       <c r="O806" s="119"/>
@@ -32040,7 +32017,7 @@
       <c r="AI806" s="123"/>
       <c r="AJ806" s="120"/>
     </row>
-    <row r="807" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="13:36" ht="15.75" customHeight="1">
       <c r="M807" s="117"/>
       <c r="N807" s="118"/>
       <c r="O807" s="119"/>
@@ -32066,7 +32043,7 @@
       <c r="AI807" s="123"/>
       <c r="AJ807" s="120"/>
     </row>
-    <row r="808" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="13:36" ht="15.75" customHeight="1">
       <c r="M808" s="117"/>
       <c r="N808" s="118"/>
       <c r="O808" s="119"/>
@@ -32092,7 +32069,7 @@
       <c r="AI808" s="123"/>
       <c r="AJ808" s="120"/>
     </row>
-    <row r="809" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="13:36" ht="15.75" customHeight="1">
       <c r="M809" s="117"/>
       <c r="N809" s="118"/>
       <c r="O809" s="119"/>
@@ -32118,7 +32095,7 @@
       <c r="AI809" s="123"/>
       <c r="AJ809" s="120"/>
     </row>
-    <row r="810" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="13:36" ht="15.75" customHeight="1">
       <c r="M810" s="117"/>
       <c r="N810" s="118"/>
       <c r="O810" s="119"/>
@@ -32144,7 +32121,7 @@
       <c r="AI810" s="123"/>
       <c r="AJ810" s="120"/>
     </row>
-    <row r="811" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="13:36" ht="15.75" customHeight="1">
       <c r="M811" s="117"/>
       <c r="N811" s="118"/>
       <c r="O811" s="119"/>
@@ -32170,7 +32147,7 @@
       <c r="AI811" s="123"/>
       <c r="AJ811" s="120"/>
     </row>
-    <row r="812" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="13:36" ht="15.75" customHeight="1">
       <c r="M812" s="117"/>
       <c r="N812" s="118"/>
       <c r="O812" s="119"/>
@@ -32196,7 +32173,7 @@
       <c r="AI812" s="123"/>
       <c r="AJ812" s="120"/>
     </row>
-    <row r="813" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="13:36" ht="15.75" customHeight="1">
       <c r="M813" s="117"/>
       <c r="N813" s="118"/>
       <c r="O813" s="119"/>
@@ -32222,7 +32199,7 @@
       <c r="AI813" s="123"/>
       <c r="AJ813" s="120"/>
     </row>
-    <row r="814" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="13:36" ht="15.75" customHeight="1">
       <c r="M814" s="117"/>
       <c r="N814" s="118"/>
       <c r="O814" s="119"/>
@@ -32248,7 +32225,7 @@
       <c r="AI814" s="123"/>
       <c r="AJ814" s="120"/>
     </row>
-    <row r="815" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="13:36" ht="15.75" customHeight="1">
       <c r="M815" s="117"/>
       <c r="N815" s="118"/>
       <c r="O815" s="119"/>
@@ -32274,7 +32251,7 @@
       <c r="AI815" s="123"/>
       <c r="AJ815" s="120"/>
     </row>
-    <row r="816" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="13:36" ht="15.75" customHeight="1">
       <c r="M816" s="117"/>
       <c r="N816" s="118"/>
       <c r="O816" s="119"/>
@@ -32300,7 +32277,7 @@
       <c r="AI816" s="123"/>
       <c r="AJ816" s="120"/>
     </row>
-    <row r="817" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="13:36" ht="15.75" customHeight="1">
       <c r="M817" s="117"/>
       <c r="N817" s="118"/>
       <c r="O817" s="119"/>
@@ -32326,7 +32303,7 @@
       <c r="AI817" s="123"/>
       <c r="AJ817" s="120"/>
     </row>
-    <row r="818" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="13:36" ht="15.75" customHeight="1">
       <c r="M818" s="117"/>
       <c r="N818" s="118"/>
       <c r="O818" s="119"/>
@@ -32352,7 +32329,7 @@
       <c r="AI818" s="123"/>
       <c r="AJ818" s="120"/>
     </row>
-    <row r="819" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="13:36" ht="15.75" customHeight="1">
       <c r="M819" s="117"/>
       <c r="N819" s="118"/>
       <c r="O819" s="119"/>
@@ -32378,7 +32355,7 @@
       <c r="AI819" s="123"/>
       <c r="AJ819" s="120"/>
     </row>
-    <row r="820" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="13:36" ht="15.75" customHeight="1">
       <c r="M820" s="117"/>
       <c r="N820" s="118"/>
       <c r="O820" s="119"/>
@@ -32404,7 +32381,7 @@
       <c r="AI820" s="123"/>
       <c r="AJ820" s="120"/>
     </row>
-    <row r="821" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="13:36" ht="15.75" customHeight="1">
       <c r="M821" s="117"/>
       <c r="N821" s="118"/>
       <c r="O821" s="119"/>
@@ -32430,7 +32407,7 @@
       <c r="AI821" s="123"/>
       <c r="AJ821" s="120"/>
     </row>
-    <row r="822" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="13:36" ht="15.75" customHeight="1">
       <c r="M822" s="117"/>
       <c r="N822" s="118"/>
       <c r="O822" s="119"/>
@@ -32456,7 +32433,7 @@
       <c r="AI822" s="123"/>
       <c r="AJ822" s="120"/>
     </row>
-    <row r="823" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="13:36" ht="15.75" customHeight="1">
       <c r="M823" s="117"/>
       <c r="N823" s="118"/>
       <c r="O823" s="119"/>
@@ -32482,7 +32459,7 @@
       <c r="AI823" s="123"/>
       <c r="AJ823" s="120"/>
     </row>
-    <row r="824" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="13:36" ht="15.75" customHeight="1">
       <c r="M824" s="117"/>
       <c r="N824" s="118"/>
       <c r="O824" s="119"/>
@@ -32508,7 +32485,7 @@
       <c r="AI824" s="123"/>
       <c r="AJ824" s="120"/>
     </row>
-    <row r="825" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="13:36" ht="15.75" customHeight="1">
       <c r="M825" s="117"/>
       <c r="N825" s="118"/>
       <c r="O825" s="119"/>
@@ -32534,7 +32511,7 @@
       <c r="AI825" s="123"/>
       <c r="AJ825" s="120"/>
     </row>
-    <row r="826" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="13:36" ht="15.75" customHeight="1">
       <c r="M826" s="117"/>
       <c r="N826" s="118"/>
       <c r="O826" s="119"/>
@@ -32560,7 +32537,7 @@
       <c r="AI826" s="123"/>
       <c r="AJ826" s="120"/>
     </row>
-    <row r="827" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="13:36" ht="15.75" customHeight="1">
       <c r="M827" s="117"/>
       <c r="N827" s="118"/>
       <c r="O827" s="119"/>
@@ -32586,7 +32563,7 @@
       <c r="AI827" s="123"/>
       <c r="AJ827" s="120"/>
     </row>
-    <row r="828" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="13:36" ht="15.75" customHeight="1">
       <c r="M828" s="117"/>
       <c r="N828" s="118"/>
       <c r="O828" s="119"/>
@@ -32612,7 +32589,7 @@
       <c r="AI828" s="123"/>
       <c r="AJ828" s="120"/>
     </row>
-    <row r="829" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="13:36" ht="15.75" customHeight="1">
       <c r="M829" s="117"/>
       <c r="N829" s="118"/>
       <c r="O829" s="119"/>
@@ -32638,7 +32615,7 @@
       <c r="AI829" s="123"/>
       <c r="AJ829" s="120"/>
     </row>
-    <row r="830" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="13:36" ht="15.75" customHeight="1">
       <c r="M830" s="117"/>
       <c r="N830" s="118"/>
       <c r="O830" s="119"/>
@@ -32664,7 +32641,7 @@
       <c r="AI830" s="123"/>
       <c r="AJ830" s="120"/>
     </row>
-    <row r="831" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="13:36" ht="15.75" customHeight="1">
       <c r="M831" s="117"/>
       <c r="N831" s="118"/>
       <c r="O831" s="119"/>
@@ -32690,7 +32667,7 @@
       <c r="AI831" s="123"/>
       <c r="AJ831" s="120"/>
     </row>
-    <row r="832" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="13:36" ht="15.75" customHeight="1">
       <c r="M832" s="117"/>
       <c r="N832" s="118"/>
       <c r="O832" s="119"/>
@@ -32716,7 +32693,7 @@
       <c r="AI832" s="123"/>
       <c r="AJ832" s="120"/>
     </row>
-    <row r="833" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="13:36" ht="15.75" customHeight="1">
       <c r="M833" s="117"/>
       <c r="N833" s="118"/>
       <c r="O833" s="119"/>
@@ -32742,7 +32719,7 @@
       <c r="AI833" s="123"/>
       <c r="AJ833" s="120"/>
     </row>
-    <row r="834" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="13:36" ht="15.75" customHeight="1">
       <c r="M834" s="117"/>
       <c r="N834" s="118"/>
       <c r="O834" s="119"/>
@@ -32768,7 +32745,7 @@
       <c r="AI834" s="123"/>
       <c r="AJ834" s="120"/>
     </row>
-    <row r="835" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="13:36" ht="15.75" customHeight="1">
       <c r="M835" s="117"/>
       <c r="N835" s="118"/>
       <c r="O835" s="119"/>
@@ -32794,7 +32771,7 @@
       <c r="AI835" s="123"/>
       <c r="AJ835" s="120"/>
     </row>
-    <row r="836" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="13:36" ht="15.75" customHeight="1">
       <c r="M836" s="117"/>
       <c r="N836" s="118"/>
       <c r="O836" s="119"/>
@@ -32820,7 +32797,7 @@
       <c r="AI836" s="123"/>
       <c r="AJ836" s="120"/>
     </row>
-    <row r="837" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="13:36" ht="15.75" customHeight="1">
       <c r="M837" s="117"/>
       <c r="N837" s="118"/>
       <c r="O837" s="119"/>
@@ -32846,7 +32823,7 @@
       <c r="AI837" s="123"/>
       <c r="AJ837" s="120"/>
     </row>
-    <row r="838" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="13:36" ht="15.75" customHeight="1">
       <c r="M838" s="117"/>
       <c r="N838" s="118"/>
       <c r="O838" s="119"/>
@@ -32872,7 +32849,7 @@
       <c r="AI838" s="123"/>
       <c r="AJ838" s="120"/>
     </row>
-    <row r="839" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="13:36" ht="15.75" customHeight="1">
       <c r="M839" s="117"/>
       <c r="N839" s="118"/>
       <c r="O839" s="119"/>
@@ -32898,7 +32875,7 @@
       <c r="AI839" s="123"/>
       <c r="AJ839" s="120"/>
     </row>
-    <row r="840" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="13:36" ht="15.75" customHeight="1">
       <c r="M840" s="117"/>
       <c r="N840" s="118"/>
       <c r="O840" s="119"/>
@@ -32924,7 +32901,7 @@
       <c r="AI840" s="123"/>
       <c r="AJ840" s="120"/>
     </row>
-    <row r="841" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="13:36" ht="15.75" customHeight="1">
       <c r="M841" s="117"/>
       <c r="N841" s="118"/>
       <c r="O841" s="119"/>
@@ -32950,7 +32927,7 @@
       <c r="AI841" s="123"/>
       <c r="AJ841" s="120"/>
     </row>
-    <row r="842" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="13:36" ht="15.75" customHeight="1">
       <c r="M842" s="117"/>
       <c r="N842" s="118"/>
       <c r="O842" s="119"/>
@@ -32976,7 +32953,7 @@
       <c r="AI842" s="123"/>
       <c r="AJ842" s="120"/>
     </row>
-    <row r="843" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="13:36" ht="15.75" customHeight="1">
       <c r="M843" s="117"/>
       <c r="N843" s="118"/>
       <c r="O843" s="119"/>
@@ -33002,7 +32979,7 @@
       <c r="AI843" s="123"/>
       <c r="AJ843" s="120"/>
     </row>
-    <row r="844" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="13:36" ht="15.75" customHeight="1">
       <c r="M844" s="117"/>
       <c r="N844" s="118"/>
       <c r="O844" s="119"/>
@@ -33028,7 +33005,7 @@
       <c r="AI844" s="123"/>
       <c r="AJ844" s="120"/>
     </row>
-    <row r="845" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="13:36" ht="15.75" customHeight="1">
       <c r="M845" s="117"/>
       <c r="N845" s="118"/>
       <c r="O845" s="119"/>
@@ -33054,7 +33031,7 @@
       <c r="AI845" s="123"/>
       <c r="AJ845" s="120"/>
     </row>
-    <row r="846" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="13:36" ht="15.75" customHeight="1">
       <c r="M846" s="117"/>
       <c r="N846" s="118"/>
       <c r="O846" s="119"/>
@@ -33080,7 +33057,7 @@
       <c r="AI846" s="123"/>
       <c r="AJ846" s="120"/>
     </row>
-    <row r="847" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="13:36" ht="15.75" customHeight="1">
       <c r="M847" s="117"/>
       <c r="N847" s="118"/>
       <c r="O847" s="119"/>
@@ -33106,7 +33083,7 @@
       <c r="AI847" s="123"/>
       <c r="AJ847" s="120"/>
     </row>
-    <row r="848" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="13:36" ht="15.75" customHeight="1">
       <c r="M848" s="117"/>
       <c r="N848" s="118"/>
       <c r="O848" s="119"/>
@@ -33132,7 +33109,7 @@
       <c r="AI848" s="123"/>
       <c r="AJ848" s="120"/>
     </row>
-    <row r="849" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="13:36" ht="15.75" customHeight="1">
       <c r="M849" s="117"/>
       <c r="N849" s="118"/>
       <c r="O849" s="119"/>
@@ -33158,7 +33135,7 @@
       <c r="AI849" s="123"/>
       <c r="AJ849" s="120"/>
     </row>
-    <row r="850" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="13:36" ht="15.75" customHeight="1">
       <c r="M850" s="117"/>
       <c r="N850" s="118"/>
       <c r="O850" s="119"/>
@@ -33184,7 +33161,7 @@
       <c r="AI850" s="123"/>
       <c r="AJ850" s="120"/>
     </row>
-    <row r="851" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="13:36" ht="15.75" customHeight="1">
       <c r="M851" s="117"/>
       <c r="N851" s="118"/>
       <c r="O851" s="119"/>
@@ -33210,7 +33187,7 @@
       <c r="AI851" s="123"/>
       <c r="AJ851" s="120"/>
     </row>
-    <row r="852" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="13:36" ht="15.75" customHeight="1">
       <c r="M852" s="117"/>
       <c r="N852" s="118"/>
       <c r="O852" s="119"/>
@@ -33236,7 +33213,7 @@
       <c r="AI852" s="123"/>
       <c r="AJ852" s="120"/>
     </row>
-    <row r="853" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="13:36" ht="15.75" customHeight="1">
       <c r="M853" s="117"/>
       <c r="N853" s="118"/>
       <c r="O853" s="119"/>
@@ -33262,7 +33239,7 @@
       <c r="AI853" s="123"/>
       <c r="AJ853" s="120"/>
     </row>
-    <row r="854" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="13:36" ht="15.75" customHeight="1">
       <c r="M854" s="117"/>
       <c r="N854" s="118"/>
       <c r="O854" s="119"/>
@@ -33288,7 +33265,7 @@
       <c r="AI854" s="123"/>
       <c r="AJ854" s="120"/>
     </row>
-    <row r="855" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="13:36" ht="15.75" customHeight="1">
       <c r="M855" s="117"/>
       <c r="N855" s="118"/>
       <c r="O855" s="119"/>
@@ -33314,7 +33291,7 @@
       <c r="AI855" s="123"/>
       <c r="AJ855" s="120"/>
     </row>
-    <row r="856" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="13:36" ht="15.75" customHeight="1">
       <c r="M856" s="117"/>
       <c r="N856" s="118"/>
       <c r="O856" s="119"/>
@@ -33340,7 +33317,7 @@
       <c r="AI856" s="123"/>
       <c r="AJ856" s="120"/>
     </row>
-    <row r="857" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="13:36" ht="15.75" customHeight="1">
       <c r="M857" s="117"/>
       <c r="N857" s="118"/>
       <c r="O857" s="119"/>
@@ -33366,7 +33343,7 @@
       <c r="AI857" s="123"/>
       <c r="AJ857" s="120"/>
     </row>
-    <row r="858" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="13:36" ht="15.75" customHeight="1">
       <c r="M858" s="117"/>
       <c r="N858" s="118"/>
       <c r="O858" s="119"/>
@@ -33392,7 +33369,7 @@
       <c r="AI858" s="123"/>
       <c r="AJ858" s="120"/>
     </row>
-    <row r="859" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="13:36" ht="15.75" customHeight="1">
       <c r="M859" s="117"/>
       <c r="N859" s="118"/>
       <c r="O859" s="119"/>
@@ -33418,7 +33395,7 @@
       <c r="AI859" s="123"/>
       <c r="AJ859" s="120"/>
     </row>
-    <row r="860" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="13:36" ht="15.75" customHeight="1">
       <c r="M860" s="117"/>
       <c r="N860" s="118"/>
       <c r="O860" s="119"/>
@@ -33444,7 +33421,7 @@
       <c r="AI860" s="123"/>
       <c r="AJ860" s="120"/>
     </row>
-    <row r="861" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="13:36" ht="15.75" customHeight="1">
       <c r="M861" s="117"/>
       <c r="N861" s="118"/>
       <c r="O861" s="119"/>
@@ -33470,7 +33447,7 @@
       <c r="AI861" s="123"/>
       <c r="AJ861" s="120"/>
     </row>
-    <row r="862" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="13:36" ht="15.75" customHeight="1">
       <c r="M862" s="117"/>
       <c r="N862" s="118"/>
       <c r="O862" s="119"/>
@@ -33496,7 +33473,7 @@
       <c r="AI862" s="123"/>
       <c r="AJ862" s="120"/>
     </row>
-    <row r="863" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="13:36" ht="15.75" customHeight="1">
       <c r="M863" s="117"/>
       <c r="N863" s="118"/>
       <c r="O863" s="119"/>
@@ -33522,7 +33499,7 @@
       <c r="AI863" s="123"/>
       <c r="AJ863" s="120"/>
     </row>
-    <row r="864" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="13:36" ht="15.75" customHeight="1">
       <c r="M864" s="117"/>
       <c r="N864" s="118"/>
       <c r="O864" s="119"/>
@@ -33548,7 +33525,7 @@
       <c r="AI864" s="123"/>
       <c r="AJ864" s="120"/>
     </row>
-    <row r="865" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="13:36" ht="15.75" customHeight="1">
       <c r="M865" s="117"/>
       <c r="N865" s="118"/>
       <c r="O865" s="119"/>
@@ -33574,7 +33551,7 @@
       <c r="AI865" s="123"/>
       <c r="AJ865" s="120"/>
     </row>
-    <row r="866" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="13:36" ht="15.75" customHeight="1">
       <c r="M866" s="117"/>
       <c r="N866" s="118"/>
       <c r="O866" s="119"/>
@@ -33600,7 +33577,7 @@
       <c r="AI866" s="123"/>
       <c r="AJ866" s="120"/>
     </row>
-    <row r="867" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="13:36" ht="15.75" customHeight="1">
       <c r="M867" s="117"/>
       <c r="N867" s="118"/>
       <c r="O867" s="119"/>
@@ -33626,7 +33603,7 @@
       <c r="AI867" s="123"/>
       <c r="AJ867" s="120"/>
     </row>
-    <row r="868" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="13:36" ht="15.75" customHeight="1">
       <c r="M868" s="117"/>
       <c r="N868" s="118"/>
       <c r="O868" s="119"/>
@@ -33652,7 +33629,7 @@
       <c r="AI868" s="123"/>
       <c r="AJ868" s="120"/>
     </row>
-    <row r="869" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="13:36" ht="15.75" customHeight="1">
       <c r="M869" s="117"/>
       <c r="N869" s="118"/>
       <c r="O869" s="119"/>
@@ -33678,7 +33655,7 @@
       <c r="AI869" s="123"/>
       <c r="AJ869" s="120"/>
     </row>
-    <row r="870" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="13:36" ht="15.75" customHeight="1">
       <c r="M870" s="117"/>
       <c r="N870" s="118"/>
       <c r="O870" s="119"/>
@@ -33704,7 +33681,7 @@
       <c r="AI870" s="123"/>
       <c r="AJ870" s="120"/>
     </row>
-    <row r="871" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="13:36" ht="15.75" customHeight="1">
       <c r="M871" s="117"/>
       <c r="N871" s="118"/>
       <c r="O871" s="119"/>
@@ -33730,7 +33707,7 @@
       <c r="AI871" s="123"/>
       <c r="AJ871" s="120"/>
     </row>
-    <row r="872" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="13:36" ht="15.75" customHeight="1">
       <c r="M872" s="117"/>
       <c r="N872" s="118"/>
       <c r="O872" s="119"/>
@@ -33756,7 +33733,7 @@
       <c r="AI872" s="123"/>
       <c r="AJ872" s="120"/>
     </row>
-    <row r="873" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="13:36" ht="15.75" customHeight="1">
       <c r="M873" s="117"/>
       <c r="N873" s="118"/>
       <c r="O873" s="119"/>
@@ -33782,7 +33759,7 @@
       <c r="AI873" s="123"/>
       <c r="AJ873" s="120"/>
     </row>
-    <row r="874" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="13:36" ht="15.75" customHeight="1">
       <c r="M874" s="117"/>
       <c r="N874" s="118"/>
       <c r="O874" s="119"/>
@@ -33808,7 +33785,7 @@
       <c r="AI874" s="123"/>
       <c r="AJ874" s="120"/>
     </row>
-    <row r="875" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="13:36" ht="15.75" customHeight="1">
       <c r="M875" s="117"/>
       <c r="N875" s="118"/>
       <c r="O875" s="119"/>
@@ -33834,7 +33811,7 @@
       <c r="AI875" s="123"/>
       <c r="AJ875" s="120"/>
     </row>
-    <row r="876" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="13:36" ht="15.75" customHeight="1">
       <c r="M876" s="117"/>
       <c r="N876" s="118"/>
       <c r="O876" s="119"/>
@@ -33860,7 +33837,7 @@
       <c r="AI876" s="123"/>
       <c r="AJ876" s="120"/>
     </row>
-    <row r="877" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="13:36" ht="15.75" customHeight="1">
       <c r="M877" s="117"/>
       <c r="N877" s="118"/>
       <c r="O877" s="119"/>
@@ -33886,7 +33863,7 @@
       <c r="AI877" s="123"/>
       <c r="AJ877" s="120"/>
     </row>
-    <row r="878" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="13:36" ht="15.75" customHeight="1">
       <c r="M878" s="117"/>
       <c r="N878" s="118"/>
       <c r="O878" s="119"/>
@@ -33912,7 +33889,7 @@
       <c r="AI878" s="123"/>
       <c r="AJ878" s="120"/>
     </row>
-    <row r="879" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="13:36" ht="15.75" customHeight="1">
       <c r="M879" s="117"/>
       <c r="N879" s="118"/>
       <c r="O879" s="119"/>
@@ -33938,7 +33915,7 @@
       <c r="AI879" s="123"/>
       <c r="AJ879" s="120"/>
     </row>
-    <row r="880" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="13:36" ht="15.75" customHeight="1">
       <c r="M880" s="117"/>
       <c r="N880" s="118"/>
       <c r="O880" s="119"/>
@@ -33964,7 +33941,7 @@
       <c r="AI880" s="123"/>
       <c r="AJ880" s="120"/>
     </row>
-    <row r="881" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="13:36" ht="15.75" customHeight="1">
       <c r="M881" s="117"/>
       <c r="N881" s="118"/>
       <c r="O881" s="119"/>
@@ -33990,7 +33967,7 @@
       <c r="AI881" s="123"/>
       <c r="AJ881" s="120"/>
     </row>
-    <row r="882" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="13:36" ht="15.75" customHeight="1">
       <c r="M882" s="117"/>
       <c r="N882" s="118"/>
       <c r="O882" s="119"/>
@@ -34016,7 +33993,7 @@
       <c r="AI882" s="123"/>
       <c r="AJ882" s="120"/>
     </row>
-    <row r="883" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="13:36" ht="15.75" customHeight="1">
       <c r="M883" s="117"/>
       <c r="N883" s="118"/>
       <c r="O883" s="119"/>
@@ -34042,7 +34019,7 @@
       <c r="AI883" s="123"/>
       <c r="AJ883" s="120"/>
     </row>
-    <row r="884" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="13:36" ht="15.75" customHeight="1">
       <c r="M884" s="117"/>
       <c r="N884" s="118"/>
       <c r="O884" s="119"/>
@@ -34068,7 +34045,7 @@
       <c r="AI884" s="123"/>
       <c r="AJ884" s="120"/>
     </row>
-    <row r="885" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="13:36" ht="15.75" customHeight="1">
       <c r="M885" s="117"/>
       <c r="N885" s="118"/>
       <c r="O885" s="119"/>
@@ -34094,7 +34071,7 @@
       <c r="AI885" s="123"/>
       <c r="AJ885" s="120"/>
     </row>
-    <row r="886" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="13:36" ht="15.75" customHeight="1">
       <c r="M886" s="117"/>
       <c r="N886" s="118"/>
       <c r="O886" s="119"/>
@@ -34120,7 +34097,7 @@
       <c r="AI886" s="123"/>
       <c r="AJ886" s="120"/>
     </row>
-    <row r="887" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="13:36" ht="15.75" customHeight="1">
       <c r="M887" s="117"/>
       <c r="N887" s="118"/>
       <c r="O887" s="119"/>
@@ -34146,7 +34123,7 @@
       <c r="AI887" s="123"/>
       <c r="AJ887" s="120"/>
     </row>
-    <row r="888" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="13:36" ht="15.75" customHeight="1">
       <c r="M888" s="117"/>
       <c r="N888" s="118"/>
       <c r="O888" s="119"/>
@@ -34172,7 +34149,7 @@
       <c r="AI888" s="123"/>
       <c r="AJ888" s="120"/>
     </row>
-    <row r="889" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="13:36" ht="15.75" customHeight="1">
       <c r="M889" s="117"/>
       <c r="N889" s="118"/>
       <c r="O889" s="119"/>
@@ -34198,7 +34175,7 @@
       <c r="AI889" s="123"/>
       <c r="AJ889" s="120"/>
     </row>
-    <row r="890" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="13:36" ht="15.75" customHeight="1">
       <c r="M890" s="117"/>
       <c r="N890" s="118"/>
       <c r="O890" s="119"/>
@@ -34224,7 +34201,7 @@
       <c r="AI890" s="123"/>
       <c r="AJ890" s="120"/>
     </row>
-    <row r="891" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="13:36" ht="15.75" customHeight="1">
       <c r="M891" s="117"/>
       <c r="N891" s="118"/>
       <c r="O891" s="119"/>
@@ -34250,7 +34227,7 @@
       <c r="AI891" s="123"/>
       <c r="AJ891" s="120"/>
     </row>
-    <row r="892" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="13:36" ht="15.75" customHeight="1">
       <c r="M892" s="117"/>
       <c r="N892" s="118"/>
       <c r="O892" s="119"/>
@@ -34276,7 +34253,7 @@
       <c r="AI892" s="123"/>
       <c r="AJ892" s="120"/>
     </row>
-    <row r="893" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="13:36" ht="15.75" customHeight="1">
       <c r="M893" s="117"/>
       <c r="N893" s="118"/>
       <c r="O893" s="119"/>
@@ -34302,7 +34279,7 @@
       <c r="AI893" s="123"/>
       <c r="AJ893" s="120"/>
     </row>
-    <row r="894" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="13:36" ht="15.75" customHeight="1">
       <c r="M894" s="117"/>
       <c r="N894" s="118"/>
       <c r="O894" s="119"/>
@@ -34328,7 +34305,7 @@
       <c r="AI894" s="123"/>
       <c r="AJ894" s="120"/>
     </row>
-    <row r="895" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="13:36" ht="15.75" customHeight="1">
       <c r="M895" s="117"/>
       <c r="N895" s="118"/>
       <c r="O895" s="119"/>
@@ -34354,7 +34331,7 @@
       <c r="AI895" s="123"/>
       <c r="AJ895" s="120"/>
     </row>
-    <row r="896" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="13:36" ht="15.75" customHeight="1">
       <c r="M896" s="117"/>
       <c r="N896" s="118"/>
       <c r="O896" s="119"/>
@@ -34380,7 +34357,7 @@
       <c r="AI896" s="123"/>
       <c r="AJ896" s="120"/>
     </row>
-    <row r="897" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="13:36" ht="15.75" customHeight="1">
       <c r="M897" s="117"/>
       <c r="N897" s="118"/>
       <c r="O897" s="119"/>
@@ -34406,7 +34383,7 @@
       <c r="AI897" s="123"/>
       <c r="AJ897" s="120"/>
     </row>
-    <row r="898" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="13:36" ht="15.75" customHeight="1">
       <c r="M898" s="117"/>
       <c r="N898" s="118"/>
       <c r="O898" s="119"/>
@@ -34432,7 +34409,7 @@
       <c r="AI898" s="123"/>
       <c r="AJ898" s="120"/>
     </row>
-    <row r="899" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="13:36" ht="15.75" customHeight="1">
       <c r="M899" s="117"/>
       <c r="N899" s="118"/>
       <c r="O899" s="119"/>
@@ -34458,7 +34435,7 @@
       <c r="AI899" s="123"/>
       <c r="AJ899" s="120"/>
     </row>
-    <row r="900" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="13:36" ht="15.75" customHeight="1">
       <c r="M900" s="117"/>
       <c r="N900" s="118"/>
       <c r="O900" s="119"/>
@@ -34484,7 +34461,7 @@
       <c r="AI900" s="123"/>
       <c r="AJ900" s="120"/>
     </row>
-    <row r="901" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="13:36" ht="15.75" customHeight="1">
       <c r="M901" s="117"/>
       <c r="N901" s="118"/>
       <c r="O901" s="119"/>
@@ -34510,7 +34487,7 @@
       <c r="AI901" s="123"/>
       <c r="AJ901" s="120"/>
     </row>
-    <row r="902" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="13:36" ht="15.75" customHeight="1">
       <c r="M902" s="117"/>
       <c r="N902" s="118"/>
       <c r="O902" s="119"/>
@@ -34536,7 +34513,7 @@
       <c r="AI902" s="123"/>
       <c r="AJ902" s="120"/>
     </row>
-    <row r="903" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="13:36" ht="15.75" customHeight="1">
       <c r="M903" s="117"/>
       <c r="N903" s="118"/>
       <c r="O903" s="119"/>
@@ -34562,7 +34539,7 @@
       <c r="AI903" s="123"/>
       <c r="AJ903" s="120"/>
     </row>
-    <row r="904" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="13:36" ht="15.75" customHeight="1">
       <c r="M904" s="117"/>
       <c r="N904" s="118"/>
       <c r="O904" s="119"/>
@@ -34588,7 +34565,7 @@
       <c r="AI904" s="123"/>
       <c r="AJ904" s="120"/>
     </row>
-    <row r="905" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="13:36" ht="15.75" customHeight="1">
       <c r="M905" s="117"/>
       <c r="N905" s="118"/>
       <c r="O905" s="119"/>
@@ -34614,7 +34591,7 @@
       <c r="AI905" s="123"/>
       <c r="AJ905" s="120"/>
     </row>
-    <row r="906" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="13:36" ht="15.75" customHeight="1">
       <c r="M906" s="117"/>
       <c r="N906" s="118"/>
       <c r="O906" s="119"/>
@@ -34640,7 +34617,7 @@
       <c r="AI906" s="123"/>
       <c r="AJ906" s="120"/>
     </row>
-    <row r="907" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="13:36" ht="15.75" customHeight="1">
       <c r="M907" s="117"/>
       <c r="N907" s="118"/>
       <c r="O907" s="119"/>
@@ -34666,7 +34643,7 @@
       <c r="AI907" s="123"/>
       <c r="AJ907" s="120"/>
     </row>
-    <row r="908" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="13:36" ht="15.75" customHeight="1">
       <c r="M908" s="117"/>
       <c r="N908" s="118"/>
       <c r="O908" s="119"/>
@@ -34692,7 +34669,7 @@
       <c r="AI908" s="123"/>
       <c r="AJ908" s="120"/>
     </row>
-    <row r="909" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="13:36" ht="15.75" customHeight="1">
       <c r="M909" s="117"/>
       <c r="N909" s="118"/>
       <c r="O909" s="119"/>
@@ -34718,7 +34695,7 @@
       <c r="AI909" s="123"/>
       <c r="AJ909" s="120"/>
     </row>
-    <row r="910" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="13:36" ht="15.75" customHeight="1">
       <c r="M910" s="117"/>
       <c r="N910" s="118"/>
       <c r="O910" s="119"/>
@@ -34744,7 +34721,7 @@
       <c r="AI910" s="123"/>
       <c r="AJ910" s="120"/>
     </row>
-    <row r="911" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="13:36" ht="15.75" customHeight="1">
       <c r="M911" s="117"/>
       <c r="N911" s="118"/>
       <c r="O911" s="119"/>
@@ -34770,7 +34747,7 @@
       <c r="AI911" s="123"/>
       <c r="AJ911" s="120"/>
     </row>
-    <row r="912" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="13:36" ht="15.75" customHeight="1">
       <c r="M912" s="117"/>
       <c r="N912" s="118"/>
       <c r="O912" s="119"/>
@@ -34796,7 +34773,7 @@
       <c r="AI912" s="123"/>
       <c r="AJ912" s="120"/>
     </row>
-    <row r="913" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="13:36" ht="15.75" customHeight="1">
       <c r="M913" s="117"/>
       <c r="N913" s="118"/>
       <c r="O913" s="119"/>
@@ -34822,7 +34799,7 @@
       <c r="AI913" s="123"/>
       <c r="AJ913" s="120"/>
     </row>
-    <row r="914" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="13:36" ht="15.75" customHeight="1">
       <c r="M914" s="117"/>
       <c r="N914" s="118"/>
       <c r="O914" s="119"/>
@@ -34848,7 +34825,7 @@
       <c r="AI914" s="123"/>
       <c r="AJ914" s="120"/>
     </row>
-    <row r="915" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="13:36" ht="15.75" customHeight="1">
       <c r="M915" s="117"/>
       <c r="N915" s="118"/>
       <c r="O915" s="119"/>
@@ -34874,7 +34851,7 @@
       <c r="AI915" s="123"/>
       <c r="AJ915" s="120"/>
     </row>
-    <row r="916" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="13:36" ht="15.75" customHeight="1">
       <c r="M916" s="117"/>
       <c r="N916" s="118"/>
       <c r="O916" s="119"/>
@@ -34900,7 +34877,7 @@
       <c r="AI916" s="123"/>
       <c r="AJ916" s="120"/>
     </row>
-    <row r="917" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="13:36" ht="15.75" customHeight="1">
       <c r="M917" s="117"/>
       <c r="N917" s="118"/>
       <c r="O917" s="119"/>
@@ -34926,7 +34903,7 @@
       <c r="AI917" s="123"/>
       <c r="AJ917" s="120"/>
     </row>
-    <row r="918" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="13:36" ht="15.75" customHeight="1">
       <c r="M918" s="117"/>
       <c r="N918" s="118"/>
       <c r="O918" s="119"/>
@@ -34952,7 +34929,7 @@
       <c r="AI918" s="123"/>
       <c r="AJ918" s="120"/>
     </row>
-    <row r="919" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="13:36" ht="15.75" customHeight="1">
       <c r="M919" s="117"/>
       <c r="N919" s="118"/>
       <c r="O919" s="119"/>
@@ -34978,7 +34955,7 @@
       <c r="AI919" s="123"/>
       <c r="AJ919" s="120"/>
     </row>
-    <row r="920" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="13:36" ht="15.75" customHeight="1">
       <c r="M920" s="117"/>
       <c r="N920" s="118"/>
       <c r="O920" s="119"/>
@@ -35004,7 +34981,7 @@
       <c r="AI920" s="123"/>
       <c r="AJ920" s="120"/>
     </row>
-    <row r="921" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="13:36" ht="15.75" customHeight="1">
       <c r="M921" s="117"/>
       <c r="N921" s="118"/>
       <c r="O921" s="119"/>
@@ -35030,7 +35007,7 @@
       <c r="AI921" s="123"/>
       <c r="AJ921" s="120"/>
     </row>
-    <row r="922" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="13:36" ht="15.75" customHeight="1">
       <c r="M922" s="117"/>
       <c r="N922" s="118"/>
       <c r="O922" s="119"/>
@@ -35056,7 +35033,7 @@
       <c r="AI922" s="123"/>
       <c r="AJ922" s="120"/>
     </row>
-    <row r="923" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="13:36" ht="15.75" customHeight="1">
       <c r="M923" s="117"/>
       <c r="N923" s="118"/>
       <c r="O923" s="119"/>
@@ -35082,7 +35059,7 @@
       <c r="AI923" s="123"/>
       <c r="AJ923" s="120"/>
     </row>
-    <row r="924" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="13:36" ht="15.75" customHeight="1">
       <c r="M924" s="117"/>
       <c r="N924" s="118"/>
       <c r="O924" s="119"/>
@@ -35108,7 +35085,7 @@
       <c r="AI924" s="123"/>
       <c r="AJ924" s="120"/>
     </row>
-    <row r="925" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="13:36" ht="15.75" customHeight="1">
       <c r="M925" s="117"/>
       <c r="N925" s="118"/>
       <c r="O925" s="119"/>
@@ -35134,7 +35111,7 @@
       <c r="AI925" s="123"/>
       <c r="AJ925" s="120"/>
     </row>
-    <row r="926" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="13:36" ht="15.75" customHeight="1">
       <c r="M926" s="117"/>
       <c r="N926" s="118"/>
       <c r="O926" s="119"/>
@@ -35160,7 +35137,7 @@
       <c r="AI926" s="123"/>
       <c r="AJ926" s="120"/>
     </row>
-    <row r="927" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="13:36" ht="15.75" customHeight="1">
       <c r="M927" s="117"/>
       <c r="N927" s="118"/>
       <c r="O927" s="119"/>
@@ -35186,7 +35163,7 @@
       <c r="AI927" s="123"/>
       <c r="AJ927" s="120"/>
     </row>
-    <row r="928" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="13:36" ht="15.75" customHeight="1">
       <c r="M928" s="117"/>
       <c r="N928" s="118"/>
       <c r="O928" s="119"/>
@@ -35212,7 +35189,7 @@
       <c r="AI928" s="123"/>
       <c r="AJ928" s="120"/>
     </row>
-    <row r="929" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="13:36" ht="15.75" customHeight="1">
       <c r="M929" s="117"/>
       <c r="N929" s="118"/>
       <c r="O929" s="119"/>
@@ -35238,7 +35215,7 @@
       <c r="AI929" s="123"/>
       <c r="AJ929" s="120"/>
     </row>
-    <row r="930" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="13:36" ht="15.75" customHeight="1">
       <c r="M930" s="117"/>
       <c r="N930" s="118"/>
       <c r="O930" s="119"/>
@@ -35264,7 +35241,7 @@
       <c r="AI930" s="123"/>
       <c r="AJ930" s="120"/>
     </row>
-    <row r="931" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="13:36" ht="15.75" customHeight="1">
       <c r="M931" s="117"/>
       <c r="N931" s="118"/>
       <c r="O931" s="119"/>
@@ -35290,7 +35267,7 @@
       <c r="AI931" s="123"/>
       <c r="AJ931" s="120"/>
     </row>
-    <row r="932" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="13:36" ht="15.75" customHeight="1">
       <c r="M932" s="117"/>
       <c r="N932" s="118"/>
       <c r="O932" s="119"/>
@@ -35316,7 +35293,7 @@
       <c r="AI932" s="123"/>
       <c r="AJ932" s="120"/>
     </row>
-    <row r="933" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="13:36" ht="15.75" customHeight="1">
       <c r="M933" s="117"/>
       <c r="N933" s="118"/>
       <c r="O933" s="119"/>
@@ -35342,7 +35319,7 @@
       <c r="AI933" s="123"/>
       <c r="AJ933" s="120"/>
     </row>
-    <row r="934" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="13:36" ht="15.75" customHeight="1">
       <c r="M934" s="117"/>
       <c r="N934" s="118"/>
       <c r="O934" s="119"/>
@@ -35368,7 +35345,7 @@
       <c r="AI934" s="123"/>
       <c r="AJ934" s="120"/>
     </row>
-    <row r="935" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="13:36" ht="15.75" customHeight="1">
       <c r="M935" s="117"/>
       <c r="N935" s="118"/>
       <c r="O935" s="119"/>
@@ -35394,7 +35371,7 @@
       <c r="AI935" s="123"/>
       <c r="AJ935" s="120"/>
     </row>
-    <row r="936" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="13:36" ht="15.75" customHeight="1">
       <c r="M936" s="117"/>
       <c r="N936" s="118"/>
       <c r="O936" s="119"/>
@@ -35420,7 +35397,7 @@
       <c r="AI936" s="123"/>
       <c r="AJ936" s="120"/>
     </row>
-    <row r="937" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="13:36" ht="15.75" customHeight="1">
       <c r="M937" s="117"/>
       <c r="N937" s="118"/>
       <c r="O937" s="119"/>
@@ -35446,7 +35423,7 @@
       <c r="AI937" s="123"/>
       <c r="AJ937" s="120"/>
     </row>
-    <row r="938" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="13:36" ht="15.75" customHeight="1">
       <c r="M938" s="117"/>
       <c r="N938" s="118"/>
       <c r="O938" s="119"/>
@@ -35472,7 +35449,7 @@
       <c r="AI938" s="123"/>
       <c r="AJ938" s="120"/>
     </row>
-    <row r="939" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="13:36" ht="15.75" customHeight="1">
       <c r="M939" s="117"/>
       <c r="N939" s="118"/>
       <c r="O939" s="119"/>
@@ -35498,7 +35475,7 @@
       <c r="AI939" s="123"/>
       <c r="AJ939" s="120"/>
     </row>
-    <row r="940" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="13:36" ht="15.75" customHeight="1">
       <c r="M940" s="117"/>
       <c r="N940" s="118"/>
       <c r="O940" s="119"/>
@@ -35524,7 +35501,7 @@
       <c r="AI940" s="123"/>
       <c r="AJ940" s="120"/>
     </row>
-    <row r="941" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="13:36" ht="15.75" customHeight="1">
       <c r="M941" s="117"/>
       <c r="N941" s="118"/>
       <c r="O941" s="119"/>
@@ -35550,7 +35527,7 @@
       <c r="AI941" s="123"/>
       <c r="AJ941" s="120"/>
     </row>
-    <row r="942" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="13:36" ht="15.75" customHeight="1">
       <c r="M942" s="117"/>
       <c r="N942" s="118"/>
       <c r="O942" s="119"/>
@@ -35576,7 +35553,7 @@
       <c r="AI942" s="123"/>
       <c r="AJ942" s="120"/>
     </row>
-    <row r="943" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="13:36" ht="15.75" customHeight="1">
       <c r="M943" s="117"/>
       <c r="N943" s="118"/>
       <c r="O943" s="119"/>
@@ -35602,7 +35579,7 @@
       <c r="AI943" s="123"/>
       <c r="AJ943" s="120"/>
     </row>
-    <row r="944" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="13:36" ht="15.75" customHeight="1">
       <c r="M944" s="117"/>
       <c r="N944" s="118"/>
       <c r="O944" s="119"/>
@@ -35628,7 +35605,7 @@
       <c r="AI944" s="123"/>
       <c r="AJ944" s="120"/>
     </row>
-    <row r="945" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="13:36" ht="15.75" customHeight="1">
       <c r="M945" s="117"/>
       <c r="N945" s="118"/>
       <c r="O945" s="119"/>
@@ -35654,7 +35631,7 @@
       <c r="AI945" s="123"/>
       <c r="AJ945" s="120"/>
     </row>
-    <row r="946" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="13:36" ht="15.75" customHeight="1">
       <c r="M946" s="117"/>
       <c r="N946" s="118"/>
       <c r="O946" s="119"/>
@@ -35680,7 +35657,7 @@
       <c r="AI946" s="123"/>
       <c r="AJ946" s="120"/>
     </row>
-    <row r="947" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="13:36" ht="15.75" customHeight="1">
       <c r="M947" s="117"/>
       <c r="N947" s="118"/>
       <c r="O947" s="119"/>
@@ -35706,7 +35683,7 @@
       <c r="AI947" s="123"/>
       <c r="AJ947" s="120"/>
     </row>
-    <row r="948" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="13:36" ht="15.75" customHeight="1">
       <c r="M948" s="117"/>
       <c r="N948" s="118"/>
       <c r="O948" s="119"/>
@@ -35732,7 +35709,7 @@
       <c r="AI948" s="123"/>
       <c r="AJ948" s="120"/>
     </row>
-    <row r="949" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="13:36" ht="15.75" customHeight="1">
       <c r="M949" s="117"/>
       <c r="N949" s="118"/>
       <c r="O949" s="119"/>
@@ -35758,7 +35735,7 @@
       <c r="AI949" s="123"/>
       <c r="AJ949" s="120"/>
     </row>
-    <row r="950" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="13:36" ht="15.75" customHeight="1">
       <c r="M950" s="117"/>
       <c r="N950" s="118"/>
       <c r="O950" s="119"/>
@@ -35784,7 +35761,7 @@
       <c r="AI950" s="123"/>
       <c r="AJ950" s="120"/>
     </row>
-    <row r="951" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="13:36" ht="15.75" customHeight="1">
       <c r="M951" s="117"/>
       <c r="N951" s="118"/>
       <c r="O951" s="119"/>
@@ -35810,7 +35787,7 @@
       <c r="AI951" s="123"/>
       <c r="AJ951" s="120"/>
     </row>
-    <row r="952" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="13:36" ht="15.75" customHeight="1">
       <c r="M952" s="117"/>
       <c r="N952" s="118"/>
       <c r="O952" s="119"/>
@@ -35836,7 +35813,7 @@
       <c r="AI952" s="123"/>
       <c r="AJ952" s="120"/>
     </row>
-    <row r="953" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="13:36" ht="15.75" customHeight="1">
       <c r="M953" s="117"/>
       <c r="N953" s="118"/>
       <c r="O953" s="119"/>
@@ -35862,7 +35839,7 @@
       <c r="AI953" s="123"/>
       <c r="AJ953" s="120"/>
     </row>
-    <row r="954" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="13:36" ht="15.75" customHeight="1">
       <c r="M954" s="117"/>
       <c r="N954" s="118"/>
       <c r="O954" s="119"/>
@@ -35888,7 +35865,7 @@
       <c r="AI954" s="123"/>
       <c r="AJ954" s="120"/>
     </row>
-    <row r="955" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="13:36" ht="15.75" customHeight="1">
       <c r="M955" s="117"/>
       <c r="N955" s="118"/>
       <c r="O955" s="119"/>
@@ -35914,7 +35891,7 @@
       <c r="AI955" s="123"/>
       <c r="AJ955" s="120"/>
     </row>
-    <row r="956" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="13:36" ht="15.75" customHeight="1">
       <c r="M956" s="117"/>
       <c r="N956" s="118"/>
       <c r="O956" s="119"/>
@@ -35940,7 +35917,7 @@
       <c r="AI956" s="123"/>
       <c r="AJ956" s="120"/>
     </row>
-    <row r="957" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="13:36" ht="15.75" customHeight="1">
       <c r="M957" s="117"/>
       <c r="N957" s="118"/>
       <c r="O957" s="119"/>
@@ -35966,7 +35943,7 @@
       <c r="AI957" s="123"/>
       <c r="AJ957" s="120"/>
     </row>
-    <row r="958" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="13:36" ht="15.75" customHeight="1">
       <c r="M958" s="117"/>
       <c r="N958" s="118"/>
       <c r="O958" s="119"/>
@@ -35992,7 +35969,7 @@
       <c r="AI958" s="123"/>
       <c r="AJ958" s="120"/>
     </row>
-    <row r="959" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="13:36" ht="15.75" customHeight="1">
       <c r="M959" s="117"/>
       <c r="N959" s="118"/>
       <c r="O959" s="119"/>
@@ -36018,7 +35995,7 @@
       <c r="AI959" s="123"/>
       <c r="AJ959" s="120"/>
     </row>
-    <row r="960" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="13:36" ht="15.75" customHeight="1">
       <c r="M960" s="117"/>
       <c r="N960" s="118"/>
       <c r="O960" s="119"/>
@@ -36044,7 +36021,7 @@
       <c r="AI960" s="123"/>
       <c r="AJ960" s="120"/>
     </row>
-    <row r="961" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="13:36" ht="15.75" customHeight="1">
       <c r="M961" s="117"/>
       <c r="N961" s="118"/>
       <c r="O961" s="119"/>
@@ -36070,7 +36047,7 @@
       <c r="AI961" s="123"/>
       <c r="AJ961" s="120"/>
     </row>
-    <row r="962" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="13:36" ht="15.75" customHeight="1">
       <c r="M962" s="117"/>
       <c r="N962" s="118"/>
       <c r="O962" s="119"/>
@@ -36096,7 +36073,7 @@
       <c r="AI962" s="123"/>
       <c r="AJ962" s="120"/>
     </row>
-    <row r="963" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="13:36" ht="15.75" customHeight="1">
       <c r="M963" s="117"/>
       <c r="N963" s="118"/>
       <c r="O963" s="119"/>
@@ -36122,7 +36099,7 @@
       <c r="AI963" s="123"/>
       <c r="AJ963" s="120"/>
     </row>
-    <row r="964" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="13:36" ht="15.75" customHeight="1">
       <c r="M964" s="117"/>
       <c r="N964" s="118"/>
       <c r="O964" s="119"/>
@@ -36148,7 +36125,7 @@
       <c r="AI964" s="123"/>
       <c r="AJ964" s="120"/>
     </row>
-    <row r="965" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="13:36" ht="15.75" customHeight="1">
       <c r="M965" s="117"/>
       <c r="N965" s="118"/>
       <c r="O965" s="119"/>
@@ -36174,7 +36151,7 @@
       <c r="AI965" s="123"/>
       <c r="AJ965" s="120"/>
     </row>
-    <row r="966" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="13:36" ht="15.75" customHeight="1">
       <c r="M966" s="117"/>
       <c r="N966" s="118"/>
       <c r="O966" s="119"/>
@@ -36200,7 +36177,7 @@
       <c r="AI966" s="123"/>
       <c r="AJ966" s="120"/>
     </row>
-    <row r="967" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="13:36" ht="15.75" customHeight="1">
       <c r="M967" s="117"/>
       <c r="N967" s="118"/>
       <c r="O967" s="119"/>
@@ -36226,7 +36203,7 @@
       <c r="AI967" s="123"/>
       <c r="AJ967" s="120"/>
     </row>
-    <row r="968" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="13:36" ht="15.75" customHeight="1">
       <c r="M968" s="117"/>
       <c r="N968" s="118"/>
       <c r="O968" s="119"/>
@@ -36252,7 +36229,7 @@
       <c r="AI968" s="123"/>
       <c r="AJ968" s="120"/>
     </row>
-    <row r="969" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="13:36" ht="15.75" customHeight="1">
       <c r="M969" s="117"/>
       <c r="N969" s="118"/>
       <c r="O969" s="119"/>
@@ -36278,7 +36255,7 @@
       <c r="AI969" s="123"/>
       <c r="AJ969" s="120"/>
     </row>
-    <row r="970" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="13:36" ht="15.75" customHeight="1">
       <c r="M970" s="117"/>
       <c r="N970" s="118"/>
       <c r="O970" s="119"/>
@@ -36304,7 +36281,7 @@
       <c r="AI970" s="123"/>
       <c r="AJ970" s="120"/>
     </row>
-    <row r="971" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="13:36" ht="15.75" customHeight="1">
       <c r="M971" s="117"/>
       <c r="N971" s="118"/>
       <c r="O971" s="119"/>
@@ -36330,7 +36307,7 @@
       <c r="AI971" s="123"/>
       <c r="AJ971" s="120"/>
     </row>
-    <row r="972" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="13:36" ht="15.75" customHeight="1">
       <c r="M972" s="117"/>
       <c r="N972" s="118"/>
       <c r="O972" s="119"/>
@@ -36356,7 +36333,7 @@
       <c r="AI972" s="123"/>
       <c r="AJ972" s="120"/>
     </row>
-    <row r="973" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="13:36" ht="15.75" customHeight="1">
       <c r="M973" s="117"/>
       <c r="N973" s="118"/>
       <c r="O973" s="119"/>
@@ -36382,7 +36359,7 @@
       <c r="AI973" s="123"/>
       <c r="AJ973" s="120"/>
     </row>
-    <row r="974" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="13:36" ht="15.75" customHeight="1">
       <c r="M974" s="117"/>
       <c r="N974" s="118"/>
       <c r="O974" s="119"/>
@@ -36408,7 +36385,7 @@
       <c r="AI974" s="123"/>
       <c r="AJ974" s="120"/>
     </row>
-    <row r="975" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="13:36" ht="15.75" customHeight="1">
       <c r="M975" s="117"/>
       <c r="N975" s="118"/>
       <c r="O975" s="119"/>
@@ -36434,7 +36411,7 @@
       <c r="AI975" s="123"/>
       <c r="AJ975" s="120"/>
     </row>
-    <row r="976" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="13:36" ht="15.75" customHeight="1">
       <c r="M976" s="117"/>
       <c r="N976" s="118"/>
       <c r="O976" s="119"/>
@@ -36460,7 +36437,7 @@
       <c r="AI976" s="123"/>
       <c r="AJ976" s="120"/>
     </row>
-    <row r="977" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="13:36" ht="15.75" customHeight="1">
       <c r="M977" s="117"/>
       <c r="N977" s="118"/>
       <c r="O977" s="119"/>
@@ -36486,7 +36463,7 @@
       <c r="AI977" s="123"/>
       <c r="AJ977" s="120"/>
     </row>
-    <row r="978" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="13:36" ht="15.75" customHeight="1">
       <c r="M978" s="117"/>
       <c r="N978" s="118"/>
       <c r="O978" s="119"/>
@@ -36512,7 +36489,7 @@
       <c r="AI978" s="123"/>
       <c r="AJ978" s="120"/>
     </row>
-    <row r="979" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="13:36" ht="15.75" customHeight="1">
       <c r="M979" s="117"/>
       <c r="N979" s="118"/>
       <c r="O979" s="119"/>
@@ -36538,7 +36515,7 @@
       <c r="AI979" s="123"/>
       <c r="AJ979" s="120"/>
     </row>
-    <row r="980" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="13:36" ht="15.75" customHeight="1">
       <c r="M980" s="117"/>
       <c r="N980" s="118"/>
       <c r="O980" s="119"/>
@@ -36564,7 +36541,7 @@
       <c r="AI980" s="123"/>
       <c r="AJ980" s="120"/>
     </row>
-    <row r="981" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="13:36" ht="15.75" customHeight="1">
       <c r="M981" s="117"/>
       <c r="N981" s="118"/>
       <c r="O981" s="119"/>
@@ -36590,7 +36567,7 @@
       <c r="AI981" s="123"/>
       <c r="AJ981" s="120"/>
     </row>
-    <row r="982" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="13:36" ht="15.75" customHeight="1">
       <c r="M982" s="117"/>
       <c r="N982" s="118"/>
       <c r="O982" s="119"/>
@@ -36616,7 +36593,7 @@
       <c r="AI982" s="123"/>
       <c r="AJ982" s="120"/>
     </row>
-    <row r="983" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="13:36" ht="15.75" customHeight="1">
       <c r="M983" s="117"/>
       <c r="N983" s="118"/>
       <c r="O983" s="119"/>
@@ -36642,7 +36619,7 @@
       <c r="AI983" s="123"/>
       <c r="AJ983" s="120"/>
     </row>
-    <row r="984" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="13:36" ht="15.75" customHeight="1">
       <c r="M984" s="117"/>
       <c r="N984" s="118"/>
       <c r="O984" s="119"/>
@@ -36668,7 +36645,7 @@
       <c r="AI984" s="123"/>
       <c r="AJ984" s="120"/>
     </row>
-    <row r="985" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="13:36" ht="15.75" customHeight="1">
       <c r="M985" s="117"/>
       <c r="N985" s="118"/>
       <c r="O985" s="119"/>
@@ -36694,7 +36671,7 @@
       <c r="AI985" s="123"/>
       <c r="AJ985" s="120"/>
     </row>
-    <row r="986" spans="13:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="13:36" ht="15.75" customHeight="1">
       <c r="M986" s="117"/>
       <c r="N986" s="118"/>
       <c r="O986" s="119"/>
@@ -36734,6 +36711,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>